--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1274749-4644-4C68-B7A0-364FF5CDE42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C3B48-0596-40E1-AB65-39349B44BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="2688" yWindow="1080" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="324">
   <si>
     <t>message</t>
   </si>
@@ -127,19 +127,903 @@
   </si>
   <si>
     <t>What a lovely morning</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hello there</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Hello Felix</t>
+  </si>
+  <si>
+    <t>Adios</t>
+  </si>
+  <si>
+    <t>Till next time</t>
+  </si>
+  <si>
+    <t>thank u</t>
+  </si>
+  <si>
+    <t>thankyou</t>
+  </si>
+  <si>
+    <t>tq very much</t>
+  </si>
+  <si>
+    <t>Appreciate it, tq</t>
+  </si>
+  <si>
+    <t>I really appreciate your help</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>I appreciate it</t>
+  </si>
+  <si>
+    <t>Thanks for your hard work on this</t>
+  </si>
+  <si>
+    <t>Thank you for your time today</t>
+  </si>
+  <si>
+    <t>I couldn't have done it without you</t>
+  </si>
+  <si>
+    <t>I owe you one</t>
+  </si>
+  <si>
+    <t>you knew exactly what I wanted</t>
+  </si>
+  <si>
+    <t>Thank you.</t>
+  </si>
+  <si>
+    <t>Any destinations that are popular or advertised?</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Can you help provide a list of where should I go?</t>
+  </si>
+  <si>
+    <t>What are the underrated places in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What region of Fraser Hill is crowded with people?</t>
+  </si>
+  <si>
+    <t>Where are the fun activities in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What are the interesting places I can take picture?</t>
+  </si>
+  <si>
+    <t>What places are as stated in Fraser Hill tour guide?</t>
+  </si>
+  <si>
+    <t>What are the places I must go so that Im not missing out?</t>
+  </si>
+  <si>
+    <t>What is a go-to spot at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Where can I take pictures?</t>
+  </si>
+  <si>
+    <t>Why do people go to Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Where will you go if you are a tourist there?</t>
+  </si>
+  <si>
+    <t>Why should I visit Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What destination should I go</t>
+  </si>
+  <si>
+    <t>Any locale spots where I can go?</t>
+  </si>
+  <si>
+    <t>What are the must go places in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What area should I stop by at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What site has good atmosphere?</t>
+  </si>
+  <si>
+    <t>What place is popular there?</t>
+  </si>
+  <si>
+    <t>Felix, where will you visit in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>I don't know where to go in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>I am not sure what are the good places in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Any secret spot I can go?</t>
+  </si>
+  <si>
+    <t>There is no place to go at Fraser Hill</t>
+  </si>
+  <si>
+    <t>Where people stroll around?</t>
+  </si>
+  <si>
+    <t>What are the whereabouts in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Where can I spend time?</t>
+  </si>
+  <si>
+    <t>What place provide good scene?</t>
+  </si>
+  <si>
+    <t>Where should I visit in Fraser Hill</t>
+  </si>
+  <si>
+    <t>What are the spots people hangout</t>
+  </si>
+  <si>
+    <t>What are the interesting sites?</t>
+  </si>
+  <si>
+    <t>Where do tourists usually go?</t>
+  </si>
+  <si>
+    <t>Where should I go at Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Please tell me about good places in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>What are the recommended places?</t>
+  </si>
+  <si>
+    <t>Where do people usually go?</t>
+  </si>
+  <si>
+    <t>What are the attractions?</t>
+  </si>
+  <si>
+    <t>Suggested locations?</t>
+  </si>
+  <si>
+    <t>Where is fun?</t>
+  </si>
+  <si>
+    <t>Where can I go?</t>
+  </si>
+  <si>
+    <t>How much does it costs for a trip at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>How much money should I prepare?</t>
+  </si>
+  <si>
+    <t>Usually people bring how many money there?</t>
+  </si>
+  <si>
+    <t>What amount of money is sufficient for my trip?</t>
+  </si>
+  <si>
+    <t>How much would you recommend me to bring there?</t>
+  </si>
+  <si>
+    <t>What are the price point at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What is the usual budget for Fraser Hill trips?</t>
+  </si>
+  <si>
+    <t>Is it costly at Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Any recommended or suggested budget for the trip?</t>
+  </si>
+  <si>
+    <t>What people purchase or buy at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How much money do you think it can cover the whole trip?</t>
+  </si>
+  <si>
+    <t>How much visiting, buying souvenir, dine-in and so on costs?</t>
+  </si>
+  <si>
+    <t>Is visiting Fraser's Hill expensive?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill suitable for students to visit in terms of cost?</t>
+  </si>
+  <si>
+    <t>What to buy there?</t>
+  </si>
+  <si>
+    <t>Do I need to buy tickets?</t>
+  </si>
+  <si>
+    <t>What are the marketprice there?</t>
+  </si>
+  <si>
+    <t>What is availble for purchase at Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill high-end in terms of price point?</t>
+  </si>
+  <si>
+    <t>Do you think bringing 1000 ringgit is enough?</t>
+  </si>
+  <si>
+    <t>Is the expenses high when visiting Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Does the hotel costs much?</t>
+  </si>
+  <si>
+    <t>How much does it costs at a daily rate?</t>
+  </si>
+  <si>
+    <t>Any cheaper places I can visit?</t>
+  </si>
+  <si>
+    <t>How much does Fraser Hill charge for overnight stay?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill expensive?</t>
+  </si>
+  <si>
+    <t>Has prices in Fraser Hill rise over the year?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill cheap to visit?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill affordable?</t>
+  </si>
+  <si>
+    <t>How much does it costs for backpackers to visit Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How much does it costs for family to visit Fraser Hill?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there any lower price alternatives at Fraser Hill? </t>
+  </si>
+  <si>
+    <t>How much should I allocate for budget in trip for Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What aspects costs more in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What can I do to reduce the expensive Price at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Is it possible to visit Fraser Hill at low price?</t>
+  </si>
+  <si>
+    <t>Is there any luxurious places in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What is worth spending money on in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How to optimize moneys spent in Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Costs in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>What are the fun facts about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>funfacts</t>
+  </si>
+  <si>
+    <t>Fun facts</t>
+  </si>
+  <si>
+    <t>I want the fun facts</t>
+  </si>
+  <si>
+    <t>Fraser's hill is so boring.</t>
+  </si>
+  <si>
+    <t>Please give me the fun facts.</t>
+  </si>
+  <si>
+    <t>Provide me fun facts.</t>
+  </si>
+  <si>
+    <t>Fun facts please.</t>
+  </si>
+  <si>
+    <t>Tell me something interesting.</t>
+  </si>
+  <si>
+    <t>Anymore things that I should know?</t>
+  </si>
+  <si>
+    <t>I want something intriguing.</t>
+  </si>
+  <si>
+    <t>I want to know more about Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Give me fun facts.</t>
+  </si>
+  <si>
+    <t>I need fun facts.</t>
+  </si>
+  <si>
+    <t>Let me know something fun.</t>
+  </si>
+  <si>
+    <t>Let me know something interesting.</t>
+  </si>
+  <si>
+    <t>State some fun facts.</t>
+  </si>
+  <si>
+    <t>Tell me some fun facts.</t>
+  </si>
+  <si>
+    <t>Give me a list of fun facts.</t>
+  </si>
+  <si>
+    <t>Interest me with fun facts.</t>
+  </si>
+  <si>
+    <t>What is interesting about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What are some fun facts about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>I want to know some fun facts.</t>
+  </si>
+  <si>
+    <t>Entertain me with something fun.</t>
+  </si>
+  <si>
+    <t>What should I know about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>I want to know more about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>What is interesting about Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>What are some fun facts about Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Did I miss out on anything more?</t>
+  </si>
+  <si>
+    <t>Should I know more about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Is Fraser's Hill an interesting place?</t>
+  </si>
+  <si>
+    <t>What I should know about this place?</t>
+  </si>
+  <si>
+    <t>Are there anything more that is interesting?</t>
+  </si>
+  <si>
+    <t>Anything interesting?</t>
+  </si>
+  <si>
+    <t>Interest me.</t>
+  </si>
+  <si>
+    <t>Any knowledge I should know?</t>
+  </si>
+  <si>
+    <t>Felix, let me know some facts.</t>
+  </si>
+  <si>
+    <t>Give me some facts.</t>
+  </si>
+  <si>
+    <t>Facts.</t>
+  </si>
+  <si>
+    <t>Facts please.</t>
+  </si>
+  <si>
+    <t>Please tell me something interesting about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>Give me something different about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>Felix, tell me something interesting.</t>
+  </si>
+  <si>
+    <t>Felix I want to know more about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>Felix I want to know more about Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Felix I am interested on knowing the fun facts.</t>
+  </si>
+  <si>
+    <t>I am interested on the fun facts.</t>
+  </si>
+  <si>
+    <t>what is fun about fraser hill?</t>
+  </si>
+  <si>
+    <t>fraser hill interesting</t>
+  </si>
+  <si>
+    <t>fun facts fraser's hill</t>
+  </si>
+  <si>
+    <t>this place is boring.</t>
+  </si>
+  <si>
+    <t>what is it so interesting about fraser hill.</t>
+  </si>
+  <si>
+    <t>Anything that can intrigue me?</t>
+  </si>
+  <si>
+    <t>What should I prepare before going Fraser Hill?</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>Anything that should be prepared?</t>
+  </si>
+  <si>
+    <t>Should I prepared anything?</t>
+  </si>
+  <si>
+    <t>What should I prepare?</t>
+  </si>
+  <si>
+    <t>What items should I bring?</t>
+  </si>
+  <si>
+    <t>Anything that should be brought?</t>
+  </si>
+  <si>
+    <t>Suggested items that should be brought?</t>
+  </si>
+  <si>
+    <t>Any recommended items?</t>
+  </si>
+  <si>
+    <t>Can you suggest anything that I should bring?</t>
+  </si>
+  <si>
+    <t>What is the recommended items?</t>
+  </si>
+  <si>
+    <t>Tell me some items that would be better if brought</t>
+  </si>
+  <si>
+    <t>Tell me recommended items to bring</t>
+  </si>
+  <si>
+    <t>Tell me anything that I can bring</t>
+  </si>
+  <si>
+    <t>Any idea of what should I bring?</t>
+  </si>
+  <si>
+    <t>Things that I can bring?</t>
+  </si>
+  <si>
+    <t>Things that are recommended to bring?</t>
+  </si>
+  <si>
+    <t>Give me a list of items that should be brought</t>
+  </si>
+  <si>
+    <t>List me things that should bring</t>
+  </si>
+  <si>
+    <t>Any preparation?</t>
+  </si>
+  <si>
+    <t>Preparation?</t>
+  </si>
+  <si>
+    <t>Felix, would you recommend me to prepare anything?</t>
+  </si>
+  <si>
+    <t>Felix, can I get a list of item that should be prepared?</t>
+  </si>
+  <si>
+    <t>Felix, list me somethings that can be prepared</t>
+  </si>
+  <si>
+    <t>Felix, what should be prepared?</t>
+  </si>
+  <si>
+    <t>Items that should be brought?</t>
+  </si>
+  <si>
+    <t>How can I prepare before going Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How to prepare?</t>
+  </si>
+  <si>
+    <t>What to prepare?</t>
+  </si>
+  <si>
+    <t>Gimme list of things that should be prepared</t>
+  </si>
+  <si>
+    <t>I need a list of things for preparation</t>
+  </si>
+  <si>
+    <t>list things for preparation</t>
+  </si>
+  <si>
+    <t>items for preparation</t>
+  </si>
+  <si>
+    <t>good things that should be brought</t>
+  </si>
+  <si>
+    <t>good idea for preparation?</t>
+  </si>
+  <si>
+    <t>should I prepare something?</t>
+  </si>
+  <si>
+    <t>anything that I should prepare?</t>
+  </si>
+  <si>
+    <t>any plans recommended?</t>
+  </si>
+  <si>
+    <t>suggestplan</t>
+  </si>
+  <si>
+    <t>how should I spend my time there?</t>
+  </si>
+  <si>
+    <t>any suggestions on plans?</t>
+  </si>
+  <si>
+    <t>recommend me some plans.</t>
+  </si>
+  <si>
+    <t>suggest me some routines.</t>
+  </si>
+  <si>
+    <t>suggest me some plans while being there.</t>
+  </si>
+  <si>
+    <t>suggest plan.</t>
+  </si>
+  <si>
+    <t>how should I plan my itinerary?</t>
+  </si>
+  <si>
+    <t>how should I plan my time there?</t>
+  </si>
+  <si>
+    <t>how to spend time there?</t>
+  </si>
+  <si>
+    <t>what should I do at this hour?</t>
+  </si>
+  <si>
+    <t>any plans for me to follow?</t>
+  </si>
+  <si>
+    <t>suggest me a decent routine.</t>
+  </si>
+  <si>
+    <t>Felix, I don’t know what to do there.</t>
+  </si>
+  <si>
+    <t>I don’t know how to spend my time there.</t>
+  </si>
+  <si>
+    <t>How to make my trip there less boring?</t>
+  </si>
+  <si>
+    <t>Give me an interesting plan.</t>
+  </si>
+  <si>
+    <t>What can I do there for the whole day?</t>
+  </si>
+  <si>
+    <t>what should I do for the whole day there?</t>
+  </si>
+  <si>
+    <t>plan please.</t>
+  </si>
+  <si>
+    <t>help me plan.</t>
+  </si>
+  <si>
+    <t>I am lazy to plan.</t>
+  </si>
+  <si>
+    <t>I don’t know what to plan.</t>
+  </si>
+  <si>
+    <t>I don’t know what am I suppose to do there.</t>
+  </si>
+  <si>
+    <t>What should I do there?</t>
+  </si>
+  <si>
+    <t>itinerary please.</t>
+  </si>
+  <si>
+    <t>I lazy to plan.</t>
+  </si>
+  <si>
+    <t>I lazy to plan itinerary.</t>
+  </si>
+  <si>
+    <t>Please be my tour guide.</t>
+  </si>
+  <si>
+    <t>Felix help me plan please.</t>
+  </si>
+  <si>
+    <t>I need some plans.</t>
+  </si>
+  <si>
+    <t>Help me to plan.</t>
+  </si>
+  <si>
+    <t>Help me plan.</t>
+  </si>
+  <si>
+    <t>Can you suggest a travel plan?</t>
+  </si>
+  <si>
+    <t>Suggest me a good travel plan.</t>
+  </si>
+  <si>
+    <t>I want a travel plan while being there.</t>
+  </si>
+  <si>
+    <t>Can you plan my travel in Fraser hill?</t>
+  </si>
+  <si>
+    <t>Give me some nice plans.</t>
+  </si>
+  <si>
+    <t>I need some suggestions on what to plan.</t>
+  </si>
+  <si>
+    <t>Care to give me some suggestions on plans?</t>
+  </si>
+  <si>
+    <t>Give me suggestions on plans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want some suggestions relating to travel plans in Fraser hill. </t>
+  </si>
+  <si>
+    <t>Please plan something nice for our trip to Fraser hill.</t>
+  </si>
+  <si>
+    <t>I need some good plans for our Fraser hill trip.</t>
+  </si>
+  <si>
+    <t>plan my trip there for me.</t>
+  </si>
+  <si>
+    <t>I want some fun plans on my holiday at Fraser hill.</t>
+  </si>
+  <si>
+    <t>how should my travel plan at Fraser hill be?</t>
+  </si>
+  <si>
+    <t>can you help me out in planning my trip there?</t>
+  </si>
+  <si>
+    <t>How should I plan my travel at Fraser's hill?</t>
+  </si>
+  <si>
+    <t>Suggest me a travel plan there.</t>
+  </si>
+  <si>
+    <t>Suggest me travel plan.</t>
+  </si>
+  <si>
+    <t>Give me travel plans.</t>
+  </si>
+  <si>
+    <t>Give me Fraser hill travel plans.</t>
+  </si>
+  <si>
+    <t>Give me travel plans on Fraser hill.</t>
+  </si>
+  <si>
+    <t>What should I plan for my trip there?</t>
+  </si>
+  <si>
+    <t>What plans should I go for?</t>
+  </si>
+  <si>
+    <t>Need some plans.</t>
+  </si>
+  <si>
+    <t>Need travel plans for Fraser hill.</t>
+  </si>
+  <si>
+    <t>Want Fraser hill travel plans.</t>
+  </si>
+  <si>
+    <t>Fraser hill travel plans.</t>
+  </si>
+  <si>
+    <t>Travel plans at Fraser hill.</t>
+  </si>
+  <si>
+    <t>please plan a nice trip for me.</t>
+  </si>
+  <si>
+    <t>What is the interesting activities that are available there?</t>
+  </si>
+  <si>
+    <t>activities</t>
+  </si>
+  <si>
+    <t>Any interesting activities?</t>
+  </si>
+  <si>
+    <t>Felix, what is the interesting activities prepared?</t>
+  </si>
+  <si>
+    <t>I want to know some interesting activites.</t>
+  </si>
+  <si>
+    <t>Could you please list me a few interesting activities?</t>
+  </si>
+  <si>
+    <t>Can you give me some interesting activities that are available?</t>
+  </si>
+  <si>
+    <t>What available activities do you think is interesting?</t>
+  </si>
+  <si>
+    <t>Any activities?</t>
+  </si>
+  <si>
+    <t>What are the available activities there?</t>
+  </si>
+  <si>
+    <t>What will be held there?</t>
+  </si>
+  <si>
+    <t>Can I know the activities there?</t>
+  </si>
+  <si>
+    <t>What is the available activities?</t>
+  </si>
+  <si>
+    <t>Does Fraser Hill prepare any interesting activities?</t>
+  </si>
+  <si>
+    <t>Does Fraser Hill have interesting activities?</t>
+  </si>
+  <si>
+    <t>What activities can I expect upon reaching there?</t>
+  </si>
+  <si>
+    <t>Any activities that I can expect?</t>
+  </si>
+  <si>
+    <t>What is the most recent interesting activities you have there?</t>
+  </si>
+  <si>
+    <t>Any recent activities that have been held?</t>
+  </si>
+  <si>
+    <t>What activities can I join there?</t>
+  </si>
+  <si>
+    <t>Any activities is currently available there?</t>
+  </si>
+  <si>
+    <t>Can I join any activities?</t>
+  </si>
+  <si>
+    <t>What interesting activities are there?</t>
+  </si>
+  <si>
+    <t>List me a few interesting activities</t>
+  </si>
+  <si>
+    <t>Give me some interesting activities</t>
+  </si>
+  <si>
+    <t>Felix, can I know the interesting activities available?</t>
+  </si>
+  <si>
+    <t>What is the activities currently being held</t>
+  </si>
+  <si>
+    <t>How can I play around there?</t>
+  </si>
+  <si>
+    <t>What activities is there?</t>
+  </si>
+  <si>
+    <t>What can I do in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How should I pass my day in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How can I kill my time there?</t>
+  </si>
+  <si>
+    <t>What can I do there?</t>
+  </si>
+  <si>
+    <t>Any interesting activities to kill my time there?</t>
+  </si>
+  <si>
+    <t>Anything activities that is fun and interesting?</t>
+  </si>
+  <si>
+    <t>Any recommended activities there?</t>
+  </si>
+  <si>
+    <t>How to pass my time there?</t>
+  </si>
+  <si>
+    <t>Anything to kill my time there?</t>
+  </si>
+  <si>
+    <t>Any activities to pass my day?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,8 +1046,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,31 +1457,31 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -604,15 +1489,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -620,7 +1505,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -628,7 +1513,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -636,7 +1521,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -644,7 +1529,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -652,7 +1537,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -660,7 +1545,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -676,7 +1561,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -684,7 +1569,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -692,7 +1577,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -700,7 +1585,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -708,7 +1593,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -716,7 +1601,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -724,10 +1609,2298 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+      <c r="B232" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>244</v>
+      </c>
+      <c r="B238" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>245</v>
+      </c>
+      <c r="B239" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+      <c r="B240" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>250</v>
+      </c>
+      <c r="B244" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>257</v>
+      </c>
+      <c r="B251" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>258</v>
+      </c>
+      <c r="B252" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>259</v>
+      </c>
+      <c r="B253" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>260</v>
+      </c>
+      <c r="B254" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>261</v>
+      </c>
+      <c r="B255" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>262</v>
+      </c>
+      <c r="B256" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>264</v>
+      </c>
+      <c r="B258" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>265</v>
+      </c>
+      <c r="B259" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>266</v>
+      </c>
+      <c r="B260" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>267</v>
+      </c>
+      <c r="B261" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>268</v>
+      </c>
+      <c r="B262" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>269</v>
+      </c>
+      <c r="B263" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>271</v>
+      </c>
+      <c r="B265" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>272</v>
+      </c>
+      <c r="B266" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>273</v>
+      </c>
+      <c r="B267" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>275</v>
+      </c>
+      <c r="B269" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>276</v>
+      </c>
+      <c r="B270" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>277</v>
+      </c>
+      <c r="B271" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>278</v>
+      </c>
+      <c r="B272" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>280</v>
+      </c>
+      <c r="B274" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>287</v>
+      </c>
+      <c r="B280" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>288</v>
+      </c>
+      <c r="B281" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>289</v>
+      </c>
+      <c r="B282" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>291</v>
+      </c>
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>293</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>295</v>
+      </c>
+      <c r="B288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>296</v>
+      </c>
+      <c r="B289" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>297</v>
+      </c>
+      <c r="B290" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>298</v>
+      </c>
+      <c r="B291" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>299</v>
+      </c>
+      <c r="B292" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>311</v>
+      </c>
+      <c r="B304" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>313</v>
+      </c>
+      <c r="B306" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>314</v>
+      </c>
+      <c r="B307" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>315</v>
+      </c>
+      <c r="B308" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>316</v>
+      </c>
+      <c r="B309" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>317</v>
+      </c>
+      <c r="B310" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>318</v>
+      </c>
+      <c r="B311" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>319</v>
+      </c>
+      <c r="B312" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>320</v>
+      </c>
+      <c r="B313" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>321</v>
+      </c>
+      <c r="B314" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>322</v>
+      </c>
+      <c r="B315" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>323</v>
+      </c>
+      <c r="B316" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C3B48-0596-40E1-AB65-39349B44BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36319A26-1EC5-4529-ADC7-635D4D0C4DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1080" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="708" yWindow="24" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="424">
   <si>
     <t>message</t>
   </si>
@@ -186,219 +186,1095 @@
     <t>Thank you.</t>
   </si>
   <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Can you help provide a list of where should I go?</t>
+  </si>
+  <si>
+    <t>What are the underrated places in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What region of Fraser Hill is crowded with people?</t>
+  </si>
+  <si>
+    <t>Where are the fun activities in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What are the interesting places I can take picture?</t>
+  </si>
+  <si>
+    <t>What places are as stated in Fraser Hill tour guide?</t>
+  </si>
+  <si>
+    <t>What are the places I must go so that Im not missing out?</t>
+  </si>
+  <si>
+    <t>What is a go-to spot at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Where can I take pictures?</t>
+  </si>
+  <si>
+    <t>Why do people go to Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Where will you go if you are a tourist there?</t>
+  </si>
+  <si>
+    <t>Why should I visit Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What destination should I go</t>
+  </si>
+  <si>
+    <t>Any locale spots where I can go?</t>
+  </si>
+  <si>
+    <t>What are the must go places in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What area should I stop by at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What site has good atmosphere?</t>
+  </si>
+  <si>
+    <t>What place is popular there?</t>
+  </si>
+  <si>
+    <t>Felix, where will you visit in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>I don't know where to go in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>I am not sure what are the good places in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Any secret spot I can go?</t>
+  </si>
+  <si>
+    <t>There is no place to go at Fraser Hill</t>
+  </si>
+  <si>
+    <t>Where people stroll around?</t>
+  </si>
+  <si>
+    <t>What are the whereabouts in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Where can I spend time?</t>
+  </si>
+  <si>
+    <t>What place provide good scene?</t>
+  </si>
+  <si>
+    <t>Where should I visit in Fraser Hill</t>
+  </si>
+  <si>
+    <t>What are the spots people hangout</t>
+  </si>
+  <si>
+    <t>What are the interesting sites?</t>
+  </si>
+  <si>
+    <t>Where do tourists usually go?</t>
+  </si>
+  <si>
+    <t>Where should I go at Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Please tell me about good places in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>What are the recommended places?</t>
+  </si>
+  <si>
+    <t>Where do people usually go?</t>
+  </si>
+  <si>
+    <t>What are the attractions?</t>
+  </si>
+  <si>
+    <t>Suggested locations?</t>
+  </si>
+  <si>
+    <t>Where is fun?</t>
+  </si>
+  <si>
+    <t>Where can I go?</t>
+  </si>
+  <si>
+    <t>How much does it costs for a trip at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>How much money should I prepare?</t>
+  </si>
+  <si>
+    <t>Usually people bring how many money there?</t>
+  </si>
+  <si>
+    <t>What amount of money is sufficient for my trip?</t>
+  </si>
+  <si>
+    <t>How much would you recommend me to bring there?</t>
+  </si>
+  <si>
+    <t>What are the price point at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What is the usual budget for Fraser Hill trips?</t>
+  </si>
+  <si>
+    <t>Is it costly at Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Any recommended or suggested budget for the trip?</t>
+  </si>
+  <si>
+    <t>What people purchase or buy at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How much money do you think it can cover the whole trip?</t>
+  </si>
+  <si>
+    <t>How much visiting, buying souvenir, dine-in and so on costs?</t>
+  </si>
+  <si>
+    <t>Is visiting Fraser's Hill expensive?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill suitable for students to visit in terms of cost?</t>
+  </si>
+  <si>
+    <t>What to buy there?</t>
+  </si>
+  <si>
+    <t>Do I need to buy tickets?</t>
+  </si>
+  <si>
+    <t>What are the marketprice there?</t>
+  </si>
+  <si>
+    <t>What is availble for purchase at Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill high-end in terms of price point?</t>
+  </si>
+  <si>
+    <t>Do you think bringing 1000 ringgit is enough?</t>
+  </si>
+  <si>
+    <t>Is the expenses high when visiting Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Does the hotel costs much?</t>
+  </si>
+  <si>
+    <t>How much does it costs at a daily rate?</t>
+  </si>
+  <si>
+    <t>Any cheaper places I can visit?</t>
+  </si>
+  <si>
+    <t>How much does Fraser Hill charge for overnight stay?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill expensive?</t>
+  </si>
+  <si>
+    <t>Has prices in Fraser Hill rise over the year?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill cheap to visit?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill affordable?</t>
+  </si>
+  <si>
+    <t>What aspects costs more in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Costs in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>What are the fun facts about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>funfacts</t>
+  </si>
+  <si>
+    <t>Fun facts</t>
+  </si>
+  <si>
+    <t>I want the fun facts</t>
+  </si>
+  <si>
+    <t>Fraser's hill is so boring.</t>
+  </si>
+  <si>
+    <t>Please give me the fun facts.</t>
+  </si>
+  <si>
+    <t>Provide me fun facts.</t>
+  </si>
+  <si>
+    <t>Fun facts please.</t>
+  </si>
+  <si>
+    <t>Tell me something interesting.</t>
+  </si>
+  <si>
+    <t>Anymore things that I should know?</t>
+  </si>
+  <si>
+    <t>I want something intriguing.</t>
+  </si>
+  <si>
+    <t>I want to know more about Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Give me fun facts.</t>
+  </si>
+  <si>
+    <t>I need fun facts.</t>
+  </si>
+  <si>
+    <t>Let me know something fun.</t>
+  </si>
+  <si>
+    <t>Let me know something interesting.</t>
+  </si>
+  <si>
+    <t>State some fun facts.</t>
+  </si>
+  <si>
+    <t>Tell me some fun facts.</t>
+  </si>
+  <si>
+    <t>Give me a list of fun facts.</t>
+  </si>
+  <si>
+    <t>Interest me with fun facts.</t>
+  </si>
+  <si>
+    <t>What is interesting about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What are some fun facts about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>I want to know some fun facts.</t>
+  </si>
+  <si>
+    <t>Entertain me with something fun.</t>
+  </si>
+  <si>
+    <t>What should I know about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>I want to know more about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>What is interesting about Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>What are some fun facts about Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Did I miss out on anything more?</t>
+  </si>
+  <si>
+    <t>Should I know more about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Is Fraser's Hill an interesting place?</t>
+  </si>
+  <si>
+    <t>What I should know about this place?</t>
+  </si>
+  <si>
+    <t>Are there anything more that is interesting?</t>
+  </si>
+  <si>
+    <t>Anything interesting?</t>
+  </si>
+  <si>
+    <t>Interest me.</t>
+  </si>
+  <si>
+    <t>Any knowledge I should know?</t>
+  </si>
+  <si>
+    <t>Felix, let me know some facts.</t>
+  </si>
+  <si>
+    <t>Give me some facts.</t>
+  </si>
+  <si>
+    <t>Facts.</t>
+  </si>
+  <si>
+    <t>Facts please.</t>
+  </si>
+  <si>
+    <t>Please tell me something interesting about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>Give me something different about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>Felix, tell me something interesting.</t>
+  </si>
+  <si>
+    <t>Felix I want to know more about Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>Felix I want to know more about Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Felix I am interested on knowing the fun facts.</t>
+  </si>
+  <si>
+    <t>I am interested on the fun facts.</t>
+  </si>
+  <si>
+    <t>what is fun about fraser hill?</t>
+  </si>
+  <si>
+    <t>fraser hill interesting</t>
+  </si>
+  <si>
+    <t>fun facts fraser's hill</t>
+  </si>
+  <si>
+    <t>this place is boring.</t>
+  </si>
+  <si>
+    <t>what is it so interesting about fraser hill.</t>
+  </si>
+  <si>
+    <t>Anything that can intrigue me?</t>
+  </si>
+  <si>
+    <t>What should I prepare before going Fraser Hill?</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>Anything that should be prepared?</t>
+  </si>
+  <si>
+    <t>Should I prepared anything?</t>
+  </si>
+  <si>
+    <t>What should I prepare?</t>
+  </si>
+  <si>
+    <t>What items should I bring?</t>
+  </si>
+  <si>
+    <t>Anything that should be brought?</t>
+  </si>
+  <si>
+    <t>Suggested items that should be brought?</t>
+  </si>
+  <si>
+    <t>Any recommended items?</t>
+  </si>
+  <si>
+    <t>Can you suggest anything that I should bring?</t>
+  </si>
+  <si>
+    <t>What is the recommended items?</t>
+  </si>
+  <si>
+    <t>Tell me some items that would be better if brought</t>
+  </si>
+  <si>
+    <t>Tell me recommended items to bring</t>
+  </si>
+  <si>
+    <t>Tell me anything that I can bring</t>
+  </si>
+  <si>
+    <t>Any idea of what should I bring?</t>
+  </si>
+  <si>
+    <t>Things that I can bring?</t>
+  </si>
+  <si>
+    <t>Things that are recommended to bring?</t>
+  </si>
+  <si>
+    <t>Give me a list of items that should be brought</t>
+  </si>
+  <si>
+    <t>List me things that should bring</t>
+  </si>
+  <si>
+    <t>Any preparation?</t>
+  </si>
+  <si>
+    <t>Preparation?</t>
+  </si>
+  <si>
+    <t>Felix, would you recommend me to prepare anything?</t>
+  </si>
+  <si>
+    <t>Felix, can I get a list of item that should be prepared?</t>
+  </si>
+  <si>
+    <t>Felix, list me somethings that can be prepared</t>
+  </si>
+  <si>
+    <t>Felix, what should be prepared?</t>
+  </si>
+  <si>
+    <t>Items that should be brought?</t>
+  </si>
+  <si>
+    <t>How can I prepare before going Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How to prepare?</t>
+  </si>
+  <si>
+    <t>What to prepare?</t>
+  </si>
+  <si>
+    <t>I need a list of things for preparation</t>
+  </si>
+  <si>
+    <t>list things for preparation</t>
+  </si>
+  <si>
+    <t>items for preparation</t>
+  </si>
+  <si>
+    <t>good things that should be brought</t>
+  </si>
+  <si>
+    <t>good idea for preparation?</t>
+  </si>
+  <si>
+    <t>should I prepare something?</t>
+  </si>
+  <si>
+    <t>anything that I should prepare?</t>
+  </si>
+  <si>
+    <t>any plans recommended?</t>
+  </si>
+  <si>
+    <t>suggestplan</t>
+  </si>
+  <si>
+    <t>how should I spend my time there?</t>
+  </si>
+  <si>
+    <t>any suggestions on plans?</t>
+  </si>
+  <si>
+    <t>recommend me some plans.</t>
+  </si>
+  <si>
+    <t>suggest me some routines.</t>
+  </si>
+  <si>
+    <t>suggest me some plans while being there.</t>
+  </si>
+  <si>
+    <t>suggest plan.</t>
+  </si>
+  <si>
+    <t>how should I plan my itinerary?</t>
+  </si>
+  <si>
+    <t>how should I plan my time there?</t>
+  </si>
+  <si>
+    <t>how to spend time there?</t>
+  </si>
+  <si>
+    <t>what should I do at this hour?</t>
+  </si>
+  <si>
+    <t>any plans for me to follow?</t>
+  </si>
+  <si>
+    <t>suggest me a decent routine.</t>
+  </si>
+  <si>
+    <t>Felix, I don’t know what to do there.</t>
+  </si>
+  <si>
+    <t>I don’t know how to spend my time there.</t>
+  </si>
+  <si>
+    <t>How to make my trip there less boring?</t>
+  </si>
+  <si>
+    <t>Give me an interesting plan.</t>
+  </si>
+  <si>
+    <t>What can I do there for the whole day?</t>
+  </si>
+  <si>
+    <t>what should I do for the whole day there?</t>
+  </si>
+  <si>
+    <t>plan please.</t>
+  </si>
+  <si>
+    <t>help me plan.</t>
+  </si>
+  <si>
+    <t>I am lazy to plan.</t>
+  </si>
+  <si>
+    <t>I don’t know what to plan.</t>
+  </si>
+  <si>
+    <t>I don’t know what am I suppose to do there.</t>
+  </si>
+  <si>
+    <t>What should I do there?</t>
+  </si>
+  <si>
+    <t>itinerary please.</t>
+  </si>
+  <si>
+    <t>I lazy to plan.</t>
+  </si>
+  <si>
+    <t>I lazy to plan itinerary.</t>
+  </si>
+  <si>
+    <t>Please be my tour guide.</t>
+  </si>
+  <si>
+    <t>Felix help me plan please.</t>
+  </si>
+  <si>
+    <t>I need some plans.</t>
+  </si>
+  <si>
+    <t>Help me to plan.</t>
+  </si>
+  <si>
+    <t>Help me plan.</t>
+  </si>
+  <si>
+    <t>Can you suggest a travel plan?</t>
+  </si>
+  <si>
+    <t>Suggest me a good travel plan.</t>
+  </si>
+  <si>
+    <t>I want a travel plan while being there.</t>
+  </si>
+  <si>
+    <t>Can you plan my travel in Fraser hill?</t>
+  </si>
+  <si>
+    <t>Give me some nice plans.</t>
+  </si>
+  <si>
+    <t>I need some suggestions on what to plan.</t>
+  </si>
+  <si>
+    <t>Care to give me some suggestions on plans?</t>
+  </si>
+  <si>
+    <t>Give me suggestions on plans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want some suggestions relating to travel plans in Fraser hill. </t>
+  </si>
+  <si>
+    <t>Please plan something nice for our trip to Fraser hill.</t>
+  </si>
+  <si>
+    <t>I need some good plans for our Fraser hill trip.</t>
+  </si>
+  <si>
+    <t>plan my trip there for me.</t>
+  </si>
+  <si>
+    <t>I want some fun plans on my holiday at Fraser hill.</t>
+  </si>
+  <si>
+    <t>how should my travel plan at Fraser hill be?</t>
+  </si>
+  <si>
+    <t>can you help me out in planning my trip there?</t>
+  </si>
+  <si>
+    <t>How should I plan my travel at Fraser's hill?</t>
+  </si>
+  <si>
+    <t>Suggest me a travel plan there.</t>
+  </si>
+  <si>
+    <t>Suggest me travel plan.</t>
+  </si>
+  <si>
+    <t>Give me travel plans.</t>
+  </si>
+  <si>
+    <t>Give me Fraser hill travel plans.</t>
+  </si>
+  <si>
+    <t>Give me travel plans on Fraser hill.</t>
+  </si>
+  <si>
+    <t>What should I plan for my trip there?</t>
+  </si>
+  <si>
+    <t>What plans should I go for?</t>
+  </si>
+  <si>
+    <t>Need some plans.</t>
+  </si>
+  <si>
+    <t>Need travel plans for Fraser hill.</t>
+  </si>
+  <si>
+    <t>Want Fraser hill travel plans.</t>
+  </si>
+  <si>
+    <t>Fraser hill travel plans.</t>
+  </si>
+  <si>
+    <t>Travel plans at Fraser hill.</t>
+  </si>
+  <si>
+    <t>please plan a nice trip for me.</t>
+  </si>
+  <si>
+    <t>What is the interesting activities that are available there?</t>
+  </si>
+  <si>
+    <t>activities</t>
+  </si>
+  <si>
+    <t>Any interesting activities?</t>
+  </si>
+  <si>
+    <t>Felix, what is the interesting activities prepared?</t>
+  </si>
+  <si>
+    <t>I want to know some interesting activites.</t>
+  </si>
+  <si>
+    <t>Could you please list me a few interesting activities?</t>
+  </si>
+  <si>
+    <t>Can you give me some interesting activities that are available?</t>
+  </si>
+  <si>
+    <t>What available activities do you think is interesting?</t>
+  </si>
+  <si>
+    <t>Any activities?</t>
+  </si>
+  <si>
+    <t>What are the available activities there?</t>
+  </si>
+  <si>
+    <t>What will be held there?</t>
+  </si>
+  <si>
+    <t>Can I know the activities there?</t>
+  </si>
+  <si>
+    <t>What is the available activities?</t>
+  </si>
+  <si>
+    <t>Does Fraser Hill prepare any interesting activities?</t>
+  </si>
+  <si>
+    <t>Does Fraser Hill have interesting activities?</t>
+  </si>
+  <si>
+    <t>What activities can I expect upon reaching there?</t>
+  </si>
+  <si>
+    <t>Any activities that I can expect?</t>
+  </si>
+  <si>
+    <t>What is the most recent interesting activities you have there?</t>
+  </si>
+  <si>
+    <t>Any recent activities that have been held?</t>
+  </si>
+  <si>
+    <t>What activities can I join there?</t>
+  </si>
+  <si>
+    <t>Any activities is currently available there?</t>
+  </si>
+  <si>
+    <t>Can I join any activities?</t>
+  </si>
+  <si>
+    <t>What interesting activities are there?</t>
+  </si>
+  <si>
+    <t>List me a few interesting activities</t>
+  </si>
+  <si>
+    <t>Give me some interesting activities</t>
+  </si>
+  <si>
+    <t>Felix, can I know the interesting activities available?</t>
+  </si>
+  <si>
+    <t>What is the activities currently being held</t>
+  </si>
+  <si>
+    <t>How can I play around there?</t>
+  </si>
+  <si>
+    <t>What activities is there?</t>
+  </si>
+  <si>
+    <t>What can I do in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How should I pass my day in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How can I kill my time there?</t>
+  </si>
+  <si>
+    <t>What can I do there?</t>
+  </si>
+  <si>
+    <t>Any interesting activities to kill my time there?</t>
+  </si>
+  <si>
+    <t>Anything activities that is fun and interesting?</t>
+  </si>
+  <si>
+    <t>Any recommended activities there?</t>
+  </si>
+  <si>
+    <t>How to pass my time there?</t>
+  </si>
+  <si>
+    <t>Anything to kill my time there?</t>
+  </si>
+  <si>
+    <t>Any activities to pass my day?</t>
+  </si>
+  <si>
+    <t>can you suggest me a place</t>
+  </si>
+  <si>
+    <t>give me place</t>
+  </si>
+  <si>
+    <t>suggest me a place</t>
+  </si>
+  <si>
+    <t>Places to go.</t>
+  </si>
+  <si>
+    <t>Where to go?</t>
+  </si>
+  <si>
+    <t>What place?</t>
+  </si>
+  <si>
+    <t>Destination to enjoy.</t>
+  </si>
+  <si>
+    <t>Stop by what location</t>
+  </si>
+  <si>
+    <t>Location List.</t>
+  </si>
+  <si>
+    <t>Give locations, destinations, places and attractions.</t>
+  </si>
+  <si>
+    <t>Where is good to go?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which place good? </t>
+  </si>
+  <si>
+    <t>Let me know where to go.</t>
+  </si>
+  <si>
+    <t>Can I know where to go?</t>
+  </si>
+  <si>
+    <t>Can tell me places and attractions?</t>
+  </si>
+  <si>
+    <t>Let me know location and destinations.</t>
+  </si>
+  <si>
+    <t>Need places.</t>
+  </si>
+  <si>
+    <t>State where can I go.</t>
+  </si>
+  <si>
+    <t>Please tell attractions.</t>
+  </si>
+  <si>
+    <t>Felix, places in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Where to go in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Felix, locations.</t>
+  </si>
+  <si>
+    <t>Fraser Hill locations.</t>
+  </si>
+  <si>
+    <t>Where should I go, Felix?</t>
+  </si>
+  <si>
+    <t>Good places in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Tourists attractions.</t>
+  </si>
+  <si>
+    <t>List of attractions.</t>
+  </si>
+  <si>
+    <t>Anywhere I can go?</t>
+  </si>
+  <si>
+    <t>Name places I can go.</t>
+  </si>
+  <si>
+    <t>Fun places.</t>
+  </si>
+  <si>
+    <t>How much?</t>
+  </si>
+  <si>
+    <t>Money I need to prepare.</t>
+  </si>
+  <si>
+    <t>Expenses in Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Expensive in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Budget planning.</t>
+  </si>
+  <si>
+    <t>Felix, please plan a budget for me.</t>
+  </si>
+  <si>
+    <t>How much does it costs?</t>
+  </si>
+  <si>
+    <t>How much to bring.</t>
+  </si>
+  <si>
+    <t>What money will be spend there?</t>
+  </si>
+  <si>
+    <t>How much money I will spend.</t>
+  </si>
+  <si>
+    <t>Is it expensive?</t>
+  </si>
+  <si>
+    <t>Cheap places.</t>
+  </si>
+  <si>
+    <t>Reasonable prices.</t>
+  </si>
+  <si>
+    <t>Moneys needed.</t>
+  </si>
+  <si>
+    <t>Food and drink prices.</t>
+  </si>
+  <si>
+    <t>Location prices.</t>
+  </si>
+  <si>
+    <t>How much activities costs.</t>
+  </si>
+  <si>
+    <t>What are the cost of attractions.</t>
+  </si>
+  <si>
+    <t>Is it free?</t>
+  </si>
+  <si>
+    <t>Is touring to Fraser Hill free?</t>
+  </si>
+  <si>
+    <t>How much to go there?</t>
+  </si>
+  <si>
+    <t>Prices there.</t>
+  </si>
+  <si>
+    <t>Attraction prices.</t>
+  </si>
+  <si>
+    <t>Costs and charges there.</t>
+  </si>
+  <si>
+    <t>Amount of money?</t>
+  </si>
+  <si>
+    <t>Fees there.</t>
+  </si>
+  <si>
+    <t>Is charges there high?</t>
+  </si>
+  <si>
+    <t>The price high or low?</t>
+  </si>
+  <si>
+    <t>Felix, budget prepare.</t>
+  </si>
+  <si>
+    <t>How much budget to prepare.</t>
+  </si>
+  <si>
+    <t>I want some facts.</t>
+  </si>
+  <si>
+    <t>Need facts.</t>
+  </si>
+  <si>
+    <t>Any funfacts about Fraser hill?</t>
+  </si>
+  <si>
+    <t>I want facts.</t>
+  </si>
+  <si>
+    <t>Want facts.</t>
+  </si>
+  <si>
+    <t>Give me funfacts.</t>
+  </si>
+  <si>
+    <t>Good facts please.</t>
+  </si>
+  <si>
+    <t>Interesting facts.</t>
+  </si>
+  <si>
+    <t>I need funfacts.</t>
+  </si>
+  <si>
+    <t>Give me list of things that should be prepared</t>
+  </si>
+  <si>
+    <t>Provide me a list of preparations</t>
+  </si>
+  <si>
+    <t>Provide a list of preparation items before going Fraser's Hill</t>
+  </si>
+  <si>
+    <t>Any preparations please?</t>
+  </si>
+  <si>
+    <t>Any items to prepare please?</t>
+  </si>
+  <si>
+    <t>State some items for preparation</t>
+  </si>
+  <si>
+    <t>Please tell me something that I should prepare before going Fraser's Hill</t>
+  </si>
+  <si>
+    <t>I want to know the items that should be prepared.</t>
+  </si>
+  <si>
+    <t>I want a list of items for preparations</t>
+  </si>
+  <si>
+    <t>Need a list of items that I should prepare</t>
+  </si>
+  <si>
+    <t>Need a list of items for preparations</t>
+  </si>
+  <si>
+    <t>Any items I should prepare?</t>
+  </si>
+  <si>
+    <t>I am interested on the items that I should prepare</t>
+  </si>
+  <si>
+    <t>Let me know the items that I should prepare</t>
+  </si>
+  <si>
+    <t>Let me know what should I prepare</t>
+  </si>
+  <si>
+    <t>Let me know any famous activities at Fraser's Hill</t>
+  </si>
+  <si>
+    <t>Any famous activities there please?</t>
+  </si>
+  <si>
+    <t>State some famous activities there that I should know</t>
+  </si>
+  <si>
+    <t>State some famous activities</t>
+  </si>
+  <si>
+    <t>I don't know what can I do at Fraser's Hill, any idea?</t>
+  </si>
+  <si>
+    <t>I don’t know about the activities there</t>
+  </si>
+  <si>
+    <t>Tell me some famous activities that I should participate in</t>
+  </si>
+  <si>
+    <t>Tell me some famous activities</t>
+  </si>
+  <si>
+    <t>Name a few famous activities at Fraser's Hill</t>
+  </si>
+  <si>
+    <t>Name me a few activities held there</t>
+  </si>
+  <si>
+    <t>Name activities that I can spend my time on</t>
+  </si>
+  <si>
+    <t>What is the famous activities that I must know?</t>
+  </si>
+  <si>
+    <t>Felix, name me a few famous activities</t>
+  </si>
+  <si>
+    <t>Hi, can I know more about the activities there?</t>
+  </si>
+  <si>
+    <t>Hello, what is the activities that I should pay my attention to?</t>
+  </si>
+  <si>
     <t>Any destinations that are popular or advertised?</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Can you help provide a list of where should I go?</t>
-  </si>
-  <si>
-    <t>What are the underrated places in Fraser Hill?</t>
-  </si>
-  <si>
-    <t>What region of Fraser Hill is crowded with people?</t>
-  </si>
-  <si>
-    <t>Where are the fun activities in Fraser Hill?</t>
-  </si>
-  <si>
-    <t>What are the interesting places I can take picture?</t>
-  </si>
-  <si>
-    <t>What places are as stated in Fraser Hill tour guide?</t>
-  </si>
-  <si>
-    <t>What are the places I must go so that Im not missing out?</t>
-  </si>
-  <si>
-    <t>What is a go-to spot at Fraser Hill?</t>
-  </si>
-  <si>
-    <t>Where can I take pictures?</t>
-  </si>
-  <si>
-    <t>Why do people go to Fraser Hill?</t>
-  </si>
-  <si>
-    <t>Where will you go if you are a tourist there?</t>
-  </si>
-  <si>
-    <t>Why should I visit Fraser Hill?</t>
-  </si>
-  <si>
-    <t>What destination should I go</t>
-  </si>
-  <si>
-    <t>Any locale spots where I can go?</t>
-  </si>
-  <si>
-    <t>What are the must go places in Fraser Hill?</t>
-  </si>
-  <si>
-    <t>What area should I stop by at Fraser Hill?</t>
-  </si>
-  <si>
-    <t>What site has good atmosphere?</t>
-  </si>
-  <si>
-    <t>What place is popular there?</t>
-  </si>
-  <si>
-    <t>Felix, where will you visit in Fraser Hill.</t>
-  </si>
-  <si>
-    <t>I don't know where to go in Fraser Hill.</t>
-  </si>
-  <si>
-    <t>I am not sure what are the good places in Fraser Hill.</t>
-  </si>
-  <si>
-    <t>Any secret spot I can go?</t>
-  </si>
-  <si>
-    <t>There is no place to go at Fraser Hill</t>
-  </si>
-  <si>
-    <t>Where people stroll around?</t>
-  </si>
-  <si>
-    <t>What are the whereabouts in Fraser Hill?</t>
-  </si>
-  <si>
-    <t>Where can I spend time?</t>
-  </si>
-  <si>
-    <t>What place provide good scene?</t>
-  </si>
-  <si>
-    <t>Where should I visit in Fraser Hill</t>
-  </si>
-  <si>
-    <t>What are the spots people hangout</t>
-  </si>
-  <si>
-    <t>What are the interesting sites?</t>
-  </si>
-  <si>
-    <t>Where do tourists usually go?</t>
-  </si>
-  <si>
-    <t>Where should I go at Fraser Hill.</t>
-  </si>
-  <si>
-    <t>Please tell me about good places in Fraser Hill.</t>
-  </si>
-  <si>
-    <t>What are the recommended places?</t>
-  </si>
-  <si>
-    <t>Where do people usually go?</t>
-  </si>
-  <si>
-    <t>What are the attractions?</t>
-  </si>
-  <si>
-    <t>Suggested locations?</t>
-  </si>
-  <si>
-    <t>Where is fun?</t>
-  </si>
-  <si>
-    <t>Where can I go?</t>
-  </si>
-  <si>
-    <t>How much does it costs for a trip at Fraser Hill?</t>
-  </si>
-  <si>
-    <t>fees</t>
-  </si>
-  <si>
-    <t>How much money should I prepare?</t>
-  </si>
-  <si>
-    <t>Usually people bring how many money there?</t>
-  </si>
-  <si>
-    <t>What amount of money is sufficient for my trip?</t>
-  </si>
-  <si>
-    <t>How much would you recommend me to bring there?</t>
-  </si>
-  <si>
-    <t>What are the price point at Fraser Hill?</t>
-  </si>
-  <si>
-    <t>What is the usual budget for Fraser Hill trips?</t>
-  </si>
-  <si>
-    <t>Is it costly at Fraser's Hill?</t>
-  </si>
-  <si>
-    <t>Any recommended or suggested budget for the trip?</t>
-  </si>
-  <si>
-    <t>What people purchase or buy at Fraser Hill?</t>
-  </si>
-  <si>
-    <t>How much money do you think it can cover the whole trip?</t>
-  </si>
-  <si>
-    <t>How much visiting, buying souvenir, dine-in and so on costs?</t>
-  </si>
-  <si>
-    <t>Is visiting Fraser's Hill expensive?</t>
-  </si>
-  <si>
-    <t>Is Fraser Hill suitable for students to visit in terms of cost?</t>
-  </si>
-  <si>
-    <t>What to buy there?</t>
-  </si>
-  <si>
-    <t>Do I need to buy tickets?</t>
-  </si>
-  <si>
-    <t>What are the marketprice there?</t>
-  </si>
-  <si>
-    <t>What is availble for purchase at Fraser's Hill?</t>
-  </si>
-  <si>
-    <t>Is Fraser Hill high-end in terms of price point?</t>
-  </si>
-  <si>
-    <t>Do you think bringing 1000 ringgit is enough?</t>
-  </si>
-  <si>
-    <t>Is the expenses high when visiting Fraser Hill?</t>
-  </si>
-  <si>
-    <t>Does the hotel costs much?</t>
-  </si>
-  <si>
-    <t>How much does it costs at a daily rate?</t>
-  </si>
-  <si>
-    <t>Any cheaper places I can visit?</t>
-  </si>
-  <si>
-    <t>How much does Fraser Hill charge for overnight stay?</t>
-  </si>
-  <si>
-    <t>Is Fraser Hill expensive?</t>
-  </si>
-  <si>
-    <t>Has prices in Fraser Hill rise over the year?</t>
-  </si>
-  <si>
-    <t>Is Fraser Hill cheap to visit?</t>
-  </si>
-  <si>
-    <t>Is Fraser Hill affordable?</t>
-  </si>
-  <si>
     <t>How much does it costs for backpackers to visit Fraser Hill?</t>
   </si>
   <si>
@@ -411,9 +1287,6 @@
     <t>How much should I allocate for budget in trip for Fraser Hill?</t>
   </si>
   <si>
-    <t>What aspects costs more in Fraser Hill?</t>
-  </si>
-  <si>
     <t>What can I do to reduce the expensive Price at Fraser Hill?</t>
   </si>
   <si>
@@ -429,590 +1302,17 @@
     <t>How to optimize moneys spent in Fraser's Hill?</t>
   </si>
   <si>
-    <t>Costs in Fraser Hill.</t>
-  </si>
-  <si>
-    <t>What are the fun facts about Fraser Hill?</t>
-  </si>
-  <si>
-    <t>funfacts</t>
-  </si>
-  <si>
-    <t>Fun facts</t>
-  </si>
-  <si>
-    <t>I want the fun facts</t>
-  </si>
-  <si>
-    <t>Fraser's hill is so boring.</t>
-  </si>
-  <si>
-    <t>Please give me the fun facts.</t>
-  </si>
-  <si>
-    <t>Provide me fun facts.</t>
-  </si>
-  <si>
-    <t>Fun facts please.</t>
-  </si>
-  <si>
-    <t>Tell me something interesting.</t>
-  </si>
-  <si>
-    <t>Anymore things that I should know?</t>
-  </si>
-  <si>
-    <t>I want something intriguing.</t>
-  </si>
-  <si>
-    <t>I want to know more about Fraser Hill.</t>
-  </si>
-  <si>
-    <t>Give me fun facts.</t>
-  </si>
-  <si>
-    <t>I need fun facts.</t>
-  </si>
-  <si>
-    <t>Let me know something fun.</t>
-  </si>
-  <si>
-    <t>Let me know something interesting.</t>
-  </si>
-  <si>
-    <t>State some fun facts.</t>
-  </si>
-  <si>
-    <t>Tell me some fun facts.</t>
-  </si>
-  <si>
-    <t>Give me a list of fun facts.</t>
-  </si>
-  <si>
-    <t>Interest me with fun facts.</t>
-  </si>
-  <si>
-    <t>What is interesting about Fraser Hill?</t>
-  </si>
-  <si>
-    <t>What are some fun facts about Fraser Hill?</t>
-  </si>
-  <si>
-    <t>I want to know some fun facts.</t>
-  </si>
-  <si>
-    <t>Entertain me with something fun.</t>
-  </si>
-  <si>
-    <t>What should I know about Fraser Hill?</t>
-  </si>
-  <si>
-    <t>I want to know more about Fraser's Hill.</t>
-  </si>
-  <si>
-    <t>What is interesting about Fraser's Hill?</t>
-  </si>
-  <si>
-    <t>What are some fun facts about Fraser's Hill?</t>
-  </si>
-  <si>
-    <t>Did I miss out on anything more?</t>
-  </si>
-  <si>
-    <t>Should I know more about Fraser Hill?</t>
-  </si>
-  <si>
-    <t>Is Fraser's Hill an interesting place?</t>
-  </si>
-  <si>
-    <t>What I should know about this place?</t>
-  </si>
-  <si>
-    <t>Are there anything more that is interesting?</t>
-  </si>
-  <si>
-    <t>Anything interesting?</t>
-  </si>
-  <si>
-    <t>Interest me.</t>
-  </si>
-  <si>
-    <t>Any knowledge I should know?</t>
-  </si>
-  <si>
-    <t>Felix, let me know some facts.</t>
-  </si>
-  <si>
-    <t>Give me some facts.</t>
-  </si>
-  <si>
-    <t>Facts.</t>
-  </si>
-  <si>
-    <t>Facts please.</t>
-  </si>
-  <si>
-    <t>Please tell me something interesting about Fraser's Hill.</t>
-  </si>
-  <si>
-    <t>Give me something different about Fraser's Hill.</t>
-  </si>
-  <si>
-    <t>Felix, tell me something interesting.</t>
-  </si>
-  <si>
-    <t>Felix I want to know more about Fraser's Hill.</t>
-  </si>
-  <si>
-    <t>Felix I want to know more about Fraser Hill.</t>
-  </si>
-  <si>
-    <t>Felix I am interested on knowing the fun facts.</t>
-  </si>
-  <si>
-    <t>I am interested on the fun facts.</t>
-  </si>
-  <si>
-    <t>what is fun about fraser hill?</t>
-  </si>
-  <si>
-    <t>fraser hill interesting</t>
-  </si>
-  <si>
-    <t>fun facts fraser's hill</t>
-  </si>
-  <si>
-    <t>this place is boring.</t>
-  </si>
-  <si>
-    <t>what is it so interesting about fraser hill.</t>
-  </si>
-  <si>
-    <t>Anything that can intrigue me?</t>
-  </si>
-  <si>
-    <t>What should I prepare before going Fraser Hill?</t>
-  </si>
-  <si>
-    <t>prepare</t>
-  </si>
-  <si>
-    <t>Anything that should be prepared?</t>
-  </si>
-  <si>
-    <t>Should I prepared anything?</t>
-  </si>
-  <si>
-    <t>What should I prepare?</t>
-  </si>
-  <si>
-    <t>What items should I bring?</t>
-  </si>
-  <si>
-    <t>Anything that should be brought?</t>
-  </si>
-  <si>
-    <t>Suggested items that should be brought?</t>
-  </si>
-  <si>
-    <t>Any recommended items?</t>
-  </si>
-  <si>
-    <t>Can you suggest anything that I should bring?</t>
-  </si>
-  <si>
-    <t>What is the recommended items?</t>
-  </si>
-  <si>
-    <t>Tell me some items that would be better if brought</t>
-  </si>
-  <si>
-    <t>Tell me recommended items to bring</t>
-  </si>
-  <si>
-    <t>Tell me anything that I can bring</t>
-  </si>
-  <si>
-    <t>Any idea of what should I bring?</t>
-  </si>
-  <si>
-    <t>Things that I can bring?</t>
-  </si>
-  <si>
-    <t>Things that are recommended to bring?</t>
-  </si>
-  <si>
-    <t>Give me a list of items that should be brought</t>
-  </si>
-  <si>
-    <t>List me things that should bring</t>
-  </si>
-  <si>
-    <t>Any preparation?</t>
-  </si>
-  <si>
-    <t>Preparation?</t>
-  </si>
-  <si>
-    <t>Felix, would you recommend me to prepare anything?</t>
-  </si>
-  <si>
-    <t>Felix, can I get a list of item that should be prepared?</t>
-  </si>
-  <si>
-    <t>Felix, list me somethings that can be prepared</t>
-  </si>
-  <si>
-    <t>Felix, what should be prepared?</t>
-  </si>
-  <si>
-    <t>Items that should be brought?</t>
-  </si>
-  <si>
-    <t>How can I prepare before going Fraser Hill?</t>
-  </si>
-  <si>
-    <t>How to prepare?</t>
-  </si>
-  <si>
-    <t>What to prepare?</t>
-  </si>
-  <si>
-    <t>Gimme list of things that should be prepared</t>
-  </si>
-  <si>
-    <t>I need a list of things for preparation</t>
-  </si>
-  <si>
-    <t>list things for preparation</t>
-  </si>
-  <si>
-    <t>items for preparation</t>
-  </si>
-  <si>
-    <t>good things that should be brought</t>
-  </si>
-  <si>
-    <t>good idea for preparation?</t>
-  </si>
-  <si>
-    <t>should I prepare something?</t>
-  </si>
-  <si>
-    <t>anything that I should prepare?</t>
-  </si>
-  <si>
-    <t>any plans recommended?</t>
-  </si>
-  <si>
-    <t>suggestplan</t>
-  </si>
-  <si>
-    <t>how should I spend my time there?</t>
-  </si>
-  <si>
-    <t>any suggestions on plans?</t>
-  </si>
-  <si>
-    <t>recommend me some plans.</t>
-  </si>
-  <si>
-    <t>suggest me some routines.</t>
-  </si>
-  <si>
-    <t>suggest me some plans while being there.</t>
-  </si>
-  <si>
-    <t>suggest plan.</t>
-  </si>
-  <si>
-    <t>how should I plan my itinerary?</t>
-  </si>
-  <si>
-    <t>how should I plan my time there?</t>
-  </si>
-  <si>
-    <t>how to spend time there?</t>
-  </si>
-  <si>
-    <t>what should I do at this hour?</t>
-  </si>
-  <si>
-    <t>any plans for me to follow?</t>
-  </si>
-  <si>
-    <t>suggest me a decent routine.</t>
-  </si>
-  <si>
-    <t>Felix, I don’t know what to do there.</t>
-  </si>
-  <si>
-    <t>I don’t know how to spend my time there.</t>
-  </si>
-  <si>
-    <t>How to make my trip there less boring?</t>
-  </si>
-  <si>
-    <t>Give me an interesting plan.</t>
-  </si>
-  <si>
-    <t>What can I do there for the whole day?</t>
-  </si>
-  <si>
-    <t>what should I do for the whole day there?</t>
-  </si>
-  <si>
-    <t>plan please.</t>
-  </si>
-  <si>
-    <t>help me plan.</t>
-  </si>
-  <si>
-    <t>I am lazy to plan.</t>
-  </si>
-  <si>
-    <t>I don’t know what to plan.</t>
-  </si>
-  <si>
-    <t>I don’t know what am I suppose to do there.</t>
-  </si>
-  <si>
-    <t>What should I do there?</t>
-  </si>
-  <si>
-    <t>itinerary please.</t>
-  </si>
-  <si>
-    <t>I lazy to plan.</t>
-  </si>
-  <si>
-    <t>I lazy to plan itinerary.</t>
-  </si>
-  <si>
-    <t>Please be my tour guide.</t>
-  </si>
-  <si>
-    <t>Felix help me plan please.</t>
-  </si>
-  <si>
-    <t>I need some plans.</t>
-  </si>
-  <si>
-    <t>Help me to plan.</t>
-  </si>
-  <si>
-    <t>Help me plan.</t>
-  </si>
-  <si>
-    <t>Can you suggest a travel plan?</t>
-  </si>
-  <si>
-    <t>Suggest me a good travel plan.</t>
-  </si>
-  <si>
-    <t>I want a travel plan while being there.</t>
-  </si>
-  <si>
-    <t>Can you plan my travel in Fraser hill?</t>
-  </si>
-  <si>
-    <t>Give me some nice plans.</t>
-  </si>
-  <si>
-    <t>I need some suggestions on what to plan.</t>
-  </si>
-  <si>
-    <t>Care to give me some suggestions on plans?</t>
-  </si>
-  <si>
-    <t>Give me suggestions on plans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want some suggestions relating to travel plans in Fraser hill. </t>
-  </si>
-  <si>
-    <t>Please plan something nice for our trip to Fraser hill.</t>
-  </si>
-  <si>
-    <t>I need some good plans for our Fraser hill trip.</t>
-  </si>
-  <si>
-    <t>plan my trip there for me.</t>
-  </si>
-  <si>
-    <t>I want some fun plans on my holiday at Fraser hill.</t>
-  </si>
-  <si>
-    <t>how should my travel plan at Fraser hill be?</t>
-  </si>
-  <si>
-    <t>can you help me out in planning my trip there?</t>
-  </si>
-  <si>
-    <t>How should I plan my travel at Fraser's hill?</t>
-  </si>
-  <si>
-    <t>Suggest me a travel plan there.</t>
-  </si>
-  <si>
-    <t>Suggest me travel plan.</t>
-  </si>
-  <si>
-    <t>Give me travel plans.</t>
-  </si>
-  <si>
-    <t>Give me Fraser hill travel plans.</t>
-  </si>
-  <si>
-    <t>Give me travel plans on Fraser hill.</t>
-  </si>
-  <si>
-    <t>What should I plan for my trip there?</t>
-  </si>
-  <si>
-    <t>What plans should I go for?</t>
-  </si>
-  <si>
-    <t>Need some plans.</t>
-  </si>
-  <si>
-    <t>Need travel plans for Fraser hill.</t>
-  </si>
-  <si>
-    <t>Want Fraser hill travel plans.</t>
-  </si>
-  <si>
-    <t>Fraser hill travel plans.</t>
-  </si>
-  <si>
-    <t>Travel plans at Fraser hill.</t>
-  </si>
-  <si>
-    <t>please plan a nice trip for me.</t>
-  </si>
-  <si>
-    <t>What is the interesting activities that are available there?</t>
-  </si>
-  <si>
-    <t>activities</t>
-  </si>
-  <si>
-    <t>Any interesting activities?</t>
-  </si>
-  <si>
-    <t>Felix, what is the interesting activities prepared?</t>
-  </si>
-  <si>
-    <t>I want to know some interesting activites.</t>
-  </si>
-  <si>
-    <t>Could you please list me a few interesting activities?</t>
-  </si>
-  <si>
-    <t>Can you give me some interesting activities that are available?</t>
-  </si>
-  <si>
-    <t>What available activities do you think is interesting?</t>
-  </si>
-  <si>
-    <t>Any activities?</t>
-  </si>
-  <si>
-    <t>What are the available activities there?</t>
-  </si>
-  <si>
-    <t>What will be held there?</t>
-  </si>
-  <si>
-    <t>Can I know the activities there?</t>
-  </si>
-  <si>
-    <t>What is the available activities?</t>
-  </si>
-  <si>
-    <t>Does Fraser Hill prepare any interesting activities?</t>
-  </si>
-  <si>
-    <t>Does Fraser Hill have interesting activities?</t>
-  </si>
-  <si>
-    <t>What activities can I expect upon reaching there?</t>
-  </si>
-  <si>
-    <t>Any activities that I can expect?</t>
-  </si>
-  <si>
-    <t>What is the most recent interesting activities you have there?</t>
-  </si>
-  <si>
-    <t>Any recent activities that have been held?</t>
-  </si>
-  <si>
-    <t>What activities can I join there?</t>
-  </si>
-  <si>
-    <t>Any activities is currently available there?</t>
-  </si>
-  <si>
-    <t>Can I join any activities?</t>
-  </si>
-  <si>
-    <t>What interesting activities are there?</t>
-  </si>
-  <si>
-    <t>List me a few interesting activities</t>
-  </si>
-  <si>
-    <t>Give me some interesting activities</t>
-  </si>
-  <si>
-    <t>Felix, can I know the interesting activities available?</t>
-  </si>
-  <si>
-    <t>What is the activities currently being held</t>
-  </si>
-  <si>
-    <t>How can I play around there?</t>
-  </si>
-  <si>
-    <t>What activities is there?</t>
-  </si>
-  <si>
-    <t>What can I do in Fraser Hill?</t>
-  </si>
-  <si>
-    <t>How should I pass my day in Fraser Hill?</t>
-  </si>
-  <si>
-    <t>How can I kill my time there?</t>
-  </si>
-  <si>
-    <t>What can I do there?</t>
-  </si>
-  <si>
-    <t>Any interesting activities to kill my time there?</t>
-  </si>
-  <si>
-    <t>Anything activities that is fun and interesting?</t>
-  </si>
-  <si>
-    <t>Any recommended activities there?</t>
-  </si>
-  <si>
-    <t>How to pass my time there?</t>
-  </si>
-  <si>
-    <t>Anything to kill my time there?</t>
-  </si>
-  <si>
-    <t>Any activities to pass my day?</t>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Bai bai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,6 +1324,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1046,9 +1352,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,15 +1670,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B316"/>
+  <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B316"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1385,7 +1692,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1393,7 +1700,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1401,7 +1708,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1409,7 +1716,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1417,7 +1724,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1425,7 +1732,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1433,7 +1740,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1441,7 +1748,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1449,7 +1756,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1457,7 +1764,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1465,7 +1772,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1473,7 +1780,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1481,7 +1788,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1489,7 +1796,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1497,7 +1804,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1505,7 +1812,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1513,7 +1820,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1521,7 +1828,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1529,7 +1836,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1537,7 +1844,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1545,7 +1852,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1553,7 +1860,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1561,15 +1868,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1577,7 +1884,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -1585,7 +1892,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -1593,7 +1900,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -1601,7 +1908,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -1609,7 +1916,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -1617,7 +1924,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -1625,7 +1932,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -1633,7 +1940,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1641,7 +1948,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -1649,7 +1956,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1657,7 +1964,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1665,31 +1972,31 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
+      <c r="A40" t="s">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1697,31 +2004,31 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>43</v>
+      <c r="A42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>44</v>
+      <c r="A43" t="s">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
+      <c r="A44" t="s">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
@@ -1729,7 +2036,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -1737,23 +2044,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>48</v>
+      <c r="A47" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>49</v>
+      <c r="A48" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -1761,2146 +2068,2962 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>330</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>331</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>335</v>
       </c>
       <c r="B113" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="B114" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="B117" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>340</v>
       </c>
       <c r="B118" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="B120" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B128" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>136</v>
+      <c r="A132" t="s">
+        <v>102</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B141" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B142" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B146" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B147" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B149" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>413</v>
       </c>
       <c r="B150" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>414</v>
       </c>
       <c r="B151" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>415</v>
       </c>
       <c r="B152" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="B153" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>417</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="B156" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>419</v>
       </c>
       <c r="B157" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>420</v>
       </c>
       <c r="B158" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>421</v>
       </c>
       <c r="B159" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="B161" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="B162" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="B163" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="B164" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>347</v>
       </c>
       <c r="B165" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="B166" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="B167" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>350</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>353</v>
       </c>
       <c r="B171" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>354</v>
       </c>
       <c r="B172" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>355</v>
       </c>
       <c r="B173" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="B176" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="B177" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="B178" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="B179" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>362</v>
       </c>
       <c r="B180" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>371</v>
       </c>
       <c r="B189" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>372</v>
       </c>
       <c r="B190" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>373</v>
       </c>
       <c r="B191" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>374</v>
       </c>
       <c r="B192" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>198</v>
+        <v>375</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>376</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>378</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="B197" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>380</v>
       </c>
       <c r="B198" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="B199" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B200" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>208</v>
+      <c r="A203" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B203" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="B204" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="B206" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="B207" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="B209" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="B210" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="B211" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="B212" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B213" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="B214" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="B215" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="B218" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="B227" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="B228" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="B229" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="B231" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="B232" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="B233" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="B234" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="B235" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="B236" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="B237" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="B238" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="B240" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="B241" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="B242" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="B243" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B244" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="B245" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="B246" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="B247" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="B248" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="B249" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="B250" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="B251" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="B252" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="B253" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="B254" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="B255" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B256" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="B257" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="B258" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
       <c r="B259" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="B260" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="B261" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="B262" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="B263" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="B264" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="B265" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="B266" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="B267" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="B268" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
       <c r="B269" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="B270" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="B271" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="B272" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="B273" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="B274" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="B275" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="B276" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="B277" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="B278" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="B279" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="B280" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="B281" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="B282" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="B284" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="B288" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="B289" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="B290" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="B291" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="B292" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="B293" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="B294" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="B295" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="B296" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="B297" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="B298" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="B299" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>307</v>
+        <v>179</v>
       </c>
       <c r="B300" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="B301" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="B302" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="B303" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="B304" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="B305" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="B306" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="B307" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="B308" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="B309" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="B310" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="B311" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="B312" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="B313" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="B314" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="B315" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="B316" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>225</v>
+      </c>
+      <c r="B317" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>226</v>
+      </c>
+      <c r="B318" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>227</v>
+      </c>
+      <c r="B319" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>228</v>
+      </c>
+      <c r="B320" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>229</v>
+      </c>
+      <c r="B321" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>230</v>
+      </c>
+      <c r="B322" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>231</v>
+      </c>
+      <c r="B323" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>232</v>
+      </c>
+      <c r="B324" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>233</v>
+      </c>
+      <c r="B325" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>234</v>
+      </c>
+      <c r="B326" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>235</v>
+      </c>
+      <c r="B327" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>236</v>
+      </c>
+      <c r="B328" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>237</v>
+      </c>
+      <c r="B329" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>238</v>
+      </c>
+      <c r="B330" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>239</v>
+      </c>
+      <c r="B331" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>240</v>
+      </c>
+      <c r="B332" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>241</v>
+      </c>
+      <c r="B333" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>242</v>
+      </c>
+      <c r="B334" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>243</v>
+      </c>
+      <c r="B335" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>244</v>
+      </c>
+      <c r="B336" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>245</v>
+      </c>
+      <c r="B337" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>246</v>
+      </c>
+      <c r="B338" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>247</v>
+      </c>
+      <c r="B339" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>248</v>
+      </c>
+      <c r="B340" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>249</v>
+      </c>
+      <c r="B341" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>250</v>
+      </c>
+      <c r="B342" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>251</v>
+      </c>
+      <c r="B343" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>252</v>
+      </c>
+      <c r="B344" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>253</v>
+      </c>
+      <c r="B345" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>254</v>
+      </c>
+      <c r="B346" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>255</v>
+      </c>
+      <c r="B347" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>256</v>
+      </c>
+      <c r="B348" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>257</v>
+      </c>
+      <c r="B349" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>258</v>
+      </c>
+      <c r="B350" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>259</v>
+      </c>
+      <c r="B351" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>260</v>
+      </c>
+      <c r="B352" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>261</v>
+      </c>
+      <c r="B353" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>262</v>
+      </c>
+      <c r="B354" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>263</v>
+      </c>
+      <c r="B355" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>264</v>
+      </c>
+      <c r="B356" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>265</v>
+      </c>
+      <c r="B357" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>266</v>
+      </c>
+      <c r="B358" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>267</v>
+      </c>
+      <c r="B359" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>268</v>
+      </c>
+      <c r="B360" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>269</v>
+      </c>
+      <c r="B361" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>270</v>
+      </c>
+      <c r="B362" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>271</v>
+      </c>
+      <c r="B363" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>272</v>
+      </c>
+      <c r="B364" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>273</v>
+      </c>
+      <c r="B365" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>274</v>
+      </c>
+      <c r="B366" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>276</v>
+      </c>
+      <c r="B367" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>277</v>
+      </c>
+      <c r="B368" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>278</v>
+      </c>
+      <c r="B369" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>279</v>
+      </c>
+      <c r="B370" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>280</v>
+      </c>
+      <c r="B371" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>281</v>
+      </c>
+      <c r="B372" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>282</v>
+      </c>
+      <c r="B373" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>283</v>
+      </c>
+      <c r="B374" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>284</v>
+      </c>
+      <c r="B375" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>285</v>
+      </c>
+      <c r="B376" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>286</v>
+      </c>
+      <c r="B377" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>287</v>
+      </c>
+      <c r="B378" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>288</v>
+      </c>
+      <c r="B379" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>289</v>
+      </c>
+      <c r="B380" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>290</v>
+      </c>
+      <c r="B381" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>291</v>
+      </c>
+      <c r="B382" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>292</v>
+      </c>
+      <c r="B383" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>293</v>
+      </c>
+      <c r="B384" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>294</v>
+      </c>
+      <c r="B385" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>295</v>
+      </c>
+      <c r="B386" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>296</v>
+      </c>
+      <c r="B387" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>297</v>
+      </c>
+      <c r="B388" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>298</v>
+      </c>
+      <c r="B389" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>299</v>
+      </c>
+      <c r="B390" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>300</v>
+      </c>
+      <c r="B391" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>301</v>
+      </c>
+      <c r="B392" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>302</v>
+      </c>
+      <c r="B393" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>303</v>
+      </c>
+      <c r="B394" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>304</v>
+      </c>
+      <c r="B395" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>305</v>
+      </c>
+      <c r="B396" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>306</v>
+      </c>
+      <c r="B397" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>307</v>
+      </c>
+      <c r="B398" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>308</v>
+      </c>
+      <c r="B399" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>309</v>
+      </c>
+      <c r="B400" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>310</v>
+      </c>
+      <c r="B401" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>311</v>
+      </c>
+      <c r="B402" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>312</v>
+      </c>
+      <c r="B403" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>397</v>
+      </c>
+      <c r="B404" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>398</v>
+      </c>
+      <c r="B405" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>399</v>
+      </c>
+      <c r="B406" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>400</v>
+      </c>
+      <c r="B407" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>401</v>
+      </c>
+      <c r="B408" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>402</v>
+      </c>
+      <c r="B409" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>403</v>
+      </c>
+      <c r="B410" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>404</v>
+      </c>
+      <c r="B411" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>405</v>
+      </c>
+      <c r="B412" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>406</v>
+      </c>
+      <c r="B413" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>407</v>
+      </c>
+      <c r="B414" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>408</v>
+      </c>
+      <c r="B415" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>409</v>
+      </c>
+      <c r="B416" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>410</v>
+      </c>
+      <c r="B417" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>411</v>
+      </c>
+      <c r="B418" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36319A26-1EC5-4529-ADC7-635D4D0C4DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA635A-59A4-47B1-A31C-A8C70716E9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="24" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Train" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1672,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
   <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+    <sheetView topLeftCell="A235" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -5030,4 +5031,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479DC75-C441-46FF-B23E-A1E53BC389B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BA635A-59A4-47B1-A31C-A8C70716E9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6403342-6238-4139-B730-63FA3DC6084E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Train" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="518">
   <si>
     <t>message</t>
   </si>
@@ -382,9 +381,6 @@
     <t>Any cheaper places I can visit?</t>
   </si>
   <si>
-    <t>How much does Fraser Hill charge for overnight stay?</t>
-  </si>
-  <si>
     <t>Is Fraser Hill expensive?</t>
   </si>
   <si>
@@ -1306,7 +1302,292 @@
     <t>Felix</t>
   </si>
   <si>
-    <t>Bai bai</t>
+    <t>Hey Felix, are you there?</t>
+  </si>
+  <si>
+    <t>Sup Felix</t>
+  </si>
+  <si>
+    <t>Chatbot, hello?</t>
+  </si>
+  <si>
+    <t>Felix, hi!!!</t>
+  </si>
+  <si>
+    <t>What a beautiful morning, Felix</t>
+  </si>
+  <si>
+    <t>Ay hey Felix</t>
+  </si>
+  <si>
+    <t>How are you Felix?</t>
+  </si>
+  <si>
+    <t>Hello it's a pleasure to meet you</t>
+  </si>
+  <si>
+    <t>Thank you Felix.</t>
+  </si>
+  <si>
+    <t>Thanks.</t>
+  </si>
+  <si>
+    <t>Really appreciate it.</t>
+  </si>
+  <si>
+    <t>I owe you on this.</t>
+  </si>
+  <si>
+    <t>Thank you for helping me.</t>
+  </si>
+  <si>
+    <t>Much thanks.</t>
+  </si>
+  <si>
+    <t>Thank you, it will be hard without you.</t>
+  </si>
+  <si>
+    <t>Thank you for your work Felix.</t>
+  </si>
+  <si>
+    <t>Bye Felix!</t>
+  </si>
+  <si>
+    <t>Talk to you next time.</t>
+  </si>
+  <si>
+    <t>Till next time, Felix.</t>
+  </si>
+  <si>
+    <t>Hope you have a nice day ahead.</t>
+  </si>
+  <si>
+    <t>See you soon.</t>
+  </si>
+  <si>
+    <t>We will talk next time.</t>
+  </si>
+  <si>
+    <t>I will talk to you later.</t>
+  </si>
+  <si>
+    <t>Bye bye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is best to go? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the place popular there? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which location i must go? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any attractions there? </t>
+  </si>
+  <si>
+    <t>Where can I go and hang out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must go places in Fraser Hill. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felix, where should I go in Fraser Hill? </t>
+  </si>
+  <si>
+    <t>Fraser Hill places.</t>
+  </si>
+  <si>
+    <t>How much money I should prepare in Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Is Fraser Hill expensive or cheap?</t>
+  </si>
+  <si>
+    <t>What are the expenses at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>How much budget to prepare for Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Felix, give me budget at Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Fraser Hill costs expensive?</t>
+  </si>
+  <si>
+    <t>Money needed for trip at Fraser Hill.</t>
+  </si>
+  <si>
+    <t>State some fun facts for me.</t>
+  </si>
+  <si>
+    <t>Tell me something I don't know about Fraser Hill.</t>
+  </si>
+  <si>
+    <t>I want to know something interesting about this place.</t>
+  </si>
+  <si>
+    <t>Why should I go there?</t>
+  </si>
+  <si>
+    <t>Any more information that I should know?</t>
+  </si>
+  <si>
+    <t>How is Fraser Hill an interesting place?</t>
+  </si>
+  <si>
+    <t>I want to know some secrets about Fraser Hill.</t>
+  </si>
+  <si>
+    <t>Felix, what is mysterious about Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Give me some things that I should prepare.</t>
+  </si>
+  <si>
+    <t>What should I take before going Fraser's Hill.</t>
+  </si>
+  <si>
+    <t>Any preparations?</t>
+  </si>
+  <si>
+    <t>List me a few things I should prepare</t>
+  </si>
+  <si>
+    <t>Felix, any items that I should bring?</t>
+  </si>
+  <si>
+    <t>What is the list of items that I should prepare?</t>
+  </si>
+  <si>
+    <t>Any suggestions for preparations?</t>
+  </si>
+  <si>
+    <t>Please give me plans.</t>
+  </si>
+  <si>
+    <t>What are some good plans?</t>
+  </si>
+  <si>
+    <t>Travel plans?</t>
+  </si>
+  <si>
+    <t>What can I plan at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Give me suggested plans.</t>
+  </si>
+  <si>
+    <t>Can you help me plan?</t>
+  </si>
+  <si>
+    <t>How to plan for Fraser Hill?</t>
+  </si>
+  <si>
+    <t>Any suggested planning at Fraser Hill?</t>
+  </si>
+  <si>
+    <t>What is the famous activities at Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>List me some recent activities there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about the activities </t>
+  </si>
+  <si>
+    <t>What can I do at Fraser's Hill</t>
+  </si>
+  <si>
+    <t>Any interesting activities there?</t>
+  </si>
+  <si>
+    <t>How should I spend my day there?</t>
+  </si>
+  <si>
+    <t>Any activites that I must join?</t>
+  </si>
+  <si>
+    <t>Could I have a recommendation on accommodation?</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>Felix, suggest me some place to stay</t>
+  </si>
+  <si>
+    <t>where can I stay during my travel</t>
+  </si>
+  <si>
+    <t>any place I can live for the night?</t>
+  </si>
+  <si>
+    <t>State some places for accommodations please</t>
+  </si>
+  <si>
+    <t>Can I have a list of location for accommodation?</t>
+  </si>
+  <si>
+    <t>Where can I spend my night at Fraser's Hill?</t>
+  </si>
+  <si>
+    <t>Where can I find for accommodations services?</t>
+  </si>
+  <si>
+    <t>Where can I stay?</t>
+  </si>
+  <si>
+    <t>Any accommodation I can book there?</t>
+  </si>
+  <si>
+    <t>I need help in finding a place to stay during the travel?</t>
+  </si>
+  <si>
+    <t>Is there any hotel I can stay in Fraser's Hill</t>
+  </si>
+  <si>
+    <t>Can I get a hotel?</t>
+  </si>
+  <si>
+    <t>Give me a homestay?</t>
+  </si>
+  <si>
+    <t>Any hotel / inn you have in mind?</t>
+  </si>
+  <si>
+    <t>Felix, please suggest some hotel I can stay while I am having my tour there</t>
+  </si>
+  <si>
+    <t>A place to stay</t>
+  </si>
+  <si>
+    <t>Provide me some location I can stay</t>
+  </si>
+  <si>
+    <t>Where can I live there?</t>
+  </si>
+  <si>
+    <t>Any place I can live to sleep?</t>
+  </si>
+  <si>
+    <t>Where can I sleep?</t>
+  </si>
+  <si>
+    <t>Give me a list of accommodations</t>
+  </si>
+  <si>
+    <t>Send me some accommodations</t>
+  </si>
+  <si>
+    <t>Is there a place to stop by for a night?</t>
+  </si>
+  <si>
+    <t>List me a few accommodations</t>
+  </si>
+  <si>
+    <t>Name me some accommodations with good service</t>
   </si>
 </sst>
 </file>
@@ -1671,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:B514"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,959 +1974,959 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>507</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>513</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>517</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>491</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>493</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>494</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>495</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>497</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>499</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>283</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>288</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" t="s">
+        <v>291</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" t="s">
+        <v>292</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" t="s">
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" t="s">
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>306</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>308</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>310</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>311</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>399</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>403</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>490</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>321</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>322</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>323</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>325</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>331</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>332</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>334</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>335</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>336</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>91</v>
@@ -2653,7 +2934,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>416</v>
       </c>
       <c r="B122" t="s">
         <v>91</v>
@@ -2661,7 +2942,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>417</v>
       </c>
       <c r="B123" t="s">
         <v>91</v>
@@ -2669,7 +2950,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>94</v>
+        <v>418</v>
       </c>
       <c r="B124" t="s">
         <v>91</v>
@@ -2677,7 +2958,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>95</v>
+        <v>419</v>
       </c>
       <c r="B125" t="s">
         <v>91</v>
@@ -2685,7 +2966,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="B126" t="s">
         <v>91</v>
@@ -2693,7 +2974,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B127" t="s">
         <v>91</v>
@@ -2701,7 +2982,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>98</v>
+        <v>342</v>
       </c>
       <c r="B128" t="s">
         <v>91</v>
@@ -2709,7 +2990,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="B129" t="s">
         <v>91</v>
@@ -2717,7 +2998,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="B130" t="s">
         <v>91</v>
@@ -2725,7 +3006,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c r="B131" t="s">
         <v>91</v>
@@ -2733,7 +3014,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>102</v>
+        <v>346</v>
       </c>
       <c r="B132" t="s">
         <v>91</v>
@@ -2741,7 +3022,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="B133" t="s">
         <v>91</v>
@@ -2749,7 +3030,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
         <v>91</v>
@@ -2757,7 +3038,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>105</v>
+        <v>349</v>
       </c>
       <c r="B135" t="s">
         <v>91</v>
@@ -2765,7 +3046,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>350</v>
       </c>
       <c r="B136" t="s">
         <v>91</v>
@@ -2773,7 +3054,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>107</v>
+        <v>351</v>
       </c>
       <c r="B137" t="s">
         <v>91</v>
@@ -2781,7 +3062,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>108</v>
+        <v>352</v>
       </c>
       <c r="B138" t="s">
         <v>91</v>
@@ -2789,7 +3070,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>109</v>
+        <v>353</v>
       </c>
       <c r="B139" t="s">
         <v>91</v>
@@ -2797,7 +3078,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="B140" t="s">
         <v>91</v>
@@ -2805,7 +3086,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
         <v>91</v>
@@ -2813,7 +3094,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>112</v>
+        <v>356</v>
       </c>
       <c r="B142" t="s">
         <v>91</v>
@@ -2821,7 +3102,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>113</v>
+        <v>357</v>
       </c>
       <c r="B143" t="s">
         <v>91</v>
@@ -2829,7 +3110,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>114</v>
+        <v>358</v>
       </c>
       <c r="B144" t="s">
         <v>91</v>
@@ -2837,7 +3118,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>115</v>
+        <v>359</v>
       </c>
       <c r="B145" t="s">
         <v>91</v>
@@ -2845,7 +3126,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
       <c r="B146" t="s">
         <v>91</v>
@@ -2853,7 +3134,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>117</v>
+        <v>361</v>
       </c>
       <c r="B147" t="s">
         <v>91</v>
@@ -2861,7 +3142,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="B148" t="s">
         <v>91</v>
@@ -2869,7 +3150,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>119</v>
+        <v>363</v>
       </c>
       <c r="B149" t="s">
         <v>91</v>
@@ -2877,7 +3158,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="B150" t="s">
         <v>91</v>
@@ -2885,7 +3166,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="B151" t="s">
         <v>91</v>
@@ -2893,7 +3174,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="B152" t="s">
         <v>91</v>
@@ -2901,7 +3182,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="B153" t="s">
         <v>91</v>
@@ -2909,7 +3190,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="B154" t="s">
         <v>91</v>
@@ -2917,7 +3198,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="B155" t="s">
         <v>91</v>
@@ -2925,7 +3206,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="B156" t="s">
         <v>91</v>
@@ -2933,7 +3214,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="B157" t="s">
         <v>91</v>
@@ -2941,7 +3222,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="B158" t="s">
         <v>91</v>
@@ -2949,7 +3230,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B159" t="s">
         <v>91</v>
@@ -2957,7 +3238,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>121</v>
+        <v>456</v>
       </c>
       <c r="B160" t="s">
         <v>91</v>
@@ -2965,7 +3246,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="B161" t="s">
         <v>91</v>
@@ -2973,7 +3254,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>344</v>
+        <v>458</v>
       </c>
       <c r="B162" t="s">
         <v>91</v>
@@ -2981,7 +3262,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>345</v>
+        <v>459</v>
       </c>
       <c r="B163" t="s">
         <v>91</v>
@@ -2989,7 +3270,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="B164" t="s">
         <v>91</v>
@@ -2997,7 +3278,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="B165" t="s">
         <v>91</v>
@@ -3005,2042 +3286,2801 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B167" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="B168" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="B169" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B170" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="B173" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="B174" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="B175" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>358</v>
+        <v>123</v>
       </c>
       <c r="B176" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>359</v>
+        <v>124</v>
       </c>
       <c r="B177" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>360</v>
+      <c r="A178" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B178" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>361</v>
+        <v>126</v>
       </c>
       <c r="B179" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>362</v>
+        <v>127</v>
       </c>
       <c r="B180" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="B181" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="B182" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="B183" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>366</v>
+        <v>131</v>
       </c>
       <c r="B184" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>367</v>
+        <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="B188" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="B189" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="B190" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="B191" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="B192" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="B193" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>376</v>
+        <v>141</v>
       </c>
       <c r="B194" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>377</v>
+        <v>142</v>
       </c>
       <c r="B195" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>378</v>
+        <v>143</v>
       </c>
       <c r="B196" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="B197" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="B198" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>381</v>
+        <v>146</v>
       </c>
       <c r="B199" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B200" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B201" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B202" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>126</v>
+      <c r="A203" t="s">
+        <v>150</v>
       </c>
       <c r="B203" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B204" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B205" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B206" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B207" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B208" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B209" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B210" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="B211" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B212" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B213" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B214" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B215" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B216" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B217" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B218" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B219" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B221" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B222" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B223" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B224" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B225" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B226" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B227" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>151</v>
+        <v>461</v>
       </c>
       <c r="B228" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>152</v>
+        <v>462</v>
       </c>
       <c r="B229" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>153</v>
+        <v>463</v>
       </c>
       <c r="B230" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>154</v>
+        <v>464</v>
       </c>
       <c r="B231" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>155</v>
+        <v>465</v>
       </c>
       <c r="B232" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>156</v>
+        <v>466</v>
       </c>
       <c r="B233" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>157</v>
+        <v>467</v>
       </c>
       <c r="B234" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>158</v>
+        <v>468</v>
       </c>
       <c r="B235" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B239" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="B240" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="B241" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="B242" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="B244" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="B245" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="B246" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="B247" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="B248" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>171</v>
+        <v>438</v>
       </c>
       <c r="B249" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="B250" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>173</v>
+        <v>440</v>
       </c>
       <c r="B251" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="B252" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>175</v>
+        <v>442</v>
       </c>
       <c r="B253" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>177</v>
+        <v>443</v>
       </c>
       <c r="B254" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>178</v>
+        <v>444</v>
       </c>
       <c r="B255" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>179</v>
+        <v>445</v>
       </c>
       <c r="B256" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>180</v>
+        <v>421</v>
       </c>
       <c r="B257" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="B258" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="B263" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B265" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="B266" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="B267" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="B268" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="B269" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="B270" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="B271" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="B272" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="B273" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="B274" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="B275" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="B276" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="B277" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="B278" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="B279" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>203</v>
+        <v>422</v>
       </c>
       <c r="B280" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="B281" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="B282" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="B283" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>206</v>
+        <v>426</v>
       </c>
       <c r="B284" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>207</v>
+        <v>427</v>
       </c>
       <c r="B285" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>208</v>
+        <v>428</v>
       </c>
       <c r="B286" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>209</v>
+        <v>429</v>
       </c>
       <c r="B287" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="B288" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="B289" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="B290" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="B291" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="B292" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>387</v>
+        <v>52</v>
       </c>
       <c r="B293" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>388</v>
+        <v>53</v>
       </c>
       <c r="B294" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>389</v>
+        <v>54</v>
       </c>
       <c r="B295" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>390</v>
+        <v>55</v>
       </c>
       <c r="B296" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>391</v>
+        <v>56</v>
       </c>
       <c r="B297" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>392</v>
+        <v>57</v>
       </c>
       <c r="B298" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>393</v>
+        <v>58</v>
       </c>
       <c r="B299" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="B300" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>394</v>
+        <v>60</v>
       </c>
       <c r="B301" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>395</v>
+        <v>61</v>
       </c>
       <c r="B302" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>396</v>
+        <v>62</v>
       </c>
       <c r="B303" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="B304" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="B305" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="B306" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="B307" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="B308" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="B309" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="B310" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="B311" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="B312" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="B313" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="B314" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="B315" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="B316" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="B317" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="B318" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="B319" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="B320" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="B321" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="B322" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="B323" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="B324" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="B325" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="B326" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="B327" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="B328" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="B329" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="B330" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="B331" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="B332" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="B333" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="B334" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="B335" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="B336" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="B337" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="B338" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="B339" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="B340" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="B341" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="B342" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="B343" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="B344" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="B345" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="B346" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="B347" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="B348" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="B349" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="B350" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="B351" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="B352" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="B353" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="B354" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="B355" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="B356" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="B357" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>266</v>
+        <v>446</v>
       </c>
       <c r="B358" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>267</v>
+        <v>447</v>
       </c>
       <c r="B359" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="B360" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>269</v>
+        <v>449</v>
       </c>
       <c r="B361" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="B362" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>271</v>
+        <v>451</v>
       </c>
       <c r="B363" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>272</v>
+        <v>452</v>
       </c>
       <c r="B364" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>273</v>
+        <v>453</v>
       </c>
       <c r="B365" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="B366" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="B367" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="B368" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="B369" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="B370" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="B371" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="B372" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B373" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="B374" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="B375" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="B376" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>286</v>
+        <v>186</v>
       </c>
       <c r="B377" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="B378" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="B379" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="B380" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="B381" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="B382" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="B383" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="B384" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="B385" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="B386" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="B387" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="B388" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="B389" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="B390" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B391" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="B392" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="B393" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="B394" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="B395" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="B396" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="B397" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>307</v>
+        <v>206</v>
       </c>
       <c r="B398" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="B399" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="B400" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>310</v>
+        <v>209</v>
       </c>
       <c r="B401" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="B402" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="B403" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B404" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B405" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B406" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B407" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B408" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B409" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B410" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B411" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B412" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="B413" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B414" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B415" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B416" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="B417" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>411</v>
+        <v>178</v>
       </c>
       <c r="B418" t="s">
-        <v>275</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>470</v>
+      </c>
+      <c r="B419" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>471</v>
+      </c>
+      <c r="B420" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>472</v>
+      </c>
+      <c r="B421" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>473</v>
+      </c>
+      <c r="B422" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>474</v>
+      </c>
+      <c r="B423" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>475</v>
+      </c>
+      <c r="B424" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>210</v>
+      </c>
+      <c r="B425" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>212</v>
+      </c>
+      <c r="B426" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>213</v>
+      </c>
+      <c r="B427" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>214</v>
+      </c>
+      <c r="B428" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>215</v>
+      </c>
+      <c r="B429" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>216</v>
+      </c>
+      <c r="B430" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>217</v>
+      </c>
+      <c r="B431" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>219</v>
+      </c>
+      <c r="B433" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>221</v>
+      </c>
+      <c r="B435" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>222</v>
+      </c>
+      <c r="B436" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>223</v>
+      </c>
+      <c r="B437" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>224</v>
+      </c>
+      <c r="B438" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>225</v>
+      </c>
+      <c r="B439" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>226</v>
+      </c>
+      <c r="B440" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>227</v>
+      </c>
+      <c r="B441" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>228</v>
+      </c>
+      <c r="B442" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>229</v>
+      </c>
+      <c r="B443" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>230</v>
+      </c>
+      <c r="B444" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>231</v>
+      </c>
+      <c r="B445" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>232</v>
+      </c>
+      <c r="B446" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>233</v>
+      </c>
+      <c r="B447" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>234</v>
+      </c>
+      <c r="B448" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>235</v>
+      </c>
+      <c r="B449" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>236</v>
+      </c>
+      <c r="B450" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>237</v>
+      </c>
+      <c r="B451" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>238</v>
+      </c>
+      <c r="B452" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>239</v>
+      </c>
+      <c r="B453" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>240</v>
+      </c>
+      <c r="B454" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>241</v>
+      </c>
+      <c r="B455" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>242</v>
+      </c>
+      <c r="B456" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>243</v>
+      </c>
+      <c r="B457" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>244</v>
+      </c>
+      <c r="B458" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>245</v>
+      </c>
+      <c r="B459" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>246</v>
+      </c>
+      <c r="B460" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>247</v>
+      </c>
+      <c r="B461" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>248</v>
+      </c>
+      <c r="B462" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>249</v>
+      </c>
+      <c r="B463" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>250</v>
+      </c>
+      <c r="B464" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>251</v>
+      </c>
+      <c r="B465" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>252</v>
+      </c>
+      <c r="B466" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>253</v>
+      </c>
+      <c r="B467" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>254</v>
+      </c>
+      <c r="B468" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>255</v>
+      </c>
+      <c r="B469" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>256</v>
+      </c>
+      <c r="B470" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>257</v>
+      </c>
+      <c r="B471" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>258</v>
+      </c>
+      <c r="B472" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>259</v>
+      </c>
+      <c r="B473" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>260</v>
+      </c>
+      <c r="B474" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>261</v>
+      </c>
+      <c r="B475" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>262</v>
+      </c>
+      <c r="B476" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>263</v>
+      </c>
+      <c r="B477" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>264</v>
+      </c>
+      <c r="B478" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>265</v>
+      </c>
+      <c r="B479" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>266</v>
+      </c>
+      <c r="B480" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>267</v>
+      </c>
+      <c r="B481" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>268</v>
+      </c>
+      <c r="B482" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>269</v>
+      </c>
+      <c r="B483" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>270</v>
+      </c>
+      <c r="B484" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>271</v>
+      </c>
+      <c r="B485" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>272</v>
+      </c>
+      <c r="B486" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>476</v>
+      </c>
+      <c r="B487" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>477</v>
+      </c>
+      <c r="B488" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>478</v>
+      </c>
+      <c r="B489" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>479</v>
+      </c>
+      <c r="B490" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>480</v>
+      </c>
+      <c r="B491" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>481</v>
+      </c>
+      <c r="B492" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>482</v>
+      </c>
+      <c r="B493" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>483</v>
+      </c>
+      <c r="B494" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>37</v>
+      </c>
+      <c r="B495" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>39</v>
+      </c>
+      <c r="B496" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>40</v>
+      </c>
+      <c r="B497" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B498" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>42</v>
+      </c>
+      <c r="B499" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>43</v>
+      </c>
+      <c r="B500" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B501" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B502" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B503" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B504" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>48</v>
+      </c>
+      <c r="B505" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>49</v>
+      </c>
+      <c r="B506" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>430</v>
+      </c>
+      <c r="B507" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>431</v>
+      </c>
+      <c r="B508" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>432</v>
+      </c>
+      <c r="B509" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>433</v>
+      </c>
+      <c r="B510" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>434</v>
+      </c>
+      <c r="B511" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>435</v>
+      </c>
+      <c r="B512" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>436</v>
+      </c>
+      <c r="B513" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>437</v>
+      </c>
+      <c r="B514" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B514">
+    <sortCondition ref="B2:B514"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479DC75-C441-46FF-B23E-A1E53BC389B8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6403342-6238-4139-B730-63FA3DC6084E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FA5CAF-921B-4D00-A9C3-BC342B9A651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="520">
   <si>
     <t>message</t>
   </si>
@@ -1588,6 +1588,12 @@
   </si>
   <si>
     <t>Name me some accommodations with good service</t>
+  </si>
+  <si>
+    <t>Please recommend me some hostel</t>
+  </si>
+  <si>
+    <t>Accomodations</t>
   </si>
 </sst>
 </file>
@@ -1952,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,7 +2036,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
         <v>492</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
         <v>492</v>
@@ -2046,7 +2052,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B11" t="s">
         <v>492</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>492</v>
@@ -2062,7 +2068,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>492</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
         <v>492</v>
@@ -2078,7 +2084,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
         <v>492</v>
@@ -2086,7 +2092,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s">
         <v>492</v>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
         <v>492</v>
@@ -2102,7 +2108,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B18" t="s">
         <v>492</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
         <v>492</v>
@@ -2118,7 +2124,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="B20" t="s">
         <v>492</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
         <v>492</v>
@@ -2134,7 +2140,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B22" t="s">
         <v>492</v>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B23" t="s">
         <v>492</v>
@@ -2150,7 +2156,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B24" t="s">
         <v>492</v>
@@ -2158,7 +2164,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B25" t="s">
         <v>492</v>
@@ -2166,7 +2172,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B26" t="s">
         <v>492</v>
@@ -2174,7 +2180,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B27" t="s">
         <v>492</v>
@@ -2182,23 +2188,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s">
         <v>274</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s">
         <v>274</v>
@@ -2214,7 +2220,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
         <v>274</v>
@@ -2222,7 +2228,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
         <v>274</v>
@@ -2230,7 +2236,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s">
         <v>274</v>
@@ -2238,7 +2244,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s">
         <v>274</v>
@@ -2246,7 +2252,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s">
         <v>274</v>
@@ -2254,7 +2260,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
         <v>274</v>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
         <v>274</v>
@@ -2270,7 +2276,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s">
         <v>274</v>
@@ -2278,7 +2284,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s">
         <v>274</v>
@@ -2286,7 +2292,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s">
         <v>274</v>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s">
         <v>274</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s">
         <v>274</v>
@@ -2310,7 +2316,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s">
         <v>274</v>
@@ -2318,7 +2324,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s">
         <v>274</v>
@@ -2326,7 +2332,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s">
         <v>274</v>
@@ -2334,7 +2340,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
         <v>274</v>
@@ -2342,7 +2348,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
         <v>274</v>
@@ -2350,7 +2356,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s">
         <v>274</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s">
         <v>274</v>
@@ -2366,7 +2372,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s">
         <v>274</v>
@@ -2374,7 +2380,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s">
         <v>274</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B53" t="s">
         <v>274</v>
@@ -2390,7 +2396,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B54" t="s">
         <v>274</v>
@@ -2398,7 +2404,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B55" t="s">
         <v>274</v>
@@ -2406,7 +2412,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s">
         <v>274</v>
@@ -2414,7 +2420,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s">
         <v>274</v>
@@ -2422,7 +2428,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B58" t="s">
         <v>274</v>
@@ -2430,7 +2436,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s">
         <v>274</v>
@@ -2438,7 +2444,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
         <v>274</v>
@@ -2446,7 +2452,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
         <v>274</v>
@@ -2454,7 +2460,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
         <v>274</v>
@@ -2462,7 +2468,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
         <v>274</v>
@@ -2470,7 +2476,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
         <v>274</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B65" t="s">
         <v>274</v>
@@ -2486,7 +2492,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s">
         <v>274</v>
@@ -2494,7 +2500,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="B67" t="s">
         <v>274</v>
@@ -2502,7 +2508,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s">
         <v>274</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s">
         <v>274</v>
@@ -2518,7 +2524,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B70" t="s">
         <v>274</v>
@@ -2526,7 +2532,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s">
         <v>274</v>
@@ -2534,7 +2540,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s">
         <v>274</v>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B73" t="s">
         <v>274</v>
@@ -2550,7 +2556,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s">
         <v>274</v>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B75" t="s">
         <v>274</v>
@@ -2566,7 +2572,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B76" t="s">
         <v>274</v>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B77" t="s">
         <v>274</v>
@@ -2582,7 +2588,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B78" t="s">
         <v>274</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B79" t="s">
         <v>274</v>
@@ -2598,7 +2604,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B80" t="s">
         <v>274</v>
@@ -2606,7 +2612,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>484</v>
+        <v>409</v>
       </c>
       <c r="B81" t="s">
         <v>274</v>
@@ -2614,7 +2620,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>485</v>
+        <v>410</v>
       </c>
       <c r="B82" t="s">
         <v>274</v>
@@ -2622,7 +2628,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s">
         <v>274</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B84" t="s">
         <v>274</v>
@@ -2638,7 +2644,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s">
         <v>274</v>
@@ -2646,7 +2652,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s">
         <v>274</v>
@@ -2654,7 +2660,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s">
         <v>274</v>
@@ -2662,7 +2668,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B88" t="s">
         <v>274</v>
@@ -2670,23 +2676,23 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>489</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>490</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
@@ -2694,7 +2700,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -2710,7 +2716,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>91</v>
@@ -2718,7 +2724,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>91</v>
@@ -2726,7 +2732,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>91</v>
@@ -2734,7 +2740,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>91</v>
@@ -2742,7 +2748,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>91</v>
@@ -2750,7 +2756,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>91</v>
@@ -2758,7 +2764,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>91</v>
@@ -2766,7 +2772,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>91</v>
@@ -2774,7 +2780,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>91</v>
@@ -2782,7 +2788,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>91</v>
@@ -2790,7 +2796,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>91</v>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>91</v>
@@ -2806,7 +2812,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>91</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>91</v>
@@ -2822,7 +2828,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>91</v>
@@ -2830,7 +2836,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>91</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>91</v>
@@ -2846,7 +2852,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>91</v>
@@ -2854,7 +2860,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
         <v>91</v>
@@ -2862,7 +2868,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>91</v>
@@ -2870,7 +2876,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>91</v>
@@ -2878,7 +2884,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
         <v>91</v>
@@ -2886,7 +2892,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
         <v>91</v>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
         <v>91</v>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>413</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
         <v>91</v>
@@ -2910,7 +2916,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B119" t="s">
         <v>91</v>
@@ -2918,7 +2924,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B120" t="s">
         <v>91</v>
@@ -2926,7 +2932,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>414</v>
       </c>
       <c r="B121" t="s">
         <v>91</v>
@@ -2934,7 +2940,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B122" t="s">
         <v>91</v>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
         <v>91</v>
@@ -2950,7 +2956,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B124" t="s">
         <v>91</v>
@@ -2958,7 +2964,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B125" t="s">
         <v>91</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B126" t="s">
         <v>91</v>
@@ -2974,7 +2980,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>419</v>
       </c>
       <c r="B127" t="s">
         <v>91</v>
@@ -2982,7 +2988,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
       <c r="B128" t="s">
         <v>91</v>
@@ -2990,7 +2996,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
         <v>91</v>
@@ -2998,7 +3004,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B130" t="s">
         <v>91</v>
@@ -3006,7 +3012,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B131" t="s">
         <v>91</v>
@@ -3014,7 +3020,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B132" t="s">
         <v>91</v>
@@ -3022,7 +3028,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B133" t="s">
         <v>91</v>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B134" t="s">
         <v>91</v>
@@ -3038,7 +3044,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B135" t="s">
         <v>91</v>
@@ -3046,7 +3052,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B136" t="s">
         <v>91</v>
@@ -3054,7 +3060,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B137" t="s">
         <v>91</v>
@@ -3062,7 +3068,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B138" t="s">
         <v>91</v>
@@ -3070,7 +3076,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B139" t="s">
         <v>91</v>
@@ -3078,7 +3084,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B140" t="s">
         <v>91</v>
@@ -3086,7 +3092,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B141" t="s">
         <v>91</v>
@@ -3094,7 +3100,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B142" t="s">
         <v>91</v>
@@ -3102,7 +3108,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
         <v>91</v>
@@ -3110,7 +3116,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B144" t="s">
         <v>91</v>
@@ -3118,7 +3124,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B145" t="s">
         <v>91</v>
@@ -3126,7 +3132,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s">
         <v>91</v>
@@ -3134,7 +3140,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B147" t="s">
         <v>91</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s">
         <v>91</v>
@@ -3150,7 +3156,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B149" t="s">
         <v>91</v>
@@ -3158,7 +3164,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B150" t="s">
         <v>91</v>
@@ -3166,7 +3172,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B151" t="s">
         <v>91</v>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B152" t="s">
         <v>91</v>
@@ -3182,7 +3188,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B153" t="s">
         <v>91</v>
@@ -3190,7 +3196,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B154" t="s">
         <v>91</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B155" t="s">
         <v>91</v>
@@ -3206,7 +3212,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B156" t="s">
         <v>91</v>
@@ -3214,7 +3220,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B157" t="s">
         <v>91</v>
@@ -3222,7 +3228,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="B158" t="s">
         <v>91</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>455</v>
+        <v>371</v>
       </c>
       <c r="B159" t="s">
         <v>91</v>
@@ -3238,7 +3244,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B160" t="s">
         <v>91</v>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B161" t="s">
         <v>91</v>
@@ -3254,7 +3260,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B162" t="s">
         <v>91</v>
@@ -3262,7 +3268,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B163" t="s">
         <v>91</v>
@@ -3270,7 +3276,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>118</v>
+        <v>458</v>
       </c>
       <c r="B164" t="s">
         <v>91</v>
@@ -3278,7 +3284,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B165" t="s">
         <v>91</v>
@@ -3286,23 +3292,23 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>372</v>
+        <v>118</v>
       </c>
       <c r="B166" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
       <c r="B167" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B168" t="s">
         <v>122</v>
@@ -3310,7 +3316,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B169" t="s">
         <v>122</v>
@@ -3318,7 +3324,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B170" t="s">
         <v>122</v>
@@ -3326,7 +3332,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B171" t="s">
         <v>122</v>
@@ -3334,7 +3340,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B172" t="s">
         <v>122</v>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B173" t="s">
         <v>122</v>
@@ -3350,7 +3356,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B174" t="s">
         <v>122</v>
@@ -3358,7 +3364,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>121</v>
+        <v>379</v>
       </c>
       <c r="B175" t="s">
         <v>122</v>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
       <c r="B176" t="s">
         <v>122</v>
@@ -3374,15 +3380,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B177" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>125</v>
+      <c r="A178" t="s">
+        <v>123</v>
       </c>
       <c r="B178" t="s">
         <v>122</v>
@@ -3390,15 +3396,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B179" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>127</v>
+      <c r="A180" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B180" t="s">
         <v>122</v>
@@ -3406,7 +3412,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B181" t="s">
         <v>122</v>
@@ -3414,7 +3420,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B182" t="s">
         <v>122</v>
@@ -3422,7 +3428,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B183" t="s">
         <v>122</v>
@@ -3430,7 +3436,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B184" t="s">
         <v>122</v>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B185" t="s">
         <v>122</v>
@@ -3446,7 +3452,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B186" t="s">
         <v>122</v>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B187" t="s">
         <v>122</v>
@@ -3462,7 +3468,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B188" t="s">
         <v>122</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B189" t="s">
         <v>122</v>
@@ -3478,7 +3484,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B190" t="s">
         <v>122</v>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B191" t="s">
         <v>122</v>
@@ -3494,7 +3500,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B192" t="s">
         <v>122</v>
@@ -3502,7 +3508,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B193" t="s">
         <v>122</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B194" t="s">
         <v>122</v>
@@ -3518,7 +3524,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B195" t="s">
         <v>122</v>
@@ -3526,7 +3532,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B196" t="s">
         <v>122</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B197" t="s">
         <v>122</v>
@@ -3542,7 +3548,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B198" t="s">
         <v>122</v>
@@ -3550,7 +3556,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B199" t="s">
         <v>122</v>
@@ -3558,7 +3564,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B200" t="s">
         <v>122</v>
@@ -3566,7 +3572,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B201" t="s">
         <v>122</v>
@@ -3574,7 +3580,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B202" t="s">
         <v>122</v>
@@ -3582,7 +3588,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B203" t="s">
         <v>122</v>
@@ -3590,7 +3596,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B204" t="s">
         <v>122</v>
@@ -3598,7 +3604,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B205" t="s">
         <v>122</v>
@@ -3606,7 +3612,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B206" t="s">
         <v>122</v>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B207" t="s">
         <v>122</v>
@@ -3622,7 +3628,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B208" t="s">
         <v>122</v>
@@ -3630,7 +3636,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B209" t="s">
         <v>122</v>
@@ -3638,7 +3644,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B210" t="s">
         <v>122</v>
@@ -3646,7 +3652,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="B211" t="s">
         <v>122</v>
@@ -3654,7 +3660,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B212" t="s">
         <v>122</v>
@@ -3662,7 +3668,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>159</v>
+        <v>373</v>
       </c>
       <c r="B213" t="s">
         <v>122</v>
@@ -3670,7 +3676,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B214" t="s">
         <v>122</v>
@@ -3678,7 +3684,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B215" t="s">
         <v>122</v>
@@ -3686,7 +3692,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B216" t="s">
         <v>122</v>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B217" t="s">
         <v>122</v>
@@ -3702,7 +3708,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B218" t="s">
         <v>122</v>
@@ -3710,7 +3716,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B219" t="s">
         <v>122</v>
@@ -3718,7 +3724,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B220" t="s">
         <v>122</v>
@@ -3726,7 +3732,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B221" t="s">
         <v>122</v>
@@ -3734,7 +3740,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B222" t="s">
         <v>122</v>
@@ -3742,7 +3748,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B223" t="s">
         <v>122</v>
@@ -3750,7 +3756,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B224" t="s">
         <v>122</v>
@@ -3758,7 +3764,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B225" t="s">
         <v>122</v>
@@ -3766,7 +3772,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B226" t="s">
         <v>122</v>
@@ -3774,7 +3780,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B227" t="s">
         <v>122</v>
@@ -3782,7 +3788,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>461</v>
+        <v>172</v>
       </c>
       <c r="B228" t="s">
         <v>122</v>
@@ -3790,7 +3796,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>462</v>
+        <v>173</v>
       </c>
       <c r="B229" t="s">
         <v>122</v>
@@ -3798,7 +3804,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B230" t="s">
         <v>122</v>
@@ -3806,7 +3812,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B231" t="s">
         <v>122</v>
@@ -3814,7 +3820,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B232" t="s">
         <v>122</v>
@@ -3822,7 +3828,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B233" t="s">
         <v>122</v>
@@ -3830,7 +3836,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B234" t="s">
         <v>122</v>
@@ -3838,7 +3844,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B235" t="s">
         <v>122</v>
@@ -3846,23 +3852,23 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>16</v>
+        <v>467</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B238" t="s">
         <v>13</v>
@@ -3870,7 +3876,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B239" t="s">
         <v>13</v>
@@ -3886,7 +3892,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B241" t="s">
         <v>13</v>
@@ -3894,7 +3900,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B243" t="s">
         <v>13</v>
@@ -3910,7 +3916,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B244" t="s">
         <v>13</v>
@@ -3918,7 +3924,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B245" t="s">
         <v>13</v>
@@ -3926,7 +3932,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B246" t="s">
         <v>13</v>
@@ -3934,7 +3940,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B247" t="s">
         <v>13</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B248" t="s">
         <v>13</v>
@@ -3950,7 +3956,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
@@ -3958,7 +3964,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="B250" t="s">
         <v>13</v>
@@ -3966,7 +3972,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B251" t="s">
         <v>13</v>
@@ -3974,7 +3980,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B252" t="s">
         <v>13</v>
@@ -3982,7 +3988,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B253" t="s">
         <v>13</v>
@@ -3990,7 +3996,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B254" t="s">
         <v>13</v>
@@ -3998,7 +4004,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B255" t="s">
         <v>13</v>
@@ -4006,7 +4012,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B256" t="s">
         <v>13</v>
@@ -4014,23 +4020,23 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>2</v>
+        <v>445</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="B259" t="s">
         <v>3</v>
@@ -4038,7 +4044,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -4046,7 +4052,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B261" t="s">
         <v>3</v>
@@ -4054,7 +4060,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
@@ -4062,7 +4068,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
@@ -4070,7 +4076,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
         <v>3</v>
@@ -4078,7 +4084,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
@@ -4086,7 +4092,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B266" t="s">
         <v>3</v>
@@ -4094,7 +4100,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
@@ -4102,7 +4108,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
@@ -4110,7 +4116,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B269" t="s">
         <v>3</v>
@@ -4118,7 +4124,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
@@ -4126,7 +4132,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B271" t="s">
         <v>3</v>
@@ -4134,7 +4140,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B272" t="s">
         <v>3</v>
@@ -4142,7 +4148,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B273" t="s">
         <v>3</v>
@@ -4150,7 +4156,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B274" t="s">
         <v>3</v>
@@ -4158,7 +4164,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B275" t="s">
         <v>3</v>
@@ -4166,7 +4172,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B276" t="s">
         <v>3</v>
@@ -4174,7 +4180,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B277" t="s">
         <v>3</v>
@@ -4182,7 +4188,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B278" t="s">
         <v>3</v>
@@ -4190,7 +4196,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B279" t="s">
         <v>3</v>
@@ -4198,7 +4204,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>422</v>
+        <v>34</v>
       </c>
       <c r="B280" t="s">
         <v>3</v>
@@ -4206,7 +4212,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>423</v>
+        <v>29</v>
       </c>
       <c r="B281" t="s">
         <v>3</v>
@@ -4214,7 +4220,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
@@ -4222,7 +4228,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B283" t="s">
         <v>3</v>
@@ -4230,7 +4236,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B284" t="s">
         <v>3</v>
@@ -4238,7 +4244,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B285" t="s">
         <v>3</v>
@@ -4246,7 +4252,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B286" t="s">
         <v>3</v>
@@ -4254,7 +4260,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B287" t="s">
         <v>3</v>
@@ -4262,23 +4268,23 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="B288" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="B289" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B290" t="s">
         <v>50</v>
@@ -4286,7 +4292,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="B291" t="s">
         <v>50</v>
@@ -4294,7 +4300,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
       <c r="B292" t="s">
         <v>50</v>
@@ -4302,7 +4308,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>52</v>
+        <v>411</v>
       </c>
       <c r="B293" t="s">
         <v>50</v>
@@ -4310,7 +4316,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B294" t="s">
         <v>50</v>
@@ -4318,7 +4324,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B295" t="s">
         <v>50</v>
@@ -4326,7 +4332,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B296" t="s">
         <v>50</v>
@@ -4334,7 +4340,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B297" t="s">
         <v>50</v>
@@ -4342,7 +4348,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B298" t="s">
         <v>50</v>
@@ -4350,7 +4356,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B299" t="s">
         <v>50</v>
@@ -4358,7 +4364,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B300" t="s">
         <v>50</v>
@@ -4366,7 +4372,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B301" t="s">
         <v>50</v>
@@ -4374,7 +4380,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B302" t="s">
         <v>50</v>
@@ -4382,7 +4388,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B303" t="s">
         <v>50</v>
@@ -4390,7 +4396,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B304" t="s">
         <v>50</v>
@@ -4398,7 +4404,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B305" t="s">
         <v>50</v>
@@ -4406,7 +4412,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B306" t="s">
         <v>50</v>
@@ -4414,7 +4420,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B307" t="s">
         <v>50</v>
@@ -4422,7 +4428,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B308" t="s">
         <v>50</v>
@@ -4430,7 +4436,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B309" t="s">
         <v>50</v>
@@ -4438,7 +4444,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B310" t="s">
         <v>50</v>
@@ -4446,7 +4452,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B311" t="s">
         <v>50</v>
@@ -4454,7 +4460,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B312" t="s">
         <v>50</v>
@@ -4462,7 +4468,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B313" t="s">
         <v>50</v>
@@ -4470,7 +4476,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B314" t="s">
         <v>50</v>
@@ -4478,7 +4484,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B315" t="s">
         <v>50</v>
@@ -4486,7 +4492,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B316" t="s">
         <v>50</v>
@@ -4494,7 +4500,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B317" t="s">
         <v>50</v>
@@ -4502,7 +4508,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B318" t="s">
         <v>50</v>
@@ -4510,7 +4516,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B319" t="s">
         <v>50</v>
@@ -4518,7 +4524,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B320" t="s">
         <v>50</v>
@@ -4526,7 +4532,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B321" t="s">
         <v>50</v>
@@ -4534,7 +4540,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B322" t="s">
         <v>50</v>
@@ -4542,7 +4548,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B323" t="s">
         <v>50</v>
@@ -4550,7 +4556,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B324" t="s">
         <v>50</v>
@@ -4558,7 +4564,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B325" t="s">
         <v>50</v>
@@ -4566,7 +4572,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B326" t="s">
         <v>50</v>
@@ -4574,7 +4580,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B327" t="s">
         <v>50</v>
@@ -4582,7 +4588,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B328" t="s">
         <v>50</v>
@@ -4590,7 +4596,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B329" t="s">
         <v>50</v>
@@ -4598,7 +4604,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B330" t="s">
         <v>50</v>
@@ -4606,7 +4612,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="B331" t="s">
         <v>50</v>
@@ -4614,7 +4620,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="B332" t="s">
         <v>50</v>
@@ -4622,7 +4628,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B333" t="s">
         <v>50</v>
@@ -4630,7 +4636,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B334" t="s">
         <v>50</v>
@@ -4638,7 +4644,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B335" t="s">
         <v>50</v>
@@ -4646,7 +4652,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B336" t="s">
         <v>50</v>
@@ -4654,7 +4660,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B337" t="s">
         <v>50</v>
@@ -4662,7 +4668,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B338" t="s">
         <v>50</v>
@@ -4670,7 +4676,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B339" t="s">
         <v>50</v>
@@ -4678,7 +4684,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B340" t="s">
         <v>50</v>
@@ -4686,7 +4692,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B341" t="s">
         <v>50</v>
@@ -4694,7 +4700,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B342" t="s">
         <v>50</v>
@@ -4702,7 +4708,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B343" t="s">
         <v>50</v>
@@ -4710,7 +4716,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B344" t="s">
         <v>50</v>
@@ -4718,7 +4724,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B345" t="s">
         <v>50</v>
@@ -4726,7 +4732,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B346" t="s">
         <v>50</v>
@@ -4734,7 +4740,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B347" t="s">
         <v>50</v>
@@ -4742,7 +4748,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B348" t="s">
         <v>50</v>
@@ -4750,7 +4756,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B349" t="s">
         <v>50</v>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B350" t="s">
         <v>50</v>
@@ -4766,7 +4772,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B351" t="s">
         <v>50</v>
@@ -4774,7 +4780,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B352" t="s">
         <v>50</v>
@@ -4782,7 +4788,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B353" t="s">
         <v>50</v>
@@ -4790,7 +4796,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B354" t="s">
         <v>50</v>
@@ -4798,7 +4804,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B355" t="s">
         <v>50</v>
@@ -4806,7 +4812,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B356" t="s">
         <v>50</v>
@@ -4814,7 +4820,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B357" t="s">
         <v>50</v>
@@ -4822,7 +4828,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="B358" t="s">
         <v>50</v>
@@ -4830,7 +4836,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="B359" t="s">
         <v>50</v>
@@ -4838,7 +4844,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B360" t="s">
         <v>50</v>
@@ -4846,7 +4852,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B361" t="s">
         <v>50</v>
@@ -4854,7 +4860,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B362" t="s">
         <v>50</v>
@@ -4862,7 +4868,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B363" t="s">
         <v>50</v>
@@ -4870,7 +4876,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B364" t="s">
         <v>50</v>
@@ -4878,7 +4884,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B365" t="s">
         <v>50</v>
@@ -4886,23 +4892,23 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>174</v>
+        <v>452</v>
       </c>
       <c r="B366" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="B367" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B368" t="s">
         <v>175</v>
@@ -4910,7 +4916,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B369" t="s">
         <v>175</v>
@@ -4918,7 +4924,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B370" t="s">
         <v>175</v>
@@ -4926,7 +4932,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B371" t="s">
         <v>175</v>
@@ -4934,7 +4940,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B372" t="s">
         <v>175</v>
@@ -4942,7 +4948,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B373" t="s">
         <v>175</v>
@@ -4950,7 +4956,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B374" t="s">
         <v>175</v>
@@ -4958,7 +4964,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B375" t="s">
         <v>175</v>
@@ -4966,7 +4972,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B376" t="s">
         <v>175</v>
@@ -4974,7 +4980,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B377" t="s">
         <v>175</v>
@@ -4982,7 +4988,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B378" t="s">
         <v>175</v>
@@ -4990,7 +4996,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B379" t="s">
         <v>175</v>
@@ -4998,7 +5004,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B380" t="s">
         <v>175</v>
@@ -5006,7 +5012,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B381" t="s">
         <v>175</v>
@@ -5014,7 +5020,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B382" t="s">
         <v>175</v>
@@ -5022,7 +5028,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B383" t="s">
         <v>175</v>
@@ -5030,7 +5036,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B384" t="s">
         <v>175</v>
@@ -5038,7 +5044,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B385" t="s">
         <v>175</v>
@@ -5046,7 +5052,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B386" t="s">
         <v>175</v>
@@ -5054,7 +5060,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B387" t="s">
         <v>175</v>
@@ -5062,7 +5068,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B388" t="s">
         <v>175</v>
@@ -5070,7 +5076,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B389" t="s">
         <v>175</v>
@@ -5078,7 +5084,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B390" t="s">
         <v>175</v>
@@ -5086,7 +5092,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B391" t="s">
         <v>175</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B392" t="s">
         <v>175</v>
@@ -5102,7 +5108,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B393" t="s">
         <v>175</v>
@@ -5110,7 +5116,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="B394" t="s">
         <v>175</v>
@@ -5118,7 +5124,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B395" t="s">
         <v>175</v>
@@ -5126,7 +5132,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="B396" t="s">
         <v>175</v>
@@ -5134,7 +5140,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B397" t="s">
         <v>175</v>
@@ -5142,7 +5148,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B398" t="s">
         <v>175</v>
@@ -5150,7 +5156,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B399" t="s">
         <v>175</v>
@@ -5158,7 +5164,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B400" t="s">
         <v>175</v>
@@ -5166,7 +5172,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B401" t="s">
         <v>175</v>
@@ -5174,7 +5180,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="B402" t="s">
         <v>175</v>
@@ -5182,7 +5188,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>383</v>
+        <v>209</v>
       </c>
       <c r="B403" t="s">
         <v>175</v>
@@ -5190,7 +5196,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B404" t="s">
         <v>175</v>
@@ -5198,7 +5204,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B405" t="s">
         <v>175</v>
@@ -5206,7 +5212,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B406" t="s">
         <v>175</v>
@@ -5214,7 +5220,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B407" t="s">
         <v>175</v>
@@ -5222,7 +5228,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B408" t="s">
         <v>175</v>
@@ -5230,7 +5236,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B409" t="s">
         <v>175</v>
@@ -5238,7 +5244,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B410" t="s">
         <v>175</v>
@@ -5246,7 +5252,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B411" t="s">
         <v>175</v>
@@ -5254,7 +5260,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B412" t="s">
         <v>175</v>
@@ -5262,7 +5268,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>178</v>
+        <v>391</v>
       </c>
       <c r="B413" t="s">
         <v>175</v>
@@ -5270,7 +5276,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" t="s">
         <v>175</v>
@@ -5278,7 +5284,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>394</v>
+        <v>178</v>
       </c>
       <c r="B415" t="s">
         <v>175</v>
@@ -5286,7 +5292,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B416" t="s">
         <v>175</v>
@@ -5294,7 +5300,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="B417" t="s">
         <v>175</v>
@@ -5302,7 +5308,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>178</v>
+        <v>395</v>
       </c>
       <c r="B418" t="s">
         <v>175</v>
@@ -5310,7 +5316,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B419" t="s">
         <v>175</v>
@@ -5318,7 +5324,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>471</v>
+        <v>178</v>
       </c>
       <c r="B420" t="s">
         <v>175</v>
@@ -5326,7 +5332,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B421" t="s">
         <v>175</v>
@@ -5334,7 +5340,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B422" t="s">
         <v>175</v>
@@ -5342,7 +5348,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B423" t="s">
         <v>175</v>
@@ -5350,7 +5356,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B424" t="s">
         <v>175</v>
@@ -5358,23 +5364,23 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>210</v>
+        <v>474</v>
       </c>
       <c r="B425" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="B426" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B427" t="s">
         <v>211</v>
@@ -5382,7 +5388,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B428" t="s">
         <v>211</v>
@@ -5390,7 +5396,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B429" t="s">
         <v>211</v>
@@ -5398,7 +5404,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B430" t="s">
         <v>211</v>
@@ -5406,7 +5412,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B431" t="s">
         <v>211</v>
@@ -5414,7 +5420,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B432" t="s">
         <v>211</v>
@@ -5422,7 +5428,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B433" t="s">
         <v>211</v>
@@ -5430,7 +5436,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B434" t="s">
         <v>211</v>
@@ -5438,7 +5444,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B435" t="s">
         <v>211</v>
@@ -5446,7 +5452,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B436" t="s">
         <v>211</v>
@@ -5454,7 +5460,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B437" t="s">
         <v>211</v>
@@ -5462,7 +5468,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B438" t="s">
         <v>211</v>
@@ -5470,7 +5476,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B439" t="s">
         <v>211</v>
@@ -5478,7 +5484,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B440" t="s">
         <v>211</v>
@@ -5486,7 +5492,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B441" t="s">
         <v>211</v>
@@ -5494,7 +5500,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B442" t="s">
         <v>211</v>
@@ -5502,7 +5508,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B443" t="s">
         <v>211</v>
@@ -5510,7 +5516,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B444" t="s">
         <v>211</v>
@@ -5518,7 +5524,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B445" t="s">
         <v>211</v>
@@ -5526,7 +5532,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B446" t="s">
         <v>211</v>
@@ -5534,7 +5540,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B447" t="s">
         <v>211</v>
@@ -5542,7 +5548,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B448" t="s">
         <v>211</v>
@@ -5550,7 +5556,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B449" t="s">
         <v>211</v>
@@ -5558,7 +5564,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B450" t="s">
         <v>211</v>
@@ -5566,7 +5572,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B451" t="s">
         <v>211</v>
@@ -5574,7 +5580,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B452" t="s">
         <v>211</v>
@@ -5582,7 +5588,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B453" t="s">
         <v>211</v>
@@ -5590,7 +5596,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B454" t="s">
         <v>211</v>
@@ -5598,7 +5604,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B455" t="s">
         <v>211</v>
@@ -5606,7 +5612,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B456" t="s">
         <v>211</v>
@@ -5614,7 +5620,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B457" t="s">
         <v>211</v>
@@ -5622,7 +5628,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B458" t="s">
         <v>211</v>
@@ -5630,7 +5636,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B459" t="s">
         <v>211</v>
@@ -5638,7 +5644,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B460" t="s">
         <v>211</v>
@@ -5646,7 +5652,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B461" t="s">
         <v>211</v>
@@ -5654,7 +5660,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B462" t="s">
         <v>211</v>
@@ -5662,7 +5668,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B463" t="s">
         <v>211</v>
@@ -5670,7 +5676,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B464" t="s">
         <v>211</v>
@@ -5678,7 +5684,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B465" t="s">
         <v>211</v>
@@ -5686,7 +5692,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B466" t="s">
         <v>211</v>
@@ -5694,7 +5700,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B467" t="s">
         <v>211</v>
@@ -5702,7 +5708,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B468" t="s">
         <v>211</v>
@@ -5710,7 +5716,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B469" t="s">
         <v>211</v>
@@ -5718,7 +5724,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B470" t="s">
         <v>211</v>
@@ -5726,7 +5732,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B471" t="s">
         <v>211</v>
@@ -5734,7 +5740,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B472" t="s">
         <v>211</v>
@@ -5742,7 +5748,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B473" t="s">
         <v>211</v>
@@ -5750,7 +5756,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B474" t="s">
         <v>211</v>
@@ -5758,7 +5764,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B475" t="s">
         <v>211</v>
@@ -5766,7 +5772,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B476" t="s">
         <v>211</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B477" t="s">
         <v>211</v>
@@ -5782,7 +5788,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B478" t="s">
         <v>211</v>
@@ -5790,7 +5796,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B479" t="s">
         <v>211</v>
@@ -5798,7 +5804,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B480" t="s">
         <v>211</v>
@@ -5806,7 +5812,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B481" t="s">
         <v>211</v>
@@ -5814,7 +5820,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B482" t="s">
         <v>211</v>
@@ -5822,7 +5828,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B483" t="s">
         <v>211</v>
@@ -5830,7 +5836,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B484" t="s">
         <v>211</v>
@@ -5838,7 +5844,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B485" t="s">
         <v>211</v>
@@ -5846,7 +5852,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B486" t="s">
         <v>211</v>
@@ -5854,7 +5860,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>476</v>
+        <v>271</v>
       </c>
       <c r="B487" t="s">
         <v>211</v>
@@ -5862,7 +5868,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>477</v>
+        <v>272</v>
       </c>
       <c r="B488" t="s">
         <v>211</v>
@@ -5870,7 +5876,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B489" t="s">
         <v>211</v>
@@ -5878,7 +5884,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B490" t="s">
         <v>211</v>
@@ -5886,7 +5892,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B491" t="s">
         <v>211</v>
@@ -5894,7 +5900,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B492" t="s">
         <v>211</v>
@@ -5902,7 +5908,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B493" t="s">
         <v>211</v>
@@ -5910,7 +5916,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B494" t="s">
         <v>211</v>
@@ -5918,31 +5924,31 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>37</v>
+        <v>482</v>
       </c>
       <c r="B495" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>39</v>
+        <v>483</v>
       </c>
       <c r="B496" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B497" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
-        <v>41</v>
+      <c r="A498" t="s">
+        <v>39</v>
       </c>
       <c r="B498" t="s">
         <v>38</v>
@@ -5950,31 +5956,31 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B499" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>43</v>
+      <c r="A500" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B500" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
-        <v>44</v>
+      <c r="A501" t="s">
+        <v>42</v>
       </c>
       <c r="B501" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
-        <v>45</v>
+      <c r="A502" t="s">
+        <v>43</v>
       </c>
       <c r="B502" t="s">
         <v>38</v>
@@ -5982,7 +5988,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B503" t="s">
         <v>38</v>
@@ -5990,23 +5996,23 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B504" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>48</v>
+      <c r="A505" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B505" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
-        <v>49</v>
+      <c r="A506" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B506" t="s">
         <v>38</v>
@@ -6014,7 +6020,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>430</v>
+        <v>48</v>
       </c>
       <c r="B507" t="s">
         <v>38</v>
@@ -6022,7 +6028,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>431</v>
+        <v>49</v>
       </c>
       <c r="B508" t="s">
         <v>38</v>
@@ -6030,7 +6036,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B509" t="s">
         <v>38</v>
@@ -6038,7 +6044,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B510" t="s">
         <v>38</v>
@@ -6046,7 +6052,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B511" t="s">
         <v>38</v>
@@ -6054,7 +6060,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B512" t="s">
         <v>38</v>
@@ -6062,7 +6068,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B513" t="s">
         <v>38</v>
@@ -6070,15 +6076,31 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B514" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>436</v>
+      </c>
+      <c r="B515" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>437</v>
+      </c>
+      <c r="B516" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B514">
-    <sortCondition ref="B2:B514"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B516">
+    <sortCondition ref="B2:B516"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18F7EF-23B0-406C-8BFC-42CFD3F9636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC833767-C5A0-4A36-AC41-AABC94F9204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$790</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$791</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="906">
   <si>
     <t>message</t>
   </si>
@@ -2752,6 +2752,9 @@
   </si>
   <si>
     <t>how can I go to the hotel</t>
+  </si>
+  <si>
+    <t>any hotel to recommend</t>
   </si>
 </sst>
 </file>
@@ -3136,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B884"/>
+  <dimension ref="A1:B885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172:B173"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377:B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6166,7 +6169,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>496</v>
+        <v>905</v>
       </c>
       <c r="B378" t="s">
         <v>490</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B379" t="s">
         <v>490</v>
@@ -6182,7 +6185,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>844</v>
+        <v>497</v>
       </c>
       <c r="B380" t="s">
         <v>490</v>
@@ -6190,7 +6193,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B381" t="s">
         <v>490</v>
@@ -6198,15 +6201,15 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>271</v>
+        <v>845</v>
       </c>
       <c r="B382" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B383" t="s">
         <v>272</v>
@@ -6214,7 +6217,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B384" t="s">
         <v>272</v>
@@ -6222,7 +6225,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B385" t="s">
         <v>272</v>
@@ -6230,7 +6233,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B386" t="s">
         <v>272</v>
@@ -6238,7 +6241,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B387" t="s">
         <v>272</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B388" t="s">
         <v>272</v>
@@ -6254,7 +6257,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>875</v>
+        <v>278</v>
       </c>
       <c r="B389" t="s">
         <v>272</v>
@@ -6262,7 +6265,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B390" t="s">
         <v>272</v>
@@ -6270,7 +6273,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>279</v>
+        <v>874</v>
       </c>
       <c r="B391" t="s">
         <v>272</v>
@@ -6278,7 +6281,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B392" t="s">
         <v>272</v>
@@ -6286,7 +6289,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B393" t="s">
         <v>272</v>
@@ -6294,7 +6297,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B394" t="s">
         <v>272</v>
@@ -6302,7 +6305,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B395" t="s">
         <v>272</v>
@@ -6310,7 +6313,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B396" t="s">
         <v>272</v>
@@ -6318,7 +6321,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B397" t="s">
         <v>272</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B398" t="s">
         <v>272</v>
@@ -6334,7 +6337,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B399" t="s">
         <v>272</v>
@@ -6342,7 +6345,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B400" t="s">
         <v>272</v>
@@ -6350,7 +6353,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B401" t="s">
         <v>272</v>
@@ -6358,7 +6361,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B402" t="s">
         <v>272</v>
@@ -6366,7 +6369,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>763</v>
+        <v>290</v>
       </c>
       <c r="B403" t="s">
         <v>272</v>
@@ -6374,23 +6377,23 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>291</v>
+        <v>763</v>
       </c>
       <c r="B404" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A405" s="4" t="s">
-        <v>762</v>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>291</v>
       </c>
       <c r="B405" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>292</v>
+    <row r="406" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="B406" t="s">
         <v>272</v>
@@ -6398,7 +6401,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B407" t="s">
         <v>272</v>
@@ -6406,7 +6409,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B408" t="s">
         <v>272</v>
@@ -6414,7 +6417,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B409" t="s">
         <v>272</v>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B410" t="s">
         <v>272</v>
@@ -6430,7 +6433,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B411" t="s">
         <v>272</v>
@@ -6438,7 +6441,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B412" t="s">
         <v>272</v>
@@ -6446,7 +6449,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B413" t="s">
         <v>272</v>
@@ -6454,7 +6457,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B414" t="s">
         <v>272</v>
@@ -6462,7 +6465,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B415" t="s">
         <v>272</v>
@@ -6470,7 +6473,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B416" t="s">
         <v>272</v>
@@ -6478,7 +6481,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B417" t="s">
         <v>272</v>
@@ -6486,7 +6489,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B418" t="s">
         <v>272</v>
@@ -6494,7 +6497,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B419" t="s">
         <v>272</v>
@@ -6502,7 +6505,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B420" t="s">
         <v>272</v>
@@ -6510,7 +6513,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B421" t="s">
         <v>272</v>
@@ -6518,7 +6521,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B422" t="s">
         <v>272</v>
@@ -6526,7 +6529,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B423" t="s">
         <v>272</v>
@@ -6534,7 +6537,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="B424" t="s">
         <v>272</v>
@@ -6542,7 +6545,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B425" t="s">
         <v>272</v>
@@ -6550,7 +6553,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B426" t="s">
         <v>272</v>
@@ -6558,7 +6561,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B427" t="s">
         <v>272</v>
@@ -6566,7 +6569,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B428" t="s">
         <v>272</v>
@@ -6574,7 +6577,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B429" t="s">
         <v>272</v>
@@ -6582,7 +6585,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B430" t="s">
         <v>272</v>
@@ -6590,7 +6593,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B431" t="s">
         <v>272</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B432" t="s">
         <v>272</v>
@@ -6606,7 +6609,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B433" t="s">
         <v>272</v>
@@ -6614,7 +6617,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B434" t="s">
         <v>272</v>
@@ -6622,7 +6625,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B435" t="s">
         <v>272</v>
@@ -6630,7 +6633,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B436" t="s">
         <v>272</v>
@@ -6638,7 +6641,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B437" t="s">
         <v>272</v>
@@ -6646,7 +6649,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B438" t="s">
         <v>272</v>
@@ -6654,7 +6657,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="B439" t="s">
         <v>272</v>
@@ -6662,7 +6665,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B440" t="s">
         <v>272</v>
@@ -6670,7 +6673,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B441" t="s">
         <v>272</v>
@@ -6678,7 +6681,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B442" t="s">
         <v>272</v>
@@ -6686,7 +6689,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B443" t="s">
         <v>272</v>
@@ -6694,7 +6697,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B444" t="s">
         <v>272</v>
@@ -6702,7 +6705,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B445" t="s">
         <v>272</v>
@@ -6710,15 +6713,15 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>89</v>
+        <v>488</v>
       </c>
       <c r="B446" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B447" t="s">
         <v>90</v>
@@ -6726,7 +6729,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B448" t="s">
         <v>90</v>
@@ -6734,7 +6737,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B449" t="s">
         <v>90</v>
@@ -6742,7 +6745,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B450" t="s">
         <v>90</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B451" t="s">
         <v>90</v>
@@ -6758,7 +6761,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B452" t="s">
         <v>90</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B453" t="s">
         <v>90</v>
@@ -6774,7 +6777,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B454" t="s">
         <v>90</v>
@@ -6782,7 +6785,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B455" t="s">
         <v>90</v>
@@ -6790,7 +6793,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B456" t="s">
         <v>90</v>
@@ -6798,7 +6801,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B457" t="s">
         <v>90</v>
@@ -6806,7 +6809,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B458" t="s">
         <v>90</v>
@@ -6814,7 +6817,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B459" t="s">
         <v>90</v>
@@ -6822,7 +6825,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B460" t="s">
         <v>90</v>
@@ -6830,7 +6833,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B461" t="s">
         <v>90</v>
@@ -6838,7 +6841,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B462" t="s">
         <v>90</v>
@@ -6846,7 +6849,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B463" t="s">
         <v>90</v>
@@ -6854,7 +6857,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B464" t="s">
         <v>90</v>
@@ -6862,7 +6865,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B465" t="s">
         <v>90</v>
@@ -6870,7 +6873,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B466" t="s">
         <v>90</v>
@@ -6878,7 +6881,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B467" t="s">
         <v>90</v>
@@ -6886,7 +6889,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B468" t="s">
         <v>90</v>
@@ -6894,7 +6897,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B469" t="s">
         <v>90</v>
@@ -6902,7 +6905,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B470" t="s">
         <v>90</v>
@@ -6910,7 +6913,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B471" t="s">
         <v>90</v>
@@ -6918,7 +6921,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B472" t="s">
         <v>90</v>
@@ -6926,7 +6929,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B473" t="s">
         <v>90</v>
@@ -6934,7 +6937,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="B474" t="s">
         <v>90</v>
@@ -6942,7 +6945,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B475" t="s">
         <v>90</v>
@@ -6950,7 +6953,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B476" t="s">
         <v>90</v>
@@ -6958,7 +6961,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B477" t="s">
         <v>90</v>
@@ -6966,7 +6969,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>118</v>
+        <v>413</v>
       </c>
       <c r="B478" t="s">
         <v>90</v>
@@ -6974,7 +6977,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>414</v>
+        <v>118</v>
       </c>
       <c r="B479" t="s">
         <v>90</v>
@@ -6982,7 +6985,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B480" t="s">
         <v>90</v>
@@ -6990,7 +6993,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B481" t="s">
         <v>90</v>
@@ -6998,7 +7001,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B482" t="s">
         <v>90</v>
@@ -7006,7 +7009,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B483" t="s">
         <v>90</v>
@@ -7014,7 +7017,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>119</v>
+        <v>418</v>
       </c>
       <c r="B484" t="s">
         <v>90</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>340</v>
+        <v>119</v>
       </c>
       <c r="B485" t="s">
         <v>90</v>
@@ -7030,7 +7033,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B486" t="s">
         <v>90</v>
@@ -7038,7 +7041,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B487" t="s">
         <v>90</v>
@@ -7046,7 +7049,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B488" t="s">
         <v>90</v>
@@ -7054,7 +7057,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B489" t="s">
         <v>90</v>
@@ -7062,7 +7065,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B490" t="s">
         <v>90</v>
@@ -7070,7 +7073,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B491" t="s">
         <v>90</v>
@@ -7078,7 +7081,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>873</v>
+        <v>346</v>
       </c>
       <c r="B492" t="s">
         <v>90</v>
@@ -7086,7 +7089,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B493" t="s">
         <v>90</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B494" t="s">
         <v>90</v>
@@ -7102,7 +7105,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B495" t="s">
         <v>90</v>
@@ -7110,7 +7113,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>347</v>
+        <v>870</v>
       </c>
       <c r="B496" t="s">
         <v>90</v>
@@ -7118,7 +7121,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B497" t="s">
         <v>90</v>
@@ -7126,7 +7129,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B498" t="s">
         <v>90</v>
@@ -7134,7 +7137,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B499" t="s">
         <v>90</v>
@@ -7142,7 +7145,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B500" t="s">
         <v>90</v>
@@ -7150,7 +7153,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B501" t="s">
         <v>90</v>
@@ -7158,7 +7161,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B502" t="s">
         <v>90</v>
@@ -7166,7 +7169,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B503" t="s">
         <v>90</v>
@@ -7174,7 +7177,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B504" t="s">
         <v>90</v>
@@ -7182,7 +7185,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B505" t="s">
         <v>90</v>
@@ -7190,7 +7193,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B506" t="s">
         <v>90</v>
@@ -7198,7 +7201,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B507" t="s">
         <v>90</v>
@@ -7206,7 +7209,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B508" t="s">
         <v>90</v>
@@ -7214,7 +7217,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B509" t="s">
         <v>90</v>
@@ -7222,7 +7225,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B510" t="s">
         <v>90</v>
@@ -7230,7 +7233,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B511" t="s">
         <v>90</v>
@@ -7238,7 +7241,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B512" t="s">
         <v>90</v>
@@ -7246,7 +7249,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B513" t="s">
         <v>90</v>
@@ -7254,7 +7257,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B514" t="s">
         <v>90</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B515" t="s">
         <v>90</v>
@@ -7270,7 +7273,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B516" t="s">
         <v>90</v>
@@ -7278,7 +7281,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B517" t="s">
         <v>90</v>
@@ -7286,7 +7289,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B518" t="s">
         <v>90</v>
@@ -7294,7 +7297,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="B519" t="s">
         <v>90</v>
@@ -7302,7 +7305,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B520" t="s">
         <v>90</v>
@@ -7310,7 +7313,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B521" t="s">
         <v>90</v>
@@ -7318,7 +7321,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B522" t="s">
         <v>90</v>
@@ -7326,7 +7329,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B523" t="s">
         <v>90</v>
@@ -7334,7 +7337,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B524" t="s">
         <v>90</v>
@@ -7342,7 +7345,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B525" t="s">
         <v>90</v>
@@ -7350,15 +7353,15 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>370</v>
+        <v>458</v>
       </c>
       <c r="B526" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B527" t="s">
         <v>121</v>
@@ -7366,7 +7369,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B528" t="s">
         <v>121</v>
@@ -7374,7 +7377,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B529" t="s">
         <v>121</v>
@@ -7382,7 +7385,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B530" t="s">
         <v>121</v>
@@ -7390,7 +7393,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B531" t="s">
         <v>121</v>
@@ -7398,7 +7401,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B532" t="s">
         <v>121</v>
@@ -7406,7 +7409,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B533" t="s">
         <v>121</v>
@@ -7414,7 +7417,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B534" t="s">
         <v>121</v>
@@ -7422,7 +7425,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>120</v>
+        <v>378</v>
       </c>
       <c r="B535" t="s">
         <v>121</v>
@@ -7430,7 +7433,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B536" t="s">
         <v>121</v>
@@ -7438,23 +7441,23 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B537" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A538" s="2" t="s">
-        <v>124</v>
+      <c r="A538" t="s">
+        <v>123</v>
       </c>
       <c r="B538" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
-        <v>125</v>
+      <c r="A539" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B539" t="s">
         <v>121</v>
@@ -7462,7 +7465,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B540" t="s">
         <v>121</v>
@@ -7470,7 +7473,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B541" t="s">
         <v>121</v>
@@ -7478,7 +7481,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B542" t="s">
         <v>121</v>
@@ -7486,7 +7489,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B543" t="s">
         <v>121</v>
@@ -7494,7 +7497,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B544" t="s">
         <v>121</v>
@@ -7502,7 +7505,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B545" t="s">
         <v>121</v>
@@ -7510,7 +7513,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B546" t="s">
         <v>121</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B547" t="s">
         <v>121</v>
@@ -7526,7 +7529,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B548" t="s">
         <v>121</v>
@@ -7534,7 +7537,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B549" t="s">
         <v>121</v>
@@ -7542,7 +7545,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B550" t="s">
         <v>121</v>
@@ -7550,7 +7553,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B551" t="s">
         <v>121</v>
@@ -7558,7 +7561,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B552" t="s">
         <v>121</v>
@@ -7566,7 +7569,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B553" t="s">
         <v>121</v>
@@ -7574,7 +7577,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B554" t="s">
         <v>121</v>
@@ -7582,7 +7585,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B555" t="s">
         <v>121</v>
@@ -7590,7 +7593,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B556" t="s">
         <v>121</v>
@@ -7598,7 +7601,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B557" t="s">
         <v>121</v>
@@ -7606,7 +7609,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B558" t="s">
         <v>121</v>
@@ -7614,7 +7617,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B559" t="s">
         <v>121</v>
@@ -7622,7 +7625,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B560" t="s">
         <v>121</v>
@@ -7630,7 +7633,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B561" t="s">
         <v>121</v>
@@ -7638,7 +7641,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B562" t="s">
         <v>121</v>
@@ -7646,7 +7649,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B563" t="s">
         <v>121</v>
@@ -7654,7 +7657,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B564" t="s">
         <v>121</v>
@@ -7662,7 +7665,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B565" t="s">
         <v>121</v>
@@ -7670,7 +7673,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B566" t="s">
         <v>121</v>
@@ -7678,7 +7681,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B567" t="s">
         <v>121</v>
@@ -7686,7 +7689,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B568" t="s">
         <v>121</v>
@@ -7694,7 +7697,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B569" t="s">
         <v>121</v>
@@ -7702,7 +7705,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B570" t="s">
         <v>121</v>
@@ -7710,7 +7713,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B571" t="s">
         <v>121</v>
@@ -7718,7 +7721,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B572" t="s">
         <v>121</v>
@@ -7726,7 +7729,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B573" t="s">
         <v>121</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B574" t="s">
         <v>121</v>
@@ -7742,7 +7745,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B575" t="s">
         <v>121</v>
@@ -7750,7 +7753,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B576" t="s">
         <v>121</v>
@@ -7758,7 +7761,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B577" t="s">
         <v>121</v>
@@ -7766,7 +7769,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B578" t="s">
         <v>121</v>
@@ -7774,7 +7777,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B579" t="s">
         <v>121</v>
@@ -7782,7 +7785,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B580" t="s">
         <v>121</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B581" t="s">
         <v>121</v>
@@ -7798,7 +7801,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B582" t="s">
         <v>121</v>
@@ -7806,7 +7809,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B583" t="s">
         <v>121</v>
@@ -7814,7 +7817,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B584" t="s">
         <v>121</v>
@@ -7822,7 +7825,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B585" t="s">
         <v>121</v>
@@ -7830,7 +7833,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B586" t="s">
         <v>121</v>
@@ -7838,7 +7841,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>459</v>
+        <v>172</v>
       </c>
       <c r="B587" t="s">
         <v>121</v>
@@ -7846,7 +7849,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B588" t="s">
         <v>121</v>
@@ -7854,7 +7857,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B589" t="s">
         <v>121</v>
@@ -7862,7 +7865,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B590" t="s">
         <v>121</v>
@@ -7870,7 +7873,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B591" t="s">
         <v>121</v>
@@ -7878,7 +7881,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B592" t="s">
         <v>121</v>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B593" t="s">
         <v>121</v>
@@ -7894,7 +7897,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B594" t="s">
         <v>121</v>
@@ -7902,15 +7905,15 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>16</v>
+        <v>466</v>
       </c>
       <c r="B595" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B596" t="s">
         <v>13</v>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B597" t="s">
         <v>13</v>
@@ -7926,7 +7929,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B598" t="s">
         <v>13</v>
@@ -7934,7 +7937,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B599" t="s">
         <v>13</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B600" t="s">
         <v>13</v>
@@ -7950,7 +7953,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B601" t="s">
         <v>13</v>
@@ -7958,7 +7961,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>756</v>
+        <v>26</v>
       </c>
       <c r="B602" t="s">
         <v>13</v>
@@ -7966,7 +7969,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>27</v>
+        <v>756</v>
       </c>
       <c r="B603" t="s">
         <v>13</v>
@@ -7974,7 +7977,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B604" t="s">
         <v>13</v>
@@ -7982,7 +7985,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B605" t="s">
         <v>13</v>
@@ -7990,7 +7993,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B606" t="s">
         <v>13</v>
@@ -7998,7 +8001,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>436</v>
+        <v>36</v>
       </c>
       <c r="B607" t="s">
         <v>13</v>
@@ -8006,23 +8009,23 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B608" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A609" s="5" t="s">
-        <v>867</v>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>437</v>
       </c>
       <c r="B609" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A610" t="s">
-        <v>438</v>
+    <row r="610" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A610" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="B610" t="s">
         <v>13</v>
@@ -8030,7 +8033,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>757</v>
+        <v>438</v>
       </c>
       <c r="B611" t="s">
         <v>13</v>
@@ -8038,7 +8041,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>439</v>
+        <v>757</v>
       </c>
       <c r="B612" t="s">
         <v>13</v>
@@ -8046,7 +8049,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B613" t="s">
         <v>13</v>
@@ -8054,7 +8057,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B614" t="s">
         <v>13</v>
@@ -8062,7 +8065,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B615" t="s">
         <v>13</v>
@@ -8070,7 +8073,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B616" t="s">
         <v>13</v>
@@ -8078,15 +8081,15 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="B617" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>2</v>
+        <v>419</v>
       </c>
       <c r="B618" t="s">
         <v>3</v>
@@ -8094,7 +8097,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B619" t="s">
         <v>3</v>
@@ -8102,7 +8105,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B620" t="s">
         <v>3</v>
@@ -8110,7 +8113,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B621" t="s">
         <v>3</v>
@@ -8118,7 +8121,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B622" t="s">
         <v>3</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B623" t="s">
         <v>3</v>
@@ -8134,7 +8137,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B624" t="s">
         <v>3</v>
@@ -8142,7 +8145,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B625" t="s">
         <v>3</v>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B626" t="s">
         <v>3</v>
@@ -8158,7 +8161,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B627" t="s">
         <v>3</v>
@@ -8166,7 +8169,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B628" t="s">
         <v>3</v>
@@ -8174,7 +8177,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B629" t="s">
         <v>3</v>
@@ -8182,7 +8185,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B630" t="s">
         <v>3</v>
@@ -8190,7 +8193,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B631" t="s">
         <v>3</v>
@@ -8198,7 +8201,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B632" t="s">
         <v>3</v>
@@ -8206,7 +8209,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B633" t="s">
         <v>3</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B634" t="s">
         <v>3</v>
@@ -8222,7 +8225,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B635" t="s">
         <v>3</v>
@@ -8230,7 +8233,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B636" t="s">
         <v>3</v>
@@ -8238,7 +8241,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B637" t="s">
         <v>3</v>
@@ -8246,7 +8249,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B638" t="s">
         <v>3</v>
@@ -8254,7 +8257,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B639" t="s">
         <v>3</v>
@@ -8262,7 +8265,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>420</v>
+        <v>29</v>
       </c>
       <c r="B640" t="s">
         <v>3</v>
@@ -8270,7 +8273,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B641" t="s">
         <v>3</v>
@@ -8278,7 +8281,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B642" t="s">
         <v>3</v>
@@ -8286,7 +8289,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B643" t="s">
         <v>3</v>
@@ -8294,7 +8297,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B644" t="s">
         <v>3</v>
@@ -8302,7 +8305,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B645" t="s">
         <v>3</v>
@@ -8310,7 +8313,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B646" t="s">
         <v>3</v>
@@ -8318,7 +8321,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B647" t="s">
         <v>3</v>
@@ -8326,7 +8329,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>752</v>
+        <v>427</v>
       </c>
       <c r="B648" t="s">
         <v>3</v>
@@ -8334,7 +8337,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B649" t="s">
         <v>3</v>
@@ -8342,7 +8345,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B650" t="s">
         <v>3</v>
@@ -8350,7 +8353,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B651" t="s">
         <v>3</v>
@@ -8358,7 +8361,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>840</v>
+        <v>755</v>
       </c>
       <c r="B652" t="s">
         <v>3</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B653" t="s">
         <v>3</v>
@@ -8374,15 +8377,15 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>310</v>
+        <v>841</v>
       </c>
       <c r="B654" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B655" t="s">
         <v>50</v>
@@ -8390,7 +8393,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B656" t="s">
         <v>50</v>
@@ -8398,7 +8401,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="B657" t="s">
         <v>50</v>
@@ -8406,7 +8409,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>51</v>
+        <v>409</v>
       </c>
       <c r="B658" t="s">
         <v>50</v>
@@ -8414,7 +8417,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B659" t="s">
         <v>50</v>
@@ -8422,7 +8425,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B660" t="s">
         <v>50</v>
@@ -8430,7 +8433,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B661" t="s">
         <v>50</v>
@@ -8438,7 +8441,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B662" t="s">
         <v>50</v>
@@ -8446,7 +8449,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B663" t="s">
         <v>50</v>
@@ -8454,7 +8457,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B664" t="s">
         <v>50</v>
@@ -8462,7 +8465,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B665" t="s">
         <v>50</v>
@@ -8470,7 +8473,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B666" t="s">
         <v>50</v>
@@ -8478,7 +8481,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B667" t="s">
         <v>50</v>
@@ -8486,7 +8489,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B668" t="s">
         <v>50</v>
@@ -8494,7 +8497,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B669" t="s">
         <v>50</v>
@@ -8502,7 +8505,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B670" t="s">
         <v>50</v>
@@ -8510,7 +8513,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B671" t="s">
         <v>50</v>
@@ -8518,7 +8521,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B672" t="s">
         <v>50</v>
@@ -8526,7 +8529,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B673" t="s">
         <v>50</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B674" t="s">
         <v>50</v>
@@ -8542,7 +8545,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B675" t="s">
         <v>50</v>
@@ -8550,7 +8553,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B676" t="s">
         <v>50</v>
@@ -8558,7 +8561,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B677" t="s">
         <v>50</v>
@@ -8566,7 +8569,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B678" t="s">
         <v>50</v>
@@ -8574,7 +8577,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B679" t="s">
         <v>50</v>
@@ -8582,7 +8585,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B680" t="s">
         <v>50</v>
@@ -8590,7 +8593,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B681" t="s">
         <v>50</v>
@@ -8598,7 +8601,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B682" t="s">
         <v>50</v>
@@ -8606,7 +8609,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B683" t="s">
         <v>50</v>
@@ -8614,7 +8617,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B684" t="s">
         <v>50</v>
@@ -8622,7 +8625,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B685" t="s">
         <v>50</v>
@@ -8630,7 +8633,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B686" t="s">
         <v>50</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B687" t="s">
         <v>50</v>
@@ -8646,7 +8649,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B688" t="s">
         <v>50</v>
@@ -8654,7 +8657,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B689" t="s">
         <v>50</v>
@@ -8662,7 +8665,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B690" t="s">
         <v>50</v>
@@ -8670,7 +8673,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B691" t="s">
         <v>50</v>
@@ -8678,7 +8681,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B692" t="s">
         <v>50</v>
@@ -8686,7 +8689,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B693" t="s">
         <v>50</v>
@@ -8694,7 +8697,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B694" t="s">
         <v>50</v>
@@ -8702,7 +8705,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B695" t="s">
         <v>50</v>
@@ -8710,7 +8713,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>313</v>
+        <v>88</v>
       </c>
       <c r="B696" t="s">
         <v>50</v>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B697" t="s">
         <v>50</v>
@@ -8726,7 +8729,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B698" t="s">
         <v>50</v>
@@ -8734,7 +8737,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B699" t="s">
         <v>50</v>
@@ -8742,7 +8745,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B700" t="s">
         <v>50</v>
@@ -8750,7 +8753,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B701" t="s">
         <v>50</v>
@@ -8758,7 +8761,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B702" t="s">
         <v>50</v>
@@ -8766,7 +8769,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B703" t="s">
         <v>50</v>
@@ -8774,7 +8777,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B704" t="s">
         <v>50</v>
@@ -8782,7 +8785,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B705" t="s">
         <v>50</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B706" t="s">
         <v>50</v>
@@ -8798,7 +8801,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B707" t="s">
         <v>50</v>
@@ -8806,7 +8809,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B708" t="s">
         <v>50</v>
@@ -8814,7 +8817,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B709" t="s">
         <v>50</v>
@@ -8822,7 +8825,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B710" t="s">
         <v>50</v>
@@ -8830,7 +8833,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B711" t="s">
         <v>50</v>
@@ -8838,7 +8841,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B712" t="s">
         <v>50</v>
@@ -8846,7 +8849,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B713" t="s">
         <v>50</v>
@@ -8854,7 +8857,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B714" t="s">
         <v>50</v>
@@ -8862,7 +8865,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B715" t="s">
         <v>50</v>
@@ -8870,7 +8873,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B716" t="s">
         <v>50</v>
@@ -8878,7 +8881,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B717" t="s">
         <v>50</v>
@@ -8886,7 +8889,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B718" t="s">
         <v>50</v>
@@ -8894,7 +8897,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B719" t="s">
         <v>50</v>
@@ -8902,7 +8905,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B720" t="s">
         <v>50</v>
@@ -8910,7 +8913,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B721" t="s">
         <v>50</v>
@@ -8918,7 +8921,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B722" t="s">
         <v>50</v>
@@ -8926,7 +8929,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>444</v>
+        <v>339</v>
       </c>
       <c r="B723" t="s">
         <v>50</v>
@@ -8934,7 +8937,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B724" t="s">
         <v>50</v>
@@ -8942,7 +8945,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B725" t="s">
         <v>50</v>
@@ -8950,7 +8953,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B726" t="s">
         <v>50</v>
@@ -8958,7 +8961,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B727" t="s">
         <v>50</v>
@@ -8966,7 +8969,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B728" t="s">
         <v>50</v>
@@ -8974,7 +8977,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B729" t="s">
         <v>50</v>
@@ -8982,7 +8985,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B730" t="s">
         <v>50</v>
@@ -8990,7 +8993,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>843</v>
+        <v>451</v>
       </c>
       <c r="B731" t="s">
         <v>50</v>
@@ -8998,15 +9001,15 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>173</v>
+        <v>843</v>
       </c>
       <c r="B732" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B733" t="s">
         <v>174</v>
@@ -9014,7 +9017,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B734" t="s">
         <v>174</v>
@@ -9022,7 +9025,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B735" t="s">
         <v>174</v>
@@ -9030,7 +9033,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B736" t="s">
         <v>174</v>
@@ -9038,7 +9041,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B737" t="s">
         <v>174</v>
@@ -9046,7 +9049,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B738" t="s">
         <v>174</v>
@@ -9054,7 +9057,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B739" t="s">
         <v>174</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B740" t="s">
         <v>174</v>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B741" t="s">
         <v>174</v>
@@ -9078,7 +9081,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B742" t="s">
         <v>174</v>
@@ -9086,7 +9089,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B743" t="s">
         <v>174</v>
@@ -9094,7 +9097,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B744" t="s">
         <v>174</v>
@@ -9102,7 +9105,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B745" t="s">
         <v>174</v>
@@ -9110,7 +9113,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B746" t="s">
         <v>174</v>
@@ -9118,7 +9121,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B747" t="s">
         <v>174</v>
@@ -9126,7 +9129,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B748" t="s">
         <v>174</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B749" t="s">
         <v>174</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B750" t="s">
         <v>174</v>
@@ -9150,7 +9153,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B751" t="s">
         <v>174</v>
@@ -9158,7 +9161,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B752" t="s">
         <v>174</v>
@@ -9166,7 +9169,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B753" t="s">
         <v>174</v>
@@ -9174,7 +9177,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B754" t="s">
         <v>174</v>
@@ -9182,7 +9185,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B755" t="s">
         <v>174</v>
@@ -9190,7 +9193,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B756" t="s">
         <v>174</v>
@@ -9198,7 +9201,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B757" t="s">
         <v>174</v>
@@ -9206,7 +9209,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B758" t="s">
         <v>174</v>
@@ -9214,7 +9217,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="B759" t="s">
         <v>174</v>
@@ -9222,7 +9225,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B760" t="s">
         <v>174</v>
@@ -9230,7 +9233,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>201</v>
+        <v>759</v>
       </c>
       <c r="B761" t="s">
         <v>174</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>379</v>
+        <v>201</v>
       </c>
       <c r="B762" t="s">
         <v>174</v>
@@ -9246,7 +9249,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>202</v>
+        <v>379</v>
       </c>
       <c r="B763" t="s">
         <v>174</v>
@@ -9254,7 +9257,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B764" t="s">
         <v>174</v>
@@ -9262,7 +9265,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B765" t="s">
         <v>174</v>
@@ -9270,7 +9273,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B766" t="s">
         <v>174</v>
@@ -9278,7 +9281,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B767" t="s">
         <v>174</v>
@@ -9286,7 +9289,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B768" t="s">
         <v>174</v>
@@ -9294,7 +9297,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B769" t="s">
         <v>174</v>
@@ -9302,7 +9305,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="B770" t="s">
         <v>174</v>
@@ -9310,7 +9313,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B771" t="s">
         <v>174</v>
@@ -9318,7 +9321,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B772" t="s">
         <v>174</v>
@@ -9326,7 +9329,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B773" t="s">
         <v>174</v>
@@ -9334,7 +9337,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B774" t="s">
         <v>174</v>
@@ -9342,7 +9345,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B775" t="s">
         <v>174</v>
@@ -9350,7 +9353,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B776" t="s">
         <v>174</v>
@@ -9358,7 +9361,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B777" t="s">
         <v>174</v>
@@ -9366,7 +9369,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B778" t="s">
         <v>174</v>
@@ -9374,7 +9377,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B779" t="s">
         <v>174</v>
@@ -9382,7 +9385,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B780" t="s">
         <v>174</v>
@@ -9390,7 +9393,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B781" t="s">
         <v>174</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B782" t="s">
         <v>174</v>
@@ -9406,7 +9409,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B783" t="s">
         <v>174</v>
@@ -9414,7 +9417,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="B784" t="s">
         <v>174</v>
@@ -9422,7 +9425,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B785" t="s">
         <v>174</v>
@@ -9430,7 +9433,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B786" t="s">
         <v>174</v>
@@ -9438,7 +9441,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B787" t="s">
         <v>174</v>
@@ -9446,7 +9449,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B788" t="s">
         <v>174</v>
@@ -9454,7 +9457,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B789" t="s">
         <v>174</v>
@@ -9462,7 +9465,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B790" t="s">
         <v>174</v>
@@ -9470,15 +9473,15 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>209</v>
+        <v>473</v>
       </c>
       <c r="B791" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B792" t="s">
         <v>210</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B793" t="s">
         <v>210</v>
@@ -9494,7 +9497,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B794" t="s">
         <v>210</v>
@@ -9502,7 +9505,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B795" t="s">
         <v>210</v>
@@ -9510,7 +9513,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B796" t="s">
         <v>210</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B797" t="s">
         <v>210</v>
@@ -9526,7 +9529,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B798" t="s">
         <v>210</v>
@@ -9534,7 +9537,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B799" t="s">
         <v>210</v>
@@ -9542,7 +9545,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B800" t="s">
         <v>210</v>
@@ -9550,7 +9553,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B801" t="s">
         <v>210</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B802" t="s">
         <v>210</v>
@@ -9566,7 +9569,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B803" t="s">
         <v>210</v>
@@ -9574,7 +9577,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B804" t="s">
         <v>210</v>
@@ -9582,7 +9585,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B805" t="s">
         <v>210</v>
@@ -9590,7 +9593,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B806" t="s">
         <v>210</v>
@@ -9598,7 +9601,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B807" t="s">
         <v>210</v>
@@ -9606,7 +9609,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B808" t="s">
         <v>210</v>
@@ -9614,7 +9617,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B809" t="s">
         <v>210</v>
@@ -9622,7 +9625,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B810" t="s">
         <v>210</v>
@@ -9630,7 +9633,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B811" t="s">
         <v>210</v>
@@ -9638,7 +9641,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B812" t="s">
         <v>210</v>
@@ -9646,7 +9649,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B813" t="s">
         <v>210</v>
@@ -9654,7 +9657,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B814" t="s">
         <v>210</v>
@@ -9662,7 +9665,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B815" t="s">
         <v>210</v>
@@ -9670,7 +9673,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B816" t="s">
         <v>210</v>
@@ -9678,7 +9681,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B817" t="s">
         <v>210</v>
@@ -9686,7 +9689,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B818" t="s">
         <v>210</v>
@@ -9694,7 +9697,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B819" t="s">
         <v>210</v>
@@ -9702,7 +9705,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B820" t="s">
         <v>210</v>
@@ -9710,7 +9713,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B821" t="s">
         <v>210</v>
@@ -9718,7 +9721,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B822" t="s">
         <v>210</v>
@@ -9726,7 +9729,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B823" t="s">
         <v>210</v>
@@ -9734,7 +9737,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B824" t="s">
         <v>210</v>
@@ -9742,7 +9745,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B825" t="s">
         <v>210</v>
@@ -9750,7 +9753,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B826" t="s">
         <v>210</v>
@@ -9758,7 +9761,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B827" t="s">
         <v>210</v>
@@ -9766,7 +9769,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B828" t="s">
         <v>210</v>
@@ -9774,7 +9777,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B829" t="s">
         <v>210</v>
@@ -9782,7 +9785,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B830" t="s">
         <v>210</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B831" t="s">
         <v>210</v>
@@ -9798,7 +9801,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B832" t="s">
         <v>210</v>
@@ -9806,23 +9809,23 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B833" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="834" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A834" s="4" t="s">
-        <v>761</v>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>252</v>
       </c>
       <c r="B834" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A835" t="s">
-        <v>253</v>
+    <row r="835" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A835" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="B835" t="s">
         <v>210</v>
@@ -9830,7 +9833,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B836" t="s">
         <v>210</v>
@@ -9838,7 +9841,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B837" t="s">
         <v>210</v>
@@ -9846,7 +9849,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B838" t="s">
         <v>210</v>
@@ -9854,7 +9857,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B839" t="s">
         <v>210</v>
@@ -9862,7 +9865,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B840" t="s">
         <v>210</v>
@@ -9870,7 +9873,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B841" t="s">
         <v>210</v>
@@ -9878,7 +9881,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B842" t="s">
         <v>210</v>
@@ -9886,7 +9889,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B843" t="s">
         <v>210</v>
@@ -9894,7 +9897,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B844" t="s">
         <v>210</v>
@@ -9902,7 +9905,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B845" t="s">
         <v>210</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B846" t="s">
         <v>210</v>
@@ -9918,7 +9921,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B847" t="s">
         <v>210</v>
@@ -9926,7 +9929,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B848" t="s">
         <v>210</v>
@@ -9934,7 +9937,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B849" t="s">
         <v>210</v>
@@ -9942,7 +9945,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B850" t="s">
         <v>210</v>
@@ -9950,7 +9953,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B851" t="s">
         <v>210</v>
@@ -9958,7 +9961,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B852" t="s">
         <v>210</v>
@@ -9966,7 +9969,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>474</v>
+        <v>270</v>
       </c>
       <c r="B853" t="s">
         <v>210</v>
@@ -9974,7 +9977,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B854" t="s">
         <v>210</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B855" t="s">
         <v>210</v>
@@ -9990,7 +9993,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B856" t="s">
         <v>210</v>
@@ -9998,7 +10001,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B857" t="s">
         <v>210</v>
@@ -10006,7 +10009,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B858" t="s">
         <v>210</v>
@@ -10014,7 +10017,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B859" t="s">
         <v>210</v>
@@ -10022,7 +10025,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B860" t="s">
         <v>210</v>
@@ -10030,15 +10033,15 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="B861" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B862" t="s">
         <v>38</v>
@@ -10046,23 +10049,23 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B863" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A864" s="1" t="s">
-        <v>41</v>
+      <c r="A864" t="s">
+        <v>40</v>
       </c>
       <c r="B864" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A865" t="s">
-        <v>42</v>
+      <c r="A865" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B865" t="s">
         <v>38</v>
@@ -10070,15 +10073,15 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B866" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A867" s="1" t="s">
-        <v>44</v>
+      <c r="A867" t="s">
+        <v>43</v>
       </c>
       <c r="B867" t="s">
         <v>38</v>
@@ -10086,7 +10089,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
-        <v>869</v>
+        <v>44</v>
       </c>
       <c r="B868" t="s">
         <v>38</v>
@@ -10094,7 +10097,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B869" t="s">
         <v>38</v>
@@ -10102,7 +10105,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
-        <v>45</v>
+        <v>868</v>
       </c>
       <c r="B870" t="s">
         <v>38</v>
@@ -10110,7 +10113,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B871" t="s">
         <v>38</v>
@@ -10118,15 +10121,15 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B872" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A873" t="s">
-        <v>48</v>
+      <c r="A873" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B873" t="s">
         <v>38</v>
@@ -10134,7 +10137,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B874" t="s">
         <v>38</v>
@@ -10142,7 +10145,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>428</v>
+        <v>49</v>
       </c>
       <c r="B875" t="s">
         <v>38</v>
@@ -10150,7 +10153,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B876" t="s">
         <v>38</v>
@@ -10158,7 +10161,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B877" t="s">
         <v>38</v>
@@ -10166,7 +10169,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B878" t="s">
         <v>38</v>
@@ -10174,7 +10177,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B879" t="s">
         <v>38</v>
@@ -10182,7 +10185,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B880" t="s">
         <v>38</v>
@@ -10190,7 +10193,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B881" t="s">
         <v>38</v>
@@ -10198,7 +10201,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B882" t="s">
         <v>38</v>
@@ -10206,23 +10209,31 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>758</v>
+        <v>435</v>
       </c>
       <c r="B883" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A884" s="1" t="s">
-        <v>842</v>
+      <c r="A884" t="s">
+        <v>758</v>
       </c>
       <c r="B884" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B885" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1663">
-    <sortCondition ref="B2:B1663"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1664">
+    <sortCondition ref="B2:B1664"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC833767-C5A0-4A36-AC41-AABC94F9204D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93506BF6-EDE2-445A-8DE7-2CA13C1FEE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="10680" windowHeight="12216" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$791</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$822</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="937">
   <si>
     <t>message</t>
   </si>
@@ -2755,13 +2755,106 @@
   </si>
   <si>
     <t>any hotel to recommend</t>
+  </si>
+  <si>
+    <t>Any landmark</t>
+  </si>
+  <si>
+    <t>Provide me a landmark</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>hostel</t>
+  </si>
+  <si>
+    <t>homestay</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>give me a hotel</t>
+  </si>
+  <si>
+    <t>give me a hostel</t>
+  </si>
+  <si>
+    <t>give me a homestay</t>
+  </si>
+  <si>
+    <t>give me a resort</t>
+  </si>
+  <si>
+    <t>give me hotel</t>
+  </si>
+  <si>
+    <t>give me hostel</t>
+  </si>
+  <si>
+    <t>give me homestay</t>
+  </si>
+  <si>
+    <t>give me resort</t>
+  </si>
+  <si>
+    <t>recommend me a hotel</t>
+  </si>
+  <si>
+    <t>recommend me a hostel</t>
+  </si>
+  <si>
+    <t>recommend me a homestay</t>
+  </si>
+  <si>
+    <t>recommend me a resort</t>
+  </si>
+  <si>
+    <t>recommend me hotel</t>
+  </si>
+  <si>
+    <t>recommend me hostel</t>
+  </si>
+  <si>
+    <t>recommend me homestay</t>
+  </si>
+  <si>
+    <t>recommend me resort</t>
+  </si>
+  <si>
+    <t>suggest me a hotel</t>
+  </si>
+  <si>
+    <t>suggest me a hostel</t>
+  </si>
+  <si>
+    <t>suggest me a homestay</t>
+  </si>
+  <si>
+    <t>suggest me a resort</t>
+  </si>
+  <si>
+    <t>suggest me hotel</t>
+  </si>
+  <si>
+    <t>suggest me hostel</t>
+  </si>
+  <si>
+    <t>suggest me homestay</t>
+  </si>
+  <si>
+    <t>suggest me resort</t>
+  </si>
+  <si>
+    <t>where is it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2797,6 +2890,12 @@
       <sz val="8"/>
       <name val="Poppins"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2818,13 +2917,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3139,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B885"/>
+  <dimension ref="A1:B916"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377:B378"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4369,7 +4471,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>638</v>
+        <v>907</v>
       </c>
       <c r="B153" t="s">
         <v>546</v>
@@ -4377,7 +4479,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>639</v>
+        <v>906</v>
       </c>
       <c r="B154" t="s">
         <v>546</v>
@@ -4385,7 +4487,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B155" t="s">
         <v>546</v>
@@ -4393,7 +4495,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B156" t="s">
         <v>546</v>
@@ -4401,7 +4503,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B157" t="s">
         <v>546</v>
@@ -4409,7 +4511,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B158" t="s">
         <v>546</v>
@@ -4417,7 +4519,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B159" t="s">
         <v>546</v>
@@ -4425,7 +4527,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B160" t="s">
         <v>546</v>
@@ -4433,7 +4535,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B161" t="s">
         <v>546</v>
@@ -4441,7 +4543,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B162" t="s">
         <v>546</v>
@@ -4449,7 +4551,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B163" t="s">
         <v>546</v>
@@ -4457,7 +4559,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B164" t="s">
         <v>546</v>
@@ -4465,23 +4567,23 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>518</v>
+        <v>648</v>
       </c>
       <c r="B165" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>520</v>
+        <v>649</v>
       </c>
       <c r="B166" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B167" t="s">
         <v>519</v>
@@ -4489,7 +4591,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B168" t="s">
         <v>519</v>
@@ -4497,7 +4599,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B169" t="s">
         <v>519</v>
@@ -4505,7 +4607,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>902</v>
+        <v>522</v>
       </c>
       <c r="B170" t="s">
         <v>519</v>
@@ -4513,7 +4615,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>903</v>
+        <v>523</v>
       </c>
       <c r="B171" t="s">
         <v>519</v>
@@ -4521,7 +4623,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B172" t="s">
         <v>519</v>
@@ -4529,7 +4631,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B173" t="s">
         <v>519</v>
@@ -4537,7 +4639,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>524</v>
+        <v>901</v>
       </c>
       <c r="B174" t="s">
         <v>519</v>
@@ -4545,7 +4647,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>525</v>
+        <v>904</v>
       </c>
       <c r="B175" t="s">
         <v>519</v>
@@ -4553,7 +4655,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>526</v>
+        <v>936</v>
       </c>
       <c r="B176" t="s">
         <v>519</v>
@@ -4561,7 +4663,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="B177" t="s">
         <v>519</v>
@@ -4569,7 +4671,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>591</v>
+        <v>525</v>
       </c>
       <c r="B178" t="s">
         <v>519</v>
@@ -4577,7 +4679,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="B179" t="s">
         <v>519</v>
@@ -4585,7 +4687,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B180" t="s">
         <v>519</v>
@@ -4593,7 +4695,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B181" t="s">
         <v>519</v>
@@ -4601,7 +4703,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B182" t="s">
         <v>519</v>
@@ -4609,7 +4711,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B183" t="s">
         <v>519</v>
@@ -4617,7 +4719,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B184" t="s">
         <v>519</v>
@@ -4625,7 +4727,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B185" t="s">
         <v>519</v>
@@ -4633,7 +4735,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B186" t="s">
         <v>519</v>
@@ -4641,7 +4743,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B187" t="s">
         <v>519</v>
@@ -4649,7 +4751,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B188" t="s">
         <v>519</v>
@@ -4657,7 +4759,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B189" t="s">
         <v>519</v>
@@ -4665,7 +4767,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B190" t="s">
         <v>519</v>
@@ -4673,7 +4775,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B191" t="s">
         <v>519</v>
@@ -4681,31 +4783,31 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="B192" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="B193" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="B194" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B195" t="s">
         <v>537</v>
@@ -4713,7 +4815,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B196" t="s">
         <v>537</v>
@@ -4721,7 +4823,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B197" t="s">
         <v>537</v>
@@ -4729,7 +4831,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B198" t="s">
         <v>537</v>
@@ -4737,7 +4839,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B199" t="s">
         <v>537</v>
@@ -4745,7 +4847,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>620</v>
+        <v>542</v>
       </c>
       <c r="B200" t="s">
         <v>537</v>
@@ -4753,7 +4855,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>621</v>
+        <v>543</v>
       </c>
       <c r="B201" t="s">
         <v>537</v>
@@ -4761,7 +4863,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>622</v>
+        <v>544</v>
       </c>
       <c r="B202" t="s">
         <v>537</v>
@@ -4769,7 +4871,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B203" t="s">
         <v>537</v>
@@ -4777,7 +4879,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B204" t="s">
         <v>537</v>
@@ -4785,7 +4887,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B205" t="s">
         <v>537</v>
@@ -4793,7 +4895,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B206" t="s">
         <v>537</v>
@@ -4801,7 +4903,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B207" t="s">
         <v>537</v>
@@ -4809,7 +4911,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B208" t="s">
         <v>537</v>
@@ -4817,7 +4919,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>772</v>
+        <v>626</v>
       </c>
       <c r="B209" t="s">
         <v>537</v>
@@ -4825,7 +4927,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B210" t="s">
         <v>537</v>
@@ -4833,7 +4935,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B211" t="s">
         <v>537</v>
@@ -4841,7 +4943,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>631</v>
+        <v>772</v>
       </c>
       <c r="B212" t="s">
         <v>537</v>
@@ -4849,7 +4951,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B213" t="s">
         <v>537</v>
@@ -4857,7 +4959,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B214" t="s">
         <v>537</v>
@@ -4865,7 +4967,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B215" t="s">
         <v>537</v>
@@ -4873,31 +4975,31 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>794</v>
+        <v>632</v>
       </c>
       <c r="B216" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>796</v>
+        <v>633</v>
       </c>
       <c r="B217" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>797</v>
+        <v>634</v>
       </c>
       <c r="B218" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B219" t="s">
         <v>795</v>
@@ -4905,7 +5007,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B220" t="s">
         <v>795</v>
@@ -4913,7 +5015,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>892</v>
+        <v>797</v>
       </c>
       <c r="B221" t="s">
         <v>795</v>
@@ -4921,7 +5023,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>894</v>
+        <v>798</v>
       </c>
       <c r="B222" t="s">
         <v>795</v>
@@ -4929,7 +5031,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>895</v>
+        <v>799</v>
       </c>
       <c r="B223" t="s">
         <v>795</v>
@@ -4937,7 +5039,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B224" t="s">
         <v>795</v>
@@ -4945,7 +5047,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B225" t="s">
         <v>795</v>
@@ -4953,7 +5055,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B226" t="s">
         <v>795</v>
@@ -4961,7 +5063,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B227" t="s">
         <v>795</v>
@@ -4969,7 +5071,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B228" t="s">
         <v>795</v>
@@ -4977,7 +5079,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B229" t="s">
         <v>795</v>
@@ -4985,7 +5087,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="B230" t="s">
         <v>795</v>
@@ -4993,7 +5095,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>800</v>
+        <v>897</v>
       </c>
       <c r="B231" t="s">
         <v>795</v>
@@ -5001,7 +5103,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>801</v>
+        <v>893</v>
       </c>
       <c r="B232" t="s">
         <v>795</v>
@@ -5009,7 +5111,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>802</v>
+        <v>891</v>
       </c>
       <c r="B233" t="s">
         <v>795</v>
@@ -5017,7 +5119,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B234" t="s">
         <v>795</v>
@@ -5025,7 +5127,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B235" t="s">
         <v>795</v>
@@ -5033,7 +5135,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B236" t="s">
         <v>795</v>
@@ -5041,7 +5143,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B237" t="s">
         <v>795</v>
@@ -5049,7 +5151,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B238" t="s">
         <v>795</v>
@@ -5057,7 +5159,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B239" t="s">
         <v>795</v>
@@ -5065,7 +5167,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B240" t="s">
         <v>795</v>
@@ -5073,7 +5175,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B241" t="s">
         <v>795</v>
@@ -5081,7 +5183,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B242" t="s">
         <v>795</v>
@@ -5089,7 +5191,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B243" t="s">
         <v>795</v>
@@ -5097,7 +5199,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B244" t="s">
         <v>795</v>
@@ -5105,7 +5207,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B245" t="s">
         <v>795</v>
@@ -5113,7 +5215,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="B246" t="s">
         <v>795</v>
@@ -5121,7 +5223,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="B247" t="s">
         <v>795</v>
@@ -5129,7 +5231,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="B248" t="s">
         <v>795</v>
@@ -5137,7 +5239,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B249" t="s">
         <v>795</v>
@@ -5145,7 +5247,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B250" t="s">
         <v>795</v>
@@ -5153,7 +5255,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B251" t="s">
         <v>795</v>
@@ -5161,7 +5263,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B252" t="s">
         <v>795</v>
@@ -5169,7 +5271,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B253" t="s">
         <v>795</v>
@@ -5177,31 +5279,31 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>572</v>
+        <v>837</v>
       </c>
       <c r="B254" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>574</v>
+        <v>838</v>
       </c>
       <c r="B255" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>575</v>
+        <v>839</v>
       </c>
       <c r="B256" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B257" t="s">
         <v>573</v>
@@ -5209,7 +5311,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B258" t="s">
         <v>573</v>
@@ -5217,7 +5319,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B259" t="s">
         <v>573</v>
@@ -5225,7 +5327,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B260" t="s">
         <v>573</v>
@@ -5233,7 +5335,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B261" t="s">
         <v>573</v>
@@ -5241,7 +5343,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>703</v>
+        <v>578</v>
       </c>
       <c r="B262" t="s">
         <v>573</v>
@@ -5249,7 +5351,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>704</v>
+        <v>579</v>
       </c>
       <c r="B263" t="s">
         <v>573</v>
@@ -5257,7 +5359,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>705</v>
+        <v>580</v>
       </c>
       <c r="B264" t="s">
         <v>573</v>
@@ -5265,7 +5367,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B265" t="s">
         <v>573</v>
@@ -5273,7 +5375,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B266" t="s">
         <v>573</v>
@@ -5281,7 +5383,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B267" t="s">
         <v>573</v>
@@ -5289,7 +5391,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B268" t="s">
         <v>573</v>
@@ -5297,7 +5399,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B269" t="s">
         <v>573</v>
@@ -5305,7 +5407,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B270" t="s">
         <v>573</v>
@@ -5313,7 +5415,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B271" t="s">
         <v>573</v>
@@ -5321,7 +5423,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B272" t="s">
         <v>573</v>
@@ -5329,7 +5431,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B273" t="s">
         <v>573</v>
@@ -5337,7 +5439,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B274" t="s">
         <v>573</v>
@@ -5345,7 +5447,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B275" t="s">
         <v>573</v>
@@ -5353,7 +5455,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B276" t="s">
         <v>573</v>
@@ -5361,7 +5463,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B277" t="s">
         <v>573</v>
@@ -5369,7 +5471,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B278" t="s">
         <v>573</v>
@@ -5377,7 +5479,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B279" t="s">
         <v>573</v>
@@ -5385,7 +5487,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B280" t="s">
         <v>573</v>
@@ -5393,7 +5495,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B281" t="s">
         <v>573</v>
@@ -5401,7 +5503,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B282" t="s">
         <v>573</v>
@@ -5409,7 +5511,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B283" t="s">
         <v>573</v>
@@ -5417,7 +5519,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B284" t="s">
         <v>573</v>
@@ -5425,7 +5527,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B285" t="s">
         <v>573</v>
@@ -5433,7 +5535,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B286" t="s">
         <v>573</v>
@@ -5441,7 +5543,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B287" t="s">
         <v>573</v>
@@ -5449,7 +5551,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B288" t="s">
         <v>573</v>
@@ -5457,7 +5559,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B289" t="s">
         <v>573</v>
@@ -5465,7 +5567,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B290" t="s">
         <v>573</v>
@@ -5473,31 +5575,31 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>773</v>
+        <v>729</v>
       </c>
       <c r="B291" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>775</v>
+        <v>730</v>
       </c>
       <c r="B292" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>776</v>
+        <v>731</v>
       </c>
       <c r="B293" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B294" t="s">
         <v>774</v>
@@ -5505,7 +5607,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B295" t="s">
         <v>774</v>
@@ -5513,7 +5615,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B296" t="s">
         <v>774</v>
@@ -5521,7 +5623,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B297" t="s">
         <v>774</v>
@@ -5529,7 +5631,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B298" t="s">
         <v>774</v>
@@ -5537,7 +5639,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B299" t="s">
         <v>774</v>
@@ -5545,7 +5647,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B300" t="s">
         <v>774</v>
@@ -5553,7 +5655,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B301" t="s">
         <v>774</v>
@@ -5561,7 +5663,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B302" t="s">
         <v>774</v>
@@ -5569,7 +5671,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B303" t="s">
         <v>774</v>
@@ -5577,7 +5679,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B304" t="s">
         <v>774</v>
@@ -5585,7 +5687,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B305" t="s">
         <v>774</v>
@@ -5593,7 +5695,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B306" t="s">
         <v>774</v>
@@ -5601,7 +5703,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B307" t="s">
         <v>774</v>
@@ -5609,7 +5711,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B308" t="s">
         <v>774</v>
@@ -5617,7 +5719,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B309" t="s">
         <v>774</v>
@@ -5625,7 +5727,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B310" t="s">
         <v>774</v>
@@ -5633,7 +5735,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>824</v>
+        <v>791</v>
       </c>
       <c r="B311" t="s">
         <v>774</v>
@@ -5641,7 +5743,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>825</v>
+        <v>792</v>
       </c>
       <c r="B312" t="s">
         <v>774</v>
@@ -5649,7 +5751,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>826</v>
+        <v>793</v>
       </c>
       <c r="B313" t="s">
         <v>774</v>
@@ -5657,7 +5759,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B314" t="s">
         <v>774</v>
@@ -5665,7 +5767,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B315" t="s">
         <v>774</v>
@@ -5673,7 +5775,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B316" t="s">
         <v>774</v>
@@ -5681,7 +5783,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B317" t="s">
         <v>774</v>
@@ -5689,7 +5791,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B318" t="s">
         <v>774</v>
@@ -5697,31 +5799,31 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>527</v>
+        <v>829</v>
       </c>
       <c r="B319" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>529</v>
+        <v>830</v>
       </c>
       <c r="B320" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>530</v>
+        <v>831</v>
       </c>
       <c r="B321" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B322" t="s">
         <v>528</v>
@@ -5729,7 +5831,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B323" t="s">
         <v>528</v>
@@ -5737,7 +5839,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B324" t="s">
         <v>528</v>
@@ -5745,7 +5847,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>768</v>
+        <v>531</v>
       </c>
       <c r="B325" t="s">
         <v>528</v>
@@ -5753,7 +5855,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>767</v>
+        <v>532</v>
       </c>
       <c r="B326" t="s">
         <v>528</v>
@@ -5761,7 +5863,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B327" t="s">
         <v>528</v>
@@ -5769,7 +5871,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>535</v>
+        <v>768</v>
       </c>
       <c r="B328" t="s">
         <v>528</v>
@@ -5777,7 +5879,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>605</v>
+        <v>767</v>
       </c>
       <c r="B329" t="s">
         <v>528</v>
@@ -5785,7 +5887,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>606</v>
+        <v>534</v>
       </c>
       <c r="B330" t="s">
         <v>528</v>
@@ -5793,7 +5895,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>607</v>
+        <v>535</v>
       </c>
       <c r="B331" t="s">
         <v>528</v>
@@ -5801,7 +5903,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B332" t="s">
         <v>528</v>
@@ -5809,7 +5911,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B333" t="s">
         <v>528</v>
@@ -5817,7 +5919,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B334" t="s">
         <v>528</v>
@@ -5825,7 +5927,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B335" t="s">
         <v>528</v>
@@ -5833,7 +5935,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B336" t="s">
         <v>528</v>
@@ -5841,7 +5943,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B337" t="s">
         <v>528</v>
@@ -5849,7 +5951,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B338" t="s">
         <v>528</v>
@@ -5857,7 +5959,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B339" t="s">
         <v>528</v>
@@ -5865,7 +5967,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B340" t="s">
         <v>528</v>
@@ -5873,7 +5975,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B341" t="s">
         <v>528</v>
@@ -5881,7 +5983,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B342" t="s">
         <v>528</v>
@@ -5889,7 +5991,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B343" t="s">
         <v>528</v>
@@ -5897,31 +5999,31 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>498</v>
+        <v>617</v>
       </c>
       <c r="B344" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>499</v>
+        <v>618</v>
       </c>
       <c r="B345" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>490</v>
+        <v>619</v>
       </c>
       <c r="B346" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B347" t="s">
         <v>490</v>
@@ -5929,15 +6031,15 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B348" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A349" s="4" t="s">
-        <v>766</v>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>490</v>
       </c>
       <c r="B349" t="s">
         <v>490</v>
@@ -5945,7 +6047,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B350" t="s">
         <v>490</v>
@@ -5953,15 +6055,15 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B351" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>504</v>
+    <row r="352" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="B352" t="s">
         <v>490</v>
@@ -5969,7 +6071,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>765</v>
+        <v>502</v>
       </c>
       <c r="B353" t="s">
         <v>490</v>
@@ -5977,7 +6079,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>764</v>
+        <v>503</v>
       </c>
       <c r="B354" t="s">
         <v>490</v>
@@ -5985,7 +6087,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B355" t="s">
         <v>490</v>
@@ -5993,7 +6095,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>516</v>
+        <v>765</v>
       </c>
       <c r="B356" t="s">
         <v>490</v>
@@ -6001,7 +6103,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>505</v>
+        <v>764</v>
       </c>
       <c r="B357" t="s">
         <v>490</v>
@@ -6009,7 +6111,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B358" t="s">
         <v>490</v>
@@ -6017,7 +6119,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B359" t="s">
         <v>490</v>
@@ -6025,7 +6127,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B360" t="s">
         <v>490</v>
@@ -6033,7 +6135,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B361" t="s">
         <v>490</v>
@@ -6041,7 +6143,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>889</v>
+        <v>507</v>
       </c>
       <c r="B362" t="s">
         <v>490</v>
@@ -6049,7 +6151,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B363" t="s">
         <v>490</v>
@@ -6057,7 +6159,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B364" t="s">
         <v>490</v>
@@ -6065,7 +6167,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>512</v>
+        <v>889</v>
       </c>
       <c r="B365" t="s">
         <v>490</v>
@@ -6073,7 +6175,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B366" t="s">
         <v>490</v>
@@ -6081,7 +6183,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B367" t="s">
         <v>490</v>
@@ -6089,7 +6191,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B368" t="s">
         <v>490</v>
@@ -6097,7 +6199,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B369" t="s">
         <v>490</v>
@@ -6105,7 +6207,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B370" t="s">
         <v>490</v>
@@ -6113,7 +6215,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>877</v>
+        <v>515</v>
       </c>
       <c r="B371" t="s">
         <v>490</v>
@@ -6121,7 +6223,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>878</v>
+        <v>489</v>
       </c>
       <c r="B372" t="s">
         <v>490</v>
@@ -6129,7 +6231,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>876</v>
+        <v>491</v>
       </c>
       <c r="B373" t="s">
         <v>490</v>
@@ -6137,7 +6239,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>492</v>
+        <v>877</v>
       </c>
       <c r="B374" t="s">
         <v>490</v>
@@ -6145,7 +6247,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>493</v>
+        <v>878</v>
       </c>
       <c r="B375" t="s">
         <v>490</v>
@@ -6153,311 +6255,311 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>494</v>
+        <v>876</v>
       </c>
       <c r="B376" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>495</v>
+      <c r="A377" s="6" t="s">
+        <v>908</v>
       </c>
       <c r="B377" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>905</v>
+      <c r="A378" s="6" t="s">
+        <v>909</v>
       </c>
       <c r="B378" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>496</v>
+      <c r="A379" s="6" t="s">
+        <v>910</v>
       </c>
       <c r="B379" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>497</v>
+      <c r="A380" s="6" t="s">
+        <v>911</v>
       </c>
       <c r="B380" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>844</v>
+      <c r="A381" s="6" t="s">
+        <v>912</v>
       </c>
       <c r="B381" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>845</v>
+      <c r="A382" s="6" t="s">
+        <v>913</v>
       </c>
       <c r="B382" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>271</v>
+      <c r="A383" s="6" t="s">
+        <v>914</v>
       </c>
       <c r="B383" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>273</v>
+      <c r="A384" s="6" t="s">
+        <v>915</v>
       </c>
       <c r="B384" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>274</v>
+      <c r="A385" s="6" t="s">
+        <v>916</v>
       </c>
       <c r="B385" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>275</v>
+      <c r="A386" s="6" t="s">
+        <v>917</v>
       </c>
       <c r="B386" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>276</v>
+      <c r="A387" s="6" t="s">
+        <v>918</v>
       </c>
       <c r="B387" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>277</v>
+      <c r="A388" s="6" t="s">
+        <v>919</v>
       </c>
       <c r="B388" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>278</v>
+      <c r="A389" s="6" t="s">
+        <v>920</v>
       </c>
       <c r="B389" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>875</v>
+      <c r="A390" s="6" t="s">
+        <v>921</v>
       </c>
       <c r="B390" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>874</v>
+      <c r="A391" s="6" t="s">
+        <v>922</v>
       </c>
       <c r="B391" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>279</v>
+      <c r="A392" s="6" t="s">
+        <v>923</v>
       </c>
       <c r="B392" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>280</v>
+      <c r="A393" s="6" t="s">
+        <v>924</v>
       </c>
       <c r="B393" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>281</v>
+      <c r="A394" s="6" t="s">
+        <v>925</v>
       </c>
       <c r="B394" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>282</v>
+      <c r="A395" s="6" t="s">
+        <v>926</v>
       </c>
       <c r="B395" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
-        <v>283</v>
+      <c r="A396" s="6" t="s">
+        <v>927</v>
       </c>
       <c r="B396" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>284</v>
+      <c r="A397" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="B397" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>285</v>
+      <c r="A398" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="B398" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>286</v>
+      <c r="A399" s="6" t="s">
+        <v>930</v>
       </c>
       <c r="B399" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>287</v>
+      <c r="A400" s="6" t="s">
+        <v>931</v>
       </c>
       <c r="B400" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>288</v>
+      <c r="A401" s="6" t="s">
+        <v>932</v>
       </c>
       <c r="B401" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
-        <v>289</v>
+      <c r="A402" s="6" t="s">
+        <v>933</v>
       </c>
       <c r="B402" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>290</v>
+      <c r="A403" s="6" t="s">
+        <v>934</v>
       </c>
       <c r="B403" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
-        <v>763</v>
+      <c r="A404" s="6" t="s">
+        <v>935</v>
       </c>
       <c r="B404" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>291</v>
+        <v>492</v>
       </c>
       <c r="B405" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A406" s="4" t="s">
-        <v>762</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>493</v>
       </c>
       <c r="B406" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="B407" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>293</v>
+        <v>495</v>
       </c>
       <c r="B408" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>294</v>
+        <v>905</v>
       </c>
       <c r="B409" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>295</v>
+        <v>496</v>
       </c>
       <c r="B410" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="B411" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>297</v>
+        <v>844</v>
       </c>
       <c r="B412" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>298</v>
+        <v>845</v>
       </c>
       <c r="B413" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="B414" t="s">
         <v>272</v>
@@ -6465,7 +6567,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B415" t="s">
         <v>272</v>
@@ -6473,7 +6575,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B416" t="s">
         <v>272</v>
@@ -6481,7 +6583,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B417" t="s">
         <v>272</v>
@@ -6489,7 +6591,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B418" t="s">
         <v>272</v>
@@ -6497,7 +6599,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B419" t="s">
         <v>272</v>
@@ -6505,7 +6607,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="B420" t="s">
         <v>272</v>
@@ -6513,7 +6615,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>306</v>
+        <v>875</v>
       </c>
       <c r="B421" t="s">
         <v>272</v>
@@ -6521,7 +6623,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>307</v>
+        <v>874</v>
       </c>
       <c r="B422" t="s">
         <v>272</v>
@@ -6529,7 +6631,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B423" t="s">
         <v>272</v>
@@ -6537,7 +6639,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B424" t="s">
         <v>272</v>
@@ -6545,7 +6647,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="B425" t="s">
         <v>272</v>
@@ -6553,7 +6655,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>395</v>
+        <v>282</v>
       </c>
       <c r="B426" t="s">
         <v>272</v>
@@ -6561,7 +6663,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="B427" t="s">
         <v>272</v>
@@ -6569,7 +6671,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="B428" t="s">
         <v>272</v>
@@ -6577,7 +6679,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>398</v>
+        <v>285</v>
       </c>
       <c r="B429" t="s">
         <v>272</v>
@@ -6585,7 +6687,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>399</v>
+        <v>286</v>
       </c>
       <c r="B430" t="s">
         <v>272</v>
@@ -6593,7 +6695,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>400</v>
+        <v>287</v>
       </c>
       <c r="B431" t="s">
         <v>272</v>
@@ -6601,7 +6703,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>401</v>
+        <v>288</v>
       </c>
       <c r="B432" t="s">
         <v>272</v>
@@ -6609,7 +6711,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>402</v>
+        <v>289</v>
       </c>
       <c r="B433" t="s">
         <v>272</v>
@@ -6617,7 +6719,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>403</v>
+        <v>290</v>
       </c>
       <c r="B434" t="s">
         <v>272</v>
@@ -6625,7 +6727,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>404</v>
+        <v>763</v>
       </c>
       <c r="B435" t="s">
         <v>272</v>
@@ -6633,15 +6735,15 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="B436" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
-        <v>406</v>
+    <row r="437" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="B437" t="s">
         <v>272</v>
@@ -6649,7 +6751,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="B438" t="s">
         <v>272</v>
@@ -6657,7 +6759,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="B439" t="s">
         <v>272</v>
@@ -6665,7 +6767,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>482</v>
+        <v>294</v>
       </c>
       <c r="B440" t="s">
         <v>272</v>
@@ -6673,7 +6775,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="B441" t="s">
         <v>272</v>
@@ -6681,7 +6783,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>484</v>
+        <v>296</v>
       </c>
       <c r="B442" t="s">
         <v>272</v>
@@ -6689,7 +6791,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>485</v>
+        <v>297</v>
       </c>
       <c r="B443" t="s">
         <v>272</v>
@@ -6697,7 +6799,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>486</v>
+        <v>298</v>
       </c>
       <c r="B444" t="s">
         <v>272</v>
@@ -6705,7 +6807,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>487</v>
+        <v>299</v>
       </c>
       <c r="B445" t="s">
         <v>272</v>
@@ -6713,7 +6815,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>488</v>
+        <v>300</v>
       </c>
       <c r="B446" t="s">
         <v>272</v>
@@ -6721,255 +6823,255 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="B447" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="B448" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="B449" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>93</v>
+        <v>304</v>
       </c>
       <c r="B450" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="B451" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="B452" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="B453" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="B454" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="B455" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>99</v>
+        <v>394</v>
       </c>
       <c r="B456" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="B457" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="B458" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>102</v>
+        <v>397</v>
       </c>
       <c r="B459" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="B460" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>104</v>
+        <v>399</v>
       </c>
       <c r="B461" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>105</v>
+        <v>400</v>
       </c>
       <c r="B462" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="B463" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>107</v>
+        <v>402</v>
       </c>
       <c r="B464" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>108</v>
+        <v>403</v>
       </c>
       <c r="B465" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>109</v>
+        <v>404</v>
       </c>
       <c r="B466" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="B467" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>111</v>
+        <v>406</v>
       </c>
       <c r="B468" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>112</v>
+        <v>407</v>
       </c>
       <c r="B469" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>113</v>
+        <v>408</v>
       </c>
       <c r="B470" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>114</v>
+        <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>115</v>
+        <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>116</v>
+        <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>117</v>
+        <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="B478" t="s">
         <v>90</v>
@@ -6977,7 +7079,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B479" t="s">
         <v>90</v>
@@ -6985,7 +7087,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>414</v>
+        <v>92</v>
       </c>
       <c r="B480" t="s">
         <v>90</v>
@@ -6993,7 +7095,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>415</v>
+        <v>93</v>
       </c>
       <c r="B481" t="s">
         <v>90</v>
@@ -7001,7 +7103,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>416</v>
+        <v>94</v>
       </c>
       <c r="B482" t="s">
         <v>90</v>
@@ -7009,7 +7111,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>417</v>
+        <v>95</v>
       </c>
       <c r="B483" t="s">
         <v>90</v>
@@ -7017,7 +7119,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>418</v>
+        <v>96</v>
       </c>
       <c r="B484" t="s">
         <v>90</v>
@@ -7025,7 +7127,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B485" t="s">
         <v>90</v>
@@ -7033,7 +7135,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="B486" t="s">
         <v>90</v>
@@ -7041,7 +7143,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>341</v>
+        <v>99</v>
       </c>
       <c r="B487" t="s">
         <v>90</v>
@@ -7049,7 +7151,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="B488" t="s">
         <v>90</v>
@@ -7057,7 +7159,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="B489" t="s">
         <v>90</v>
@@ -7065,7 +7167,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="B490" t="s">
         <v>90</v>
@@ -7073,7 +7175,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="B491" t="s">
         <v>90</v>
@@ -7081,7 +7183,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="B492" t="s">
         <v>90</v>
@@ -7089,7 +7191,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>873</v>
+        <v>105</v>
       </c>
       <c r="B493" t="s">
         <v>90</v>
@@ -7097,7 +7199,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>872</v>
+        <v>106</v>
       </c>
       <c r="B494" t="s">
         <v>90</v>
@@ -7105,7 +7207,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>871</v>
+        <v>107</v>
       </c>
       <c r="B495" t="s">
         <v>90</v>
@@ -7113,7 +7215,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>870</v>
+        <v>108</v>
       </c>
       <c r="B496" t="s">
         <v>90</v>
@@ -7121,7 +7223,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="B497" t="s">
         <v>90</v>
@@ -7129,7 +7231,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>348</v>
+        <v>110</v>
       </c>
       <c r="B498" t="s">
         <v>90</v>
@@ -7137,7 +7239,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="B499" t="s">
         <v>90</v>
@@ -7145,7 +7247,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>350</v>
+        <v>112</v>
       </c>
       <c r="B500" t="s">
         <v>90</v>
@@ -7153,7 +7255,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>351</v>
+        <v>113</v>
       </c>
       <c r="B501" t="s">
         <v>90</v>
@@ -7161,7 +7263,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>352</v>
+        <v>114</v>
       </c>
       <c r="B502" t="s">
         <v>90</v>
@@ -7169,7 +7271,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="B503" t="s">
         <v>90</v>
@@ -7177,7 +7279,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="B504" t="s">
         <v>90</v>
@@ -7185,7 +7287,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>355</v>
+        <v>117</v>
       </c>
       <c r="B505" t="s">
         <v>90</v>
@@ -7193,7 +7295,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="B506" t="s">
         <v>90</v>
@@ -7201,7 +7303,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="B507" t="s">
         <v>90</v>
@@ -7209,7 +7311,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="B508" t="s">
         <v>90</v>
@@ -7217,7 +7319,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="B509" t="s">
         <v>90</v>
@@ -7225,7 +7327,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="B510" t="s">
         <v>90</v>
@@ -7233,7 +7335,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="B511" t="s">
         <v>90</v>
@@ -7241,7 +7343,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="B512" t="s">
         <v>90</v>
@@ -7249,7 +7351,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="B513" t="s">
         <v>90</v>
@@ -7257,7 +7359,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="B514" t="s">
         <v>90</v>
@@ -7265,7 +7367,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="B515" t="s">
         <v>90</v>
@@ -7273,7 +7375,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>366</v>
+        <v>119</v>
       </c>
       <c r="B516" t="s">
         <v>90</v>
@@ -7281,7 +7383,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B517" t="s">
         <v>90</v>
@@ -7289,7 +7391,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B518" t="s">
         <v>90</v>
@@ -7297,7 +7399,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B519" t="s">
         <v>90</v>
@@ -7305,7 +7407,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>452</v>
+        <v>343</v>
       </c>
       <c r="B520" t="s">
         <v>90</v>
@@ -7313,7 +7415,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>453</v>
+        <v>344</v>
       </c>
       <c r="B521" t="s">
         <v>90</v>
@@ -7321,7 +7423,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>454</v>
+        <v>345</v>
       </c>
       <c r="B522" t="s">
         <v>90</v>
@@ -7329,7 +7431,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>455</v>
+        <v>346</v>
       </c>
       <c r="B523" t="s">
         <v>90</v>
@@ -7337,7 +7439,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>456</v>
+        <v>873</v>
       </c>
       <c r="B524" t="s">
         <v>90</v>
@@ -7345,7 +7447,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>457</v>
+        <v>872</v>
       </c>
       <c r="B525" t="s">
         <v>90</v>
@@ -7353,7 +7455,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>458</v>
+        <v>871</v>
       </c>
       <c r="B526" t="s">
         <v>90</v>
@@ -7361,255 +7463,255 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>370</v>
+        <v>870</v>
       </c>
       <c r="B527" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B528" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B529" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B530" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B531" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B532" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B533" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B534" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B535" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>120</v>
+        <v>355</v>
       </c>
       <c r="B536" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>122</v>
+        <v>356</v>
       </c>
       <c r="B537" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>123</v>
+        <v>357</v>
       </c>
       <c r="B538" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A539" s="2" t="s">
-        <v>124</v>
+      <c r="A539" t="s">
+        <v>358</v>
       </c>
       <c r="B539" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="B540" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>126</v>
+        <v>360</v>
       </c>
       <c r="B541" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>127</v>
+        <v>361</v>
       </c>
       <c r="B542" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="B543" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="B544" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="B545" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>131</v>
+        <v>365</v>
       </c>
       <c r="B546" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="B547" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="B548" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="B549" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>135</v>
+        <v>369</v>
       </c>
       <c r="B550" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>136</v>
+        <v>452</v>
       </c>
       <c r="B551" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>137</v>
+        <v>453</v>
       </c>
       <c r="B552" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>138</v>
+        <v>454</v>
       </c>
       <c r="B553" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>139</v>
+        <v>455</v>
       </c>
       <c r="B554" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>140</v>
+        <v>456</v>
       </c>
       <c r="B555" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
       <c r="B556" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>142</v>
+        <v>458</v>
       </c>
       <c r="B557" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>143</v>
+        <v>370</v>
       </c>
       <c r="B558" t="s">
         <v>121</v>
@@ -7617,7 +7719,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>144</v>
+        <v>371</v>
       </c>
       <c r="B559" t="s">
         <v>121</v>
@@ -7625,7 +7727,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="B560" t="s">
         <v>121</v>
@@ -7633,7 +7735,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>146</v>
+        <v>373</v>
       </c>
       <c r="B561" t="s">
         <v>121</v>
@@ -7641,7 +7743,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>147</v>
+        <v>374</v>
       </c>
       <c r="B562" t="s">
         <v>121</v>
@@ -7649,7 +7751,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>148</v>
+        <v>375</v>
       </c>
       <c r="B563" t="s">
         <v>121</v>
@@ -7657,7 +7759,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>149</v>
+        <v>376</v>
       </c>
       <c r="B564" t="s">
         <v>121</v>
@@ -7665,7 +7767,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>150</v>
+        <v>377</v>
       </c>
       <c r="B565" t="s">
         <v>121</v>
@@ -7673,7 +7775,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>151</v>
+        <v>378</v>
       </c>
       <c r="B566" t="s">
         <v>121</v>
@@ -7681,7 +7783,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B567" t="s">
         <v>121</v>
@@ -7689,7 +7791,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B568" t="s">
         <v>121</v>
@@ -7697,15 +7799,15 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B569" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A570" t="s">
-        <v>155</v>
+      <c r="A570" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B570" t="s">
         <v>121</v>
@@ -7713,7 +7815,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B571" t="s">
         <v>121</v>
@@ -7721,7 +7823,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B572" t="s">
         <v>121</v>
@@ -7729,7 +7831,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B573" t="s">
         <v>121</v>
@@ -7737,7 +7839,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B574" t="s">
         <v>121</v>
@@ -7745,7 +7847,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B575" t="s">
         <v>121</v>
@@ -7753,7 +7855,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B576" t="s">
         <v>121</v>
@@ -7761,7 +7863,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="B577" t="s">
         <v>121</v>
@@ -7769,7 +7871,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B578" t="s">
         <v>121</v>
@@ -7777,7 +7879,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B579" t="s">
         <v>121</v>
@@ -7785,7 +7887,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B580" t="s">
         <v>121</v>
@@ -7793,7 +7895,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B581" t="s">
         <v>121</v>
@@ -7801,7 +7903,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="B582" t="s">
         <v>121</v>
@@ -7809,7 +7911,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B583" t="s">
         <v>121</v>
@@ -7817,7 +7919,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="B584" t="s">
         <v>121</v>
@@ -7825,7 +7927,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B585" t="s">
         <v>121</v>
@@ -7833,7 +7935,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="B586" t="s">
         <v>121</v>
@@ -7841,7 +7943,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B587" t="s">
         <v>121</v>
@@ -7849,7 +7951,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>459</v>
+        <v>142</v>
       </c>
       <c r="B588" t="s">
         <v>121</v>
@@ -7857,7 +7959,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>460</v>
+        <v>143</v>
       </c>
       <c r="B589" t="s">
         <v>121</v>
@@ -7865,7 +7967,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="B590" t="s">
         <v>121</v>
@@ -7873,7 +7975,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>462</v>
+        <v>145</v>
       </c>
       <c r="B591" t="s">
         <v>121</v>
@@ -7881,7 +7983,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>463</v>
+        <v>146</v>
       </c>
       <c r="B592" t="s">
         <v>121</v>
@@ -7889,7 +7991,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>464</v>
+        <v>147</v>
       </c>
       <c r="B593" t="s">
         <v>121</v>
@@ -7897,7 +7999,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>465</v>
+        <v>148</v>
       </c>
       <c r="B594" t="s">
         <v>121</v>
@@ -7905,7 +8007,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>466</v>
+        <v>149</v>
       </c>
       <c r="B595" t="s">
         <v>121</v>
@@ -7913,431 +8015,431 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B596" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="B597" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="B598" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="B599" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="B600" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="B601" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="B602" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>756</v>
+        <v>157</v>
       </c>
       <c r="B603" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B604" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B605" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B606" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B607" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>436</v>
+        <v>162</v>
       </c>
       <c r="B608" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="B609" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A610" s="5" t="s">
-        <v>867</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>164</v>
       </c>
       <c r="B610" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>438</v>
+        <v>165</v>
       </c>
       <c r="B611" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>757</v>
+        <v>166</v>
       </c>
       <c r="B612" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="B613" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>440</v>
+        <v>168</v>
       </c>
       <c r="B614" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>441</v>
+        <v>169</v>
       </c>
       <c r="B615" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
       <c r="B616" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>443</v>
+        <v>171</v>
       </c>
       <c r="B617" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>419</v>
+        <v>172</v>
       </c>
       <c r="B618" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>2</v>
+        <v>459</v>
       </c>
       <c r="B619" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="B620" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="B621" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="B622" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="B623" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>8</v>
+        <v>464</v>
       </c>
       <c r="B624" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>9</v>
+        <v>465</v>
       </c>
       <c r="B625" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>10</v>
+        <v>466</v>
       </c>
       <c r="B626" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B627" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B628" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B629" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B630" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B631" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B632" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B633" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>19</v>
+        <v>756</v>
       </c>
       <c r="B634" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B635" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B636" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B637" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B638" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>34</v>
+        <v>436</v>
       </c>
       <c r="B639" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="B640" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A641" t="s">
-        <v>420</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A641" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="B641" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B642" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>422</v>
+        <v>757</v>
       </c>
       <c r="B643" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B644" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B645" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B646" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="B647" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B648" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>752</v>
+        <v>419</v>
       </c>
       <c r="B649" t="s">
         <v>3</v>
@@ -8345,7 +8447,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>753</v>
+        <v>2</v>
       </c>
       <c r="B650" t="s">
         <v>3</v>
@@ -8353,7 +8455,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>754</v>
+        <v>4</v>
       </c>
       <c r="B651" t="s">
         <v>3</v>
@@ -8361,7 +8463,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>755</v>
+        <v>5</v>
       </c>
       <c r="B652" t="s">
         <v>3</v>
@@ -8369,7 +8471,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>840</v>
+        <v>6</v>
       </c>
       <c r="B653" t="s">
         <v>3</v>
@@ -8377,7 +8479,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>841</v>
+        <v>7</v>
       </c>
       <c r="B654" t="s">
         <v>3</v>
@@ -8385,255 +8487,255 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="B655" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="B656" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>312</v>
+        <v>10</v>
       </c>
       <c r="B657" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="B658" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B659" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B660" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B661" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B662" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B663" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B664" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B665" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B666" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B667" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B668" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B669" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B670" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B671" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>64</v>
+        <v>420</v>
       </c>
       <c r="B672" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>65</v>
+        <v>421</v>
       </c>
       <c r="B673" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>66</v>
+        <v>422</v>
       </c>
       <c r="B674" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>67</v>
+        <v>423</v>
       </c>
       <c r="B675" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>68</v>
+        <v>424</v>
       </c>
       <c r="B676" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>69</v>
+        <v>425</v>
       </c>
       <c r="B677" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="B678" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>71</v>
+        <v>427</v>
       </c>
       <c r="B679" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>72</v>
+        <v>752</v>
       </c>
       <c r="B680" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>73</v>
+        <v>753</v>
       </c>
       <c r="B681" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>74</v>
+        <v>754</v>
       </c>
       <c r="B682" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>75</v>
+        <v>755</v>
       </c>
       <c r="B683" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>76</v>
+        <v>840</v>
       </c>
       <c r="B684" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>77</v>
+        <v>841</v>
       </c>
       <c r="B685" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="B686" t="s">
         <v>50</v>
@@ -8641,7 +8743,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="B687" t="s">
         <v>50</v>
@@ -8649,7 +8751,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="B688" t="s">
         <v>50</v>
@@ -8657,7 +8759,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="B689" t="s">
         <v>50</v>
@@ -8665,7 +8767,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B690" t="s">
         <v>50</v>
@@ -8673,7 +8775,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B691" t="s">
         <v>50</v>
@@ -8681,7 +8783,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B692" t="s">
         <v>50</v>
@@ -8689,7 +8791,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B693" t="s">
         <v>50</v>
@@ -8697,7 +8799,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B694" t="s">
         <v>50</v>
@@ -8705,7 +8807,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B695" t="s">
         <v>50</v>
@@ -8713,7 +8815,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B696" t="s">
         <v>50</v>
@@ -8721,7 +8823,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="B697" t="s">
         <v>50</v>
@@ -8729,7 +8831,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="B698" t="s">
         <v>50</v>
@@ -8737,7 +8839,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="B699" t="s">
         <v>50</v>
@@ -8745,7 +8847,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="B700" t="s">
         <v>50</v>
@@ -8753,7 +8855,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="B701" t="s">
         <v>50</v>
@@ -8761,7 +8863,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="B702" t="s">
         <v>50</v>
@@ -8769,7 +8871,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>319</v>
+        <v>64</v>
       </c>
       <c r="B703" t="s">
         <v>50</v>
@@ -8777,7 +8879,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="B704" t="s">
         <v>50</v>
@@ -8785,7 +8887,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="B705" t="s">
         <v>50</v>
@@ -8793,7 +8895,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>322</v>
+        <v>67</v>
       </c>
       <c r="B706" t="s">
         <v>50</v>
@@ -8801,7 +8903,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="B707" t="s">
         <v>50</v>
@@ -8809,7 +8911,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="B708" t="s">
         <v>50</v>
@@ -8817,7 +8919,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>325</v>
+        <v>70</v>
       </c>
       <c r="B709" t="s">
         <v>50</v>
@@ -8825,7 +8927,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="B710" t="s">
         <v>50</v>
@@ -8833,7 +8935,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="B711" t="s">
         <v>50</v>
@@ -8841,7 +8943,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="B712" t="s">
         <v>50</v>
@@ -8849,7 +8951,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B713" t="s">
         <v>50</v>
@@ -8857,7 +8959,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="B714" t="s">
         <v>50</v>
@@ -8865,7 +8967,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="B715" t="s">
         <v>50</v>
@@ -8873,7 +8975,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="B716" t="s">
         <v>50</v>
@@ -8881,7 +8983,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="B717" t="s">
         <v>50</v>
@@ -8889,7 +8991,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="B718" t="s">
         <v>50</v>
@@ -8897,7 +8999,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="B719" t="s">
         <v>50</v>
@@ -8905,7 +9007,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="B720" t="s">
         <v>50</v>
@@ -8913,7 +9015,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="B721" t="s">
         <v>50</v>
@@ -8921,7 +9023,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="B722" t="s">
         <v>50</v>
@@ -8929,7 +9031,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="B723" t="s">
         <v>50</v>
@@ -8937,7 +9039,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="B724" t="s">
         <v>50</v>
@@ -8945,7 +9047,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="B725" t="s">
         <v>50</v>
@@ -8953,7 +9055,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>446</v>
+        <v>87</v>
       </c>
       <c r="B726" t="s">
         <v>50</v>
@@ -8961,7 +9063,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>447</v>
+        <v>88</v>
       </c>
       <c r="B727" t="s">
         <v>50</v>
@@ -8969,7 +9071,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>448</v>
+        <v>313</v>
       </c>
       <c r="B728" t="s">
         <v>50</v>
@@ -8977,7 +9079,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>449</v>
+        <v>314</v>
       </c>
       <c r="B729" t="s">
         <v>50</v>
@@ -8985,7 +9087,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>450</v>
+        <v>315</v>
       </c>
       <c r="B730" t="s">
         <v>50</v>
@@ -8993,7 +9095,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>451</v>
+        <v>316</v>
       </c>
       <c r="B731" t="s">
         <v>50</v>
@@ -9001,7 +9103,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>843</v>
+        <v>317</v>
       </c>
       <c r="B732" t="s">
         <v>50</v>
@@ -9009,255 +9111,255 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="B733" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="B734" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="B735" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="B736" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="B737" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="B738" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="B739" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="B740" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="B741" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="B742" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="B743" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="B744" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="B745" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="B746" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="B747" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="B748" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="B749" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="B750" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="B751" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="B752" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="B753" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="B754" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>196</v>
+        <v>444</v>
       </c>
       <c r="B755" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
       <c r="B756" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
       <c r="B757" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
       <c r="B758" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
       <c r="B759" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>760</v>
+        <v>449</v>
       </c>
       <c r="B760" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>759</v>
+        <v>450</v>
       </c>
       <c r="B761" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="B762" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>379</v>
+        <v>843</v>
       </c>
       <c r="B763" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B764" t="s">
         <v>174</v>
@@ -9265,7 +9367,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="B765" t="s">
         <v>174</v>
@@ -9273,7 +9375,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B766" t="s">
         <v>174</v>
@@ -9281,7 +9383,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B767" t="s">
         <v>174</v>
@@ -9289,7 +9391,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B768" t="s">
         <v>174</v>
@@ -9297,7 +9399,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="B769" t="s">
         <v>174</v>
@@ -9305,7 +9407,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B770" t="s">
         <v>174</v>
@@ -9313,7 +9415,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>380</v>
+        <v>181</v>
       </c>
       <c r="B771" t="s">
         <v>174</v>
@@ -9321,7 +9423,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>381</v>
+        <v>182</v>
       </c>
       <c r="B772" t="s">
         <v>174</v>
@@ -9329,7 +9431,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>382</v>
+        <v>183</v>
       </c>
       <c r="B773" t="s">
         <v>174</v>
@@ -9337,7 +9439,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>383</v>
+        <v>184</v>
       </c>
       <c r="B774" t="s">
         <v>174</v>
@@ -9345,7 +9447,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="B775" t="s">
         <v>174</v>
@@ -9353,7 +9455,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>385</v>
+        <v>186</v>
       </c>
       <c r="B776" t="s">
         <v>174</v>
@@ -9361,7 +9463,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>386</v>
+        <v>187</v>
       </c>
       <c r="B777" t="s">
         <v>174</v>
@@ -9369,7 +9471,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>387</v>
+        <v>188</v>
       </c>
       <c r="B778" t="s">
         <v>174</v>
@@ -9377,7 +9479,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="B779" t="s">
         <v>174</v>
@@ -9385,7 +9487,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>389</v>
+        <v>190</v>
       </c>
       <c r="B780" t="s">
         <v>174</v>
@@ -9393,7 +9495,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>390</v>
+        <v>191</v>
       </c>
       <c r="B781" t="s">
         <v>174</v>
@@ -9401,7 +9503,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>391</v>
+        <v>192</v>
       </c>
       <c r="B782" t="s">
         <v>174</v>
@@ -9409,7 +9511,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>392</v>
+        <v>193</v>
       </c>
       <c r="B783" t="s">
         <v>174</v>
@@ -9417,7 +9519,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>393</v>
+        <v>194</v>
       </c>
       <c r="B784" t="s">
         <v>174</v>
@@ -9425,7 +9527,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>467</v>
+        <v>195</v>
       </c>
       <c r="B785" t="s">
         <v>174</v>
@@ -9433,7 +9535,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>468</v>
+        <v>196</v>
       </c>
       <c r="B786" t="s">
         <v>174</v>
@@ -9441,7 +9543,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>469</v>
+        <v>197</v>
       </c>
       <c r="B787" t="s">
         <v>174</v>
@@ -9449,7 +9551,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>470</v>
+        <v>198</v>
       </c>
       <c r="B788" t="s">
         <v>174</v>
@@ -9457,7 +9559,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>471</v>
+        <v>199</v>
       </c>
       <c r="B789" t="s">
         <v>174</v>
@@ -9465,7 +9567,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>472</v>
+        <v>200</v>
       </c>
       <c r="B790" t="s">
         <v>174</v>
@@ -9473,7 +9575,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>473</v>
+        <v>760</v>
       </c>
       <c r="B791" t="s">
         <v>174</v>
@@ -9481,255 +9583,255 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>209</v>
+        <v>759</v>
       </c>
       <c r="B792" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B793" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="B794" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B795" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B796" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B797" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B798" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B799" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B800" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B801" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
       <c r="B802" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>221</v>
+        <v>381</v>
       </c>
       <c r="B803" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>222</v>
+        <v>382</v>
       </c>
       <c r="B804" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="B805" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="B806" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="B807" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="B808" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
       <c r="B809" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="B810" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="B811" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="B812" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>231</v>
+        <v>391</v>
       </c>
       <c r="B813" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="B814" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="B815" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>234</v>
+        <v>467</v>
       </c>
       <c r="B816" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>235</v>
+        <v>468</v>
       </c>
       <c r="B817" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>236</v>
+        <v>469</v>
       </c>
       <c r="B818" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>237</v>
+        <v>470</v>
       </c>
       <c r="B819" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>238</v>
+        <v>471</v>
       </c>
       <c r="B820" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>239</v>
+        <v>472</v>
       </c>
       <c r="B821" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>240</v>
+        <v>473</v>
       </c>
       <c r="B822" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B823" t="s">
         <v>210</v>
@@ -9737,7 +9839,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B824" t="s">
         <v>210</v>
@@ -9745,7 +9847,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B825" t="s">
         <v>210</v>
@@ -9753,7 +9855,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B826" t="s">
         <v>210</v>
@@ -9761,7 +9863,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="B827" t="s">
         <v>210</v>
@@ -9769,7 +9871,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B828" t="s">
         <v>210</v>
@@ -9777,7 +9879,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B829" t="s">
         <v>210</v>
@@ -9785,7 +9887,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B830" t="s">
         <v>210</v>
@@ -9793,7 +9895,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B831" t="s">
         <v>210</v>
@@ -9801,7 +9903,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B832" t="s">
         <v>210</v>
@@ -9809,7 +9911,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B833" t="s">
         <v>210</v>
@@ -9817,15 +9919,15 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B834" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="835" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A835" s="4" t="s">
-        <v>761</v>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>222</v>
       </c>
       <c r="B835" t="s">
         <v>210</v>
@@ -9833,7 +9935,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B836" t="s">
         <v>210</v>
@@ -9841,7 +9943,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="B837" t="s">
         <v>210</v>
@@ -9849,7 +9951,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="B838" t="s">
         <v>210</v>
@@ -9857,7 +9959,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="B839" t="s">
         <v>210</v>
@@ -9865,7 +9967,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="B840" t="s">
         <v>210</v>
@@ -9873,7 +9975,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="B841" t="s">
         <v>210</v>
@@ -9881,7 +9983,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B842" t="s">
         <v>210</v>
@@ -9889,7 +9991,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B843" t="s">
         <v>210</v>
@@ -9897,7 +9999,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B844" t="s">
         <v>210</v>
@@ -9905,7 +10007,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B845" t="s">
         <v>210</v>
@@ -9913,7 +10015,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="B846" t="s">
         <v>210</v>
@@ -9921,7 +10023,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B847" t="s">
         <v>210</v>
@@ -9929,7 +10031,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="B848" t="s">
         <v>210</v>
@@ -9937,7 +10039,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B849" t="s">
         <v>210</v>
@@ -9945,7 +10047,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B850" t="s">
         <v>210</v>
@@ -9953,7 +10055,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="B851" t="s">
         <v>210</v>
@@ -9961,7 +10063,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B852" t="s">
         <v>210</v>
@@ -9969,7 +10071,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="B853" t="s">
         <v>210</v>
@@ -9977,7 +10079,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>474</v>
+        <v>241</v>
       </c>
       <c r="B854" t="s">
         <v>210</v>
@@ -9985,7 +10087,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>475</v>
+        <v>242</v>
       </c>
       <c r="B855" t="s">
         <v>210</v>
@@ -9993,7 +10095,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>476</v>
+        <v>243</v>
       </c>
       <c r="B856" t="s">
         <v>210</v>
@@ -10001,7 +10103,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>477</v>
+        <v>244</v>
       </c>
       <c r="B857" t="s">
         <v>210</v>
@@ -10009,7 +10111,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>478</v>
+        <v>245</v>
       </c>
       <c r="B858" t="s">
         <v>210</v>
@@ -10017,7 +10119,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>479</v>
+        <v>246</v>
       </c>
       <c r="B859" t="s">
         <v>210</v>
@@ -10025,7 +10127,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>480</v>
+        <v>247</v>
       </c>
       <c r="B860" t="s">
         <v>210</v>
@@ -10033,7 +10135,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>481</v>
+        <v>248</v>
       </c>
       <c r="B861" t="s">
         <v>210</v>
@@ -10041,199 +10143,447 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="B862" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="B863" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="B864" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A865" s="1" t="s">
-        <v>41</v>
+      <c r="A865" t="s">
+        <v>252</v>
       </c>
       <c r="B865" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A866" t="s">
-        <v>42</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A866" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="B866" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="B867" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A868" s="1" t="s">
-        <v>44</v>
+      <c r="A868" t="s">
+        <v>254</v>
       </c>
       <c r="B868" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A869" s="1" t="s">
-        <v>869</v>
+      <c r="A869" t="s">
+        <v>255</v>
       </c>
       <c r="B869" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A870" s="1" t="s">
-        <v>868</v>
+      <c r="A870" t="s">
+        <v>256</v>
       </c>
       <c r="B870" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A871" s="1" t="s">
-        <v>45</v>
+      <c r="A871" t="s">
+        <v>257</v>
       </c>
       <c r="B871" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A872" s="1" t="s">
-        <v>46</v>
+      <c r="A872" t="s">
+        <v>258</v>
       </c>
       <c r="B872" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A873" s="1" t="s">
-        <v>47</v>
+      <c r="A873" t="s">
+        <v>259</v>
       </c>
       <c r="B873" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="B874" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="B875" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>428</v>
+        <v>262</v>
       </c>
       <c r="B876" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>429</v>
+        <v>263</v>
       </c>
       <c r="B877" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>430</v>
+        <v>264</v>
       </c>
       <c r="B878" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>431</v>
+        <v>265</v>
       </c>
       <c r="B879" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>432</v>
+        <v>266</v>
       </c>
       <c r="B880" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>433</v>
+        <v>267</v>
       </c>
       <c r="B881" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>434</v>
+        <v>268</v>
       </c>
       <c r="B882" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>435</v>
+        <v>269</v>
       </c>
       <c r="B883" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
+        <v>270</v>
+      </c>
+      <c r="B884" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>474</v>
+      </c>
+      <c r="B885" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>475</v>
+      </c>
+      <c r="B886" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>476</v>
+      </c>
+      <c r="B887" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>477</v>
+      </c>
+      <c r="B888" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>478</v>
+      </c>
+      <c r="B889" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>479</v>
+      </c>
+      <c r="B890" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>480</v>
+      </c>
+      <c r="B891" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>481</v>
+      </c>
+      <c r="B892" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>37</v>
+      </c>
+      <c r="B893" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>39</v>
+      </c>
+      <c r="B894" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>40</v>
+      </c>
+      <c r="B895" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B896" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>42</v>
+      </c>
+      <c r="B897" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>43</v>
+      </c>
+      <c r="B898" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B899" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B900" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B901" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B902" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B903" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B904" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>48</v>
+      </c>
+      <c r="B905" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>49</v>
+      </c>
+      <c r="B906" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>428</v>
+      </c>
+      <c r="B907" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>429</v>
+      </c>
+      <c r="B908" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>430</v>
+      </c>
+      <c r="B909" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>431</v>
+      </c>
+      <c r="B910" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>432</v>
+      </c>
+      <c r="B911" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>433</v>
+      </c>
+      <c r="B912" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>434</v>
+      </c>
+      <c r="B913" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>435</v>
+      </c>
+      <c r="B914" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
         <v>758</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B915" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A885" s="1" t="s">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B885" t="s">
+      <c r="B916" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1664">
-    <sortCondition ref="B2:B1664"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1695">
+    <sortCondition ref="B2:B1695"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93506BF6-EDE2-445A-8DE7-2CA13C1FEE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F919222F-5168-424D-AC16-62FB3FFA2EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="10680" windowHeight="12216" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$822</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$827</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="942">
   <si>
     <t>message</t>
   </si>
@@ -2848,6 +2848,21 @@
   </si>
   <si>
     <t>where is it</t>
+  </si>
+  <si>
+    <t>may I get a list of suggestion on accommodation</t>
+  </si>
+  <si>
+    <t>image of the homestay</t>
+  </si>
+  <si>
+    <t>image of the hotel</t>
+  </si>
+  <si>
+    <t>image of the hostel</t>
+  </si>
+  <si>
+    <t>image of the resort</t>
   </si>
 </sst>
 </file>
@@ -3241,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B916"/>
+  <dimension ref="A1:B921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4223,7 +4238,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
       <c r="B122" t="s">
         <v>816</v>
@@ -4231,7 +4246,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>886</v>
+        <v>940</v>
       </c>
       <c r="B123" t="s">
         <v>816</v>
@@ -4239,7 +4254,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>849</v>
+        <v>941</v>
       </c>
       <c r="B124" t="s">
         <v>816</v>
@@ -4247,7 +4262,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>850</v>
+        <v>938</v>
       </c>
       <c r="B125" t="s">
         <v>816</v>
@@ -4255,7 +4270,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="B126" t="s">
         <v>816</v>
@@ -4263,7 +4278,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="B127" t="s">
         <v>816</v>
@@ -4271,7 +4286,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B128" t="s">
         <v>816</v>
@@ -4279,7 +4294,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B129" t="s">
         <v>816</v>
@@ -4287,7 +4302,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B130" t="s">
         <v>816</v>
@@ -4295,7 +4310,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B131" t="s">
         <v>816</v>
@@ -4303,7 +4318,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B132" t="s">
         <v>816</v>
@@ -4311,7 +4326,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B133" t="s">
         <v>816</v>
@@ -4319,7 +4334,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B134" t="s">
         <v>816</v>
@@ -4327,7 +4342,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B135" t="s">
         <v>816</v>
@@ -4335,7 +4350,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B136" t="s">
         <v>816</v>
@@ -4343,7 +4358,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B137" t="s">
         <v>816</v>
@@ -4351,7 +4366,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B138" t="s">
         <v>816</v>
@@ -4359,7 +4374,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B139" t="s">
         <v>816</v>
@@ -4367,7 +4382,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B140" t="s">
         <v>816</v>
@@ -4375,7 +4390,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B141" t="s">
         <v>816</v>
@@ -4383,39 +4398,39 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>545</v>
+        <v>863</v>
       </c>
       <c r="B142" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>547</v>
+        <v>864</v>
       </c>
       <c r="B143" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>548</v>
+        <v>865</v>
       </c>
       <c r="B144" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>549</v>
+        <v>866</v>
       </c>
       <c r="B145" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B146" t="s">
         <v>546</v>
@@ -4423,7 +4438,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B147" t="s">
         <v>546</v>
@@ -4431,7 +4446,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B148" t="s">
         <v>546</v>
@@ -4439,7 +4454,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B149" t="s">
         <v>546</v>
@@ -4447,7 +4462,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>635</v>
+        <v>550</v>
       </c>
       <c r="B150" t="s">
         <v>546</v>
@@ -4455,7 +4470,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>636</v>
+        <v>551</v>
       </c>
       <c r="B151" t="s">
         <v>546</v>
@@ -4463,7 +4478,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>637</v>
+        <v>552</v>
       </c>
       <c r="B152" t="s">
         <v>546</v>
@@ -4471,7 +4486,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>907</v>
+        <v>553</v>
       </c>
       <c r="B153" t="s">
         <v>546</v>
@@ -4479,7 +4494,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>906</v>
+        <v>635</v>
       </c>
       <c r="B154" t="s">
         <v>546</v>
@@ -4487,7 +4502,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B155" t="s">
         <v>546</v>
@@ -4495,7 +4510,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B156" t="s">
         <v>546</v>
@@ -4503,7 +4518,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>640</v>
+        <v>907</v>
       </c>
       <c r="B157" t="s">
         <v>546</v>
@@ -4511,7 +4526,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>641</v>
+        <v>906</v>
       </c>
       <c r="B158" t="s">
         <v>546</v>
@@ -4519,7 +4534,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B159" t="s">
         <v>546</v>
@@ -4527,7 +4542,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B160" t="s">
         <v>546</v>
@@ -4535,7 +4550,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B161" t="s">
         <v>546</v>
@@ -4543,7 +4558,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B162" t="s">
         <v>546</v>
@@ -4551,7 +4566,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B163" t="s">
         <v>546</v>
@@ -4559,7 +4574,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B164" t="s">
         <v>546</v>
@@ -4567,7 +4582,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B165" t="s">
         <v>546</v>
@@ -4575,7 +4590,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B166" t="s">
         <v>546</v>
@@ -4583,39 +4598,39 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>518</v>
+        <v>646</v>
       </c>
       <c r="B167" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>520</v>
+        <v>647</v>
       </c>
       <c r="B168" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>521</v>
+        <v>648</v>
       </c>
       <c r="B169" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>522</v>
+        <v>649</v>
       </c>
       <c r="B170" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B171" t="s">
         <v>519</v>
@@ -4623,7 +4638,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>902</v>
+        <v>520</v>
       </c>
       <c r="B172" t="s">
         <v>519</v>
@@ -4631,7 +4646,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>903</v>
+        <v>521</v>
       </c>
       <c r="B173" t="s">
         <v>519</v>
@@ -4639,7 +4654,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>901</v>
+        <v>522</v>
       </c>
       <c r="B174" t="s">
         <v>519</v>
@@ -4647,7 +4662,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>904</v>
+        <v>523</v>
       </c>
       <c r="B175" t="s">
         <v>519</v>
@@ -4655,7 +4670,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="B176" t="s">
         <v>519</v>
@@ -4663,7 +4678,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>524</v>
+        <v>903</v>
       </c>
       <c r="B177" t="s">
         <v>519</v>
@@ -4671,7 +4686,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>525</v>
+        <v>901</v>
       </c>
       <c r="B178" t="s">
         <v>519</v>
@@ -4679,7 +4694,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>526</v>
+        <v>904</v>
       </c>
       <c r="B179" t="s">
         <v>519</v>
@@ -4687,7 +4702,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>590</v>
+        <v>936</v>
       </c>
       <c r="B180" t="s">
         <v>519</v>
@@ -4695,7 +4710,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>591</v>
+        <v>524</v>
       </c>
       <c r="B181" t="s">
         <v>519</v>
@@ -4703,7 +4718,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>592</v>
+        <v>525</v>
       </c>
       <c r="B182" t="s">
         <v>519</v>
@@ -4711,7 +4726,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>593</v>
+        <v>526</v>
       </c>
       <c r="B183" t="s">
         <v>519</v>
@@ -4719,7 +4734,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B184" t="s">
         <v>519</v>
@@ -4727,7 +4742,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B185" t="s">
         <v>519</v>
@@ -4735,7 +4750,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B186" t="s">
         <v>519</v>
@@ -4743,7 +4758,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B187" t="s">
         <v>519</v>
@@ -4751,7 +4766,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B188" t="s">
         <v>519</v>
@@ -4759,7 +4774,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B189" t="s">
         <v>519</v>
@@ -4767,7 +4782,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B190" t="s">
         <v>519</v>
@@ -4775,7 +4790,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B191" t="s">
         <v>519</v>
@@ -4783,7 +4798,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B192" t="s">
         <v>519</v>
@@ -4791,7 +4806,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B193" t="s">
         <v>519</v>
@@ -4799,7 +4814,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B194" t="s">
         <v>519</v>
@@ -4807,39 +4822,39 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="B195" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="B196" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="B197" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B198" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B199" t="s">
         <v>537</v>
@@ -4847,7 +4862,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B200" t="s">
         <v>537</v>
@@ -4855,7 +4870,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B201" t="s">
         <v>537</v>
@@ -4863,7 +4878,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B202" t="s">
         <v>537</v>
@@ -4871,7 +4886,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>620</v>
+        <v>541</v>
       </c>
       <c r="B203" t="s">
         <v>537</v>
@@ -4879,7 +4894,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>621</v>
+        <v>542</v>
       </c>
       <c r="B204" t="s">
         <v>537</v>
@@ -4887,7 +4902,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>622</v>
+        <v>543</v>
       </c>
       <c r="B205" t="s">
         <v>537</v>
@@ -4895,7 +4910,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="B206" t="s">
         <v>537</v>
@@ -4903,7 +4918,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B207" t="s">
         <v>537</v>
@@ -4911,7 +4926,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B208" t="s">
         <v>537</v>
@@ -4919,7 +4934,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B209" t="s">
         <v>537</v>
@@ -4927,7 +4942,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B210" t="s">
         <v>537</v>
@@ -4935,7 +4950,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B211" t="s">
         <v>537</v>
@@ -4943,7 +4958,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>772</v>
+        <v>625</v>
       </c>
       <c r="B212" t="s">
         <v>537</v>
@@ -4951,7 +4966,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B213" t="s">
         <v>537</v>
@@ -4959,7 +4974,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B214" t="s">
         <v>537</v>
@@ -4967,7 +4982,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B215" t="s">
         <v>537</v>
@@ -4975,7 +4990,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>632</v>
+        <v>772</v>
       </c>
       <c r="B216" t="s">
         <v>537</v>
@@ -4983,7 +4998,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B217" t="s">
         <v>537</v>
@@ -4991,7 +5006,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B218" t="s">
         <v>537</v>
@@ -4999,39 +5014,39 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>794</v>
+        <v>631</v>
       </c>
       <c r="B219" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>796</v>
+        <v>632</v>
       </c>
       <c r="B220" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>797</v>
+        <v>633</v>
       </c>
       <c r="B221" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>798</v>
+        <v>634</v>
       </c>
       <c r="B222" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B223" t="s">
         <v>795</v>
@@ -5039,7 +5054,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>892</v>
+        <v>796</v>
       </c>
       <c r="B224" t="s">
         <v>795</v>
@@ -5047,7 +5062,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>894</v>
+        <v>797</v>
       </c>
       <c r="B225" t="s">
         <v>795</v>
@@ -5055,7 +5070,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>895</v>
+        <v>798</v>
       </c>
       <c r="B226" t="s">
         <v>795</v>
@@ -5063,7 +5078,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>896</v>
+        <v>799</v>
       </c>
       <c r="B227" t="s">
         <v>795</v>
@@ -5071,7 +5086,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B228" t="s">
         <v>795</v>
@@ -5079,7 +5094,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B229" t="s">
         <v>795</v>
@@ -5087,7 +5102,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B230" t="s">
         <v>795</v>
@@ -5095,7 +5110,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B231" t="s">
         <v>795</v>
@@ -5103,7 +5118,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="B232" t="s">
         <v>795</v>
@@ -5111,7 +5126,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="B233" t="s">
         <v>795</v>
@@ -5119,7 +5134,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>800</v>
+        <v>898</v>
       </c>
       <c r="B234" t="s">
         <v>795</v>
@@ -5127,7 +5142,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>801</v>
+        <v>897</v>
       </c>
       <c r="B235" t="s">
         <v>795</v>
@@ -5135,7 +5150,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>802</v>
+        <v>893</v>
       </c>
       <c r="B236" t="s">
         <v>795</v>
@@ -5143,7 +5158,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>803</v>
+        <v>891</v>
       </c>
       <c r="B237" t="s">
         <v>795</v>
@@ -5151,7 +5166,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B238" t="s">
         <v>795</v>
@@ -5159,7 +5174,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B239" t="s">
         <v>795</v>
@@ -5167,7 +5182,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B240" t="s">
         <v>795</v>
@@ -5175,7 +5190,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B241" t="s">
         <v>795</v>
@@ -5183,7 +5198,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B242" t="s">
         <v>795</v>
@@ -5191,7 +5206,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B243" t="s">
         <v>795</v>
@@ -5199,7 +5214,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B244" t="s">
         <v>795</v>
@@ -5207,7 +5222,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B245" t="s">
         <v>795</v>
@@ -5215,7 +5230,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B246" t="s">
         <v>795</v>
@@ -5223,7 +5238,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B247" t="s">
         <v>795</v>
@@ -5231,7 +5246,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B248" t="s">
         <v>795</v>
@@ -5239,7 +5254,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="B249" t="s">
         <v>795</v>
@@ -5247,7 +5262,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="B250" t="s">
         <v>795</v>
@@ -5255,7 +5270,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="B251" t="s">
         <v>795</v>
@@ -5263,7 +5278,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="B252" t="s">
         <v>795</v>
@@ -5271,7 +5286,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B253" t="s">
         <v>795</v>
@@ -5279,7 +5294,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B254" t="s">
         <v>795</v>
@@ -5287,7 +5302,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B255" t="s">
         <v>795</v>
@@ -5295,7 +5310,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B256" t="s">
         <v>795</v>
@@ -5303,39 +5318,39 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>572</v>
+        <v>836</v>
       </c>
       <c r="B257" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>574</v>
+        <v>837</v>
       </c>
       <c r="B258" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>575</v>
+        <v>838</v>
       </c>
       <c r="B259" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>576</v>
+        <v>839</v>
       </c>
       <c r="B260" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B261" t="s">
         <v>573</v>
@@ -5343,7 +5358,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B262" t="s">
         <v>573</v>
@@ -5351,7 +5366,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B263" t="s">
         <v>573</v>
@@ -5359,7 +5374,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B264" t="s">
         <v>573</v>
@@ -5367,7 +5382,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>703</v>
+        <v>577</v>
       </c>
       <c r="B265" t="s">
         <v>573</v>
@@ -5375,7 +5390,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>704</v>
+        <v>578</v>
       </c>
       <c r="B266" t="s">
         <v>573</v>
@@ -5383,7 +5398,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>705</v>
+        <v>579</v>
       </c>
       <c r="B267" t="s">
         <v>573</v>
@@ -5391,7 +5406,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>706</v>
+        <v>580</v>
       </c>
       <c r="B268" t="s">
         <v>573</v>
@@ -5399,7 +5414,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B269" t="s">
         <v>573</v>
@@ -5407,7 +5422,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B270" t="s">
         <v>573</v>
@@ -5415,7 +5430,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B271" t="s">
         <v>573</v>
@@ -5423,7 +5438,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B272" t="s">
         <v>573</v>
@@ -5431,7 +5446,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B273" t="s">
         <v>573</v>
@@ -5439,7 +5454,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B274" t="s">
         <v>573</v>
@@ -5447,7 +5462,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B275" t="s">
         <v>573</v>
@@ -5455,7 +5470,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B276" t="s">
         <v>573</v>
@@ -5463,7 +5478,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B277" t="s">
         <v>573</v>
@@ -5471,7 +5486,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B278" t="s">
         <v>573</v>
@@ -5479,7 +5494,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B279" t="s">
         <v>573</v>
@@ -5487,7 +5502,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B280" t="s">
         <v>573</v>
@@ -5495,7 +5510,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B281" t="s">
         <v>573</v>
@@ -5503,7 +5518,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B282" t="s">
         <v>573</v>
@@ -5511,7 +5526,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B283" t="s">
         <v>573</v>
@@ -5519,7 +5534,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B284" t="s">
         <v>573</v>
@@ -5527,7 +5542,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B285" t="s">
         <v>573</v>
@@ -5535,7 +5550,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B286" t="s">
         <v>573</v>
@@ -5543,7 +5558,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B287" t="s">
         <v>573</v>
@@ -5551,7 +5566,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B288" t="s">
         <v>573</v>
@@ -5559,7 +5574,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B289" t="s">
         <v>573</v>
@@ -5567,7 +5582,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B290" t="s">
         <v>573</v>
@@ -5575,7 +5590,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B291" t="s">
         <v>573</v>
@@ -5583,7 +5598,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B292" t="s">
         <v>573</v>
@@ -5591,7 +5606,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B293" t="s">
         <v>573</v>
@@ -5599,39 +5614,39 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>773</v>
+        <v>728</v>
       </c>
       <c r="B294" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="B295" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>776</v>
+        <v>730</v>
       </c>
       <c r="B296" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>777</v>
+        <v>731</v>
       </c>
       <c r="B297" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B298" t="s">
         <v>774</v>
@@ -5639,7 +5654,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B299" t="s">
         <v>774</v>
@@ -5647,7 +5662,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B300" t="s">
         <v>774</v>
@@ -5655,7 +5670,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B301" t="s">
         <v>774</v>
@@ -5663,7 +5678,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B302" t="s">
         <v>774</v>
@@ -5671,7 +5686,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B303" t="s">
         <v>774</v>
@@ -5679,7 +5694,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B304" t="s">
         <v>774</v>
@@ -5687,7 +5702,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B305" t="s">
         <v>774</v>
@@ -5695,7 +5710,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B306" t="s">
         <v>774</v>
@@ -5703,7 +5718,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B307" t="s">
         <v>774</v>
@@ -5711,7 +5726,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B308" t="s">
         <v>774</v>
@@ -5719,7 +5734,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B309" t="s">
         <v>774</v>
@@ -5727,7 +5742,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B310" t="s">
         <v>774</v>
@@ -5735,7 +5750,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B311" t="s">
         <v>774</v>
@@ -5743,7 +5758,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B312" t="s">
         <v>774</v>
@@ -5751,7 +5766,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B313" t="s">
         <v>774</v>
@@ -5759,7 +5774,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>824</v>
+        <v>790</v>
       </c>
       <c r="B314" t="s">
         <v>774</v>
@@ -5767,7 +5782,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="B315" t="s">
         <v>774</v>
@@ -5775,7 +5790,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>826</v>
+        <v>792</v>
       </c>
       <c r="B316" t="s">
         <v>774</v>
@@ -5783,7 +5798,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="B317" t="s">
         <v>774</v>
@@ -5791,7 +5806,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B318" t="s">
         <v>774</v>
@@ -5799,7 +5814,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B319" t="s">
         <v>774</v>
@@ -5807,7 +5822,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B320" t="s">
         <v>774</v>
@@ -5815,7 +5830,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B321" t="s">
         <v>774</v>
@@ -5823,39 +5838,39 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>527</v>
+        <v>828</v>
       </c>
       <c r="B322" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>529</v>
+        <v>829</v>
       </c>
       <c r="B323" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>530</v>
+        <v>830</v>
       </c>
       <c r="B324" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="B325" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B326" t="s">
         <v>528</v>
@@ -5863,7 +5878,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B327" t="s">
         <v>528</v>
@@ -5871,7 +5886,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>768</v>
+        <v>530</v>
       </c>
       <c r="B328" t="s">
         <v>528</v>
@@ -5879,7 +5894,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>767</v>
+        <v>531</v>
       </c>
       <c r="B329" t="s">
         <v>528</v>
@@ -5887,7 +5902,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B330" t="s">
         <v>528</v>
@@ -5895,7 +5910,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B331" t="s">
         <v>528</v>
@@ -5903,7 +5918,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>605</v>
+        <v>768</v>
       </c>
       <c r="B332" t="s">
         <v>528</v>
@@ -5911,7 +5926,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>606</v>
+        <v>767</v>
       </c>
       <c r="B333" t="s">
         <v>528</v>
@@ -5919,7 +5934,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>607</v>
+        <v>534</v>
       </c>
       <c r="B334" t="s">
         <v>528</v>
@@ -5927,7 +5942,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>608</v>
+        <v>535</v>
       </c>
       <c r="B335" t="s">
         <v>528</v>
@@ -5935,7 +5950,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B336" t="s">
         <v>528</v>
@@ -5943,7 +5958,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B337" t="s">
         <v>528</v>
@@ -5951,7 +5966,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B338" t="s">
         <v>528</v>
@@ -5959,7 +5974,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B339" t="s">
         <v>528</v>
@@ -5967,7 +5982,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B340" t="s">
         <v>528</v>
@@ -5975,7 +5990,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B341" t="s">
         <v>528</v>
@@ -5983,7 +5998,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B342" t="s">
         <v>528</v>
@@ -5991,7 +6006,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B343" t="s">
         <v>528</v>
@@ -5999,7 +6014,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B344" t="s">
         <v>528</v>
@@ -6007,7 +6022,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B345" t="s">
         <v>528</v>
@@ -6015,7 +6030,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B346" t="s">
         <v>528</v>
@@ -6023,47 +6038,47 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>498</v>
+        <v>616</v>
       </c>
       <c r="B347" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>499</v>
+        <v>617</v>
       </c>
       <c r="B348" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>490</v>
+        <v>618</v>
       </c>
       <c r="B349" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>500</v>
+        <v>619</v>
       </c>
       <c r="B350" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B351" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" s="4" t="s">
-        <v>766</v>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>499</v>
       </c>
       <c r="B352" t="s">
         <v>490</v>
@@ -6071,7 +6086,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B353" t="s">
         <v>490</v>
@@ -6079,7 +6094,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B354" t="s">
         <v>490</v>
@@ -6087,15 +6102,15 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B355" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>765</v>
+    <row r="356" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="B356" t="s">
         <v>490</v>
@@ -6103,7 +6118,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>764</v>
+        <v>502</v>
       </c>
       <c r="B357" t="s">
         <v>490</v>
@@ -6111,7 +6126,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B358" t="s">
         <v>490</v>
@@ -6119,7 +6134,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B359" t="s">
         <v>490</v>
@@ -6127,7 +6142,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>505</v>
+        <v>765</v>
       </c>
       <c r="B360" t="s">
         <v>490</v>
@@ -6135,7 +6150,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>506</v>
+        <v>764</v>
       </c>
       <c r="B361" t="s">
         <v>490</v>
@@ -6143,7 +6158,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B362" t="s">
         <v>490</v>
@@ -6151,7 +6166,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B363" t="s">
         <v>490</v>
@@ -6159,7 +6174,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B364" t="s">
         <v>490</v>
@@ -6167,7 +6182,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>889</v>
+        <v>506</v>
       </c>
       <c r="B365" t="s">
         <v>490</v>
@@ -6175,7 +6190,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B366" t="s">
         <v>490</v>
@@ -6183,7 +6198,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B367" t="s">
         <v>490</v>
@@ -6191,7 +6206,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B368" t="s">
         <v>490</v>
@@ -6199,7 +6214,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>513</v>
+        <v>889</v>
       </c>
       <c r="B369" t="s">
         <v>490</v>
@@ -6207,7 +6222,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B370" t="s">
         <v>490</v>
@@ -6215,7 +6230,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B371" t="s">
         <v>490</v>
@@ -6223,7 +6238,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="B372" t="s">
         <v>490</v>
@@ -6231,7 +6246,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="B373" t="s">
         <v>490</v>
@@ -6239,7 +6254,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>877</v>
+        <v>514</v>
       </c>
       <c r="B374" t="s">
         <v>490</v>
@@ -6247,7 +6262,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>878</v>
+        <v>515</v>
       </c>
       <c r="B375" t="s">
         <v>490</v>
@@ -6255,39 +6270,39 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>876</v>
+        <v>489</v>
       </c>
       <c r="B376" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="6" t="s">
-        <v>908</v>
+      <c r="A377" t="s">
+        <v>491</v>
       </c>
       <c r="B377" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="6" t="s">
-        <v>909</v>
+      <c r="A378" t="s">
+        <v>877</v>
       </c>
       <c r="B378" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="6" t="s">
-        <v>910</v>
+      <c r="A379" t="s">
+        <v>878</v>
       </c>
       <c r="B379" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="6" t="s">
-        <v>911</v>
+      <c r="A380" t="s">
+        <v>876</v>
       </c>
       <c r="B380" t="s">
         <v>490</v>
@@ -6295,7 +6310,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B381" t="s">
         <v>490</v>
@@ -6303,7 +6318,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B382" t="s">
         <v>490</v>
@@ -6311,7 +6326,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B383" t="s">
         <v>490</v>
@@ -6319,7 +6334,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B384" t="s">
         <v>490</v>
@@ -6327,7 +6342,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B385" t="s">
         <v>490</v>
@@ -6335,7 +6350,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B386" t="s">
         <v>490</v>
@@ -6343,7 +6358,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B387" t="s">
         <v>490</v>
@@ -6351,7 +6366,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B388" t="s">
         <v>490</v>
@@ -6359,7 +6374,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B389" t="s">
         <v>490</v>
@@ -6367,7 +6382,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B390" t="s">
         <v>490</v>
@@ -6375,7 +6390,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B391" t="s">
         <v>490</v>
@@ -6383,7 +6398,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B392" t="s">
         <v>490</v>
@@ -6391,7 +6406,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B393" t="s">
         <v>490</v>
@@ -6399,7 +6414,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B394" t="s">
         <v>490</v>
@@ -6407,7 +6422,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B395" t="s">
         <v>490</v>
@@ -6415,7 +6430,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B396" t="s">
         <v>490</v>
@@ -6423,7 +6438,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B397" t="s">
         <v>490</v>
@@ -6431,7 +6446,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B398" t="s">
         <v>490</v>
@@ -6439,7 +6454,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B399" t="s">
         <v>490</v>
@@ -6447,7 +6462,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B400" t="s">
         <v>490</v>
@@ -6455,7 +6470,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B401" t="s">
         <v>490</v>
@@ -6463,7 +6478,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B402" t="s">
         <v>490</v>
@@ -6471,7 +6486,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B403" t="s">
         <v>490</v>
@@ -6479,47 +6494,47 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B404" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>492</v>
+      <c r="A405" s="6" t="s">
+        <v>937</v>
       </c>
       <c r="B405" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>493</v>
+      <c r="A406" s="6" t="s">
+        <v>932</v>
       </c>
       <c r="B406" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
-        <v>494</v>
+      <c r="A407" s="6" t="s">
+        <v>933</v>
       </c>
       <c r="B407" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
-        <v>495</v>
+      <c r="A408" s="6" t="s">
+        <v>934</v>
       </c>
       <c r="B408" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>905</v>
+      <c r="A409" s="6" t="s">
+        <v>935</v>
       </c>
       <c r="B409" t="s">
         <v>490</v>
@@ -6527,7 +6542,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B410" t="s">
         <v>490</v>
@@ -6535,7 +6550,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B411" t="s">
         <v>490</v>
@@ -6543,7 +6558,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>844</v>
+        <v>494</v>
       </c>
       <c r="B412" t="s">
         <v>490</v>
@@ -6551,7 +6566,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>845</v>
+        <v>495</v>
       </c>
       <c r="B413" t="s">
         <v>490</v>
@@ -6559,47 +6574,47 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>271</v>
+        <v>905</v>
       </c>
       <c r="B414" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>273</v>
+        <v>496</v>
       </c>
       <c r="B415" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>274</v>
+        <v>497</v>
       </c>
       <c r="B416" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>275</v>
+        <v>844</v>
       </c>
       <c r="B417" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>276</v>
+        <v>845</v>
       </c>
       <c r="B418" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B419" t="s">
         <v>272</v>
@@ -6607,7 +6622,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B420" t="s">
         <v>272</v>
@@ -6615,7 +6630,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>875</v>
+        <v>274</v>
       </c>
       <c r="B421" t="s">
         <v>272</v>
@@ -6623,7 +6638,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>874</v>
+        <v>275</v>
       </c>
       <c r="B422" t="s">
         <v>272</v>
@@ -6631,7 +6646,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B423" t="s">
         <v>272</v>
@@ -6639,7 +6654,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B424" t="s">
         <v>272</v>
@@ -6647,7 +6662,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B425" t="s">
         <v>272</v>
@@ -6655,7 +6670,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>282</v>
+        <v>875</v>
       </c>
       <c r="B426" t="s">
         <v>272</v>
@@ -6663,7 +6678,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>283</v>
+        <v>874</v>
       </c>
       <c r="B427" t="s">
         <v>272</v>
@@ -6671,7 +6686,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B428" t="s">
         <v>272</v>
@@ -6679,7 +6694,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B429" t="s">
         <v>272</v>
@@ -6687,7 +6702,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B430" t="s">
         <v>272</v>
@@ -6695,7 +6710,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B431" t="s">
         <v>272</v>
@@ -6703,7 +6718,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B432" t="s">
         <v>272</v>
@@ -6711,7 +6726,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B433" t="s">
         <v>272</v>
@@ -6719,7 +6734,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B434" t="s">
         <v>272</v>
@@ -6727,7 +6742,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>763</v>
+        <v>286</v>
       </c>
       <c r="B435" t="s">
         <v>272</v>
@@ -6735,15 +6750,15 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B436" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A437" s="4" t="s">
-        <v>762</v>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>288</v>
       </c>
       <c r="B437" t="s">
         <v>272</v>
@@ -6751,7 +6766,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B438" t="s">
         <v>272</v>
@@ -6759,7 +6774,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B439" t="s">
         <v>272</v>
@@ -6767,7 +6782,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>294</v>
+        <v>763</v>
       </c>
       <c r="B440" t="s">
         <v>272</v>
@@ -6775,15 +6790,15 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B441" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
-        <v>296</v>
+    <row r="442" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="B442" t="s">
         <v>272</v>
@@ -6791,7 +6806,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B443" t="s">
         <v>272</v>
@@ -6799,7 +6814,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B444" t="s">
         <v>272</v>
@@ -6807,7 +6822,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B445" t="s">
         <v>272</v>
@@ -6815,7 +6830,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B446" t="s">
         <v>272</v>
@@ -6823,7 +6838,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B447" t="s">
         <v>272</v>
@@ -6831,7 +6846,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B448" t="s">
         <v>272</v>
@@ -6839,7 +6854,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B449" t="s">
         <v>272</v>
@@ -6847,7 +6862,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B450" t="s">
         <v>272</v>
@@ -6855,7 +6870,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B451" t="s">
         <v>272</v>
@@ -6863,7 +6878,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B452" t="s">
         <v>272</v>
@@ -6871,7 +6886,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B453" t="s">
         <v>272</v>
@@ -6879,7 +6894,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B454" t="s">
         <v>272</v>
@@ -6887,7 +6902,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B455" t="s">
         <v>272</v>
@@ -6895,7 +6910,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="B456" t="s">
         <v>272</v>
@@ -6903,7 +6918,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="B457" t="s">
         <v>272</v>
@@ -6911,7 +6926,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="B458" t="s">
         <v>272</v>
@@ -6919,7 +6934,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="B459" t="s">
         <v>272</v>
@@ -6927,7 +6942,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="B460" t="s">
         <v>272</v>
@@ -6935,7 +6950,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B461" t="s">
         <v>272</v>
@@ -6943,7 +6958,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B462" t="s">
         <v>272</v>
@@ -6951,7 +6966,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B463" t="s">
         <v>272</v>
@@ -6959,7 +6974,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B464" t="s">
         <v>272</v>
@@ -6967,7 +6982,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B465" t="s">
         <v>272</v>
@@ -6975,7 +6990,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B466" t="s">
         <v>272</v>
@@ -6983,7 +6998,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B467" t="s">
         <v>272</v>
@@ -6991,7 +7006,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B468" t="s">
         <v>272</v>
@@ -6999,7 +7014,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B469" t="s">
         <v>272</v>
@@ -7007,7 +7022,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B470" t="s">
         <v>272</v>
@@ -7015,7 +7030,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>482</v>
+        <v>404</v>
       </c>
       <c r="B471" t="s">
         <v>272</v>
@@ -7023,7 +7038,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>483</v>
+        <v>405</v>
       </c>
       <c r="B472" t="s">
         <v>272</v>
@@ -7031,7 +7046,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>484</v>
+        <v>406</v>
       </c>
       <c r="B473" t="s">
         <v>272</v>
@@ -7039,7 +7054,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>485</v>
+        <v>407</v>
       </c>
       <c r="B474" t="s">
         <v>272</v>
@@ -7047,7 +7062,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>486</v>
+        <v>408</v>
       </c>
       <c r="B475" t="s">
         <v>272</v>
@@ -7055,7 +7070,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B476" t="s">
         <v>272</v>
@@ -7063,7 +7078,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B477" t="s">
         <v>272</v>
@@ -7071,47 +7086,47 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>89</v>
+        <v>484</v>
       </c>
       <c r="B478" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>91</v>
+        <v>485</v>
       </c>
       <c r="B479" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>92</v>
+        <v>486</v>
       </c>
       <c r="B480" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>93</v>
+        <v>487</v>
       </c>
       <c r="B481" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>94</v>
+        <v>488</v>
       </c>
       <c r="B482" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B483" t="s">
         <v>90</v>
@@ -7119,7 +7134,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B484" t="s">
         <v>90</v>
@@ -7127,7 +7142,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B485" t="s">
         <v>90</v>
@@ -7135,7 +7150,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B486" t="s">
         <v>90</v>
@@ -7143,7 +7158,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B487" t="s">
         <v>90</v>
@@ -7151,7 +7166,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B488" t="s">
         <v>90</v>
@@ -7159,7 +7174,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B489" t="s">
         <v>90</v>
@@ -7167,7 +7182,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B490" t="s">
         <v>90</v>
@@ -7175,7 +7190,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B491" t="s">
         <v>90</v>
@@ -7183,7 +7198,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B492" t="s">
         <v>90</v>
@@ -7191,7 +7206,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B493" t="s">
         <v>90</v>
@@ -7199,7 +7214,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B494" t="s">
         <v>90</v>
@@ -7207,7 +7222,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B495" t="s">
         <v>90</v>
@@ -7215,7 +7230,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B496" t="s">
         <v>90</v>
@@ -7223,7 +7238,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B497" t="s">
         <v>90</v>
@@ -7231,7 +7246,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B498" t="s">
         <v>90</v>
@@ -7239,7 +7254,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B499" t="s">
         <v>90</v>
@@ -7247,7 +7262,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B500" t="s">
         <v>90</v>
@@ -7255,7 +7270,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B501" t="s">
         <v>90</v>
@@ -7263,7 +7278,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B502" t="s">
         <v>90</v>
@@ -7271,7 +7286,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B503" t="s">
         <v>90</v>
@@ -7279,7 +7294,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B504" t="s">
         <v>90</v>
@@ -7287,7 +7302,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B505" t="s">
         <v>90</v>
@@ -7295,7 +7310,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>410</v>
+        <v>113</v>
       </c>
       <c r="B506" t="s">
         <v>90</v>
@@ -7303,7 +7318,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>411</v>
+        <v>114</v>
       </c>
       <c r="B507" t="s">
         <v>90</v>
@@ -7311,7 +7326,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="B508" t="s">
         <v>90</v>
@@ -7319,7 +7334,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>413</v>
+        <v>116</v>
       </c>
       <c r="B509" t="s">
         <v>90</v>
@@ -7327,7 +7342,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B510" t="s">
         <v>90</v>
@@ -7335,7 +7350,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B511" t="s">
         <v>90</v>
@@ -7343,7 +7358,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B512" t="s">
         <v>90</v>
@@ -7351,7 +7366,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B513" t="s">
         <v>90</v>
@@ -7359,7 +7374,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B514" t="s">
         <v>90</v>
@@ -7367,7 +7382,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>418</v>
+        <v>118</v>
       </c>
       <c r="B515" t="s">
         <v>90</v>
@@ -7375,7 +7390,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>119</v>
+        <v>414</v>
       </c>
       <c r="B516" t="s">
         <v>90</v>
@@ -7383,7 +7398,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="B517" t="s">
         <v>90</v>
@@ -7391,7 +7406,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="B518" t="s">
         <v>90</v>
@@ -7399,7 +7414,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="B519" t="s">
         <v>90</v>
@@ -7407,7 +7422,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="B520" t="s">
         <v>90</v>
@@ -7415,7 +7430,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>344</v>
+        <v>119</v>
       </c>
       <c r="B521" t="s">
         <v>90</v>
@@ -7423,7 +7438,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B522" t="s">
         <v>90</v>
@@ -7431,7 +7446,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B523" t="s">
         <v>90</v>
@@ -7439,7 +7454,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>873</v>
+        <v>342</v>
       </c>
       <c r="B524" t="s">
         <v>90</v>
@@ -7447,7 +7462,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>872</v>
+        <v>343</v>
       </c>
       <c r="B525" t="s">
         <v>90</v>
@@ -7455,7 +7470,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>871</v>
+        <v>344</v>
       </c>
       <c r="B526" t="s">
         <v>90</v>
@@ -7463,7 +7478,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>870</v>
+        <v>345</v>
       </c>
       <c r="B527" t="s">
         <v>90</v>
@@ -7471,7 +7486,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B528" t="s">
         <v>90</v>
@@ -7479,7 +7494,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>348</v>
+        <v>873</v>
       </c>
       <c r="B529" t="s">
         <v>90</v>
@@ -7487,7 +7502,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>349</v>
+        <v>872</v>
       </c>
       <c r="B530" t="s">
         <v>90</v>
@@ -7495,7 +7510,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>350</v>
+        <v>871</v>
       </c>
       <c r="B531" t="s">
         <v>90</v>
@@ -7503,7 +7518,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>351</v>
+        <v>870</v>
       </c>
       <c r="B532" t="s">
         <v>90</v>
@@ -7511,7 +7526,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B533" t="s">
         <v>90</v>
@@ -7519,7 +7534,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B534" t="s">
         <v>90</v>
@@ -7527,7 +7542,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B535" t="s">
         <v>90</v>
@@ -7535,7 +7550,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B536" t="s">
         <v>90</v>
@@ -7543,7 +7558,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B537" t="s">
         <v>90</v>
@@ -7551,7 +7566,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B538" t="s">
         <v>90</v>
@@ -7559,7 +7574,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B539" t="s">
         <v>90</v>
@@ -7567,7 +7582,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B540" t="s">
         <v>90</v>
@@ -7575,7 +7590,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B541" t="s">
         <v>90</v>
@@ -7583,7 +7598,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B542" t="s">
         <v>90</v>
@@ -7591,7 +7606,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B543" t="s">
         <v>90</v>
@@ -7599,7 +7614,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B544" t="s">
         <v>90</v>
@@ -7607,7 +7622,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B545" t="s">
         <v>90</v>
@@ -7615,7 +7630,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B546" t="s">
         <v>90</v>
@@ -7623,7 +7638,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B547" t="s">
         <v>90</v>
@@ -7631,7 +7646,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B548" t="s">
         <v>90</v>
@@ -7639,7 +7654,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B549" t="s">
         <v>90</v>
@@ -7647,7 +7662,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B550" t="s">
         <v>90</v>
@@ -7655,7 +7670,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="B551" t="s">
         <v>90</v>
@@ -7663,7 +7678,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="B552" t="s">
         <v>90</v>
@@ -7671,7 +7686,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="B553" t="s">
         <v>90</v>
@@ -7679,7 +7694,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="B554" t="s">
         <v>90</v>
@@ -7687,7 +7702,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="B555" t="s">
         <v>90</v>
@@ -7695,7 +7710,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B556" t="s">
         <v>90</v>
@@ -7703,7 +7718,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B557" t="s">
         <v>90</v>
@@ -7711,47 +7726,47 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>370</v>
+        <v>454</v>
       </c>
       <c r="B558" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>371</v>
+        <v>455</v>
       </c>
       <c r="B559" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="B560" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="B561" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="B562" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B563" t="s">
         <v>121</v>
@@ -7759,7 +7774,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B564" t="s">
         <v>121</v>
@@ -7767,7 +7782,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B565" t="s">
         <v>121</v>
@@ -7775,7 +7790,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B566" t="s">
         <v>121</v>
@@ -7783,7 +7798,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>120</v>
+        <v>374</v>
       </c>
       <c r="B567" t="s">
         <v>121</v>
@@ -7791,7 +7806,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>122</v>
+        <v>375</v>
       </c>
       <c r="B568" t="s">
         <v>121</v>
@@ -7799,15 +7814,15 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>123</v>
+        <v>376</v>
       </c>
       <c r="B569" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A570" s="2" t="s">
-        <v>124</v>
+      <c r="A570" t="s">
+        <v>377</v>
       </c>
       <c r="B570" t="s">
         <v>121</v>
@@ -7815,7 +7830,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>125</v>
+        <v>378</v>
       </c>
       <c r="B571" t="s">
         <v>121</v>
@@ -7823,7 +7838,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B572" t="s">
         <v>121</v>
@@ -7831,7 +7846,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B573" t="s">
         <v>121</v>
@@ -7839,15 +7854,15 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B574" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A575" t="s">
-        <v>129</v>
+      <c r="A575" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B575" t="s">
         <v>121</v>
@@ -7855,7 +7870,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B576" t="s">
         <v>121</v>
@@ -7863,7 +7878,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B577" t="s">
         <v>121</v>
@@ -7871,7 +7886,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B578" t="s">
         <v>121</v>
@@ -7879,7 +7894,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B579" t="s">
         <v>121</v>
@@ -7887,7 +7902,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B580" t="s">
         <v>121</v>
@@ -7895,7 +7910,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B581" t="s">
         <v>121</v>
@@ -7903,7 +7918,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B582" t="s">
         <v>121</v>
@@ -7911,7 +7926,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B583" t="s">
         <v>121</v>
@@ -7919,7 +7934,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B584" t="s">
         <v>121</v>
@@ -7927,7 +7942,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B585" t="s">
         <v>121</v>
@@ -7935,7 +7950,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B586" t="s">
         <v>121</v>
@@ -7943,7 +7958,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B587" t="s">
         <v>121</v>
@@ -7951,7 +7966,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B588" t="s">
         <v>121</v>
@@ -7959,7 +7974,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B589" t="s">
         <v>121</v>
@@ -7967,7 +7982,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B590" t="s">
         <v>121</v>
@@ -7975,7 +7990,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B591" t="s">
         <v>121</v>
@@ -7983,7 +7998,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B592" t="s">
         <v>121</v>
@@ -7991,7 +8006,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B593" t="s">
         <v>121</v>
@@ -7999,7 +8014,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B594" t="s">
         <v>121</v>
@@ -8007,7 +8022,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B595" t="s">
         <v>121</v>
@@ -8015,7 +8030,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B596" t="s">
         <v>121</v>
@@ -8023,7 +8038,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B597" t="s">
         <v>121</v>
@@ -8031,7 +8046,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B598" t="s">
         <v>121</v>
@@ -8039,7 +8054,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B599" t="s">
         <v>121</v>
@@ -8047,7 +8062,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B600" t="s">
         <v>121</v>
@@ -8055,7 +8070,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B601" t="s">
         <v>121</v>
@@ -8063,7 +8078,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B602" t="s">
         <v>121</v>
@@ -8071,7 +8086,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B603" t="s">
         <v>121</v>
@@ -8079,7 +8094,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B604" t="s">
         <v>121</v>
@@ -8087,7 +8102,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B605" t="s">
         <v>121</v>
@@ -8095,7 +8110,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B606" t="s">
         <v>121</v>
@@ -8103,7 +8118,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B607" t="s">
         <v>121</v>
@@ -8111,7 +8126,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B608" t="s">
         <v>121</v>
@@ -8119,7 +8134,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B609" t="s">
         <v>121</v>
@@ -8127,7 +8142,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B610" t="s">
         <v>121</v>
@@ -8135,7 +8150,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B611" t="s">
         <v>121</v>
@@ -8143,7 +8158,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B612" t="s">
         <v>121</v>
@@ -8151,7 +8166,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B613" t="s">
         <v>121</v>
@@ -8159,7 +8174,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B614" t="s">
         <v>121</v>
@@ -8167,7 +8182,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B615" t="s">
         <v>121</v>
@@ -8175,7 +8190,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B616" t="s">
         <v>121</v>
@@ -8183,7 +8198,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B617" t="s">
         <v>121</v>
@@ -8191,7 +8206,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B618" t="s">
         <v>121</v>
@@ -8199,7 +8214,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="B619" t="s">
         <v>121</v>
@@ -8207,7 +8222,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="B620" t="s">
         <v>121</v>
@@ -8215,7 +8230,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>461</v>
+        <v>170</v>
       </c>
       <c r="B621" t="s">
         <v>121</v>
@@ -8223,7 +8238,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>462</v>
+        <v>171</v>
       </c>
       <c r="B622" t="s">
         <v>121</v>
@@ -8231,7 +8246,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>463</v>
+        <v>172</v>
       </c>
       <c r="B623" t="s">
         <v>121</v>
@@ -8239,7 +8254,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B624" t="s">
         <v>121</v>
@@ -8247,7 +8262,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B625" t="s">
         <v>121</v>
@@ -8255,7 +8270,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B626" t="s">
         <v>121</v>
@@ -8263,47 +8278,47 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>16</v>
+        <v>462</v>
       </c>
       <c r="B627" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="B628" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>15</v>
+        <v>464</v>
       </c>
       <c r="B629" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>25</v>
+        <v>465</v>
       </c>
       <c r="B630" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>24</v>
+        <v>466</v>
       </c>
       <c r="B631" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B632" t="s">
         <v>13</v>
@@ -8311,7 +8326,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B633" t="s">
         <v>13</v>
@@ -8319,7 +8334,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>756</v>
+        <v>15</v>
       </c>
       <c r="B634" t="s">
         <v>13</v>
@@ -8327,7 +8342,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B635" t="s">
         <v>13</v>
@@ -8335,7 +8350,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B636" t="s">
         <v>13</v>
@@ -8343,7 +8358,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B637" t="s">
         <v>13</v>
@@ -8351,7 +8366,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B638" t="s">
         <v>13</v>
@@ -8359,7 +8374,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>436</v>
+        <v>756</v>
       </c>
       <c r="B639" t="s">
         <v>13</v>
@@ -8367,15 +8382,15 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>437</v>
+        <v>27</v>
       </c>
       <c r="B640" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="641" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A641" s="5" t="s">
-        <v>867</v>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>35</v>
       </c>
       <c r="B641" t="s">
         <v>13</v>
@@ -8383,7 +8398,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>438</v>
+        <v>28</v>
       </c>
       <c r="B642" t="s">
         <v>13</v>
@@ -8391,7 +8406,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>757</v>
+        <v>36</v>
       </c>
       <c r="B643" t="s">
         <v>13</v>
@@ -8399,7 +8414,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B644" t="s">
         <v>13</v>
@@ -8407,15 +8422,15 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B645" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A646" t="s">
-        <v>441</v>
+    <row r="646" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A646" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="B646" t="s">
         <v>13</v>
@@ -8423,7 +8438,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B647" t="s">
         <v>13</v>
@@ -8431,7 +8446,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>443</v>
+        <v>757</v>
       </c>
       <c r="B648" t="s">
         <v>13</v>
@@ -8439,47 +8454,47 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B649" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>2</v>
+        <v>440</v>
       </c>
       <c r="B650" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>4</v>
+        <v>441</v>
       </c>
       <c r="B651" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>5</v>
+        <v>442</v>
       </c>
       <c r="B652" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="B653" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>7</v>
+        <v>419</v>
       </c>
       <c r="B654" t="s">
         <v>3</v>
@@ -8487,7 +8502,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B655" t="s">
         <v>3</v>
@@ -8495,7 +8510,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B656" t="s">
         <v>3</v>
@@ -8503,7 +8518,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B657" t="s">
         <v>3</v>
@@ -8511,7 +8526,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B658" t="s">
         <v>3</v>
@@ -8519,7 +8534,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B659" t="s">
         <v>3</v>
@@ -8527,7 +8542,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B660" t="s">
         <v>3</v>
@@ -8535,7 +8550,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B661" t="s">
         <v>3</v>
@@ -8543,7 +8558,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B662" t="s">
         <v>3</v>
@@ -8551,7 +8566,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B663" t="s">
         <v>3</v>
@@ -8559,7 +8574,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B664" t="s">
         <v>3</v>
@@ -8567,7 +8582,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B665" t="s">
         <v>3</v>
@@ -8575,7 +8590,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B666" t="s">
         <v>3</v>
@@ -8583,7 +8598,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B667" t="s">
         <v>3</v>
@@ -8591,7 +8606,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B668" t="s">
         <v>3</v>
@@ -8599,7 +8614,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B669" t="s">
         <v>3</v>
@@ -8607,7 +8622,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B670" t="s">
         <v>3</v>
@@ -8615,7 +8630,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B671" t="s">
         <v>3</v>
@@ -8623,7 +8638,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>420</v>
+        <v>31</v>
       </c>
       <c r="B672" t="s">
         <v>3</v>
@@ -8631,7 +8646,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>421</v>
+        <v>32</v>
       </c>
       <c r="B673" t="s">
         <v>3</v>
@@ -8639,7 +8654,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>422</v>
+        <v>33</v>
       </c>
       <c r="B674" t="s">
         <v>3</v>
@@ -8647,7 +8662,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>423</v>
+        <v>34</v>
       </c>
       <c r="B675" t="s">
         <v>3</v>
@@ -8655,7 +8670,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>424</v>
+        <v>29</v>
       </c>
       <c r="B676" t="s">
         <v>3</v>
@@ -8663,7 +8678,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B677" t="s">
         <v>3</v>
@@ -8671,7 +8686,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B678" t="s">
         <v>3</v>
@@ -8679,7 +8694,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B679" t="s">
         <v>3</v>
@@ -8687,7 +8702,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>752</v>
+        <v>423</v>
       </c>
       <c r="B680" t="s">
         <v>3</v>
@@ -8695,7 +8710,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>753</v>
+        <v>424</v>
       </c>
       <c r="B681" t="s">
         <v>3</v>
@@ -8703,7 +8718,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>754</v>
+        <v>425</v>
       </c>
       <c r="B682" t="s">
         <v>3</v>
@@ -8711,7 +8726,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>755</v>
+        <v>426</v>
       </c>
       <c r="B683" t="s">
         <v>3</v>
@@ -8719,7 +8734,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>840</v>
+        <v>427</v>
       </c>
       <c r="B684" t="s">
         <v>3</v>
@@ -8727,7 +8742,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>841</v>
+        <v>752</v>
       </c>
       <c r="B685" t="s">
         <v>3</v>
@@ -8735,47 +8750,47 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>310</v>
+        <v>753</v>
       </c>
       <c r="B686" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>311</v>
+        <v>754</v>
       </c>
       <c r="B687" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>312</v>
+        <v>755</v>
       </c>
       <c r="B688" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>409</v>
+        <v>840</v>
       </c>
       <c r="B689" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>51</v>
+        <v>841</v>
       </c>
       <c r="B690" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="B691" t="s">
         <v>50</v>
@@ -8783,7 +8798,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="B692" t="s">
         <v>50</v>
@@ -8791,7 +8806,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="B693" t="s">
         <v>50</v>
@@ -8799,7 +8814,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="B694" t="s">
         <v>50</v>
@@ -8807,7 +8822,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B695" t="s">
         <v>50</v>
@@ -8815,7 +8830,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B696" t="s">
         <v>50</v>
@@ -8823,7 +8838,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B697" t="s">
         <v>50</v>
@@ -8831,7 +8846,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B698" t="s">
         <v>50</v>
@@ -8839,7 +8854,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B699" t="s">
         <v>50</v>
@@ -8847,7 +8862,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B700" t="s">
         <v>50</v>
@@ -8855,7 +8870,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B701" t="s">
         <v>50</v>
@@ -8863,7 +8878,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B702" t="s">
         <v>50</v>
@@ -8871,7 +8886,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B703" t="s">
         <v>50</v>
@@ -8879,7 +8894,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B704" t="s">
         <v>50</v>
@@ -8887,7 +8902,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B705" t="s">
         <v>50</v>
@@ -8895,7 +8910,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B706" t="s">
         <v>50</v>
@@ -8903,7 +8918,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B707" t="s">
         <v>50</v>
@@ -8911,7 +8926,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B708" t="s">
         <v>50</v>
@@ -8919,7 +8934,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B709" t="s">
         <v>50</v>
@@ -8927,7 +8942,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B710" t="s">
         <v>50</v>
@@ -8935,7 +8950,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B711" t="s">
         <v>50</v>
@@ -8943,7 +8958,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B712" t="s">
         <v>50</v>
@@ -8951,7 +8966,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B713" t="s">
         <v>50</v>
@@ -8959,7 +8974,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B714" t="s">
         <v>50</v>
@@ -8967,7 +8982,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B715" t="s">
         <v>50</v>
@@ -8975,7 +8990,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B716" t="s">
         <v>50</v>
@@ -8983,7 +8998,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B717" t="s">
         <v>50</v>
@@ -8991,7 +9006,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B718" t="s">
         <v>50</v>
@@ -8999,7 +9014,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B719" t="s">
         <v>50</v>
@@ -9007,7 +9022,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B720" t="s">
         <v>50</v>
@@ -9015,7 +9030,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B721" t="s">
         <v>50</v>
@@ -9023,7 +9038,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B722" t="s">
         <v>50</v>
@@ -9031,7 +9046,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B723" t="s">
         <v>50</v>
@@ -9039,7 +9054,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B724" t="s">
         <v>50</v>
@@ -9047,7 +9062,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B725" t="s">
         <v>50</v>
@@ -9055,7 +9070,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B726" t="s">
         <v>50</v>
@@ -9063,7 +9078,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B727" t="s">
         <v>50</v>
@@ -9071,7 +9086,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>313</v>
+        <v>84</v>
       </c>
       <c r="B728" t="s">
         <v>50</v>
@@ -9079,7 +9094,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>314</v>
+        <v>85</v>
       </c>
       <c r="B729" t="s">
         <v>50</v>
@@ -9087,7 +9102,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>315</v>
+        <v>86</v>
       </c>
       <c r="B730" t="s">
         <v>50</v>
@@ -9095,7 +9110,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c r="B731" t="s">
         <v>50</v>
@@ -9103,7 +9118,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>317</v>
+        <v>88</v>
       </c>
       <c r="B732" t="s">
         <v>50</v>
@@ -9111,7 +9126,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B733" t="s">
         <v>50</v>
@@ -9119,7 +9134,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B734" t="s">
         <v>50</v>
@@ -9127,7 +9142,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B735" t="s">
         <v>50</v>
@@ -9135,7 +9150,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B736" t="s">
         <v>50</v>
@@ -9143,7 +9158,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B737" t="s">
         <v>50</v>
@@ -9151,7 +9166,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B738" t="s">
         <v>50</v>
@@ -9159,7 +9174,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B739" t="s">
         <v>50</v>
@@ -9167,7 +9182,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B740" t="s">
         <v>50</v>
@@ -9175,7 +9190,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B741" t="s">
         <v>50</v>
@@ -9183,7 +9198,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B742" t="s">
         <v>50</v>
@@ -9191,7 +9206,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B743" t="s">
         <v>50</v>
@@ -9199,7 +9214,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B744" t="s">
         <v>50</v>
@@ -9207,7 +9222,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B745" t="s">
         <v>50</v>
@@ -9215,7 +9230,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B746" t="s">
         <v>50</v>
@@ -9223,7 +9238,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B747" t="s">
         <v>50</v>
@@ -9231,7 +9246,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B748" t="s">
         <v>50</v>
@@ -9239,7 +9254,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B749" t="s">
         <v>50</v>
@@ -9247,7 +9262,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B750" t="s">
         <v>50</v>
@@ -9255,7 +9270,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B751" t="s">
         <v>50</v>
@@ -9263,7 +9278,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B752" t="s">
         <v>50</v>
@@ -9271,7 +9286,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B753" t="s">
         <v>50</v>
@@ -9279,7 +9294,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B754" t="s">
         <v>50</v>
@@ -9287,7 +9302,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
       <c r="B755" t="s">
         <v>50</v>
@@ -9295,7 +9310,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>445</v>
+        <v>336</v>
       </c>
       <c r="B756" t="s">
         <v>50</v>
@@ -9303,7 +9318,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="B757" t="s">
         <v>50</v>
@@ -9311,7 +9326,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>447</v>
+        <v>338</v>
       </c>
       <c r="B758" t="s">
         <v>50</v>
@@ -9319,7 +9334,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>448</v>
+        <v>339</v>
       </c>
       <c r="B759" t="s">
         <v>50</v>
@@ -9327,7 +9342,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B760" t="s">
         <v>50</v>
@@ -9335,7 +9350,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B761" t="s">
         <v>50</v>
@@ -9343,7 +9358,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B762" t="s">
         <v>50</v>
@@ -9351,7 +9366,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>843</v>
+        <v>447</v>
       </c>
       <c r="B763" t="s">
         <v>50</v>
@@ -9359,47 +9374,47 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>173</v>
+        <v>448</v>
       </c>
       <c r="B764" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="B765" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>176</v>
+        <v>450</v>
       </c>
       <c r="B766" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>177</v>
+        <v>451</v>
       </c>
       <c r="B767" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>178</v>
+        <v>843</v>
       </c>
       <c r="B768" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B769" t="s">
         <v>174</v>
@@ -9407,7 +9422,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B770" t="s">
         <v>174</v>
@@ -9415,7 +9430,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B771" t="s">
         <v>174</v>
@@ -9423,7 +9438,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B772" t="s">
         <v>174</v>
@@ -9431,7 +9446,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B773" t="s">
         <v>174</v>
@@ -9439,7 +9454,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B774" t="s">
         <v>174</v>
@@ -9447,7 +9462,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B775" t="s">
         <v>174</v>
@@ -9455,7 +9470,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B776" t="s">
         <v>174</v>
@@ -9463,7 +9478,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B777" t="s">
         <v>174</v>
@@ -9471,7 +9486,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B778" t="s">
         <v>174</v>
@@ -9479,7 +9494,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B779" t="s">
         <v>174</v>
@@ -9487,7 +9502,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B780" t="s">
         <v>174</v>
@@ -9495,7 +9510,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B781" t="s">
         <v>174</v>
@@ -9503,7 +9518,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B782" t="s">
         <v>174</v>
@@ -9511,7 +9526,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B783" t="s">
         <v>174</v>
@@ -9519,7 +9534,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B784" t="s">
         <v>174</v>
@@ -9527,7 +9542,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B785" t="s">
         <v>174</v>
@@ -9535,7 +9550,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B786" t="s">
         <v>174</v>
@@ -9543,7 +9558,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B787" t="s">
         <v>174</v>
@@ -9551,7 +9566,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B788" t="s">
         <v>174</v>
@@ -9559,7 +9574,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B789" t="s">
         <v>174</v>
@@ -9567,7 +9582,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B790" t="s">
         <v>174</v>
@@ -9575,7 +9590,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>760</v>
+        <v>196</v>
       </c>
       <c r="B791" t="s">
         <v>174</v>
@@ -9583,7 +9598,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>759</v>
+        <v>197</v>
       </c>
       <c r="B792" t="s">
         <v>174</v>
@@ -9591,7 +9606,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B793" t="s">
         <v>174</v>
@@ -9599,7 +9614,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>379</v>
+        <v>199</v>
       </c>
       <c r="B794" t="s">
         <v>174</v>
@@ -9607,7 +9622,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B795" t="s">
         <v>174</v>
@@ -9615,7 +9630,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>203</v>
+        <v>760</v>
       </c>
       <c r="B796" t="s">
         <v>174</v>
@@ -9623,7 +9638,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>204</v>
+        <v>759</v>
       </c>
       <c r="B797" t="s">
         <v>174</v>
@@ -9631,7 +9646,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B798" t="s">
         <v>174</v>
@@ -9639,7 +9654,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>206</v>
+        <v>379</v>
       </c>
       <c r="B799" t="s">
         <v>174</v>
@@ -9647,7 +9662,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B800" t="s">
         <v>174</v>
@@ -9655,7 +9670,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B801" t="s">
         <v>174</v>
@@ -9663,7 +9678,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>380</v>
+        <v>204</v>
       </c>
       <c r="B802" t="s">
         <v>174</v>
@@ -9671,7 +9686,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>381</v>
+        <v>205</v>
       </c>
       <c r="B803" t="s">
         <v>174</v>
@@ -9679,7 +9694,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>382</v>
+        <v>206</v>
       </c>
       <c r="B804" t="s">
         <v>174</v>
@@ -9687,7 +9702,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>383</v>
+        <v>207</v>
       </c>
       <c r="B805" t="s">
         <v>174</v>
@@ -9695,7 +9710,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="B806" t="s">
         <v>174</v>
@@ -9703,7 +9718,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B807" t="s">
         <v>174</v>
@@ -9711,7 +9726,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B808" t="s">
         <v>174</v>
@@ -9719,7 +9734,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B809" t="s">
         <v>174</v>
@@ -9727,7 +9742,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B810" t="s">
         <v>174</v>
@@ -9735,7 +9750,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B811" t="s">
         <v>174</v>
@@ -9743,7 +9758,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B812" t="s">
         <v>174</v>
@@ -9751,7 +9766,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B813" t="s">
         <v>174</v>
@@ -9759,7 +9774,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B814" t="s">
         <v>174</v>
@@ -9767,7 +9782,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B815" t="s">
         <v>174</v>
@@ -9775,7 +9790,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="B816" t="s">
         <v>174</v>
@@ -9783,7 +9798,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>468</v>
+        <v>390</v>
       </c>
       <c r="B817" t="s">
         <v>174</v>
@@ -9791,7 +9806,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="B818" t="s">
         <v>174</v>
@@ -9799,7 +9814,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>470</v>
+        <v>392</v>
       </c>
       <c r="B819" t="s">
         <v>174</v>
@@ -9807,7 +9822,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>471</v>
+        <v>393</v>
       </c>
       <c r="B820" t="s">
         <v>174</v>
@@ -9815,7 +9830,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B821" t="s">
         <v>174</v>
@@ -9823,7 +9838,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B822" t="s">
         <v>174</v>
@@ -9831,47 +9846,47 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>209</v>
+        <v>469</v>
       </c>
       <c r="B823" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>211</v>
+        <v>470</v>
       </c>
       <c r="B824" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>212</v>
+        <v>471</v>
       </c>
       <c r="B825" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
       <c r="B826" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>214</v>
+        <v>473</v>
       </c>
       <c r="B827" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B828" t="s">
         <v>210</v>
@@ -9879,7 +9894,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B829" t="s">
         <v>210</v>
@@ -9887,7 +9902,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B830" t="s">
         <v>210</v>
@@ -9895,7 +9910,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B831" t="s">
         <v>210</v>
@@ -9903,7 +9918,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B832" t="s">
         <v>210</v>
@@ -9911,7 +9926,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B833" t="s">
         <v>210</v>
@@ -9919,7 +9934,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B834" t="s">
         <v>210</v>
@@ -9927,7 +9942,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B835" t="s">
         <v>210</v>
@@ -9935,7 +9950,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B836" t="s">
         <v>210</v>
@@ -9943,7 +9958,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B837" t="s">
         <v>210</v>
@@ -9951,7 +9966,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B838" t="s">
         <v>210</v>
@@ -9959,7 +9974,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B839" t="s">
         <v>210</v>
@@ -9967,7 +9982,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B840" t="s">
         <v>210</v>
@@ -9975,7 +9990,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B841" t="s">
         <v>210</v>
@@ -9983,7 +9998,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B842" t="s">
         <v>210</v>
@@ -9991,7 +10006,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B843" t="s">
         <v>210</v>
@@ -9999,7 +10014,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B844" t="s">
         <v>210</v>
@@ -10007,7 +10022,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B845" t="s">
         <v>210</v>
@@ -10015,7 +10030,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B846" t="s">
         <v>210</v>
@@ -10023,7 +10038,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B847" t="s">
         <v>210</v>
@@ -10031,7 +10046,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B848" t="s">
         <v>210</v>
@@ -10039,7 +10054,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B849" t="s">
         <v>210</v>
@@ -10047,7 +10062,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B850" t="s">
         <v>210</v>
@@ -10055,7 +10070,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B851" t="s">
         <v>210</v>
@@ -10063,7 +10078,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B852" t="s">
         <v>210</v>
@@ -10071,7 +10086,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B853" t="s">
         <v>210</v>
@@ -10079,7 +10094,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B854" t="s">
         <v>210</v>
@@ -10087,7 +10102,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B855" t="s">
         <v>210</v>
@@ -10095,7 +10110,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B856" t="s">
         <v>210</v>
@@ -10103,7 +10118,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B857" t="s">
         <v>210</v>
@@ -10111,7 +10126,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B858" t="s">
         <v>210</v>
@@ -10119,7 +10134,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B859" t="s">
         <v>210</v>
@@ -10127,7 +10142,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B860" t="s">
         <v>210</v>
@@ -10135,7 +10150,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B861" t="s">
         <v>210</v>
@@ -10143,7 +10158,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B862" t="s">
         <v>210</v>
@@ -10151,7 +10166,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B863" t="s">
         <v>210</v>
@@ -10159,7 +10174,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B864" t="s">
         <v>210</v>
@@ -10167,15 +10182,15 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B865" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="866" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A866" s="4" t="s">
-        <v>761</v>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>248</v>
       </c>
       <c r="B866" t="s">
         <v>210</v>
@@ -10183,7 +10198,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B867" t="s">
         <v>210</v>
@@ -10191,7 +10206,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B868" t="s">
         <v>210</v>
@@ -10199,7 +10214,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B869" t="s">
         <v>210</v>
@@ -10207,15 +10222,15 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B870" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A871" t="s">
-        <v>257</v>
+    <row r="871" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A871" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="B871" t="s">
         <v>210</v>
@@ -10223,7 +10238,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B872" t="s">
         <v>210</v>
@@ -10231,7 +10246,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B873" t="s">
         <v>210</v>
@@ -10239,7 +10254,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B874" t="s">
         <v>210</v>
@@ -10247,7 +10262,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B875" t="s">
         <v>210</v>
@@ -10255,7 +10270,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B876" t="s">
         <v>210</v>
@@ -10263,7 +10278,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B877" t="s">
         <v>210</v>
@@ -10271,7 +10286,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B878" t="s">
         <v>210</v>
@@ -10279,7 +10294,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B879" t="s">
         <v>210</v>
@@ -10287,7 +10302,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B880" t="s">
         <v>210</v>
@@ -10295,7 +10310,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B881" t="s">
         <v>210</v>
@@ -10303,7 +10318,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B882" t="s">
         <v>210</v>
@@ -10311,7 +10326,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B883" t="s">
         <v>210</v>
@@ -10319,7 +10334,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B884" t="s">
         <v>210</v>
@@ -10327,7 +10342,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>474</v>
+        <v>266</v>
       </c>
       <c r="B885" t="s">
         <v>210</v>
@@ -10335,7 +10350,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>475</v>
+        <v>267</v>
       </c>
       <c r="B886" t="s">
         <v>210</v>
@@ -10343,7 +10358,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>476</v>
+        <v>268</v>
       </c>
       <c r="B887" t="s">
         <v>210</v>
@@ -10351,7 +10366,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
       <c r="B888" t="s">
         <v>210</v>
@@ -10359,7 +10374,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="B889" t="s">
         <v>210</v>
@@ -10367,7 +10382,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B890" t="s">
         <v>210</v>
@@ -10375,7 +10390,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B891" t="s">
         <v>210</v>
@@ -10383,7 +10398,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B892" t="s">
         <v>210</v>
@@ -10391,63 +10406,63 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>37</v>
+        <v>477</v>
       </c>
       <c r="B893" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>39</v>
+        <v>478</v>
       </c>
       <c r="B894" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>40</v>
+        <v>479</v>
       </c>
       <c r="B895" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A896" s="1" t="s">
-        <v>41</v>
+      <c r="A896" t="s">
+        <v>480</v>
       </c>
       <c r="B896" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>42</v>
+        <v>481</v>
       </c>
       <c r="B897" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B898" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A899" s="1" t="s">
-        <v>44</v>
+      <c r="A899" t="s">
+        <v>39</v>
       </c>
       <c r="B899" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A900" s="1" t="s">
-        <v>869</v>
+      <c r="A900" t="s">
+        <v>40</v>
       </c>
       <c r="B900" t="s">
         <v>38</v>
@@ -10455,23 +10470,23 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
-        <v>868</v>
+        <v>41</v>
       </c>
       <c r="B901" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A902" s="1" t="s">
-        <v>45</v>
+      <c r="A902" t="s">
+        <v>42</v>
       </c>
       <c r="B902" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A903" s="1" t="s">
-        <v>46</v>
+      <c r="A903" t="s">
+        <v>43</v>
       </c>
       <c r="B903" t="s">
         <v>38</v>
@@ -10479,47 +10494,47 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B904" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A905" t="s">
-        <v>48</v>
+      <c r="A905" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="B905" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A906" t="s">
-        <v>49</v>
+      <c r="A906" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="B906" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A907" t="s">
-        <v>428</v>
+      <c r="A907" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B907" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A908" t="s">
-        <v>429</v>
+      <c r="A908" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B908" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A909" t="s">
-        <v>430</v>
+      <c r="A909" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B909" t="s">
         <v>38</v>
@@ -10527,7 +10542,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>431</v>
+        <v>48</v>
       </c>
       <c r="B910" t="s">
         <v>38</v>
@@ -10535,7 +10550,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>432</v>
+        <v>49</v>
       </c>
       <c r="B911" t="s">
         <v>38</v>
@@ -10543,7 +10558,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B912" t="s">
         <v>38</v>
@@ -10551,7 +10566,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B913" t="s">
         <v>38</v>
@@ -10559,7 +10574,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B914" t="s">
         <v>38</v>
@@ -10567,23 +10582,63 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>758</v>
+        <v>431</v>
       </c>
       <c r="B915" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A916" s="1" t="s">
-        <v>842</v>
+      <c r="A916" t="s">
+        <v>432</v>
       </c>
       <c r="B916" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>433</v>
+      </c>
+      <c r="B917" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>434</v>
+      </c>
+      <c r="B918" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>435</v>
+      </c>
+      <c r="B919" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>758</v>
+      </c>
+      <c r="B920" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B921" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1695">
-    <sortCondition ref="B2:B1695"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1700">
+    <sortCondition ref="B2:B1700"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F919222F-5168-424D-AC16-62FB3FFA2EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1344686-0A39-4370-8D8A-50501ED04D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$827</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$836</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="951">
   <si>
     <t>message</t>
   </si>
@@ -2863,6 +2863,33 @@
   </si>
   <si>
     <t>image of the resort</t>
+  </si>
+  <si>
+    <t>images of the hotel</t>
+  </si>
+  <si>
+    <t>images of the hostel</t>
+  </si>
+  <si>
+    <t>images of the resort</t>
+  </si>
+  <si>
+    <t>images of the homestay</t>
+  </si>
+  <si>
+    <t>I want something to eat nearby</t>
+  </si>
+  <si>
+    <t>address of the hotel</t>
+  </si>
+  <si>
+    <t>address of the hostel</t>
+  </si>
+  <si>
+    <t>address of the homestay</t>
+  </si>
+  <si>
+    <t>address of the resort</t>
   </si>
 </sst>
 </file>
@@ -3256,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B921"/>
+  <dimension ref="A1:B930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181:B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,7 +4265,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B122" t="s">
         <v>816</v>
@@ -4246,7 +4273,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B123" t="s">
         <v>816</v>
@@ -4254,7 +4281,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B124" t="s">
         <v>816</v>
@@ -4262,7 +4289,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="B125" t="s">
         <v>816</v>
@@ -4270,7 +4297,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
       <c r="B126" t="s">
         <v>816</v>
@@ -4278,7 +4305,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>886</v>
+        <v>940</v>
       </c>
       <c r="B127" t="s">
         <v>816</v>
@@ -4286,7 +4313,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>849</v>
+        <v>941</v>
       </c>
       <c r="B128" t="s">
         <v>816</v>
@@ -4294,7 +4321,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>850</v>
+        <v>938</v>
       </c>
       <c r="B129" t="s">
         <v>816</v>
@@ -4302,7 +4329,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="B130" t="s">
         <v>816</v>
@@ -4310,7 +4337,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="B131" t="s">
         <v>816</v>
@@ -4318,7 +4345,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B132" t="s">
         <v>816</v>
@@ -4326,7 +4353,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B133" t="s">
         <v>816</v>
@@ -4334,7 +4361,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B134" t="s">
         <v>816</v>
@@ -4342,7 +4369,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B135" t="s">
         <v>816</v>
@@ -4350,7 +4377,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B136" t="s">
         <v>816</v>
@@ -4358,7 +4385,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B137" t="s">
         <v>816</v>
@@ -4366,7 +4393,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B138" t="s">
         <v>816</v>
@@ -4374,7 +4401,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B139" t="s">
         <v>816</v>
@@ -4382,7 +4409,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B140" t="s">
         <v>816</v>
@@ -4390,7 +4417,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B141" t="s">
         <v>816</v>
@@ -4398,7 +4425,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B142" t="s">
         <v>816</v>
@@ -4406,7 +4433,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B143" t="s">
         <v>816</v>
@@ -4414,7 +4441,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B144" t="s">
         <v>816</v>
@@ -4422,7 +4449,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B145" t="s">
         <v>816</v>
@@ -4430,39 +4457,39 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>545</v>
+        <v>863</v>
       </c>
       <c r="B146" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>547</v>
+        <v>864</v>
       </c>
       <c r="B147" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>548</v>
+        <v>865</v>
       </c>
       <c r="B148" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>549</v>
+        <v>866</v>
       </c>
       <c r="B149" t="s">
-        <v>546</v>
+        <v>816</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B150" t="s">
         <v>546</v>
@@ -4470,7 +4497,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B151" t="s">
         <v>546</v>
@@ -4478,7 +4505,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B152" t="s">
         <v>546</v>
@@ -4486,7 +4513,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B153" t="s">
         <v>546</v>
@@ -4494,7 +4521,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>635</v>
+        <v>550</v>
       </c>
       <c r="B154" t="s">
         <v>546</v>
@@ -4502,7 +4529,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>636</v>
+        <v>551</v>
       </c>
       <c r="B155" t="s">
         <v>546</v>
@@ -4510,7 +4537,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>637</v>
+        <v>552</v>
       </c>
       <c r="B156" t="s">
         <v>546</v>
@@ -4518,7 +4545,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>907</v>
+        <v>553</v>
       </c>
       <c r="B157" t="s">
         <v>546</v>
@@ -4526,7 +4553,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>906</v>
+        <v>635</v>
       </c>
       <c r="B158" t="s">
         <v>546</v>
@@ -4534,7 +4561,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B159" t="s">
         <v>546</v>
@@ -4542,7 +4569,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B160" t="s">
         <v>546</v>
@@ -4550,7 +4577,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>640</v>
+        <v>907</v>
       </c>
       <c r="B161" t="s">
         <v>546</v>
@@ -4558,7 +4585,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>641</v>
+        <v>906</v>
       </c>
       <c r="B162" t="s">
         <v>546</v>
@@ -4566,7 +4593,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B163" t="s">
         <v>546</v>
@@ -4574,7 +4601,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B164" t="s">
         <v>546</v>
@@ -4582,7 +4609,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B165" t="s">
         <v>546</v>
@@ -4590,7 +4617,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B166" t="s">
         <v>546</v>
@@ -4598,7 +4625,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B167" t="s">
         <v>546</v>
@@ -4606,7 +4633,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B168" t="s">
         <v>546</v>
@@ -4614,7 +4641,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B169" t="s">
         <v>546</v>
@@ -4622,7 +4649,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B170" t="s">
         <v>546</v>
@@ -4630,39 +4657,39 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>518</v>
+        <v>646</v>
       </c>
       <c r="B171" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>520</v>
+        <v>647</v>
       </c>
       <c r="B172" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>521</v>
+        <v>648</v>
       </c>
       <c r="B173" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>522</v>
+        <v>649</v>
       </c>
       <c r="B174" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B175" t="s">
         <v>519</v>
@@ -4670,7 +4697,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>902</v>
+        <v>520</v>
       </c>
       <c r="B176" t="s">
         <v>519</v>
@@ -4678,7 +4705,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>903</v>
+        <v>521</v>
       </c>
       <c r="B177" t="s">
         <v>519</v>
@@ -4686,7 +4713,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>901</v>
+        <v>522</v>
       </c>
       <c r="B178" t="s">
         <v>519</v>
@@ -4694,7 +4721,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>904</v>
+        <v>523</v>
       </c>
       <c r="B179" t="s">
         <v>519</v>
@@ -4702,7 +4729,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="B180" t="s">
         <v>519</v>
@@ -4710,7 +4737,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>524</v>
+        <v>903</v>
       </c>
       <c r="B181" t="s">
         <v>519</v>
@@ -4718,7 +4745,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>525</v>
+        <v>947</v>
       </c>
       <c r="B182" t="s">
         <v>519</v>
@@ -4726,7 +4753,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>526</v>
+        <v>948</v>
       </c>
       <c r="B183" t="s">
         <v>519</v>
@@ -4734,7 +4761,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>590</v>
+        <v>949</v>
       </c>
       <c r="B184" t="s">
         <v>519</v>
@@ -4742,7 +4769,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>591</v>
+        <v>950</v>
       </c>
       <c r="B185" t="s">
         <v>519</v>
@@ -4750,7 +4777,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>592</v>
+        <v>901</v>
       </c>
       <c r="B186" t="s">
         <v>519</v>
@@ -4758,7 +4785,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>593</v>
+        <v>904</v>
       </c>
       <c r="B187" t="s">
         <v>519</v>
@@ -4766,7 +4793,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>594</v>
+        <v>936</v>
       </c>
       <c r="B188" t="s">
         <v>519</v>
@@ -4774,7 +4801,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>595</v>
+        <v>524</v>
       </c>
       <c r="B189" t="s">
         <v>519</v>
@@ -4782,7 +4809,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="B190" t="s">
         <v>519</v>
@@ -4790,7 +4817,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>597</v>
+        <v>526</v>
       </c>
       <c r="B191" t="s">
         <v>519</v>
@@ -4798,7 +4825,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B192" t="s">
         <v>519</v>
@@ -4806,7 +4833,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B193" t="s">
         <v>519</v>
@@ -4814,7 +4841,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B194" t="s">
         <v>519</v>
@@ -4822,7 +4849,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B195" t="s">
         <v>519</v>
@@ -4830,7 +4857,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B196" t="s">
         <v>519</v>
@@ -4838,7 +4865,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B197" t="s">
         <v>519</v>
@@ -4846,7 +4873,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B198" t="s">
         <v>519</v>
@@ -4854,71 +4881,71 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="B199" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="B200" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="B201" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="B202" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="B203" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="B204" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="B205" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="B206" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>620</v>
+        <v>536</v>
       </c>
       <c r="B207" t="s">
         <v>537</v>
@@ -4926,7 +4953,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>621</v>
+        <v>538</v>
       </c>
       <c r="B208" t="s">
         <v>537</v>
@@ -4934,7 +4961,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>622</v>
+        <v>539</v>
       </c>
       <c r="B209" t="s">
         <v>537</v>
@@ -4942,7 +4969,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>623</v>
+        <v>540</v>
       </c>
       <c r="B210" t="s">
         <v>537</v>
@@ -4950,7 +4977,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>624</v>
+        <v>541</v>
       </c>
       <c r="B211" t="s">
         <v>537</v>
@@ -4958,7 +4985,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="B212" t="s">
         <v>537</v>
@@ -4966,7 +4993,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>626</v>
+        <v>543</v>
       </c>
       <c r="B213" t="s">
         <v>537</v>
@@ -4974,7 +5001,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>627</v>
+        <v>544</v>
       </c>
       <c r="B214" t="s">
         <v>537</v>
@@ -4982,7 +5009,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B215" t="s">
         <v>537</v>
@@ -4990,7 +5017,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>772</v>
+        <v>621</v>
       </c>
       <c r="B216" t="s">
         <v>537</v>
@@ -4998,7 +5025,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B217" t="s">
         <v>537</v>
@@ -5006,7 +5033,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B218" t="s">
         <v>537</v>
@@ -5014,7 +5041,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B219" t="s">
         <v>537</v>
@@ -5022,7 +5049,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B220" t="s">
         <v>537</v>
@@ -5030,7 +5057,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B221" t="s">
         <v>537</v>
@@ -5038,7 +5065,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B222" t="s">
         <v>537</v>
@@ -5046,71 +5073,71 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>794</v>
+        <v>628</v>
       </c>
       <c r="B223" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="B224" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>797</v>
+        <v>629</v>
       </c>
       <c r="B225" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>798</v>
+        <v>630</v>
       </c>
       <c r="B226" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>799</v>
+        <v>631</v>
       </c>
       <c r="B227" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>892</v>
+        <v>632</v>
       </c>
       <c r="B228" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>894</v>
+        <v>633</v>
       </c>
       <c r="B229" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>895</v>
+        <v>634</v>
       </c>
       <c r="B230" t="s">
-        <v>795</v>
+        <v>537</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>896</v>
+        <v>794</v>
       </c>
       <c r="B231" t="s">
         <v>795</v>
@@ -5118,7 +5145,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>900</v>
+        <v>796</v>
       </c>
       <c r="B232" t="s">
         <v>795</v>
@@ -5126,7 +5153,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>899</v>
+        <v>797</v>
       </c>
       <c r="B233" t="s">
         <v>795</v>
@@ -5134,7 +5161,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>898</v>
+        <v>798</v>
       </c>
       <c r="B234" t="s">
         <v>795</v>
@@ -5142,7 +5169,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>897</v>
+        <v>799</v>
       </c>
       <c r="B235" t="s">
         <v>795</v>
@@ -5150,7 +5177,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B236" t="s">
         <v>795</v>
@@ -5158,7 +5185,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B237" t="s">
         <v>795</v>
@@ -5166,7 +5193,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>800</v>
+        <v>946</v>
       </c>
       <c r="B238" t="s">
         <v>795</v>
@@ -5174,7 +5201,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="B239" t="s">
         <v>795</v>
@@ -5182,7 +5209,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="B240" t="s">
         <v>795</v>
@@ -5190,7 +5217,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>803</v>
+        <v>900</v>
       </c>
       <c r="B241" t="s">
         <v>795</v>
@@ -5198,7 +5225,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="B242" t="s">
         <v>795</v>
@@ -5206,7 +5233,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>805</v>
+        <v>898</v>
       </c>
       <c r="B243" t="s">
         <v>795</v>
@@ -5214,7 +5241,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>806</v>
+        <v>897</v>
       </c>
       <c r="B244" t="s">
         <v>795</v>
@@ -5222,7 +5249,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>807</v>
+        <v>893</v>
       </c>
       <c r="B245" t="s">
         <v>795</v>
@@ -5230,7 +5257,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>808</v>
+        <v>891</v>
       </c>
       <c r="B246" t="s">
         <v>795</v>
@@ -5238,7 +5265,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B247" t="s">
         <v>795</v>
@@ -5246,7 +5273,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B248" t="s">
         <v>795</v>
@@ -5254,7 +5281,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="B249" t="s">
         <v>795</v>
@@ -5262,7 +5289,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B250" t="s">
         <v>795</v>
@@ -5270,7 +5297,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B251" t="s">
         <v>795</v>
@@ -5278,7 +5305,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B252" t="s">
         <v>795</v>
@@ -5286,7 +5313,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="B253" t="s">
         <v>795</v>
@@ -5294,7 +5321,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="B254" t="s">
         <v>795</v>
@@ -5302,7 +5329,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="B255" t="s">
         <v>795</v>
@@ -5310,7 +5337,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="B256" t="s">
         <v>795</v>
@@ -5318,7 +5345,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="B257" t="s">
         <v>795</v>
@@ -5326,7 +5353,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="B258" t="s">
         <v>795</v>
@@ -5334,7 +5361,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="B259" t="s">
         <v>795</v>
@@ -5342,7 +5369,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="B260" t="s">
         <v>795</v>
@@ -5350,79 +5377,79 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>572</v>
+        <v>814</v>
       </c>
       <c r="B261" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>574</v>
+        <v>832</v>
       </c>
       <c r="B262" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>575</v>
+        <v>833</v>
       </c>
       <c r="B263" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>576</v>
+        <v>834</v>
       </c>
       <c r="B264" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>577</v>
+        <v>835</v>
       </c>
       <c r="B265" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>578</v>
+        <v>836</v>
       </c>
       <c r="B266" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>579</v>
+        <v>837</v>
       </c>
       <c r="B267" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>580</v>
+        <v>838</v>
       </c>
       <c r="B268" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>703</v>
+        <v>839</v>
       </c>
       <c r="B269" t="s">
-        <v>573</v>
+        <v>795</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>704</v>
+        <v>572</v>
       </c>
       <c r="B270" t="s">
         <v>573</v>
@@ -5430,7 +5457,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>705</v>
+        <v>574</v>
       </c>
       <c r="B271" t="s">
         <v>573</v>
@@ -5438,7 +5465,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>706</v>
+        <v>575</v>
       </c>
       <c r="B272" t="s">
         <v>573</v>
@@ -5446,7 +5473,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="B273" t="s">
         <v>573</v>
@@ -5454,7 +5481,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>708</v>
+        <v>577</v>
       </c>
       <c r="B274" t="s">
         <v>573</v>
@@ -5462,7 +5489,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="B275" t="s">
         <v>573</v>
@@ -5470,7 +5497,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>710</v>
+        <v>579</v>
       </c>
       <c r="B276" t="s">
         <v>573</v>
@@ -5478,7 +5505,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>711</v>
+        <v>580</v>
       </c>
       <c r="B277" t="s">
         <v>573</v>
@@ -5486,7 +5513,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B278" t="s">
         <v>573</v>
@@ -5494,7 +5521,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B279" t="s">
         <v>573</v>
@@ -5502,7 +5529,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="B280" t="s">
         <v>573</v>
@@ -5510,7 +5537,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B281" t="s">
         <v>573</v>
@@ -5518,7 +5545,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B282" t="s">
         <v>573</v>
@@ -5526,7 +5553,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B283" t="s">
         <v>573</v>
@@ -5534,7 +5561,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B284" t="s">
         <v>573</v>
@@ -5542,7 +5569,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B285" t="s">
         <v>573</v>
@@ -5550,7 +5577,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B286" t="s">
         <v>573</v>
@@ -5558,7 +5585,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B287" t="s">
         <v>573</v>
@@ -5566,7 +5593,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B288" t="s">
         <v>573</v>
@@ -5574,7 +5601,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B289" t="s">
         <v>573</v>
@@ -5582,7 +5609,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B290" t="s">
         <v>573</v>
@@ -5590,7 +5617,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B291" t="s">
         <v>573</v>
@@ -5598,7 +5625,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B292" t="s">
         <v>573</v>
@@ -5606,7 +5633,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B293" t="s">
         <v>573</v>
@@ -5614,7 +5641,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B294" t="s">
         <v>573</v>
@@ -5622,7 +5649,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B295" t="s">
         <v>573</v>
@@ -5630,7 +5657,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B296" t="s">
         <v>573</v>
@@ -5638,7 +5665,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B297" t="s">
         <v>573</v>
@@ -5646,79 +5673,79 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
       <c r="B298" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>775</v>
+        <v>724</v>
       </c>
       <c r="B299" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>776</v>
+        <v>725</v>
       </c>
       <c r="B300" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>777</v>
+        <v>726</v>
       </c>
       <c r="B301" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="B302" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>779</v>
+        <v>728</v>
       </c>
       <c r="B303" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>780</v>
+        <v>729</v>
       </c>
       <c r="B304" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="B305" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
       <c r="B306" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B307" t="s">
         <v>774</v>
@@ -5726,7 +5753,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B308" t="s">
         <v>774</v>
@@ -5734,7 +5761,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="B309" t="s">
         <v>774</v>
@@ -5742,7 +5769,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B310" t="s">
         <v>774</v>
@@ -5750,7 +5777,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B311" t="s">
         <v>774</v>
@@ -5758,7 +5785,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B312" t="s">
         <v>774</v>
@@ -5766,7 +5793,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B313" t="s">
         <v>774</v>
@@ -5774,7 +5801,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B314" t="s">
         <v>774</v>
@@ -5782,7 +5809,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B315" t="s">
         <v>774</v>
@@ -5790,7 +5817,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B316" t="s">
         <v>774</v>
@@ -5798,7 +5825,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B317" t="s">
         <v>774</v>
@@ -5806,7 +5833,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>824</v>
+        <v>785</v>
       </c>
       <c r="B318" t="s">
         <v>774</v>
@@ -5814,7 +5841,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>825</v>
+        <v>786</v>
       </c>
       <c r="B319" t="s">
         <v>774</v>
@@ -5822,7 +5849,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
       <c r="B320" t="s">
         <v>774</v>
@@ -5830,7 +5857,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>827</v>
+        <v>788</v>
       </c>
       <c r="B321" t="s">
         <v>774</v>
@@ -5838,7 +5865,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>828</v>
+        <v>789</v>
       </c>
       <c r="B322" t="s">
         <v>774</v>
@@ -5846,7 +5873,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>829</v>
+        <v>790</v>
       </c>
       <c r="B323" t="s">
         <v>774</v>
@@ -5854,7 +5881,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>830</v>
+        <v>791</v>
       </c>
       <c r="B324" t="s">
         <v>774</v>
@@ -5862,7 +5889,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>831</v>
+        <v>792</v>
       </c>
       <c r="B325" t="s">
         <v>774</v>
@@ -5870,79 +5897,79 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>527</v>
+        <v>793</v>
       </c>
       <c r="B326" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>529</v>
+        <v>824</v>
       </c>
       <c r="B327" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>530</v>
+        <v>825</v>
       </c>
       <c r="B328" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>531</v>
+        <v>826</v>
       </c>
       <c r="B329" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>532</v>
+        <v>827</v>
       </c>
       <c r="B330" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>533</v>
+        <v>828</v>
       </c>
       <c r="B331" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>768</v>
+        <v>829</v>
       </c>
       <c r="B332" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>767</v>
+        <v>830</v>
       </c>
       <c r="B333" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>534</v>
+        <v>831</v>
       </c>
       <c r="B334" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B335" t="s">
         <v>528</v>
@@ -5950,7 +5977,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c r="B336" t="s">
         <v>528</v>
@@ -5958,7 +5985,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="B337" t="s">
         <v>528</v>
@@ -5966,7 +5993,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>607</v>
+        <v>531</v>
       </c>
       <c r="B338" t="s">
         <v>528</v>
@@ -5974,7 +6001,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>608</v>
+        <v>532</v>
       </c>
       <c r="B339" t="s">
         <v>528</v>
@@ -5982,7 +6009,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>609</v>
+        <v>533</v>
       </c>
       <c r="B340" t="s">
         <v>528</v>
@@ -5990,7 +6017,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>610</v>
+        <v>768</v>
       </c>
       <c r="B341" t="s">
         <v>528</v>
@@ -5998,7 +6025,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>611</v>
+        <v>767</v>
       </c>
       <c r="B342" t="s">
         <v>528</v>
@@ -6006,7 +6033,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>612</v>
+        <v>534</v>
       </c>
       <c r="B343" t="s">
         <v>528</v>
@@ -6014,7 +6041,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>613</v>
+        <v>535</v>
       </c>
       <c r="B344" t="s">
         <v>528</v>
@@ -6022,7 +6049,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B345" t="s">
         <v>528</v>
@@ -6030,7 +6057,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B346" t="s">
         <v>528</v>
@@ -6038,7 +6065,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B347" t="s">
         <v>528</v>
@@ -6046,7 +6073,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B348" t="s">
         <v>528</v>
@@ -6054,7 +6081,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B349" t="s">
         <v>528</v>
@@ -6062,7 +6089,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B350" t="s">
         <v>528</v>
@@ -6070,79 +6097,79 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>498</v>
+        <v>611</v>
       </c>
       <c r="B351" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>499</v>
+        <v>612</v>
       </c>
       <c r="B352" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>490</v>
+        <v>613</v>
       </c>
       <c r="B353" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>500</v>
+        <v>614</v>
       </c>
       <c r="B354" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>501</v>
+        <v>615</v>
       </c>
       <c r="B355" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A356" s="4" t="s">
-        <v>766</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>616</v>
       </c>
       <c r="B356" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>502</v>
+        <v>617</v>
       </c>
       <c r="B357" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>503</v>
+        <v>618</v>
       </c>
       <c r="B358" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>504</v>
+        <v>619</v>
       </c>
       <c r="B359" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>765</v>
+        <v>498</v>
       </c>
       <c r="B360" t="s">
         <v>490</v>
@@ -6150,7 +6177,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>764</v>
+        <v>499</v>
       </c>
       <c r="B361" t="s">
         <v>490</v>
@@ -6158,7 +6185,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="B362" t="s">
         <v>490</v>
@@ -6166,7 +6193,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B363" t="s">
         <v>490</v>
@@ -6174,15 +6201,15 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B364" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>506</v>
+    <row r="365" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="B365" t="s">
         <v>490</v>
@@ -6190,7 +6217,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B366" t="s">
         <v>490</v>
@@ -6198,7 +6225,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B367" t="s">
         <v>490</v>
@@ -6206,7 +6233,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B368" t="s">
         <v>490</v>
@@ -6214,7 +6241,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>889</v>
+        <v>765</v>
       </c>
       <c r="B369" t="s">
         <v>490</v>
@@ -6222,7 +6249,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>510</v>
+        <v>764</v>
       </c>
       <c r="B370" t="s">
         <v>490</v>
@@ -6230,7 +6257,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B371" t="s">
         <v>490</v>
@@ -6238,7 +6265,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B372" t="s">
         <v>490</v>
@@ -6246,7 +6273,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B373" t="s">
         <v>490</v>
@@ -6254,7 +6281,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B374" t="s">
         <v>490</v>
@@ -6262,7 +6289,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B375" t="s">
         <v>490</v>
@@ -6270,7 +6297,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="B376" t="s">
         <v>490</v>
@@ -6278,7 +6305,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B377" t="s">
         <v>490</v>
@@ -6286,7 +6313,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="B378" t="s">
         <v>490</v>
@@ -6294,7 +6321,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>878</v>
+        <v>510</v>
       </c>
       <c r="B379" t="s">
         <v>490</v>
@@ -6302,79 +6329,79 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>876</v>
+        <v>511</v>
       </c>
       <c r="B380" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="6" t="s">
-        <v>908</v>
+      <c r="A381" t="s">
+        <v>512</v>
       </c>
       <c r="B381" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="6" t="s">
-        <v>909</v>
+      <c r="A382" t="s">
+        <v>513</v>
       </c>
       <c r="B382" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="6" t="s">
-        <v>910</v>
+      <c r="A383" t="s">
+        <v>514</v>
       </c>
       <c r="B383" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="6" t="s">
-        <v>911</v>
+      <c r="A384" t="s">
+        <v>515</v>
       </c>
       <c r="B384" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="6" t="s">
-        <v>912</v>
+      <c r="A385" t="s">
+        <v>489</v>
       </c>
       <c r="B385" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="6" t="s">
-        <v>913</v>
+      <c r="A386" t="s">
+        <v>491</v>
       </c>
       <c r="B386" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="6" t="s">
-        <v>914</v>
+      <c r="A387" t="s">
+        <v>877</v>
       </c>
       <c r="B387" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="6" t="s">
-        <v>915</v>
+      <c r="A388" t="s">
+        <v>878</v>
       </c>
       <c r="B388" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="6" t="s">
-        <v>916</v>
+      <c r="A389" t="s">
+        <v>876</v>
       </c>
       <c r="B389" t="s">
         <v>490</v>
@@ -6382,7 +6409,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B390" t="s">
         <v>490</v>
@@ -6390,7 +6417,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B391" t="s">
         <v>490</v>
@@ -6398,7 +6425,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="B392" t="s">
         <v>490</v>
@@ -6406,7 +6433,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="B393" t="s">
         <v>490</v>
@@ -6414,7 +6441,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B394" t="s">
         <v>490</v>
@@ -6422,7 +6449,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B395" t="s">
         <v>490</v>
@@ -6430,7 +6457,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="B396" t="s">
         <v>490</v>
@@ -6438,7 +6465,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B397" t="s">
         <v>490</v>
@@ -6446,7 +6473,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B398" t="s">
         <v>490</v>
@@ -6454,7 +6481,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B399" t="s">
         <v>490</v>
@@ -6462,7 +6489,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B400" t="s">
         <v>490</v>
@@ -6470,7 +6497,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B401" t="s">
         <v>490</v>
@@ -6478,7 +6505,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="B402" t="s">
         <v>490</v>
@@ -6486,7 +6513,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B403" t="s">
         <v>490</v>
@@ -6494,7 +6521,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="B404" t="s">
         <v>490</v>
@@ -6502,7 +6529,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B405" t="s">
         <v>490</v>
@@ -6510,7 +6537,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B406" t="s">
         <v>490</v>
@@ -6518,7 +6545,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B407" t="s">
         <v>490</v>
@@ -6526,7 +6553,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B408" t="s">
         <v>490</v>
@@ -6534,79 +6561,79 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B409" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
-        <v>492</v>
+      <c r="A410" s="6" t="s">
+        <v>928</v>
       </c>
       <c r="B410" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>493</v>
+      <c r="A411" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="B411" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
-        <v>494</v>
+      <c r="A412" s="6" t="s">
+        <v>930</v>
       </c>
       <c r="B412" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>495</v>
+      <c r="A413" s="6" t="s">
+        <v>931</v>
       </c>
       <c r="B413" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>905</v>
+      <c r="A414" s="6" t="s">
+        <v>937</v>
       </c>
       <c r="B414" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>496</v>
+      <c r="A415" s="6" t="s">
+        <v>932</v>
       </c>
       <c r="B415" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
-        <v>497</v>
+      <c r="A416" s="6" t="s">
+        <v>933</v>
       </c>
       <c r="B416" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
-        <v>844</v>
+      <c r="A417" s="6" t="s">
+        <v>934</v>
       </c>
       <c r="B417" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
-        <v>845</v>
+      <c r="A418" s="6" t="s">
+        <v>935</v>
       </c>
       <c r="B418" t="s">
         <v>490</v>
@@ -6614,79 +6641,79 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>271</v>
+        <v>492</v>
       </c>
       <c r="B419" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>273</v>
+        <v>493</v>
       </c>
       <c r="B420" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>274</v>
+        <v>494</v>
       </c>
       <c r="B421" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>275</v>
+        <v>495</v>
       </c>
       <c r="B422" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>276</v>
+        <v>905</v>
       </c>
       <c r="B423" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>277</v>
+        <v>496</v>
       </c>
       <c r="B424" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>278</v>
+        <v>497</v>
       </c>
       <c r="B425" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="B426" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>874</v>
+        <v>845</v>
       </c>
       <c r="B427" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B428" t="s">
         <v>272</v>
@@ -6694,7 +6721,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B429" t="s">
         <v>272</v>
@@ -6702,7 +6729,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B430" t="s">
         <v>272</v>
@@ -6710,7 +6737,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B431" t="s">
         <v>272</v>
@@ -6718,7 +6745,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B432" t="s">
         <v>272</v>
@@ -6726,7 +6753,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B433" t="s">
         <v>272</v>
@@ -6734,7 +6761,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B434" t="s">
         <v>272</v>
@@ -6742,7 +6769,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>286</v>
+        <v>875</v>
       </c>
       <c r="B435" t="s">
         <v>272</v>
@@ -6750,7 +6777,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>287</v>
+        <v>874</v>
       </c>
       <c r="B436" t="s">
         <v>272</v>
@@ -6758,7 +6785,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B437" t="s">
         <v>272</v>
@@ -6766,7 +6793,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B438" t="s">
         <v>272</v>
@@ -6774,7 +6801,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B439" t="s">
         <v>272</v>
@@ -6782,7 +6809,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>763</v>
+        <v>282</v>
       </c>
       <c r="B440" t="s">
         <v>272</v>
@@ -6790,15 +6817,15 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B441" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A442" s="4" t="s">
-        <v>762</v>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>284</v>
       </c>
       <c r="B442" t="s">
         <v>272</v>
@@ -6806,7 +6833,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B443" t="s">
         <v>272</v>
@@ -6814,7 +6841,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B444" t="s">
         <v>272</v>
@@ -6822,7 +6849,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B445" t="s">
         <v>272</v>
@@ -6830,7 +6857,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B446" t="s">
         <v>272</v>
@@ -6838,7 +6865,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B447" t="s">
         <v>272</v>
@@ -6846,7 +6873,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B448" t="s">
         <v>272</v>
@@ -6854,7 +6881,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>298</v>
+        <v>763</v>
       </c>
       <c r="B449" t="s">
         <v>272</v>
@@ -6862,15 +6889,15 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B450" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
-        <v>300</v>
+    <row r="451" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="B451" t="s">
         <v>272</v>
@@ -6878,7 +6905,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B452" t="s">
         <v>272</v>
@@ -6886,7 +6913,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B453" t="s">
         <v>272</v>
@@ -6894,7 +6921,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B454" t="s">
         <v>272</v>
@@ -6902,7 +6929,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B455" t="s">
         <v>272</v>
@@ -6910,7 +6937,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B456" t="s">
         <v>272</v>
@@ -6918,7 +6945,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B457" t="s">
         <v>272</v>
@@ -6926,7 +6953,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B458" t="s">
         <v>272</v>
@@ -6934,7 +6961,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B459" t="s">
         <v>272</v>
@@ -6942,7 +6969,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B460" t="s">
         <v>272</v>
@@ -6950,7 +6977,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="B461" t="s">
         <v>272</v>
@@ -6958,7 +6985,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="B462" t="s">
         <v>272</v>
@@ -6966,7 +6993,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="B463" t="s">
         <v>272</v>
@@ -6974,7 +7001,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="B464" t="s">
         <v>272</v>
@@ -6982,7 +7009,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="B465" t="s">
         <v>272</v>
@@ -6990,7 +7017,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="B466" t="s">
         <v>272</v>
@@ -6998,7 +7025,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="B467" t="s">
         <v>272</v>
@@ -7006,7 +7033,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="B468" t="s">
         <v>272</v>
@@ -7014,7 +7041,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>402</v>
+        <v>309</v>
       </c>
       <c r="B469" t="s">
         <v>272</v>
@@ -7022,7 +7049,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B470" t="s">
         <v>272</v>
@@ -7030,7 +7057,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B471" t="s">
         <v>272</v>
@@ -7038,7 +7065,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B472" t="s">
         <v>272</v>
@@ -7046,7 +7073,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B473" t="s">
         <v>272</v>
@@ -7054,7 +7081,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B474" t="s">
         <v>272</v>
@@ -7062,7 +7089,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B475" t="s">
         <v>272</v>
@@ -7070,7 +7097,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="B476" t="s">
         <v>272</v>
@@ -7078,7 +7105,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="B477" t="s">
         <v>272</v>
@@ -7086,7 +7113,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="B478" t="s">
         <v>272</v>
@@ -7094,7 +7121,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="B479" t="s">
         <v>272</v>
@@ -7102,7 +7129,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="B480" t="s">
         <v>272</v>
@@ -7110,7 +7137,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="B481" t="s">
         <v>272</v>
@@ -7118,7 +7145,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="B482" t="s">
         <v>272</v>
@@ -7126,79 +7153,79 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>89</v>
+        <v>407</v>
       </c>
       <c r="B483" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="B484" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>92</v>
+        <v>482</v>
       </c>
       <c r="B485" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>93</v>
+        <v>483</v>
       </c>
       <c r="B486" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>94</v>
+        <v>484</v>
       </c>
       <c r="B487" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>95</v>
+        <v>485</v>
       </c>
       <c r="B488" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>96</v>
+        <v>486</v>
       </c>
       <c r="B489" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="B490" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>98</v>
+        <v>488</v>
       </c>
       <c r="B491" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B492" t="s">
         <v>90</v>
@@ -7206,7 +7233,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B493" t="s">
         <v>90</v>
@@ -7214,7 +7241,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B494" t="s">
         <v>90</v>
@@ -7222,7 +7249,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B495" t="s">
         <v>90</v>
@@ -7230,7 +7257,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B496" t="s">
         <v>90</v>
@@ -7238,7 +7265,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B497" t="s">
         <v>90</v>
@@ -7246,7 +7273,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B498" t="s">
         <v>90</v>
@@ -7254,7 +7281,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B499" t="s">
         <v>90</v>
@@ -7262,7 +7289,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B500" t="s">
         <v>90</v>
@@ -7270,7 +7297,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B501" t="s">
         <v>90</v>
@@ -7278,7 +7305,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B502" t="s">
         <v>90</v>
@@ -7286,7 +7313,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B503" t="s">
         <v>90</v>
@@ -7294,7 +7321,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B504" t="s">
         <v>90</v>
@@ -7302,7 +7329,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B505" t="s">
         <v>90</v>
@@ -7310,7 +7337,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B506" t="s">
         <v>90</v>
@@ -7318,7 +7345,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B507" t="s">
         <v>90</v>
@@ -7326,7 +7353,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B508" t="s">
         <v>90</v>
@@ -7334,7 +7361,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B509" t="s">
         <v>90</v>
@@ -7342,7 +7369,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B510" t="s">
         <v>90</v>
@@ -7350,7 +7377,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="B511" t="s">
         <v>90</v>
@@ -7358,7 +7385,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="B512" t="s">
         <v>90</v>
@@ -7366,7 +7393,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>412</v>
+        <v>111</v>
       </c>
       <c r="B513" t="s">
         <v>90</v>
@@ -7374,7 +7401,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>413</v>
+        <v>112</v>
       </c>
       <c r="B514" t="s">
         <v>90</v>
@@ -7382,7 +7409,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B515" t="s">
         <v>90</v>
@@ -7390,7 +7417,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="B516" t="s">
         <v>90</v>
@@ -7398,7 +7425,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>415</v>
+        <v>115</v>
       </c>
       <c r="B517" t="s">
         <v>90</v>
@@ -7406,7 +7433,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>416</v>
+        <v>116</v>
       </c>
       <c r="B518" t="s">
         <v>90</v>
@@ -7414,7 +7441,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>417</v>
+        <v>117</v>
       </c>
       <c r="B519" t="s">
         <v>90</v>
@@ -7422,7 +7449,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B520" t="s">
         <v>90</v>
@@ -7430,7 +7457,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>119</v>
+        <v>411</v>
       </c>
       <c r="B521" t="s">
         <v>90</v>
@@ -7438,7 +7465,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>340</v>
+        <v>412</v>
       </c>
       <c r="B522" t="s">
         <v>90</v>
@@ -7446,7 +7473,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="B523" t="s">
         <v>90</v>
@@ -7454,7 +7481,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>342</v>
+        <v>118</v>
       </c>
       <c r="B524" t="s">
         <v>90</v>
@@ -7462,7 +7489,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="B525" t="s">
         <v>90</v>
@@ -7470,7 +7497,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="B526" t="s">
         <v>90</v>
@@ -7478,7 +7505,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="B527" t="s">
         <v>90</v>
@@ -7486,7 +7513,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="B528" t="s">
         <v>90</v>
@@ -7494,7 +7521,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>873</v>
+        <v>418</v>
       </c>
       <c r="B529" t="s">
         <v>90</v>
@@ -7502,7 +7529,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>872</v>
+        <v>119</v>
       </c>
       <c r="B530" t="s">
         <v>90</v>
@@ -7510,7 +7537,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>871</v>
+        <v>340</v>
       </c>
       <c r="B531" t="s">
         <v>90</v>
@@ -7518,7 +7545,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>870</v>
+        <v>341</v>
       </c>
       <c r="B532" t="s">
         <v>90</v>
@@ -7526,7 +7553,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B533" t="s">
         <v>90</v>
@@ -7534,7 +7561,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B534" t="s">
         <v>90</v>
@@ -7542,7 +7569,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B535" t="s">
         <v>90</v>
@@ -7550,7 +7577,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B536" t="s">
         <v>90</v>
@@ -7558,7 +7585,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B537" t="s">
         <v>90</v>
@@ -7566,7 +7593,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>352</v>
+        <v>873</v>
       </c>
       <c r="B538" t="s">
         <v>90</v>
@@ -7574,7 +7601,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>353</v>
+        <v>872</v>
       </c>
       <c r="B539" t="s">
         <v>90</v>
@@ -7582,7 +7609,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>354</v>
+        <v>871</v>
       </c>
       <c r="B540" t="s">
         <v>90</v>
@@ -7590,7 +7617,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>355</v>
+        <v>870</v>
       </c>
       <c r="B541" t="s">
         <v>90</v>
@@ -7598,7 +7625,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B542" t="s">
         <v>90</v>
@@ -7606,7 +7633,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B543" t="s">
         <v>90</v>
@@ -7614,7 +7641,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B544" t="s">
         <v>90</v>
@@ -7622,7 +7649,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B545" t="s">
         <v>90</v>
@@ -7630,7 +7657,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B546" t="s">
         <v>90</v>
@@ -7638,7 +7665,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B547" t="s">
         <v>90</v>
@@ -7646,7 +7673,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B548" t="s">
         <v>90</v>
@@ -7654,7 +7681,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B549" t="s">
         <v>90</v>
@@ -7662,7 +7689,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B550" t="s">
         <v>90</v>
@@ -7670,7 +7697,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B551" t="s">
         <v>90</v>
@@ -7678,7 +7705,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B552" t="s">
         <v>90</v>
@@ -7686,7 +7713,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B553" t="s">
         <v>90</v>
@@ -7694,7 +7721,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B554" t="s">
         <v>90</v>
@@ -7702,7 +7729,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B555" t="s">
         <v>90</v>
@@ -7710,7 +7737,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="B556" t="s">
         <v>90</v>
@@ -7718,7 +7745,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="B557" t="s">
         <v>90</v>
@@ -7726,7 +7753,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="B558" t="s">
         <v>90</v>
@@ -7734,7 +7761,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="B559" t="s">
         <v>90</v>
@@ -7742,7 +7769,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="B560" t="s">
         <v>90</v>
@@ -7750,7 +7777,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="B561" t="s">
         <v>90</v>
@@ -7758,7 +7785,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
       <c r="B562" t="s">
         <v>90</v>
@@ -7766,79 +7793,79 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B563" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B564" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="B565" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="B566" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="B567" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
       <c r="B568" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="B569" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="B570" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="B571" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="B572" t="s">
         <v>121</v>
@@ -7846,7 +7873,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>122</v>
+        <v>371</v>
       </c>
       <c r="B573" t="s">
         <v>121</v>
@@ -7854,15 +7881,15 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>123</v>
+        <v>372</v>
       </c>
       <c r="B574" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A575" s="2" t="s">
-        <v>124</v>
+      <c r="A575" t="s">
+        <v>373</v>
       </c>
       <c r="B575" t="s">
         <v>121</v>
@@ -7870,7 +7897,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="B576" t="s">
         <v>121</v>
@@ -7878,7 +7905,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="B577" t="s">
         <v>121</v>
@@ -7886,7 +7913,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>127</v>
+        <v>376</v>
       </c>
       <c r="B578" t="s">
         <v>121</v>
@@ -7894,7 +7921,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="B579" t="s">
         <v>121</v>
@@ -7902,7 +7929,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="B580" t="s">
         <v>121</v>
@@ -7910,7 +7937,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B581" t="s">
         <v>121</v>
@@ -7918,7 +7945,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B582" t="s">
         <v>121</v>
@@ -7926,15 +7953,15 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B583" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A584" t="s">
-        <v>133</v>
+      <c r="A584" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B584" t="s">
         <v>121</v>
@@ -7942,7 +7969,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B585" t="s">
         <v>121</v>
@@ -7950,7 +7977,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B586" t="s">
         <v>121</v>
@@ -7958,7 +7985,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B587" t="s">
         <v>121</v>
@@ -7966,7 +7993,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B588" t="s">
         <v>121</v>
@@ -7974,7 +8001,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B589" t="s">
         <v>121</v>
@@ -7982,7 +8009,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B590" t="s">
         <v>121</v>
@@ -7990,7 +8017,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B591" t="s">
         <v>121</v>
@@ -7998,7 +8025,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B592" t="s">
         <v>121</v>
@@ -8006,7 +8033,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B593" t="s">
         <v>121</v>
@@ -8014,7 +8041,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B594" t="s">
         <v>121</v>
@@ -8022,7 +8049,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B595" t="s">
         <v>121</v>
@@ -8030,7 +8057,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B596" t="s">
         <v>121</v>
@@ -8038,7 +8065,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B597" t="s">
         <v>121</v>
@@ -8046,7 +8073,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B598" t="s">
         <v>121</v>
@@ -8054,7 +8081,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B599" t="s">
         <v>121</v>
@@ -8062,7 +8089,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B600" t="s">
         <v>121</v>
@@ -8070,7 +8097,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B601" t="s">
         <v>121</v>
@@ -8078,7 +8105,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B602" t="s">
         <v>121</v>
@@ -8086,7 +8113,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B603" t="s">
         <v>121</v>
@@ -8094,7 +8121,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B604" t="s">
         <v>121</v>
@@ -8102,7 +8129,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B605" t="s">
         <v>121</v>
@@ -8110,7 +8137,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B606" t="s">
         <v>121</v>
@@ -8118,7 +8145,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B607" t="s">
         <v>121</v>
@@ -8126,7 +8153,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B608" t="s">
         <v>121</v>
@@ -8134,7 +8161,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B609" t="s">
         <v>121</v>
@@ -8142,7 +8169,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B610" t="s">
         <v>121</v>
@@ -8150,7 +8177,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B611" t="s">
         <v>121</v>
@@ -8158,7 +8185,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B612" t="s">
         <v>121</v>
@@ -8166,7 +8193,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B613" t="s">
         <v>121</v>
@@ -8174,7 +8201,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B614" t="s">
         <v>121</v>
@@ -8182,7 +8209,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B615" t="s">
         <v>121</v>
@@ -8190,7 +8217,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B616" t="s">
         <v>121</v>
@@ -8198,7 +8225,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B617" t="s">
         <v>121</v>
@@ -8206,7 +8233,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B618" t="s">
         <v>121</v>
@@ -8214,7 +8241,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B619" t="s">
         <v>121</v>
@@ -8222,7 +8249,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B620" t="s">
         <v>121</v>
@@ -8230,7 +8257,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B621" t="s">
         <v>121</v>
@@ -8238,7 +8265,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B622" t="s">
         <v>121</v>
@@ -8246,7 +8273,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B623" t="s">
         <v>121</v>
@@ -8254,7 +8281,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>459</v>
+        <v>164</v>
       </c>
       <c r="B624" t="s">
         <v>121</v>
@@ -8262,7 +8289,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>460</v>
+        <v>165</v>
       </c>
       <c r="B625" t="s">
         <v>121</v>
@@ -8270,7 +8297,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>461</v>
+        <v>166</v>
       </c>
       <c r="B626" t="s">
         <v>121</v>
@@ -8278,7 +8305,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>462</v>
+        <v>167</v>
       </c>
       <c r="B627" t="s">
         <v>121</v>
@@ -8286,7 +8313,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>463</v>
+        <v>168</v>
       </c>
       <c r="B628" t="s">
         <v>121</v>
@@ -8294,7 +8321,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>464</v>
+        <v>169</v>
       </c>
       <c r="B629" t="s">
         <v>121</v>
@@ -8302,7 +8329,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>465</v>
+        <v>170</v>
       </c>
       <c r="B630" t="s">
         <v>121</v>
@@ -8310,7 +8337,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="B631" t="s">
         <v>121</v>
@@ -8318,79 +8345,79 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B632" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="B633" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>15</v>
+        <v>460</v>
       </c>
       <c r="B634" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>25</v>
+        <v>461</v>
       </c>
       <c r="B635" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>24</v>
+        <v>462</v>
       </c>
       <c r="B636" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>20</v>
+        <v>463</v>
       </c>
       <c r="B637" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>26</v>
+        <v>464</v>
       </c>
       <c r="B638" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>756</v>
+        <v>465</v>
       </c>
       <c r="B639" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>27</v>
+        <v>466</v>
       </c>
       <c r="B640" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B641" t="s">
         <v>13</v>
@@ -8398,7 +8425,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B642" t="s">
         <v>13</v>
@@ -8406,7 +8433,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B643" t="s">
         <v>13</v>
@@ -8414,7 +8441,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>436</v>
+        <v>25</v>
       </c>
       <c r="B644" t="s">
         <v>13</v>
@@ -8422,15 +8449,15 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>437</v>
+        <v>24</v>
       </c>
       <c r="B645" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A646" s="5" t="s">
-        <v>867</v>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>20</v>
       </c>
       <c r="B646" t="s">
         <v>13</v>
@@ -8438,7 +8465,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>438</v>
+        <v>26</v>
       </c>
       <c r="B647" t="s">
         <v>13</v>
@@ -8446,7 +8473,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B648" t="s">
         <v>13</v>
@@ -8454,7 +8481,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>439</v>
+        <v>27</v>
       </c>
       <c r="B649" t="s">
         <v>13</v>
@@ -8462,7 +8489,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>440</v>
+        <v>35</v>
       </c>
       <c r="B650" t="s">
         <v>13</v>
@@ -8470,7 +8497,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>441</v>
+        <v>28</v>
       </c>
       <c r="B651" t="s">
         <v>13</v>
@@ -8478,7 +8505,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>442</v>
+        <v>36</v>
       </c>
       <c r="B652" t="s">
         <v>13</v>
@@ -8486,7 +8513,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B653" t="s">
         <v>13</v>
@@ -8494,79 +8521,79 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B654" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A655" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A655" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="B655" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="B656" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>5</v>
+        <v>757</v>
       </c>
       <c r="B657" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="B658" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="B659" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>8</v>
+        <v>441</v>
       </c>
       <c r="B660" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="B661" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="B662" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>11</v>
+        <v>419</v>
       </c>
       <c r="B663" t="s">
         <v>3</v>
@@ -8574,7 +8601,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B664" t="s">
         <v>3</v>
@@ -8582,7 +8609,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B665" t="s">
         <v>3</v>
@@ -8590,7 +8617,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B666" t="s">
         <v>3</v>
@@ -8598,7 +8625,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B667" t="s">
         <v>3</v>
@@ -8606,7 +8633,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B668" t="s">
         <v>3</v>
@@ -8614,7 +8641,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B669" t="s">
         <v>3</v>
@@ -8622,7 +8649,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B670" t="s">
         <v>3</v>
@@ -8630,7 +8657,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B671" t="s">
         <v>3</v>
@@ -8638,7 +8665,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B672" t="s">
         <v>3</v>
@@ -8646,7 +8673,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B673" t="s">
         <v>3</v>
@@ -8654,7 +8681,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B674" t="s">
         <v>3</v>
@@ -8662,7 +8689,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B675" t="s">
         <v>3</v>
@@ -8670,7 +8697,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B676" t="s">
         <v>3</v>
@@ -8678,7 +8705,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>420</v>
+        <v>17</v>
       </c>
       <c r="B677" t="s">
         <v>3</v>
@@ -8686,7 +8713,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>421</v>
+        <v>18</v>
       </c>
       <c r="B678" t="s">
         <v>3</v>
@@ -8694,7 +8721,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="B679" t="s">
         <v>3</v>
@@ -8702,7 +8729,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>423</v>
+        <v>30</v>
       </c>
       <c r="B680" t="s">
         <v>3</v>
@@ -8710,7 +8737,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>424</v>
+        <v>31</v>
       </c>
       <c r="B681" t="s">
         <v>3</v>
@@ -8718,7 +8745,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>425</v>
+        <v>32</v>
       </c>
       <c r="B682" t="s">
         <v>3</v>
@@ -8726,7 +8753,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="B683" t="s">
         <v>3</v>
@@ -8734,7 +8761,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="B684" t="s">
         <v>3</v>
@@ -8742,7 +8769,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>752</v>
+        <v>29</v>
       </c>
       <c r="B685" t="s">
         <v>3</v>
@@ -8750,7 +8777,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>753</v>
+        <v>420</v>
       </c>
       <c r="B686" t="s">
         <v>3</v>
@@ -8758,7 +8785,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>754</v>
+        <v>421</v>
       </c>
       <c r="B687" t="s">
         <v>3</v>
@@ -8766,7 +8793,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>755</v>
+        <v>422</v>
       </c>
       <c r="B688" t="s">
         <v>3</v>
@@ -8774,7 +8801,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>840</v>
+        <v>423</v>
       </c>
       <c r="B689" t="s">
         <v>3</v>
@@ -8782,7 +8809,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>841</v>
+        <v>424</v>
       </c>
       <c r="B690" t="s">
         <v>3</v>
@@ -8790,79 +8817,79 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="B691" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>311</v>
+        <v>426</v>
       </c>
       <c r="B692" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="B693" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>409</v>
+        <v>752</v>
       </c>
       <c r="B694" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>51</v>
+        <v>753</v>
       </c>
       <c r="B695" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>52</v>
+        <v>754</v>
       </c>
       <c r="B696" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>53</v>
+        <v>755</v>
       </c>
       <c r="B697" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>54</v>
+        <v>840</v>
       </c>
       <c r="B698" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>55</v>
+        <v>841</v>
       </c>
       <c r="B699" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="B700" t="s">
         <v>50</v>
@@ -8870,7 +8897,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="B701" t="s">
         <v>50</v>
@@ -8878,7 +8905,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="B702" t="s">
         <v>50</v>
@@ -8886,7 +8913,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>59</v>
+        <v>409</v>
       </c>
       <c r="B703" t="s">
         <v>50</v>
@@ -8894,7 +8921,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B704" t="s">
         <v>50</v>
@@ -8902,7 +8929,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B705" t="s">
         <v>50</v>
@@ -8910,7 +8937,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B706" t="s">
         <v>50</v>
@@ -8918,7 +8945,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B707" t="s">
         <v>50</v>
@@ -8926,7 +8953,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B708" t="s">
         <v>50</v>
@@ -8934,7 +8961,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B709" t="s">
         <v>50</v>
@@ -8942,7 +8969,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B710" t="s">
         <v>50</v>
@@ -8950,7 +8977,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B711" t="s">
         <v>50</v>
@@ -8958,7 +8985,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B712" t="s">
         <v>50</v>
@@ -8966,7 +8993,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B713" t="s">
         <v>50</v>
@@ -8974,7 +9001,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B714" t="s">
         <v>50</v>
@@ -8982,7 +9009,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B715" t="s">
         <v>50</v>
@@ -8990,7 +9017,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B716" t="s">
         <v>50</v>
@@ -8998,7 +9025,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B717" t="s">
         <v>50</v>
@@ -9006,7 +9033,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B718" t="s">
         <v>50</v>
@@ -9014,7 +9041,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B719" t="s">
         <v>50</v>
@@ -9022,7 +9049,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B720" t="s">
         <v>50</v>
@@ -9030,7 +9057,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B721" t="s">
         <v>50</v>
@@ -9038,7 +9065,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B722" t="s">
         <v>50</v>
@@ -9046,7 +9073,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B723" t="s">
         <v>50</v>
@@ -9054,7 +9081,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B724" t="s">
         <v>50</v>
@@ -9062,7 +9089,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B725" t="s">
         <v>50</v>
@@ -9070,7 +9097,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B726" t="s">
         <v>50</v>
@@ -9078,7 +9105,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B727" t="s">
         <v>50</v>
@@ -9086,7 +9113,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B728" t="s">
         <v>50</v>
@@ -9094,7 +9121,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B729" t="s">
         <v>50</v>
@@ -9102,7 +9129,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B730" t="s">
         <v>50</v>
@@ -9110,7 +9137,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B731" t="s">
         <v>50</v>
@@ -9118,7 +9145,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B732" t="s">
         <v>50</v>
@@ -9126,7 +9153,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="B733" t="s">
         <v>50</v>
@@ -9134,7 +9161,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="B734" t="s">
         <v>50</v>
@@ -9142,7 +9169,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="B735" t="s">
         <v>50</v>
@@ -9150,7 +9177,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="B736" t="s">
         <v>50</v>
@@ -9158,7 +9185,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="B737" t="s">
         <v>50</v>
@@ -9166,7 +9193,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="B738" t="s">
         <v>50</v>
@@ -9174,7 +9201,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="B739" t="s">
         <v>50</v>
@@ -9182,7 +9209,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="B740" t="s">
         <v>50</v>
@@ -9190,7 +9217,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c r="B741" t="s">
         <v>50</v>
@@ -9198,7 +9225,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B742" t="s">
         <v>50</v>
@@ -9206,7 +9233,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B743" t="s">
         <v>50</v>
@@ -9214,7 +9241,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B744" t="s">
         <v>50</v>
@@ -9222,7 +9249,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B745" t="s">
         <v>50</v>
@@ -9230,7 +9257,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B746" t="s">
         <v>50</v>
@@ -9238,7 +9265,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B747" t="s">
         <v>50</v>
@@ -9246,7 +9273,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B748" t="s">
         <v>50</v>
@@ -9254,7 +9281,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B749" t="s">
         <v>50</v>
@@ -9262,7 +9289,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B750" t="s">
         <v>50</v>
@@ -9270,7 +9297,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B751" t="s">
         <v>50</v>
@@ -9278,7 +9305,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B752" t="s">
         <v>50</v>
@@ -9286,7 +9313,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B753" t="s">
         <v>50</v>
@@ -9294,7 +9321,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B754" t="s">
         <v>50</v>
@@ -9302,7 +9329,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B755" t="s">
         <v>50</v>
@@ -9310,7 +9337,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B756" t="s">
         <v>50</v>
@@ -9318,7 +9345,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B757" t="s">
         <v>50</v>
@@ -9326,7 +9353,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B758" t="s">
         <v>50</v>
@@ -9334,7 +9361,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B759" t="s">
         <v>50</v>
@@ -9342,7 +9369,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="B760" t="s">
         <v>50</v>
@@ -9350,7 +9377,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="B761" t="s">
         <v>50</v>
@@ -9358,7 +9385,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
       <c r="B762" t="s">
         <v>50</v>
@@ -9366,7 +9393,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>447</v>
+        <v>334</v>
       </c>
       <c r="B763" t="s">
         <v>50</v>
@@ -9374,7 +9401,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="B764" t="s">
         <v>50</v>
@@ -9382,7 +9409,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>449</v>
+        <v>336</v>
       </c>
       <c r="B765" t="s">
         <v>50</v>
@@ -9390,7 +9417,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>450</v>
+        <v>337</v>
       </c>
       <c r="B766" t="s">
         <v>50</v>
@@ -9398,7 +9425,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="B767" t="s">
         <v>50</v>
@@ -9406,7 +9433,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>843</v>
+        <v>339</v>
       </c>
       <c r="B768" t="s">
         <v>50</v>
@@ -9414,79 +9441,79 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>173</v>
+        <v>444</v>
       </c>
       <c r="B769" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>175</v>
+        <v>445</v>
       </c>
       <c r="B770" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>176</v>
+        <v>446</v>
       </c>
       <c r="B771" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="B772" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>178</v>
+        <v>448</v>
       </c>
       <c r="B773" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>179</v>
+        <v>449</v>
       </c>
       <c r="B774" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="B775" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>181</v>
+        <v>451</v>
       </c>
       <c r="B776" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>182</v>
+        <v>843</v>
       </c>
       <c r="B777" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B778" t="s">
         <v>174</v>
@@ -9494,7 +9521,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B779" t="s">
         <v>174</v>
@@ -9502,7 +9529,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B780" t="s">
         <v>174</v>
@@ -9510,7 +9537,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B781" t="s">
         <v>174</v>
@@ -9518,7 +9545,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B782" t="s">
         <v>174</v>
@@ -9526,7 +9553,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B783" t="s">
         <v>174</v>
@@ -9534,7 +9561,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B784" t="s">
         <v>174</v>
@@ -9542,7 +9569,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B785" t="s">
         <v>174</v>
@@ -9550,7 +9577,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B786" t="s">
         <v>174</v>
@@ -9558,7 +9585,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B787" t="s">
         <v>174</v>
@@ -9566,7 +9593,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B788" t="s">
         <v>174</v>
@@ -9574,7 +9601,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B789" t="s">
         <v>174</v>
@@ -9582,7 +9609,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B790" t="s">
         <v>174</v>
@@ -9590,7 +9617,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B791" t="s">
         <v>174</v>
@@ -9598,7 +9625,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B792" t="s">
         <v>174</v>
@@ -9606,7 +9633,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B793" t="s">
         <v>174</v>
@@ -9614,7 +9641,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B794" t="s">
         <v>174</v>
@@ -9622,7 +9649,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B795" t="s">
         <v>174</v>
@@ -9630,7 +9657,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>760</v>
+        <v>192</v>
       </c>
       <c r="B796" t="s">
         <v>174</v>
@@ -9638,7 +9665,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>759</v>
+        <v>193</v>
       </c>
       <c r="B797" t="s">
         <v>174</v>
@@ -9646,7 +9673,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B798" t="s">
         <v>174</v>
@@ -9654,7 +9681,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>379</v>
+        <v>195</v>
       </c>
       <c r="B799" t="s">
         <v>174</v>
@@ -9662,7 +9689,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B800" t="s">
         <v>174</v>
@@ -9670,7 +9697,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B801" t="s">
         <v>174</v>
@@ -9678,7 +9705,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B802" t="s">
         <v>174</v>
@@ -9686,7 +9713,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B803" t="s">
         <v>174</v>
@@ -9694,7 +9721,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B804" t="s">
         <v>174</v>
@@ -9702,7 +9729,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>207</v>
+        <v>760</v>
       </c>
       <c r="B805" t="s">
         <v>174</v>
@@ -9710,7 +9737,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>208</v>
+        <v>759</v>
       </c>
       <c r="B806" t="s">
         <v>174</v>
@@ -9718,7 +9745,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="B807" t="s">
         <v>174</v>
@@ -9726,7 +9753,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B808" t="s">
         <v>174</v>
@@ -9734,7 +9761,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
       <c r="B809" t="s">
         <v>174</v>
@@ -9742,7 +9769,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>383</v>
+        <v>203</v>
       </c>
       <c r="B810" t="s">
         <v>174</v>
@@ -9750,7 +9777,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="B811" t="s">
         <v>174</v>
@@ -9758,7 +9785,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>385</v>
+        <v>205</v>
       </c>
       <c r="B812" t="s">
         <v>174</v>
@@ -9766,7 +9793,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>386</v>
+        <v>206</v>
       </c>
       <c r="B813" t="s">
         <v>174</v>
@@ -9774,7 +9801,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>387</v>
+        <v>207</v>
       </c>
       <c r="B814" t="s">
         <v>174</v>
@@ -9782,7 +9809,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>388</v>
+        <v>208</v>
       </c>
       <c r="B815" t="s">
         <v>174</v>
@@ -9790,7 +9817,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B816" t="s">
         <v>174</v>
@@ -9798,7 +9825,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B817" t="s">
         <v>174</v>
@@ -9806,7 +9833,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B818" t="s">
         <v>174</v>
@@ -9814,7 +9841,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B819" t="s">
         <v>174</v>
@@ -9822,7 +9849,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B820" t="s">
         <v>174</v>
@@ -9830,7 +9857,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="B821" t="s">
         <v>174</v>
@@ -9838,7 +9865,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="B822" t="s">
         <v>174</v>
@@ -9846,7 +9873,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B823" t="s">
         <v>174</v>
@@ -9854,7 +9881,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="B824" t="s">
         <v>174</v>
@@ -9862,7 +9889,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="B825" t="s">
         <v>174</v>
@@ -9870,7 +9897,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="B826" t="s">
         <v>174</v>
@@ -9878,7 +9905,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
       <c r="B827" t="s">
         <v>174</v>
@@ -9886,79 +9913,79 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>209</v>
+        <v>392</v>
       </c>
       <c r="B828" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>211</v>
+        <v>393</v>
       </c>
       <c r="B829" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>212</v>
+        <v>467</v>
       </c>
       <c r="B830" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>213</v>
+        <v>468</v>
       </c>
       <c r="B831" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>214</v>
+        <v>469</v>
       </c>
       <c r="B832" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>215</v>
+        <v>470</v>
       </c>
       <c r="B833" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>216</v>
+        <v>471</v>
       </c>
       <c r="B834" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>217</v>
+        <v>472</v>
       </c>
       <c r="B835" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>218</v>
+        <v>473</v>
       </c>
       <c r="B836" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B837" t="s">
         <v>210</v>
@@ -9966,7 +9993,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B838" t="s">
         <v>210</v>
@@ -9974,7 +10001,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B839" t="s">
         <v>210</v>
@@ -9982,7 +10009,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B840" t="s">
         <v>210</v>
@@ -9990,7 +10017,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B841" t="s">
         <v>210</v>
@@ -9998,7 +10025,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B842" t="s">
         <v>210</v>
@@ -10006,7 +10033,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B843" t="s">
         <v>210</v>
@@ -10014,7 +10041,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B844" t="s">
         <v>210</v>
@@ -10022,7 +10049,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B845" t="s">
         <v>210</v>
@@ -10030,7 +10057,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B846" t="s">
         <v>210</v>
@@ -10038,7 +10065,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B847" t="s">
         <v>210</v>
@@ -10046,7 +10073,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B848" t="s">
         <v>210</v>
@@ -10054,7 +10081,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B849" t="s">
         <v>210</v>
@@ -10062,7 +10089,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B850" t="s">
         <v>210</v>
@@ -10070,7 +10097,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B851" t="s">
         <v>210</v>
@@ -10078,7 +10105,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B852" t="s">
         <v>210</v>
@@ -10086,7 +10113,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B853" t="s">
         <v>210</v>
@@ -10094,7 +10121,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B854" t="s">
         <v>210</v>
@@ -10102,7 +10129,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B855" t="s">
         <v>210</v>
@@ -10110,7 +10137,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B856" t="s">
         <v>210</v>
@@ -10118,7 +10145,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B857" t="s">
         <v>210</v>
@@ -10126,7 +10153,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B858" t="s">
         <v>210</v>
@@ -10134,7 +10161,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B859" t="s">
         <v>210</v>
@@ -10142,7 +10169,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B860" t="s">
         <v>210</v>
@@ -10150,7 +10177,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B861" t="s">
         <v>210</v>
@@ -10158,7 +10185,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B862" t="s">
         <v>210</v>
@@ -10166,7 +10193,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B863" t="s">
         <v>210</v>
@@ -10174,7 +10201,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B864" t="s">
         <v>210</v>
@@ -10182,7 +10209,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B865" t="s">
         <v>210</v>
@@ -10190,7 +10217,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B866" t="s">
         <v>210</v>
@@ -10198,7 +10225,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B867" t="s">
         <v>210</v>
@@ -10206,7 +10233,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B868" t="s">
         <v>210</v>
@@ -10214,7 +10241,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B869" t="s">
         <v>210</v>
@@ -10222,15 +10249,15 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B870" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="871" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A871" s="4" t="s">
-        <v>761</v>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>244</v>
       </c>
       <c r="B871" t="s">
         <v>210</v>
@@ -10238,7 +10265,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B872" t="s">
         <v>210</v>
@@ -10246,7 +10273,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B873" t="s">
         <v>210</v>
@@ -10254,7 +10281,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B874" t="s">
         <v>210</v>
@@ -10262,7 +10289,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B875" t="s">
         <v>210</v>
@@ -10270,7 +10297,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B876" t="s">
         <v>210</v>
@@ -10278,7 +10305,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B877" t="s">
         <v>210</v>
@@ -10286,7 +10313,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B878" t="s">
         <v>210</v>
@@ -10294,15 +10321,15 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B879" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A880" t="s">
-        <v>261</v>
+    <row r="880" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A880" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="B880" t="s">
         <v>210</v>
@@ -10310,7 +10337,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B881" t="s">
         <v>210</v>
@@ -10318,7 +10345,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B882" t="s">
         <v>210</v>
@@ -10326,7 +10353,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B883" t="s">
         <v>210</v>
@@ -10334,7 +10361,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B884" t="s">
         <v>210</v>
@@ -10342,7 +10369,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B885" t="s">
         <v>210</v>
@@ -10350,7 +10377,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B886" t="s">
         <v>210</v>
@@ -10358,7 +10385,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B887" t="s">
         <v>210</v>
@@ -10366,7 +10393,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B888" t="s">
         <v>210</v>
@@ -10374,7 +10401,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B889" t="s">
         <v>210</v>
@@ -10382,7 +10409,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>474</v>
+        <v>262</v>
       </c>
       <c r="B890" t="s">
         <v>210</v>
@@ -10390,7 +10417,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>475</v>
+        <v>263</v>
       </c>
       <c r="B891" t="s">
         <v>210</v>
@@ -10398,7 +10425,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>476</v>
+        <v>264</v>
       </c>
       <c r="B892" t="s">
         <v>210</v>
@@ -10406,7 +10433,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>477</v>
+        <v>265</v>
       </c>
       <c r="B893" t="s">
         <v>210</v>
@@ -10414,7 +10441,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>478</v>
+        <v>266</v>
       </c>
       <c r="B894" t="s">
         <v>210</v>
@@ -10422,7 +10449,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>479</v>
+        <v>267</v>
       </c>
       <c r="B895" t="s">
         <v>210</v>
@@ -10430,7 +10457,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>480</v>
+        <v>268</v>
       </c>
       <c r="B896" t="s">
         <v>210</v>
@@ -10438,7 +10465,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>481</v>
+        <v>269</v>
       </c>
       <c r="B897" t="s">
         <v>210</v>
@@ -10446,103 +10473,103 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="B898" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>39</v>
+        <v>474</v>
       </c>
       <c r="B899" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>40</v>
+        <v>475</v>
       </c>
       <c r="B900" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A901" s="1" t="s">
-        <v>41</v>
+      <c r="A901" t="s">
+        <v>476</v>
       </c>
       <c r="B901" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>42</v>
+        <v>477</v>
       </c>
       <c r="B902" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>43</v>
+        <v>478</v>
       </c>
       <c r="B903" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A904" s="1" t="s">
-        <v>44</v>
+      <c r="A904" t="s">
+        <v>479</v>
       </c>
       <c r="B904" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A905" s="1" t="s">
-        <v>869</v>
+      <c r="A905" t="s">
+        <v>480</v>
       </c>
       <c r="B905" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A906" s="1" t="s">
-        <v>868</v>
+      <c r="A906" t="s">
+        <v>481</v>
       </c>
       <c r="B906" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A907" s="1" t="s">
-        <v>45</v>
+      <c r="A907" t="s">
+        <v>37</v>
       </c>
       <c r="B907" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A908" s="1" t="s">
-        <v>46</v>
+      <c r="A908" t="s">
+        <v>39</v>
       </c>
       <c r="B908" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A909" s="1" t="s">
-        <v>47</v>
+      <c r="A909" t="s">
+        <v>40</v>
       </c>
       <c r="B909" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A910" t="s">
-        <v>48</v>
+      <c r="A910" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B910" t="s">
         <v>38</v>
@@ -10550,7 +10577,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B911" t="s">
         <v>38</v>
@@ -10558,55 +10585,55 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>428</v>
+        <v>43</v>
       </c>
       <c r="B912" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A913" t="s">
-        <v>429</v>
+      <c r="A913" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B913" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A914" t="s">
-        <v>430</v>
+      <c r="A914" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="B914" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A915" t="s">
-        <v>431</v>
+      <c r="A915" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="B915" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A916" t="s">
-        <v>432</v>
+      <c r="A916" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B916" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A917" t="s">
-        <v>433</v>
+      <c r="A917" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B917" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A918" t="s">
-        <v>434</v>
+      <c r="A918" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B918" t="s">
         <v>38</v>
@@ -10614,7 +10641,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>435</v>
+        <v>48</v>
       </c>
       <c r="B919" t="s">
         <v>38</v>
@@ -10622,23 +10649,95 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>758</v>
+        <v>49</v>
       </c>
       <c r="B920" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A921" s="1" t="s">
-        <v>842</v>
+      <c r="A921" t="s">
+        <v>428</v>
       </c>
       <c r="B921" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>429</v>
+      </c>
+      <c r="B922" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>430</v>
+      </c>
+      <c r="B923" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>431</v>
+      </c>
+      <c r="B924" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>432</v>
+      </c>
+      <c r="B925" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>433</v>
+      </c>
+      <c r="B926" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>434</v>
+      </c>
+      <c r="B927" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>435</v>
+      </c>
+      <c r="B928" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>758</v>
+      </c>
+      <c r="B929" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B930" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1700">
-    <sortCondition ref="B2:B1700"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1709">
+    <sortCondition ref="B2:B1709"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1344686-0A39-4370-8D8A-50501ED04D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573CFB2-26B5-436A-88AB-455827521017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="11076" yWindow="132" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$836</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$844</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="959">
   <si>
     <t>message</t>
   </si>
@@ -2890,6 +2890,30 @@
   </si>
   <si>
     <t>address of the resort</t>
+  </si>
+  <si>
+    <t>Give me the rating and review.</t>
+  </si>
+  <si>
+    <t>Room details pls</t>
+  </si>
+  <si>
+    <t>Room details please</t>
+  </si>
+  <si>
+    <t>I want a homestay</t>
+  </si>
+  <si>
+    <t>I want a resort</t>
+  </si>
+  <si>
+    <t>I want a hotel</t>
+  </si>
+  <si>
+    <t>I want a hostel</t>
+  </si>
+  <si>
+    <t>I need a hostel</t>
   </si>
 </sst>
 </file>
@@ -3283,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B930"/>
+  <dimension ref="A1:B938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181:B185"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="B397" sqref="B396:B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5585,7 +5609,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>712</v>
+        <v>951</v>
       </c>
       <c r="B287" t="s">
         <v>573</v>
@@ -5593,7 +5617,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B288" t="s">
         <v>573</v>
@@ -5601,7 +5625,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B289" t="s">
         <v>573</v>
@@ -5609,7 +5633,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B290" t="s">
         <v>573</v>
@@ -5617,7 +5641,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B291" t="s">
         <v>573</v>
@@ -5625,7 +5649,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B292" t="s">
         <v>573</v>
@@ -5633,7 +5657,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B293" t="s">
         <v>573</v>
@@ -5641,7 +5665,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B294" t="s">
         <v>573</v>
@@ -5649,7 +5673,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B295" t="s">
         <v>573</v>
@@ -5657,7 +5681,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B296" t="s">
         <v>573</v>
@@ -5665,7 +5689,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B297" t="s">
         <v>573</v>
@@ -5673,7 +5697,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B298" t="s">
         <v>573</v>
@@ -5681,7 +5705,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B299" t="s">
         <v>573</v>
@@ -5689,7 +5713,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B300" t="s">
         <v>573</v>
@@ -5697,7 +5721,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B301" t="s">
         <v>573</v>
@@ -5705,7 +5729,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B302" t="s">
         <v>573</v>
@@ -5713,7 +5737,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B303" t="s">
         <v>573</v>
@@ -5721,7 +5745,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B304" t="s">
         <v>573</v>
@@ -5729,7 +5753,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B305" t="s">
         <v>573</v>
@@ -5737,7 +5761,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B306" t="s">
         <v>573</v>
@@ -5745,15 +5769,15 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="B307" t="s">
-        <v>774</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B308" t="s">
         <v>774</v>
@@ -5761,7 +5785,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B309" t="s">
         <v>774</v>
@@ -5769,7 +5793,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B310" t="s">
         <v>774</v>
@@ -5777,7 +5801,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B311" t="s">
         <v>774</v>
@@ -5785,7 +5809,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B312" t="s">
         <v>774</v>
@@ -5793,7 +5817,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B313" t="s">
         <v>774</v>
@@ -5801,7 +5825,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B314" t="s">
         <v>774</v>
@@ -5809,7 +5833,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B315" t="s">
         <v>774</v>
@@ -5817,7 +5841,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B316" t="s">
         <v>774</v>
@@ -5825,7 +5849,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B317" t="s">
         <v>774</v>
@@ -5833,7 +5857,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B318" t="s">
         <v>774</v>
@@ -5841,7 +5865,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B319" t="s">
         <v>774</v>
@@ -5849,7 +5873,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B320" t="s">
         <v>774</v>
@@ -5857,7 +5881,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B321" t="s">
         <v>774</v>
@@ -5865,7 +5889,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B322" t="s">
         <v>774</v>
@@ -5873,7 +5897,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>790</v>
+        <v>952</v>
       </c>
       <c r="B323" t="s">
         <v>774</v>
@@ -5881,7 +5905,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>791</v>
+        <v>953</v>
       </c>
       <c r="B324" t="s">
         <v>774</v>
@@ -5889,7 +5913,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B325" t="s">
         <v>774</v>
@@ -5897,7 +5921,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B326" t="s">
         <v>774</v>
@@ -5905,7 +5929,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>824</v>
+        <v>791</v>
       </c>
       <c r="B327" t="s">
         <v>774</v>
@@ -5913,7 +5937,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>825</v>
+        <v>792</v>
       </c>
       <c r="B328" t="s">
         <v>774</v>
@@ -5921,7 +5945,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>826</v>
+        <v>793</v>
       </c>
       <c r="B329" t="s">
         <v>774</v>
@@ -5929,7 +5953,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B330" t="s">
         <v>774</v>
@@ -5937,7 +5961,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B331" t="s">
         <v>774</v>
@@ -5945,7 +5969,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B332" t="s">
         <v>774</v>
@@ -5953,7 +5977,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B333" t="s">
         <v>774</v>
@@ -5961,7 +5985,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B334" t="s">
         <v>774</v>
@@ -5969,31 +5993,31 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>527</v>
+        <v>829</v>
       </c>
       <c r="B335" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>529</v>
+        <v>830</v>
       </c>
       <c r="B336" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>530</v>
+        <v>831</v>
       </c>
       <c r="B337" t="s">
-        <v>528</v>
+        <v>774</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B338" t="s">
         <v>528</v>
@@ -6001,7 +6025,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B339" t="s">
         <v>528</v>
@@ -6009,7 +6033,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B340" t="s">
         <v>528</v>
@@ -6017,7 +6041,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>768</v>
+        <v>531</v>
       </c>
       <c r="B341" t="s">
         <v>528</v>
@@ -6025,7 +6049,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>767</v>
+        <v>532</v>
       </c>
       <c r="B342" t="s">
         <v>528</v>
@@ -6033,7 +6057,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B343" t="s">
         <v>528</v>
@@ -6041,7 +6065,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>535</v>
+        <v>768</v>
       </c>
       <c r="B344" t="s">
         <v>528</v>
@@ -6049,7 +6073,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>605</v>
+        <v>767</v>
       </c>
       <c r="B345" t="s">
         <v>528</v>
@@ -6057,7 +6081,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>606</v>
+        <v>534</v>
       </c>
       <c r="B346" t="s">
         <v>528</v>
@@ -6065,7 +6089,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>607</v>
+        <v>535</v>
       </c>
       <c r="B347" t="s">
         <v>528</v>
@@ -6073,7 +6097,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B348" t="s">
         <v>528</v>
@@ -6081,7 +6105,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B349" t="s">
         <v>528</v>
@@ -6089,7 +6113,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B350" t="s">
         <v>528</v>
@@ -6097,7 +6121,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B351" t="s">
         <v>528</v>
@@ -6105,7 +6129,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B352" t="s">
         <v>528</v>
@@ -6113,7 +6137,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B353" t="s">
         <v>528</v>
@@ -6121,7 +6145,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B354" t="s">
         <v>528</v>
@@ -6129,7 +6153,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B355" t="s">
         <v>528</v>
@@ -6137,7 +6161,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B356" t="s">
         <v>528</v>
@@ -6145,7 +6169,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B357" t="s">
         <v>528</v>
@@ -6153,7 +6177,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B358" t="s">
         <v>528</v>
@@ -6161,7 +6185,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B359" t="s">
         <v>528</v>
@@ -6169,31 +6193,31 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>498</v>
+        <v>617</v>
       </c>
       <c r="B360" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>499</v>
+        <v>618</v>
       </c>
       <c r="B361" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>490</v>
+        <v>619</v>
       </c>
       <c r="B362" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B363" t="s">
         <v>490</v>
@@ -6201,15 +6225,15 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B364" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A365" s="4" t="s">
-        <v>766</v>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>490</v>
       </c>
       <c r="B365" t="s">
         <v>490</v>
@@ -6217,7 +6241,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B366" t="s">
         <v>490</v>
@@ -6225,15 +6249,15 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B367" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>504</v>
+    <row r="368" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="B368" t="s">
         <v>490</v>
@@ -6241,7 +6265,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>765</v>
+        <v>502</v>
       </c>
       <c r="B369" t="s">
         <v>490</v>
@@ -6249,7 +6273,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>764</v>
+        <v>503</v>
       </c>
       <c r="B370" t="s">
         <v>490</v>
@@ -6257,7 +6281,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B371" t="s">
         <v>490</v>
@@ -6265,7 +6289,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>516</v>
+        <v>765</v>
       </c>
       <c r="B372" t="s">
         <v>490</v>
@@ -6273,7 +6297,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>505</v>
+        <v>764</v>
       </c>
       <c r="B373" t="s">
         <v>490</v>
@@ -6281,7 +6305,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B374" t="s">
         <v>490</v>
@@ -6289,7 +6313,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B375" t="s">
         <v>490</v>
@@ -6297,7 +6321,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B376" t="s">
         <v>490</v>
@@ -6305,7 +6329,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B377" t="s">
         <v>490</v>
@@ -6313,7 +6337,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>889</v>
+        <v>507</v>
       </c>
       <c r="B378" t="s">
         <v>490</v>
@@ -6321,7 +6345,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B379" t="s">
         <v>490</v>
@@ -6329,7 +6353,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B380" t="s">
         <v>490</v>
@@ -6337,7 +6361,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>512</v>
+        <v>889</v>
       </c>
       <c r="B381" t="s">
         <v>490</v>
@@ -6345,7 +6369,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B382" t="s">
         <v>490</v>
@@ -6353,7 +6377,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B383" t="s">
         <v>490</v>
@@ -6361,7 +6385,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B384" t="s">
         <v>490</v>
@@ -6369,7 +6393,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B385" t="s">
         <v>490</v>
@@ -6377,7 +6401,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B386" t="s">
         <v>490</v>
@@ -6385,7 +6409,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>877</v>
+        <v>515</v>
       </c>
       <c r="B387" t="s">
         <v>490</v>
@@ -6393,7 +6417,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>878</v>
+        <v>489</v>
       </c>
       <c r="B388" t="s">
         <v>490</v>
@@ -6401,71 +6425,71 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>876</v>
+        <v>491</v>
       </c>
       <c r="B389" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="6" t="s">
-        <v>908</v>
+      <c r="A390" t="s">
+        <v>954</v>
       </c>
       <c r="B390" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="6" t="s">
-        <v>909</v>
+      <c r="A391" t="s">
+        <v>955</v>
       </c>
       <c r="B391" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="6" t="s">
-        <v>910</v>
+      <c r="A392" t="s">
+        <v>956</v>
       </c>
       <c r="B392" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="6" t="s">
-        <v>911</v>
+      <c r="A393" t="s">
+        <v>957</v>
       </c>
       <c r="B393" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="6" t="s">
-        <v>912</v>
+      <c r="A394" t="s">
+        <v>877</v>
       </c>
       <c r="B394" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="6" t="s">
-        <v>913</v>
+      <c r="A395" t="s">
+        <v>878</v>
       </c>
       <c r="B395" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="6" t="s">
-        <v>914</v>
+      <c r="A396" t="s">
+        <v>958</v>
       </c>
       <c r="B396" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="6" t="s">
-        <v>915</v>
+      <c r="A397" t="s">
+        <v>876</v>
       </c>
       <c r="B397" t="s">
         <v>490</v>
@@ -6473,7 +6497,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B398" t="s">
         <v>490</v>
@@ -6481,7 +6505,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="B399" t="s">
         <v>490</v>
@@ -6489,7 +6513,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B400" t="s">
         <v>490</v>
@@ -6497,7 +6521,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B401" t="s">
         <v>490</v>
@@ -6505,7 +6529,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B402" t="s">
         <v>490</v>
@@ -6513,7 +6537,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B403" t="s">
         <v>490</v>
@@ -6521,7 +6545,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B404" t="s">
         <v>490</v>
@@ -6529,7 +6553,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B405" t="s">
         <v>490</v>
@@ -6537,7 +6561,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B406" t="s">
         <v>490</v>
@@ -6545,7 +6569,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B407" t="s">
         <v>490</v>
@@ -6553,7 +6577,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="B408" t="s">
         <v>490</v>
@@ -6561,7 +6585,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B409" t="s">
         <v>490</v>
@@ -6569,7 +6593,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="B410" t="s">
         <v>490</v>
@@ -6577,7 +6601,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B411" t="s">
         <v>490</v>
@@ -6585,7 +6609,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B412" t="s">
         <v>490</v>
@@ -6593,7 +6617,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B413" t="s">
         <v>490</v>
@@ -6601,7 +6625,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="B414" t="s">
         <v>490</v>
@@ -6609,7 +6633,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B415" t="s">
         <v>490</v>
@@ -6617,7 +6641,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B416" t="s">
         <v>490</v>
@@ -6625,7 +6649,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B417" t="s">
         <v>490</v>
@@ -6633,71 +6657,71 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B418" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
-        <v>492</v>
+      <c r="A419" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="B419" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>493</v>
+      <c r="A420" s="6" t="s">
+        <v>930</v>
       </c>
       <c r="B420" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>494</v>
+      <c r="A421" s="6" t="s">
+        <v>931</v>
       </c>
       <c r="B421" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>495</v>
+      <c r="A422" s="6" t="s">
+        <v>937</v>
       </c>
       <c r="B422" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>905</v>
+      <c r="A423" s="6" t="s">
+        <v>932</v>
       </c>
       <c r="B423" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>496</v>
+      <c r="A424" s="6" t="s">
+        <v>933</v>
       </c>
       <c r="B424" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>497</v>
+      <c r="A425" s="6" t="s">
+        <v>934</v>
       </c>
       <c r="B425" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
-        <v>844</v>
+      <c r="A426" s="6" t="s">
+        <v>935</v>
       </c>
       <c r="B426" t="s">
         <v>490</v>
@@ -6705,7 +6729,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>845</v>
+        <v>492</v>
       </c>
       <c r="B427" t="s">
         <v>490</v>
@@ -6713,71 +6737,71 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>271</v>
+        <v>493</v>
       </c>
       <c r="B428" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>273</v>
+        <v>494</v>
       </c>
       <c r="B429" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>274</v>
+        <v>495</v>
       </c>
       <c r="B430" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>275</v>
+        <v>905</v>
       </c>
       <c r="B431" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>276</v>
+        <v>496</v>
       </c>
       <c r="B432" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>277</v>
+        <v>497</v>
       </c>
       <c r="B433" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>278</v>
+        <v>844</v>
       </c>
       <c r="B434" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>875</v>
+        <v>845</v>
       </c>
       <c r="B435" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>874</v>
+        <v>271</v>
       </c>
       <c r="B436" t="s">
         <v>272</v>
@@ -6785,7 +6809,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B437" t="s">
         <v>272</v>
@@ -6793,7 +6817,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B438" t="s">
         <v>272</v>
@@ -6801,7 +6825,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B439" t="s">
         <v>272</v>
@@ -6809,7 +6833,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B440" t="s">
         <v>272</v>
@@ -6817,7 +6841,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B441" t="s">
         <v>272</v>
@@ -6825,7 +6849,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B442" t="s">
         <v>272</v>
@@ -6833,7 +6857,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>285</v>
+        <v>875</v>
       </c>
       <c r="B443" t="s">
         <v>272</v>
@@ -6841,7 +6865,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>286</v>
+        <v>874</v>
       </c>
       <c r="B444" t="s">
         <v>272</v>
@@ -6849,7 +6873,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B445" t="s">
         <v>272</v>
@@ -6857,7 +6881,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B446" t="s">
         <v>272</v>
@@ -6865,7 +6889,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B447" t="s">
         <v>272</v>
@@ -6873,7 +6897,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B448" t="s">
         <v>272</v>
@@ -6881,7 +6905,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>763</v>
+        <v>283</v>
       </c>
       <c r="B449" t="s">
         <v>272</v>
@@ -6889,15 +6913,15 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B450" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A451" s="4" t="s">
-        <v>762</v>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>285</v>
       </c>
       <c r="B451" t="s">
         <v>272</v>
@@ -6905,7 +6929,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B452" t="s">
         <v>272</v>
@@ -6913,7 +6937,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B453" t="s">
         <v>272</v>
@@ -6921,7 +6945,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B454" t="s">
         <v>272</v>
@@ -6929,7 +6953,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B455" t="s">
         <v>272</v>
@@ -6937,7 +6961,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B456" t="s">
         <v>272</v>
@@ -6945,7 +6969,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>297</v>
+        <v>763</v>
       </c>
       <c r="B457" t="s">
         <v>272</v>
@@ -6953,15 +6977,15 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B458" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>299</v>
+    <row r="459" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="B459" t="s">
         <v>272</v>
@@ -6969,7 +6993,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B460" t="s">
         <v>272</v>
@@ -6977,7 +7001,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B461" t="s">
         <v>272</v>
@@ -6985,7 +7009,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B462" t="s">
         <v>272</v>
@@ -6993,7 +7017,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B463" t="s">
         <v>272</v>
@@ -7001,7 +7025,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B464" t="s">
         <v>272</v>
@@ -7009,7 +7033,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B465" t="s">
         <v>272</v>
@@ -7017,7 +7041,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B466" t="s">
         <v>272</v>
@@ -7025,7 +7049,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B467" t="s">
         <v>272</v>
@@ -7033,7 +7057,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B468" t="s">
         <v>272</v>
@@ -7041,7 +7065,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B469" t="s">
         <v>272</v>
@@ -7049,7 +7073,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="B470" t="s">
         <v>272</v>
@@ -7057,7 +7081,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="B471" t="s">
         <v>272</v>
@@ -7065,7 +7089,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="B472" t="s">
         <v>272</v>
@@ -7073,7 +7097,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="B473" t="s">
         <v>272</v>
@@ -7081,7 +7105,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="B474" t="s">
         <v>272</v>
@@ -7089,7 +7113,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="B475" t="s">
         <v>272</v>
@@ -7097,7 +7121,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="B476" t="s">
         <v>272</v>
@@ -7105,7 +7129,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="B477" t="s">
         <v>272</v>
@@ -7113,7 +7137,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B478" t="s">
         <v>272</v>
@@ -7121,7 +7145,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B479" t="s">
         <v>272</v>
@@ -7129,7 +7153,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B480" t="s">
         <v>272</v>
@@ -7137,7 +7161,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B481" t="s">
         <v>272</v>
@@ -7145,7 +7169,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B482" t="s">
         <v>272</v>
@@ -7153,7 +7177,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B483" t="s">
         <v>272</v>
@@ -7161,7 +7185,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B484" t="s">
         <v>272</v>
@@ -7169,7 +7193,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
       <c r="B485" t="s">
         <v>272</v>
@@ -7177,7 +7201,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>483</v>
+        <v>402</v>
       </c>
       <c r="B486" t="s">
         <v>272</v>
@@ -7185,7 +7209,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>484</v>
+        <v>403</v>
       </c>
       <c r="B487" t="s">
         <v>272</v>
@@ -7193,7 +7217,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="B488" t="s">
         <v>272</v>
@@ -7201,7 +7225,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="B489" t="s">
         <v>272</v>
@@ -7209,7 +7233,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="B490" t="s">
         <v>272</v>
@@ -7217,7 +7241,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>488</v>
+        <v>407</v>
       </c>
       <c r="B491" t="s">
         <v>272</v>
@@ -7225,71 +7249,71 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>89</v>
+        <v>408</v>
       </c>
       <c r="B492" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>91</v>
+        <v>482</v>
       </c>
       <c r="B493" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>92</v>
+        <v>483</v>
       </c>
       <c r="B494" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>93</v>
+        <v>484</v>
       </c>
       <c r="B495" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>94</v>
+        <v>485</v>
       </c>
       <c r="B496" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>95</v>
+        <v>486</v>
       </c>
       <c r="B497" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>96</v>
+        <v>487</v>
       </c>
       <c r="B498" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>97</v>
+        <v>488</v>
       </c>
       <c r="B499" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B500" t="s">
         <v>90</v>
@@ -7297,7 +7321,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B501" t="s">
         <v>90</v>
@@ -7305,7 +7329,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B502" t="s">
         <v>90</v>
@@ -7313,7 +7337,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B503" t="s">
         <v>90</v>
@@ -7321,7 +7345,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B504" t="s">
         <v>90</v>
@@ -7329,7 +7353,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B505" t="s">
         <v>90</v>
@@ -7337,7 +7361,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B506" t="s">
         <v>90</v>
@@ -7345,7 +7369,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B507" t="s">
         <v>90</v>
@@ -7353,7 +7377,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B508" t="s">
         <v>90</v>
@@ -7361,7 +7385,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B509" t="s">
         <v>90</v>
@@ -7369,7 +7393,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B510" t="s">
         <v>90</v>
@@ -7377,7 +7401,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B511" t="s">
         <v>90</v>
@@ -7385,7 +7409,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B512" t="s">
         <v>90</v>
@@ -7393,7 +7417,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B513" t="s">
         <v>90</v>
@@ -7401,7 +7425,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B514" t="s">
         <v>90</v>
@@ -7409,7 +7433,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B515" t="s">
         <v>90</v>
@@ -7417,7 +7441,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B516" t="s">
         <v>90</v>
@@ -7425,7 +7449,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B517" t="s">
         <v>90</v>
@@ -7433,7 +7457,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B518" t="s">
         <v>90</v>
@@ -7441,7 +7465,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B519" t="s">
         <v>90</v>
@@ -7449,7 +7473,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="B520" t="s">
         <v>90</v>
@@ -7457,7 +7481,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="B521" t="s">
         <v>90</v>
@@ -7465,7 +7489,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="B522" t="s">
         <v>90</v>
@@ -7473,7 +7497,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>413</v>
+        <v>113</v>
       </c>
       <c r="B523" t="s">
         <v>90</v>
@@ -7481,7 +7505,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B524" t="s">
         <v>90</v>
@@ -7489,7 +7513,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="B525" t="s">
         <v>90</v>
@@ -7497,7 +7521,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>415</v>
+        <v>116</v>
       </c>
       <c r="B526" t="s">
         <v>90</v>
@@ -7505,7 +7529,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>416</v>
+        <v>117</v>
       </c>
       <c r="B527" t="s">
         <v>90</v>
@@ -7513,7 +7537,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B528" t="s">
         <v>90</v>
@@ -7521,7 +7545,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B529" t="s">
         <v>90</v>
@@ -7529,7 +7553,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>119</v>
+        <v>412</v>
       </c>
       <c r="B530" t="s">
         <v>90</v>
@@ -7537,7 +7561,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
       <c r="B531" t="s">
         <v>90</v>
@@ -7545,7 +7569,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>341</v>
+        <v>118</v>
       </c>
       <c r="B532" t="s">
         <v>90</v>
@@ -7553,7 +7577,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="B533" t="s">
         <v>90</v>
@@ -7561,7 +7585,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="B534" t="s">
         <v>90</v>
@@ -7569,7 +7593,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="B535" t="s">
         <v>90</v>
@@ -7577,7 +7601,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>345</v>
+        <v>417</v>
       </c>
       <c r="B536" t="s">
         <v>90</v>
@@ -7585,7 +7609,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="B537" t="s">
         <v>90</v>
@@ -7593,7 +7617,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>873</v>
+        <v>119</v>
       </c>
       <c r="B538" t="s">
         <v>90</v>
@@ -7601,7 +7625,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>872</v>
+        <v>340</v>
       </c>
       <c r="B539" t="s">
         <v>90</v>
@@ -7609,7 +7633,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>871</v>
+        <v>341</v>
       </c>
       <c r="B540" t="s">
         <v>90</v>
@@ -7617,7 +7641,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>870</v>
+        <v>342</v>
       </c>
       <c r="B541" t="s">
         <v>90</v>
@@ -7625,7 +7649,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B542" t="s">
         <v>90</v>
@@ -7633,7 +7657,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B543" t="s">
         <v>90</v>
@@ -7641,7 +7665,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B544" t="s">
         <v>90</v>
@@ -7649,7 +7673,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B545" t="s">
         <v>90</v>
@@ -7657,7 +7681,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>351</v>
+        <v>873</v>
       </c>
       <c r="B546" t="s">
         <v>90</v>
@@ -7665,7 +7689,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>352</v>
+        <v>872</v>
       </c>
       <c r="B547" t="s">
         <v>90</v>
@@ -7673,7 +7697,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>353</v>
+        <v>871</v>
       </c>
       <c r="B548" t="s">
         <v>90</v>
@@ -7681,7 +7705,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>354</v>
+        <v>870</v>
       </c>
       <c r="B549" t="s">
         <v>90</v>
@@ -7689,7 +7713,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B550" t="s">
         <v>90</v>
@@ -7697,7 +7721,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B551" t="s">
         <v>90</v>
@@ -7705,7 +7729,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B552" t="s">
         <v>90</v>
@@ -7713,7 +7737,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B553" t="s">
         <v>90</v>
@@ -7721,7 +7745,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B554" t="s">
         <v>90</v>
@@ -7729,7 +7753,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B555" t="s">
         <v>90</v>
@@ -7737,7 +7761,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B556" t="s">
         <v>90</v>
@@ -7745,7 +7769,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B557" t="s">
         <v>90</v>
@@ -7753,7 +7777,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B558" t="s">
         <v>90</v>
@@ -7761,7 +7785,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B559" t="s">
         <v>90</v>
@@ -7769,7 +7793,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B560" t="s">
         <v>90</v>
@@ -7777,7 +7801,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B561" t="s">
         <v>90</v>
@@ -7785,7 +7809,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B562" t="s">
         <v>90</v>
@@ -7793,7 +7817,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B563" t="s">
         <v>90</v>
@@ -7801,7 +7825,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B564" t="s">
         <v>90</v>
@@ -7809,7 +7833,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="B565" t="s">
         <v>90</v>
@@ -7817,7 +7841,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="B566" t="s">
         <v>90</v>
@@ -7825,7 +7849,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="B567" t="s">
         <v>90</v>
@@ -7833,7 +7857,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="B568" t="s">
         <v>90</v>
@@ -7841,7 +7865,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="B569" t="s">
         <v>90</v>
@@ -7849,7 +7873,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="B570" t="s">
         <v>90</v>
@@ -7857,7 +7881,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="B571" t="s">
         <v>90</v>
@@ -7865,71 +7889,71 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B572" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>371</v>
+        <v>452</v>
       </c>
       <c r="B573" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>372</v>
+        <v>453</v>
       </c>
       <c r="B574" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>373</v>
+        <v>454</v>
       </c>
       <c r="B575" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="B576" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="B577" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>376</v>
+        <v>457</v>
       </c>
       <c r="B578" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="B579" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B580" t="s">
         <v>121</v>
@@ -7937,7 +7961,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>120</v>
+        <v>371</v>
       </c>
       <c r="B581" t="s">
         <v>121</v>
@@ -7945,7 +7969,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="B582" t="s">
         <v>121</v>
@@ -7953,15 +7977,15 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>123</v>
+        <v>373</v>
       </c>
       <c r="B583" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A584" s="2" t="s">
-        <v>124</v>
+      <c r="A584" t="s">
+        <v>374</v>
       </c>
       <c r="B584" t="s">
         <v>121</v>
@@ -7969,7 +7993,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B585" t="s">
         <v>121</v>
@@ -7977,7 +8001,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="B586" t="s">
         <v>121</v>
@@ -7985,7 +8009,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>127</v>
+        <v>377</v>
       </c>
       <c r="B587" t="s">
         <v>121</v>
@@ -7993,7 +8017,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="B588" t="s">
         <v>121</v>
@@ -8001,7 +8025,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B589" t="s">
         <v>121</v>
@@ -8009,7 +8033,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B590" t="s">
         <v>121</v>
@@ -8017,15 +8041,15 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B591" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A592" t="s">
-        <v>132</v>
+      <c r="A592" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B592" t="s">
         <v>121</v>
@@ -8033,7 +8057,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B593" t="s">
         <v>121</v>
@@ -8041,7 +8065,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B594" t="s">
         <v>121</v>
@@ -8049,7 +8073,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B595" t="s">
         <v>121</v>
@@ -8057,7 +8081,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B596" t="s">
         <v>121</v>
@@ -8065,7 +8089,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B597" t="s">
         <v>121</v>
@@ -8073,7 +8097,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B598" t="s">
         <v>121</v>
@@ -8081,7 +8105,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B599" t="s">
         <v>121</v>
@@ -8089,7 +8113,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B600" t="s">
         <v>121</v>
@@ -8097,7 +8121,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B601" t="s">
         <v>121</v>
@@ -8105,7 +8129,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B602" t="s">
         <v>121</v>
@@ -8113,7 +8137,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B603" t="s">
         <v>121</v>
@@ -8121,7 +8145,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B604" t="s">
         <v>121</v>
@@ -8129,7 +8153,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B605" t="s">
         <v>121</v>
@@ -8137,7 +8161,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B606" t="s">
         <v>121</v>
@@ -8145,7 +8169,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B607" t="s">
         <v>121</v>
@@ -8153,7 +8177,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B608" t="s">
         <v>121</v>
@@ -8161,7 +8185,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B609" t="s">
         <v>121</v>
@@ -8169,7 +8193,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B610" t="s">
         <v>121</v>
@@ -8177,7 +8201,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B611" t="s">
         <v>121</v>
@@ -8185,7 +8209,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B612" t="s">
         <v>121</v>
@@ -8193,7 +8217,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B613" t="s">
         <v>121</v>
@@ -8201,7 +8225,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B614" t="s">
         <v>121</v>
@@ -8209,7 +8233,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B615" t="s">
         <v>121</v>
@@ -8217,7 +8241,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B616" t="s">
         <v>121</v>
@@ -8225,7 +8249,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B617" t="s">
         <v>121</v>
@@ -8233,7 +8257,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B618" t="s">
         <v>121</v>
@@ -8241,7 +8265,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B619" t="s">
         <v>121</v>
@@ -8249,7 +8273,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B620" t="s">
         <v>121</v>
@@ -8257,7 +8281,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B621" t="s">
         <v>121</v>
@@ -8265,7 +8289,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B622" t="s">
         <v>121</v>
@@ -8273,7 +8297,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B623" t="s">
         <v>121</v>
@@ -8281,7 +8305,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B624" t="s">
         <v>121</v>
@@ -8289,7 +8313,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B625" t="s">
         <v>121</v>
@@ -8297,7 +8321,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B626" t="s">
         <v>121</v>
@@ -8305,7 +8329,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B627" t="s">
         <v>121</v>
@@ -8313,7 +8337,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B628" t="s">
         <v>121</v>
@@ -8321,7 +8345,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B629" t="s">
         <v>121</v>
@@ -8329,7 +8353,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B630" t="s">
         <v>121</v>
@@ -8337,7 +8361,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B631" t="s">
         <v>121</v>
@@ -8345,7 +8369,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B632" t="s">
         <v>121</v>
@@ -8353,7 +8377,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>459</v>
+        <v>165</v>
       </c>
       <c r="B633" t="s">
         <v>121</v>
@@ -8361,7 +8385,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>460</v>
+        <v>166</v>
       </c>
       <c r="B634" t="s">
         <v>121</v>
@@ -8369,7 +8393,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>461</v>
+        <v>167</v>
       </c>
       <c r="B635" t="s">
         <v>121</v>
@@ -8377,7 +8401,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>462</v>
+        <v>168</v>
       </c>
       <c r="B636" t="s">
         <v>121</v>
@@ -8385,7 +8409,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>463</v>
+        <v>169</v>
       </c>
       <c r="B637" t="s">
         <v>121</v>
@@ -8393,7 +8417,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>464</v>
+        <v>170</v>
       </c>
       <c r="B638" t="s">
         <v>121</v>
@@ -8401,7 +8425,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>465</v>
+        <v>171</v>
       </c>
       <c r="B639" t="s">
         <v>121</v>
@@ -8409,7 +8433,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>466</v>
+        <v>172</v>
       </c>
       <c r="B640" t="s">
         <v>121</v>
@@ -8417,71 +8441,71 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>16</v>
+        <v>459</v>
       </c>
       <c r="B641" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="B642" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>15</v>
+        <v>461</v>
       </c>
       <c r="B643" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>25</v>
+        <v>462</v>
       </c>
       <c r="B644" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>24</v>
+        <v>463</v>
       </c>
       <c r="B645" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>20</v>
+        <v>464</v>
       </c>
       <c r="B646" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>26</v>
+        <v>465</v>
       </c>
       <c r="B647" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>756</v>
+        <v>466</v>
       </c>
       <c r="B648" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B649" t="s">
         <v>13</v>
@@ -8489,7 +8513,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B650" t="s">
         <v>13</v>
@@ -8497,7 +8521,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B651" t="s">
         <v>13</v>
@@ -8505,7 +8529,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B652" t="s">
         <v>13</v>
@@ -8513,7 +8537,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>436</v>
+        <v>24</v>
       </c>
       <c r="B653" t="s">
         <v>13</v>
@@ -8521,15 +8545,15 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="B654" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A655" s="5" t="s">
-        <v>867</v>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>26</v>
       </c>
       <c r="B655" t="s">
         <v>13</v>
@@ -8537,7 +8561,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>438</v>
+        <v>756</v>
       </c>
       <c r="B656" t="s">
         <v>13</v>
@@ -8545,7 +8569,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>757</v>
+        <v>27</v>
       </c>
       <c r="B657" t="s">
         <v>13</v>
@@ -8553,7 +8577,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="B658" t="s">
         <v>13</v>
@@ -8561,7 +8585,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>440</v>
+        <v>28</v>
       </c>
       <c r="B659" t="s">
         <v>13</v>
@@ -8569,7 +8593,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>441</v>
+        <v>36</v>
       </c>
       <c r="B660" t="s">
         <v>13</v>
@@ -8577,7 +8601,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B661" t="s">
         <v>13</v>
@@ -8585,79 +8609,79 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B662" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A663" t="s">
-        <v>419</v>
+    <row r="663" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A663" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="B663" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>2</v>
+        <v>438</v>
       </c>
       <c r="B664" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>4</v>
+        <v>757</v>
       </c>
       <c r="B665" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>5</v>
+        <v>439</v>
       </c>
       <c r="B666" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>6</v>
+        <v>440</v>
       </c>
       <c r="B667" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>7</v>
+        <v>441</v>
       </c>
       <c r="B668" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>8</v>
+        <v>442</v>
       </c>
       <c r="B669" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>9</v>
+        <v>443</v>
       </c>
       <c r="B670" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="B671" t="s">
         <v>3</v>
@@ -8665,7 +8689,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B672" t="s">
         <v>3</v>
@@ -8673,7 +8697,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B673" t="s">
         <v>3</v>
@@ -8681,7 +8705,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B674" t="s">
         <v>3</v>
@@ -8689,7 +8713,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B675" t="s">
         <v>3</v>
@@ -8697,7 +8721,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B676" t="s">
         <v>3</v>
@@ -8705,7 +8729,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B677" t="s">
         <v>3</v>
@@ -8713,7 +8737,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B678" t="s">
         <v>3</v>
@@ -8721,7 +8745,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B679" t="s">
         <v>3</v>
@@ -8729,7 +8753,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B680" t="s">
         <v>3</v>
@@ -8737,7 +8761,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B681" t="s">
         <v>3</v>
@@ -8745,7 +8769,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B682" t="s">
         <v>3</v>
@@ -8753,7 +8777,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B683" t="s">
         <v>3</v>
@@ -8761,7 +8785,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B684" t="s">
         <v>3</v>
@@ -8769,7 +8793,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B685" t="s">
         <v>3</v>
@@ -8777,7 +8801,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="B686" t="s">
         <v>3</v>
@@ -8785,7 +8809,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>421</v>
+        <v>19</v>
       </c>
       <c r="B687" t="s">
         <v>3</v>
@@ -8793,7 +8817,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>422</v>
+        <v>30</v>
       </c>
       <c r="B688" t="s">
         <v>3</v>
@@ -8801,7 +8825,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>423</v>
+        <v>31</v>
       </c>
       <c r="B689" t="s">
         <v>3</v>
@@ -8809,7 +8833,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="B690" t="s">
         <v>3</v>
@@ -8817,7 +8841,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>425</v>
+        <v>33</v>
       </c>
       <c r="B691" t="s">
         <v>3</v>
@@ -8825,7 +8849,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
       <c r="B692" t="s">
         <v>3</v>
@@ -8833,7 +8857,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="B693" t="s">
         <v>3</v>
@@ -8841,7 +8865,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>752</v>
+        <v>420</v>
       </c>
       <c r="B694" t="s">
         <v>3</v>
@@ -8849,7 +8873,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>753</v>
+        <v>421</v>
       </c>
       <c r="B695" t="s">
         <v>3</v>
@@ -8857,7 +8881,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>754</v>
+        <v>422</v>
       </c>
       <c r="B696" t="s">
         <v>3</v>
@@ -8865,7 +8889,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>755</v>
+        <v>423</v>
       </c>
       <c r="B697" t="s">
         <v>3</v>
@@ -8873,7 +8897,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>840</v>
+        <v>424</v>
       </c>
       <c r="B698" t="s">
         <v>3</v>
@@ -8881,7 +8905,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>841</v>
+        <v>425</v>
       </c>
       <c r="B699" t="s">
         <v>3</v>
@@ -8889,71 +8913,71 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="B700" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>311</v>
+        <v>427</v>
       </c>
       <c r="B701" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>312</v>
+        <v>752</v>
       </c>
       <c r="B702" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>409</v>
+        <v>753</v>
       </c>
       <c r="B703" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>51</v>
+        <v>754</v>
       </c>
       <c r="B704" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>52</v>
+        <v>755</v>
       </c>
       <c r="B705" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>53</v>
+        <v>840</v>
       </c>
       <c r="B706" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>54</v>
+        <v>841</v>
       </c>
       <c r="B707" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="B708" t="s">
         <v>50</v>
@@ -8961,7 +8985,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="B709" t="s">
         <v>50</v>
@@ -8969,7 +8993,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="B710" t="s">
         <v>50</v>
@@ -8977,7 +9001,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>58</v>
+        <v>409</v>
       </c>
       <c r="B711" t="s">
         <v>50</v>
@@ -8985,7 +9009,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B712" t="s">
         <v>50</v>
@@ -8993,7 +9017,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B713" t="s">
         <v>50</v>
@@ -9001,7 +9025,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B714" t="s">
         <v>50</v>
@@ -9009,7 +9033,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B715" t="s">
         <v>50</v>
@@ -9017,7 +9041,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B716" t="s">
         <v>50</v>
@@ -9025,7 +9049,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B717" t="s">
         <v>50</v>
@@ -9033,7 +9057,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B718" t="s">
         <v>50</v>
@@ -9041,7 +9065,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B719" t="s">
         <v>50</v>
@@ -9049,7 +9073,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B720" t="s">
         <v>50</v>
@@ -9057,7 +9081,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B721" t="s">
         <v>50</v>
@@ -9065,7 +9089,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B722" t="s">
         <v>50</v>
@@ -9073,7 +9097,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B723" t="s">
         <v>50</v>
@@ -9081,7 +9105,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B724" t="s">
         <v>50</v>
@@ -9089,7 +9113,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B725" t="s">
         <v>50</v>
@@ -9097,7 +9121,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B726" t="s">
         <v>50</v>
@@ -9105,7 +9129,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B727" t="s">
         <v>50</v>
@@ -9113,7 +9137,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B728" t="s">
         <v>50</v>
@@ -9121,7 +9145,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B729" t="s">
         <v>50</v>
@@ -9129,7 +9153,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B730" t="s">
         <v>50</v>
@@ -9137,7 +9161,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B731" t="s">
         <v>50</v>
@@ -9145,7 +9169,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B732" t="s">
         <v>50</v>
@@ -9153,7 +9177,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B733" t="s">
         <v>50</v>
@@ -9161,7 +9185,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B734" t="s">
         <v>50</v>
@@ -9169,7 +9193,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B735" t="s">
         <v>50</v>
@@ -9177,7 +9201,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B736" t="s">
         <v>50</v>
@@ -9185,7 +9209,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B737" t="s">
         <v>50</v>
@@ -9193,7 +9217,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B738" t="s">
         <v>50</v>
@@ -9201,7 +9225,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B739" t="s">
         <v>50</v>
@@ -9209,7 +9233,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B740" t="s">
         <v>50</v>
@@ -9217,7 +9241,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B741" t="s">
         <v>50</v>
@@ -9225,7 +9249,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="B742" t="s">
         <v>50</v>
@@ -9233,7 +9257,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="B743" t="s">
         <v>50</v>
@@ -9241,7 +9265,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="B744" t="s">
         <v>50</v>
@@ -9249,7 +9273,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="B745" t="s">
         <v>50</v>
@@ -9257,7 +9281,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="B746" t="s">
         <v>50</v>
@@ -9265,7 +9289,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>318</v>
+        <v>86</v>
       </c>
       <c r="B747" t="s">
         <v>50</v>
@@ -9273,7 +9297,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>319</v>
+        <v>87</v>
       </c>
       <c r="B748" t="s">
         <v>50</v>
@@ -9281,7 +9305,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="B749" t="s">
         <v>50</v>
@@ -9289,7 +9313,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B750" t="s">
         <v>50</v>
@@ -9297,7 +9321,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B751" t="s">
         <v>50</v>
@@ -9305,7 +9329,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B752" t="s">
         <v>50</v>
@@ -9313,7 +9337,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B753" t="s">
         <v>50</v>
@@ -9321,7 +9345,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B754" t="s">
         <v>50</v>
@@ -9329,7 +9353,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B755" t="s">
         <v>50</v>
@@ -9337,7 +9361,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B756" t="s">
         <v>50</v>
@@ -9345,7 +9369,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B757" t="s">
         <v>50</v>
@@ -9353,7 +9377,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B758" t="s">
         <v>50</v>
@@ -9361,7 +9385,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B759" t="s">
         <v>50</v>
@@ -9369,7 +9393,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B760" t="s">
         <v>50</v>
@@ -9377,7 +9401,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B761" t="s">
         <v>50</v>
@@ -9385,7 +9409,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B762" t="s">
         <v>50</v>
@@ -9393,7 +9417,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B763" t="s">
         <v>50</v>
@@ -9401,7 +9425,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B764" t="s">
         <v>50</v>
@@ -9409,7 +9433,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B765" t="s">
         <v>50</v>
@@ -9417,7 +9441,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B766" t="s">
         <v>50</v>
@@ -9425,7 +9449,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B767" t="s">
         <v>50</v>
@@ -9433,7 +9457,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B768" t="s">
         <v>50</v>
@@ -9441,7 +9465,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="B769" t="s">
         <v>50</v>
@@ -9449,7 +9473,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>445</v>
+        <v>333</v>
       </c>
       <c r="B770" t="s">
         <v>50</v>
@@ -9457,7 +9481,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="B771" t="s">
         <v>50</v>
@@ -9465,7 +9489,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>447</v>
+        <v>335</v>
       </c>
       <c r="B772" t="s">
         <v>50</v>
@@ -9473,7 +9497,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>448</v>
+        <v>336</v>
       </c>
       <c r="B773" t="s">
         <v>50</v>
@@ -9481,7 +9505,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>449</v>
+        <v>337</v>
       </c>
       <c r="B774" t="s">
         <v>50</v>
@@ -9489,7 +9513,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="B775" t="s">
         <v>50</v>
@@ -9497,7 +9521,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>451</v>
+        <v>339</v>
       </c>
       <c r="B776" t="s">
         <v>50</v>
@@ -9505,7 +9529,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>843</v>
+        <v>444</v>
       </c>
       <c r="B777" t="s">
         <v>50</v>
@@ -9513,71 +9537,71 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>173</v>
+        <v>445</v>
       </c>
       <c r="B778" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>175</v>
+        <v>446</v>
       </c>
       <c r="B779" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="B780" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>177</v>
+        <v>448</v>
       </c>
       <c r="B781" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>178</v>
+        <v>449</v>
       </c>
       <c r="B782" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>179</v>
+        <v>450</v>
       </c>
       <c r="B783" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>180</v>
+        <v>451</v>
       </c>
       <c r="B784" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>181</v>
+        <v>843</v>
       </c>
       <c r="B785" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B786" t="s">
         <v>174</v>
@@ -9585,7 +9609,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B787" t="s">
         <v>174</v>
@@ -9593,7 +9617,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B788" t="s">
         <v>174</v>
@@ -9601,7 +9625,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B789" t="s">
         <v>174</v>
@@ -9609,7 +9633,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B790" t="s">
         <v>174</v>
@@ -9617,7 +9641,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B791" t="s">
         <v>174</v>
@@ -9625,7 +9649,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B792" t="s">
         <v>174</v>
@@ -9633,7 +9657,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B793" t="s">
         <v>174</v>
@@ -9641,7 +9665,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B794" t="s">
         <v>174</v>
@@ -9649,7 +9673,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B795" t="s">
         <v>174</v>
@@ -9657,7 +9681,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B796" t="s">
         <v>174</v>
@@ -9665,7 +9689,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B797" t="s">
         <v>174</v>
@@ -9673,7 +9697,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B798" t="s">
         <v>174</v>
@@ -9681,7 +9705,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B799" t="s">
         <v>174</v>
@@ -9689,7 +9713,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B800" t="s">
         <v>174</v>
@@ -9697,7 +9721,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B801" t="s">
         <v>174</v>
@@ -9705,7 +9729,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B802" t="s">
         <v>174</v>
@@ -9713,7 +9737,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B803" t="s">
         <v>174</v>
@@ -9721,7 +9745,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B804" t="s">
         <v>174</v>
@@ -9729,7 +9753,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>760</v>
+        <v>193</v>
       </c>
       <c r="B805" t="s">
         <v>174</v>
@@ -9737,7 +9761,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>759</v>
+        <v>194</v>
       </c>
       <c r="B806" t="s">
         <v>174</v>
@@ -9745,7 +9769,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B807" t="s">
         <v>174</v>
@@ -9753,7 +9777,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>379</v>
+        <v>196</v>
       </c>
       <c r="B808" t="s">
         <v>174</v>
@@ -9761,7 +9785,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B809" t="s">
         <v>174</v>
@@ -9769,7 +9793,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B810" t="s">
         <v>174</v>
@@ -9777,7 +9801,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B811" t="s">
         <v>174</v>
@@ -9785,7 +9809,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B812" t="s">
         <v>174</v>
@@ -9793,7 +9817,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>206</v>
+        <v>760</v>
       </c>
       <c r="B813" t="s">
         <v>174</v>
@@ -9801,7 +9825,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>207</v>
+        <v>759</v>
       </c>
       <c r="B814" t="s">
         <v>174</v>
@@ -9809,7 +9833,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B815" t="s">
         <v>174</v>
@@ -9817,7 +9841,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B816" t="s">
         <v>174</v>
@@ -9825,7 +9849,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>381</v>
+        <v>202</v>
       </c>
       <c r="B817" t="s">
         <v>174</v>
@@ -9833,7 +9857,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="B818" t="s">
         <v>174</v>
@@ -9841,7 +9865,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>383</v>
+        <v>204</v>
       </c>
       <c r="B819" t="s">
         <v>174</v>
@@ -9849,7 +9873,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>384</v>
+        <v>205</v>
       </c>
       <c r="B820" t="s">
         <v>174</v>
@@ -9857,7 +9881,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>385</v>
+        <v>206</v>
       </c>
       <c r="B821" t="s">
         <v>174</v>
@@ -9865,7 +9889,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>386</v>
+        <v>207</v>
       </c>
       <c r="B822" t="s">
         <v>174</v>
@@ -9873,7 +9897,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>387</v>
+        <v>208</v>
       </c>
       <c r="B823" t="s">
         <v>174</v>
@@ -9881,7 +9905,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B824" t="s">
         <v>174</v>
@@ -9889,7 +9913,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B825" t="s">
         <v>174</v>
@@ -9897,7 +9921,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B826" t="s">
         <v>174</v>
@@ -9905,7 +9929,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B827" t="s">
         <v>174</v>
@@ -9913,7 +9937,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B828" t="s">
         <v>174</v>
@@ -9921,7 +9945,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B829" t="s">
         <v>174</v>
@@ -9929,7 +9953,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="B830" t="s">
         <v>174</v>
@@ -9937,7 +9961,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
       <c r="B831" t="s">
         <v>174</v>
@@ -9945,7 +9969,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="B832" t="s">
         <v>174</v>
@@ -9953,7 +9977,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="B833" t="s">
         <v>174</v>
@@ -9961,7 +9985,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="B834" t="s">
         <v>174</v>
@@ -9969,7 +9993,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="B835" t="s">
         <v>174</v>
@@ -9977,7 +10001,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="B836" t="s">
         <v>174</v>
@@ -9985,71 +10009,71 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
       <c r="B837" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>211</v>
+        <v>467</v>
       </c>
       <c r="B838" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>212</v>
+        <v>468</v>
       </c>
       <c r="B839" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>213</v>
+        <v>469</v>
       </c>
       <c r="B840" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>214</v>
+        <v>470</v>
       </c>
       <c r="B841" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>215</v>
+        <v>471</v>
       </c>
       <c r="B842" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>216</v>
+        <v>472</v>
       </c>
       <c r="B843" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>217</v>
+        <v>473</v>
       </c>
       <c r="B844" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B845" t="s">
         <v>210</v>
@@ -10057,7 +10081,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B846" t="s">
         <v>210</v>
@@ -10065,7 +10089,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B847" t="s">
         <v>210</v>
@@ -10073,7 +10097,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B848" t="s">
         <v>210</v>
@@ -10081,7 +10105,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B849" t="s">
         <v>210</v>
@@ -10089,7 +10113,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B850" t="s">
         <v>210</v>
@@ -10097,7 +10121,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B851" t="s">
         <v>210</v>
@@ -10105,7 +10129,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B852" t="s">
         <v>210</v>
@@ -10113,7 +10137,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B853" t="s">
         <v>210</v>
@@ -10121,7 +10145,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B854" t="s">
         <v>210</v>
@@ -10129,7 +10153,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B855" t="s">
         <v>210</v>
@@ -10137,7 +10161,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B856" t="s">
         <v>210</v>
@@ -10145,7 +10169,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B857" t="s">
         <v>210</v>
@@ -10153,7 +10177,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B858" t="s">
         <v>210</v>
@@ -10161,7 +10185,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B859" t="s">
         <v>210</v>
@@ -10169,7 +10193,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B860" t="s">
         <v>210</v>
@@ -10177,7 +10201,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B861" t="s">
         <v>210</v>
@@ -10185,7 +10209,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B862" t="s">
         <v>210</v>
@@ -10193,7 +10217,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B863" t="s">
         <v>210</v>
@@ -10201,7 +10225,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B864" t="s">
         <v>210</v>
@@ -10209,7 +10233,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B865" t="s">
         <v>210</v>
@@ -10217,7 +10241,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B866" t="s">
         <v>210</v>
@@ -10225,7 +10249,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B867" t="s">
         <v>210</v>
@@ -10233,7 +10257,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B868" t="s">
         <v>210</v>
@@ -10241,7 +10265,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B869" t="s">
         <v>210</v>
@@ -10249,7 +10273,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B870" t="s">
         <v>210</v>
@@ -10257,7 +10281,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B871" t="s">
         <v>210</v>
@@ -10265,7 +10289,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B872" t="s">
         <v>210</v>
@@ -10273,7 +10297,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B873" t="s">
         <v>210</v>
@@ -10281,7 +10305,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B874" t="s">
         <v>210</v>
@@ -10289,7 +10313,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B875" t="s">
         <v>210</v>
@@ -10297,7 +10321,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B876" t="s">
         <v>210</v>
@@ -10305,7 +10329,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B877" t="s">
         <v>210</v>
@@ -10313,7 +10337,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B878" t="s">
         <v>210</v>
@@ -10321,15 +10345,15 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B879" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="880" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A880" s="4" t="s">
-        <v>761</v>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>245</v>
       </c>
       <c r="B880" t="s">
         <v>210</v>
@@ -10337,7 +10361,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B881" t="s">
         <v>210</v>
@@ -10345,7 +10369,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B882" t="s">
         <v>210</v>
@@ -10353,7 +10377,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B883" t="s">
         <v>210</v>
@@ -10361,7 +10385,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B884" t="s">
         <v>210</v>
@@ -10369,7 +10393,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B885" t="s">
         <v>210</v>
@@ -10377,7 +10401,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B886" t="s">
         <v>210</v>
@@ -10385,15 +10409,15 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B887" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A888" t="s">
-        <v>260</v>
+    <row r="888" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A888" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="B888" t="s">
         <v>210</v>
@@ -10401,7 +10425,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B889" t="s">
         <v>210</v>
@@ -10409,7 +10433,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B890" t="s">
         <v>210</v>
@@ -10417,7 +10441,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B891" t="s">
         <v>210</v>
@@ -10425,7 +10449,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B892" t="s">
         <v>210</v>
@@ -10433,7 +10457,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B893" t="s">
         <v>210</v>
@@ -10441,7 +10465,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B894" t="s">
         <v>210</v>
@@ -10449,7 +10473,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B895" t="s">
         <v>210</v>
@@ -10457,7 +10481,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B896" t="s">
         <v>210</v>
@@ -10465,7 +10489,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B897" t="s">
         <v>210</v>
@@ -10473,7 +10497,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B898" t="s">
         <v>210</v>
@@ -10481,7 +10505,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>474</v>
+        <v>263</v>
       </c>
       <c r="B899" t="s">
         <v>210</v>
@@ -10489,7 +10513,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>475</v>
+        <v>264</v>
       </c>
       <c r="B900" t="s">
         <v>210</v>
@@ -10497,7 +10521,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>476</v>
+        <v>265</v>
       </c>
       <c r="B901" t="s">
         <v>210</v>
@@ -10505,7 +10529,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>477</v>
+        <v>266</v>
       </c>
       <c r="B902" t="s">
         <v>210</v>
@@ -10513,7 +10537,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>478</v>
+        <v>267</v>
       </c>
       <c r="B903" t="s">
         <v>210</v>
@@ -10521,7 +10545,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="B904" t="s">
         <v>210</v>
@@ -10529,7 +10553,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>480</v>
+        <v>269</v>
       </c>
       <c r="B905" t="s">
         <v>210</v>
@@ -10537,7 +10561,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>481</v>
+        <v>270</v>
       </c>
       <c r="B906" t="s">
         <v>210</v>
@@ -10545,87 +10569,87 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>37</v>
+        <v>474</v>
       </c>
       <c r="B907" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>39</v>
+        <v>475</v>
       </c>
       <c r="B908" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>40</v>
+        <v>476</v>
       </c>
       <c r="B909" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A910" s="1" t="s">
-        <v>41</v>
+      <c r="A910" t="s">
+        <v>477</v>
       </c>
       <c r="B910" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>42</v>
+        <v>478</v>
       </c>
       <c r="B911" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>43</v>
+        <v>479</v>
       </c>
       <c r="B912" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A913" s="1" t="s">
-        <v>44</v>
+      <c r="A913" t="s">
+        <v>480</v>
       </c>
       <c r="B913" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A914" s="1" t="s">
-        <v>869</v>
+      <c r="A914" t="s">
+        <v>481</v>
       </c>
       <c r="B914" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A915" s="1" t="s">
-        <v>868</v>
+      <c r="A915" t="s">
+        <v>37</v>
       </c>
       <c r="B915" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A916" s="1" t="s">
-        <v>45</v>
+      <c r="A916" t="s">
+        <v>39</v>
       </c>
       <c r="B916" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A917" s="1" t="s">
-        <v>46</v>
+      <c r="A917" t="s">
+        <v>40</v>
       </c>
       <c r="B917" t="s">
         <v>38</v>
@@ -10633,7 +10657,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B918" t="s">
         <v>38</v>
@@ -10641,7 +10665,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B919" t="s">
         <v>38</v>
@@ -10649,55 +10673,55 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B920" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A921" t="s">
-        <v>428</v>
+      <c r="A921" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B921" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A922" t="s">
-        <v>429</v>
+      <c r="A922" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="B922" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A923" t="s">
-        <v>430</v>
+      <c r="A923" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="B923" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A924" t="s">
-        <v>431</v>
+      <c r="A924" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B924" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A925" t="s">
-        <v>432</v>
+      <c r="A925" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B925" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A926" t="s">
-        <v>433</v>
+      <c r="A926" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B926" t="s">
         <v>38</v>
@@ -10705,7 +10729,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>434</v>
+        <v>48</v>
       </c>
       <c r="B927" t="s">
         <v>38</v>
@@ -10713,7 +10737,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>435</v>
+        <v>49</v>
       </c>
       <c r="B928" t="s">
         <v>38</v>
@@ -10721,23 +10745,87 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>758</v>
+        <v>428</v>
       </c>
       <c r="B929" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A930" s="1" t="s">
-        <v>842</v>
+      <c r="A930" t="s">
+        <v>429</v>
       </c>
       <c r="B930" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>430</v>
+      </c>
+      <c r="B931" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>431</v>
+      </c>
+      <c r="B932" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>432</v>
+      </c>
+      <c r="B933" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>433</v>
+      </c>
+      <c r="B934" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>434</v>
+      </c>
+      <c r="B935" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>435</v>
+      </c>
+      <c r="B936" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>758</v>
+      </c>
+      <c r="B937" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B938" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1709">
-    <sortCondition ref="B2:B1709"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1717">
+    <sortCondition ref="B2:B1717"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573CFB2-26B5-436A-88AB-455827521017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B64B13-035C-4E23-8E25-A505B1D6FCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11076" yWindow="132" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3310,7 +3310,7 @@
   <dimension ref="A1:B938"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="B397" sqref="B396:B397"/>
+      <selection activeCell="A390" sqref="A390:XFD393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/algorithm/database/data.xlsx
+++ b/app/algorithm/database/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\IAI\app\algorithm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573CFB2-26B5-436A-88AB-455827521017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A257DF5-97DA-4103-AE6D-9B27F10A22A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11076" yWindow="132" windowWidth="11796" windowHeight="11880" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F56ACAE5-2C64-4881-A454-41EAB5000D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$844</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$2:$B$846</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="961">
   <si>
     <t>message</t>
   </si>
@@ -2914,6 +2914,12 @@
   </si>
   <si>
     <t>I need a hostel</t>
+  </si>
+  <si>
+    <t>room type</t>
+  </si>
+  <si>
+    <t>available room type</t>
   </si>
 </sst>
 </file>
@@ -3307,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF04A2D-250E-4B16-8195-1DA5D0BCE093}">
-  <dimension ref="A1:B938"/>
+  <dimension ref="A1:B940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="B397" sqref="B396:B397"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B343" sqref="B343:B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6065,7 +6071,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>768</v>
+        <v>960</v>
       </c>
       <c r="B344" t="s">
         <v>528</v>
@@ -6073,7 +6079,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>767</v>
+        <v>959</v>
       </c>
       <c r="B345" t="s">
         <v>528</v>
@@ -6081,7 +6087,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>534</v>
+        <v>768</v>
       </c>
       <c r="B346" t="s">
         <v>528</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>535</v>
+        <v>767</v>
       </c>
       <c r="B347" t="s">
         <v>528</v>
@@ -6097,7 +6103,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
       <c r="B348" t="s">
         <v>528</v>
@@ -6105,7 +6111,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>606</v>
+        <v>535</v>
       </c>
       <c r="B349" t="s">
         <v>528</v>
@@ -6113,7 +6119,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B350" t="s">
         <v>528</v>
@@ -6121,7 +6127,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B351" t="s">
         <v>528</v>
@@ -6129,7 +6135,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B352" t="s">
         <v>528</v>
@@ -6137,7 +6143,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B353" t="s">
         <v>528</v>
@@ -6145,7 +6151,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B354" t="s">
         <v>528</v>
@@ -6153,7 +6159,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B355" t="s">
         <v>528</v>
@@ -6161,7 +6167,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B356" t="s">
         <v>528</v>
@@ -6169,7 +6175,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B357" t="s">
         <v>528</v>
@@ -6177,7 +6183,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B358" t="s">
         <v>528</v>
@@ -6185,7 +6191,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B359" t="s">
         <v>528</v>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B360" t="s">
         <v>528</v>
@@ -6201,7 +6207,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B361" t="s">
         <v>528</v>
@@ -6209,7 +6215,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B362" t="s">
         <v>528</v>
@@ -6217,23 +6223,23 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>498</v>
+        <v>618</v>
       </c>
       <c r="B363" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>499</v>
+        <v>619</v>
       </c>
       <c r="B364" t="s">
-        <v>490</v>
+        <v>528</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B365" t="s">
         <v>490</v>
@@ -6241,7 +6247,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B366" t="s">
         <v>490</v>
@@ -6249,15 +6255,15 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B367" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A368" s="4" t="s">
-        <v>766</v>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>500</v>
       </c>
       <c r="B368" t="s">
         <v>490</v>
@@ -6265,15 +6271,15 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B369" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>503</v>
+    <row r="370" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="B370" t="s">
         <v>490</v>
@@ -6281,7 +6287,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B371" t="s">
         <v>490</v>
@@ -6289,7 +6295,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>765</v>
+        <v>503</v>
       </c>
       <c r="B372" t="s">
         <v>490</v>
@@ -6297,7 +6303,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>764</v>
+        <v>504</v>
       </c>
       <c r="B373" t="s">
         <v>490</v>
@@ -6305,7 +6311,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>517</v>
+        <v>765</v>
       </c>
       <c r="B374" t="s">
         <v>490</v>
@@ -6313,7 +6319,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>516</v>
+        <v>764</v>
       </c>
       <c r="B375" t="s">
         <v>490</v>
@@ -6321,7 +6327,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B376" t="s">
         <v>490</v>
@@ -6329,7 +6335,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B377" t="s">
         <v>490</v>
@@ -6337,7 +6343,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B378" t="s">
         <v>490</v>
@@ -6345,7 +6351,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B379" t="s">
         <v>490</v>
@@ -6353,7 +6359,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B380" t="s">
         <v>490</v>
@@ -6361,7 +6367,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>889</v>
+        <v>508</v>
       </c>
       <c r="B381" t="s">
         <v>490</v>
@@ -6369,7 +6375,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B382" t="s">
         <v>490</v>
@@ -6377,7 +6383,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>511</v>
+        <v>889</v>
       </c>
       <c r="B383" t="s">
         <v>490</v>
@@ -6385,7 +6391,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B384" t="s">
         <v>490</v>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B385" t="s">
         <v>490</v>
@@ -6401,7 +6407,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B386" t="s">
         <v>490</v>
@@ -6409,7 +6415,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B387" t="s">
         <v>490</v>
@@ -6417,7 +6423,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="B388" t="s">
         <v>490</v>
@@ -6425,7 +6431,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B389" t="s">
         <v>490</v>
@@ -6433,7 +6439,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>954</v>
+        <v>489</v>
       </c>
       <c r="B390" t="s">
         <v>490</v>
@@ -6441,7 +6447,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>955</v>
+        <v>491</v>
       </c>
       <c r="B391" t="s">
         <v>490</v>
@@ -6449,7 +6455,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B392" t="s">
         <v>490</v>
@@ -6457,7 +6463,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B393" t="s">
         <v>490</v>
@@ -6465,7 +6471,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>877</v>
+        <v>956</v>
       </c>
       <c r="B394" t="s">
         <v>490</v>
@@ -6473,7 +6479,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>878</v>
+        <v>957</v>
       </c>
       <c r="B395" t="s">
         <v>490</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>958</v>
+        <v>877</v>
       </c>
       <c r="B396" t="s">
         <v>490</v>
@@ -6489,23 +6495,23 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B397" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="6" t="s">
-        <v>908</v>
+      <c r="A398" t="s">
+        <v>958</v>
       </c>
       <c r="B398" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="6" t="s">
-        <v>909</v>
+      <c r="A399" t="s">
+        <v>876</v>
       </c>
       <c r="B399" t="s">
         <v>490</v>
@@ -6513,7 +6519,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B400" t="s">
         <v>490</v>
@@ -6521,7 +6527,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B401" t="s">
         <v>490</v>
@@ -6529,7 +6535,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B402" t="s">
         <v>490</v>
@@ -6537,7 +6543,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B403" t="s">
         <v>490</v>
@@ -6545,7 +6551,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B404" t="s">
         <v>490</v>
@@ -6553,7 +6559,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B405" t="s">
         <v>490</v>
@@ -6561,7 +6567,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B406" t="s">
         <v>490</v>
@@ -6569,7 +6575,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B407" t="s">
         <v>490</v>
@@ -6577,7 +6583,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B408" t="s">
         <v>490</v>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B409" t="s">
         <v>490</v>
@@ -6593,7 +6599,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B410" t="s">
         <v>490</v>
@@ -6601,7 +6607,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B411" t="s">
         <v>490</v>
@@ -6609,7 +6615,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B412" t="s">
         <v>490</v>
@@ -6617,7 +6623,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B413" t="s">
         <v>490</v>
@@ -6625,7 +6631,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B414" t="s">
         <v>490</v>
@@ -6633,7 +6639,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B415" t="s">
         <v>490</v>
@@ -6641,7 +6647,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B416" t="s">
         <v>490</v>
@@ -6649,7 +6655,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B417" t="s">
         <v>490</v>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B418" t="s">
         <v>490</v>
@@ -6665,7 +6671,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B419" t="s">
         <v>490</v>
@@ -6673,7 +6679,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B420" t="s">
         <v>490</v>
@@ -6681,7 +6687,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B421" t="s">
         <v>490</v>
@@ -6689,7 +6695,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B422" t="s">
         <v>490</v>
@@ -6697,7 +6703,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B423" t="s">
         <v>490</v>
@@ -6705,7 +6711,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B424" t="s">
         <v>490</v>
@@ -6713,7 +6719,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B425" t="s">
         <v>490</v>
@@ -6721,23 +6727,23 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B426" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
-        <v>492</v>
+      <c r="A427" s="6" t="s">
+        <v>934</v>
       </c>
       <c r="B427" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
-        <v>493</v>
+      <c r="A428" s="6" t="s">
+        <v>935</v>
       </c>
       <c r="B428" t="s">
         <v>490</v>
@@ -6745,7 +6751,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B429" t="s">
         <v>490</v>
@@ -6753,7 +6759,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B430" t="s">
         <v>490</v>
@@ -6761,7 +6767,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>905</v>
+        <v>494</v>
       </c>
       <c r="B431" t="s">
         <v>490</v>
@@ -6769,7 +6775,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B432" t="s">
         <v>490</v>
@@ -6777,7 +6783,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>497</v>
+        <v>905</v>
       </c>
       <c r="B433" t="s">
         <v>490</v>
@@ -6785,7 +6791,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>844</v>
+        <v>496</v>
       </c>
       <c r="B434" t="s">
         <v>490</v>
@@ -6793,7 +6799,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>845</v>
+        <v>497</v>
       </c>
       <c r="B435" t="s">
         <v>490</v>
@@ -6801,23 +6807,23 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>271</v>
+        <v>844</v>
       </c>
       <c r="B436" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>273</v>
+        <v>845</v>
       </c>
       <c r="B437" t="s">
-        <v>272</v>
+        <v>490</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B438" t="s">
         <v>272</v>
@@ -6825,7 +6831,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B439" t="s">
         <v>272</v>
@@ -6833,7 +6839,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B440" t="s">
         <v>272</v>
@@ -6841,7 +6847,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B441" t="s">
         <v>272</v>
@@ -6849,7 +6855,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B442" t="s">
         <v>272</v>
@@ -6857,7 +6863,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>875</v>
+        <v>277</v>
       </c>
       <c r="B443" t="s">
         <v>272</v>
@@ -6865,7 +6871,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>874</v>
+        <v>278</v>
       </c>
       <c r="B444" t="s">
         <v>272</v>
@@ -6873,7 +6879,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>279</v>
+        <v>875</v>
       </c>
       <c r="B445" t="s">
         <v>272</v>
@@ -6881,7 +6887,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>280</v>
+        <v>874</v>
       </c>
       <c r="B446" t="s">
         <v>272</v>
@@ -6889,7 +6895,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B447" t="s">
         <v>272</v>
@@ -6897,7 +6903,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B448" t="s">
         <v>272</v>
@@ -6905,7 +6911,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B449" t="s">
         <v>272</v>
@@ -6913,7 +6919,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B450" t="s">
         <v>272</v>
@@ -6921,7 +6927,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B451" t="s">
         <v>272</v>
@@ -6929,7 +6935,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B452" t="s">
         <v>272</v>
@@ -6937,7 +6943,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B453" t="s">
         <v>272</v>
@@ -6945,7 +6951,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B454" t="s">
         <v>272</v>
@@ -6953,7 +6959,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B455" t="s">
         <v>272</v>
@@ -6961,7 +6967,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B456" t="s">
         <v>272</v>
@@ -6969,7 +6975,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>763</v>
+        <v>289</v>
       </c>
       <c r="B457" t="s">
         <v>272</v>
@@ -6977,15 +6983,15 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B458" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A459" s="4" t="s">
-        <v>762</v>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>763</v>
       </c>
       <c r="B459" t="s">
         <v>272</v>
@@ -6993,15 +6999,15 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B460" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
-        <v>293</v>
+    <row r="461" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="B461" t="s">
         <v>272</v>
@@ -7009,7 +7015,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B462" t="s">
         <v>272</v>
@@ -7017,7 +7023,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B463" t="s">
         <v>272</v>
@@ -7025,7 +7031,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B464" t="s">
         <v>272</v>
@@ -7033,7 +7039,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B465" t="s">
         <v>272</v>
@@ -7041,7 +7047,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B466" t="s">
         <v>272</v>
@@ -7049,7 +7055,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B467" t="s">
         <v>272</v>
@@ -7057,7 +7063,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B468" t="s">
         <v>272</v>
@@ -7065,7 +7071,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B469" t="s">
         <v>272</v>
@@ -7073,7 +7079,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B470" t="s">
         <v>272</v>
@@ -7081,7 +7087,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B471" t="s">
         <v>272</v>
@@ -7089,7 +7095,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B472" t="s">
         <v>272</v>
@@ -7097,7 +7103,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B473" t="s">
         <v>272</v>
@@ -7105,7 +7111,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B474" t="s">
         <v>272</v>
@@ -7113,7 +7119,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B475" t="s">
         <v>272</v>
@@ -7121,7 +7127,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B476" t="s">
         <v>272</v>
@@ -7129,7 +7135,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B477" t="s">
         <v>272</v>
@@ -7137,7 +7143,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>394</v>
+        <v>308</v>
       </c>
       <c r="B478" t="s">
         <v>272</v>
@@ -7145,7 +7151,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="B479" t="s">
         <v>272</v>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B480" t="s">
         <v>272</v>
@@ -7161,7 +7167,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B481" t="s">
         <v>272</v>
@@ -7169,7 +7175,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B482" t="s">
         <v>272</v>
@@ -7177,7 +7183,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B483" t="s">
         <v>272</v>
@@ -7185,7 +7191,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B484" t="s">
         <v>272</v>
@@ -7193,7 +7199,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B485" t="s">
         <v>272</v>
@@ -7201,7 +7207,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B486" t="s">
         <v>272</v>
@@ -7209,7 +7215,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B487" t="s">
         <v>272</v>
@@ -7217,7 +7223,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B488" t="s">
         <v>272</v>
@@ -7225,7 +7231,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B489" t="s">
         <v>272</v>
@@ -7233,7 +7239,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B490" t="s">
         <v>272</v>
@@ -7241,7 +7247,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B491" t="s">
         <v>272</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B492" t="s">
         <v>272</v>
@@ -7257,7 +7263,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>482</v>
+        <v>407</v>
       </c>
       <c r="B493" t="s">
         <v>272</v>
@@ -7265,7 +7271,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>483</v>
+        <v>408</v>
       </c>
       <c r="B494" t="s">
         <v>272</v>
@@ -7273,7 +7279,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B495" t="s">
         <v>272</v>
@@ -7281,7 +7287,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B496" t="s">
         <v>272</v>
@@ -7289,7 +7295,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B497" t="s">
         <v>272</v>
@@ -7297,7 +7303,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B498" t="s">
         <v>272</v>
@@ -7305,7 +7311,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B499" t="s">
         <v>272</v>
@@ -7313,23 +7319,23 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>89</v>
+        <v>487</v>
       </c>
       <c r="B500" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>91</v>
+        <v>488</v>
       </c>
       <c r="B501" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B502" t="s">
         <v>90</v>
@@ -7337,7 +7343,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B503" t="s">
         <v>90</v>
@@ -7345,7 +7351,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B504" t="s">
         <v>90</v>
@@ -7353,7 +7359,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B505" t="s">
         <v>90</v>
@@ -7361,7 +7367,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B506" t="s">
         <v>90</v>
@@ -7369,7 +7375,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B507" t="s">
         <v>90</v>
@@ -7377,7 +7383,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B508" t="s">
         <v>90</v>
@@ -7385,7 +7391,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B509" t="s">
         <v>90</v>
@@ -7393,7 +7399,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B510" t="s">
         <v>90</v>
@@ -7401,7 +7407,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B511" t="s">
         <v>90</v>
@@ -7409,7 +7415,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B512" t="s">
         <v>90</v>
@@ -7417,7 +7423,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B513" t="s">
         <v>90</v>
@@ -7425,7 +7431,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B514" t="s">
         <v>90</v>
@@ -7433,7 +7439,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B515" t="s">
         <v>90</v>
@@ -7441,7 +7447,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B516" t="s">
         <v>90</v>
@@ -7449,7 +7455,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B517" t="s">
         <v>90</v>
@@ -7457,7 +7463,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B518" t="s">
         <v>90</v>
@@ -7465,7 +7471,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B519" t="s">
         <v>90</v>
@@ -7473,7 +7479,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B520" t="s">
         <v>90</v>
@@ -7481,7 +7487,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B521" t="s">
         <v>90</v>
@@ -7489,7 +7495,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B522" t="s">
         <v>90</v>
@@ -7497,7 +7503,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B523" t="s">
         <v>90</v>
@@ -7505,7 +7511,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B524" t="s">
         <v>90</v>
@@ -7513,7 +7519,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B525" t="s">
         <v>90</v>
@@ -7521,7 +7527,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B526" t="s">
         <v>90</v>
@@ -7529,7 +7535,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B527" t="s">
         <v>90</v>
@@ -7537,7 +7543,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>410</v>
+        <v>116</v>
       </c>
       <c r="B528" t="s">
         <v>90</v>
@@ -7545,7 +7551,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>411</v>
+        <v>117</v>
       </c>
       <c r="B529" t="s">
         <v>90</v>
@@ -7553,7 +7559,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B530" t="s">
         <v>90</v>
@@ -7561,7 +7567,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B531" t="s">
         <v>90</v>
@@ -7569,7 +7575,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
       <c r="B532" t="s">
         <v>90</v>
@@ -7577,7 +7583,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B533" t="s">
         <v>90</v>
@@ -7585,7 +7591,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>415</v>
+        <v>118</v>
       </c>
       <c r="B534" t="s">
         <v>90</v>
@@ -7593,7 +7599,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B535" t="s">
         <v>90</v>
@@ -7601,7 +7607,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B536" t="s">
         <v>90</v>
@@ -7609,7 +7615,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B537" t="s">
         <v>90</v>
@@ -7617,7 +7623,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>119</v>
+        <v>417</v>
       </c>
       <c r="B538" t="s">
         <v>90</v>
@@ -7625,7 +7631,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
       <c r="B539" t="s">
         <v>90</v>
@@ -7633,7 +7639,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="B540" t="s">
         <v>90</v>
@@ -7641,7 +7647,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B541" t="s">
         <v>90</v>
@@ -7649,7 +7655,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B542" t="s">
         <v>90</v>
@@ -7657,7 +7663,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B543" t="s">
         <v>90</v>
@@ -7665,7 +7671,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B544" t="s">
         <v>90</v>
@@ -7673,7 +7679,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B545" t="s">
         <v>90</v>
@@ -7681,7 +7687,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>873</v>
+        <v>345</v>
       </c>
       <c r="B546" t="s">
         <v>90</v>
@@ -7689,7 +7695,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>872</v>
+        <v>346</v>
       </c>
       <c r="B547" t="s">
         <v>90</v>
@@ -7697,7 +7703,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B548" t="s">
         <v>90</v>
@@ -7705,7 +7711,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B549" t="s">
         <v>90</v>
@@ -7713,7 +7719,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>347</v>
+        <v>871</v>
       </c>
       <c r="B550" t="s">
         <v>90</v>
@@ -7721,7 +7727,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>348</v>
+        <v>870</v>
       </c>
       <c r="B551" t="s">
         <v>90</v>
@@ -7729,7 +7735,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B552" t="s">
         <v>90</v>
@@ -7737,7 +7743,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B553" t="s">
         <v>90</v>
@@ -7745,7 +7751,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B554" t="s">
         <v>90</v>
@@ -7753,7 +7759,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B555" t="s">
         <v>90</v>
@@ -7761,7 +7767,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B556" t="s">
         <v>90</v>
@@ -7769,7 +7775,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B557" t="s">
         <v>90</v>
@@ -7777,7 +7783,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B558" t="s">
         <v>90</v>
@@ -7785,7 +7791,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B559" t="s">
         <v>90</v>
@@ -7793,7 +7799,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B560" t="s">
         <v>90</v>
@@ -7801,7 +7807,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B561" t="s">
         <v>90</v>
@@ -7809,7 +7815,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B562" t="s">
         <v>90</v>
@@ -7817,7 +7823,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B563" t="s">
         <v>90</v>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B564" t="s">
         <v>90</v>
@@ -7833,7 +7839,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B565" t="s">
         <v>90</v>
@@ -7841,7 +7847,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B566" t="s">
         <v>90</v>
@@ -7849,7 +7855,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B567" t="s">
         <v>90</v>
@@ -7857,7 +7863,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B568" t="s">
         <v>90</v>
@@ -7865,7 +7871,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B569" t="s">
         <v>90</v>
@@ -7873,7 +7879,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B570" t="s">
         <v>90</v>
@@ -7881,7 +7887,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B571" t="s">
         <v>90</v>
@@ -7889,7 +7895,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B572" t="s">
         <v>90</v>
@@ -7897,7 +7903,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="B573" t="s">
         <v>90</v>
@@ -7905,7 +7911,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>453</v>
+        <v>369</v>
       </c>
       <c r="B574" t="s">
         <v>90</v>
@@ -7913,7 +7919,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B575" t="s">
         <v>90</v>
@@ -7921,7 +7927,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B576" t="s">
         <v>90</v>
@@ -7929,7 +7935,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B577" t="s">
         <v>90</v>
@@ -7937,7 +7943,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B578" t="s">
         <v>90</v>
@@ -7945,7 +7951,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B579" t="s">
         <v>90</v>
@@ -7953,23 +7959,23 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="B580" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="B581" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B582" t="s">
         <v>121</v>
@@ -7977,7 +7983,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B583" t="s">
         <v>121</v>
@@ -7985,7 +7991,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B584" t="s">
         <v>121</v>
@@ -7993,7 +7999,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B585" t="s">
         <v>121</v>
@@ -8001,7 +8007,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B586" t="s">
         <v>121</v>
@@ -8009,7 +8015,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B587" t="s">
         <v>121</v>
@@ -8017,7 +8023,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B588" t="s">
         <v>121</v>
@@ -8025,7 +8031,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>120</v>
+        <v>377</v>
       </c>
       <c r="B589" t="s">
         <v>121</v>
@@ -8033,7 +8039,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="B590" t="s">
         <v>121</v>
@@ -8041,15 +8047,15 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B591" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A592" s="2" t="s">
-        <v>124</v>
+      <c r="A592" t="s">
+        <v>122</v>
       </c>
       <c r="B592" t="s">
         <v>121</v>
@@ -8057,15 +8063,15 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B593" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A594" t="s">
-        <v>126</v>
+      <c r="A594" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B594" t="s">
         <v>121</v>
@@ -8073,7 +8079,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B595" t="s">
         <v>121</v>
@@ -8081,7 +8087,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B596" t="s">
         <v>121</v>
@@ -8089,7 +8095,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B597" t="s">
         <v>121</v>
@@ -8097,7 +8103,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B598" t="s">
         <v>121</v>
@@ -8105,7 +8111,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B599" t="s">
         <v>121</v>
@@ -8113,7 +8119,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B600" t="s">
         <v>121</v>
@@ -8121,7 +8127,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B601" t="s">
         <v>121</v>
@@ -8129,7 +8135,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B602" t="s">
         <v>121</v>
@@ -8137,7 +8143,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B603" t="s">
         <v>121</v>
@@ -8145,7 +8151,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B604" t="s">
         <v>121</v>
@@ -8153,7 +8159,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B605" t="s">
         <v>121</v>
@@ -8161,7 +8167,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B606" t="s">
         <v>121</v>
@@ -8169,7 +8175,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B607" t="s">
         <v>121</v>
@@ -8177,7 +8183,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B608" t="s">
         <v>121</v>
@@ -8185,7 +8191,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B609" t="s">
         <v>121</v>
@@ -8193,7 +8199,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B610" t="s">
         <v>121</v>
@@ -8201,7 +8207,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B611" t="s">
         <v>121</v>
@@ -8209,7 +8215,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B612" t="s">
         <v>121</v>
@@ -8217,7 +8223,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B613" t="s">
         <v>121</v>
@@ -8225,7 +8231,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B614" t="s">
         <v>121</v>
@@ -8233,7 +8239,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B615" t="s">
         <v>121</v>
@@ -8241,7 +8247,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B616" t="s">
         <v>121</v>
@@ -8249,7 +8255,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B617" t="s">
         <v>121</v>
@@ -8257,7 +8263,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B618" t="s">
         <v>121</v>
@@ -8265,7 +8271,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B619" t="s">
         <v>121</v>
@@ -8273,7 +8279,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B620" t="s">
         <v>121</v>
@@ -8281,7 +8287,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B621" t="s">
         <v>121</v>
@@ -8289,7 +8295,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B622" t="s">
         <v>121</v>
@@ -8297,7 +8303,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B623" t="s">
         <v>121</v>
@@ -8305,7 +8311,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B624" t="s">
         <v>121</v>
@@ -8313,7 +8319,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B625" t="s">
         <v>121</v>
@@ -8321,7 +8327,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B626" t="s">
         <v>121</v>
@@ -8329,7 +8335,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B627" t="s">
         <v>121</v>
@@ -8337,7 +8343,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B628" t="s">
         <v>121</v>
@@ -8345,7 +8351,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B629" t="s">
         <v>121</v>
@@ -8353,7 +8359,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B630" t="s">
         <v>121</v>
@@ -8361,7 +8367,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B631" t="s">
         <v>121</v>
@@ -8369,7 +8375,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B632" t="s">
         <v>121</v>
@@ -8377,7 +8383,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B633" t="s">
         <v>121</v>
@@ -8385,7 +8391,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B634" t="s">
         <v>121</v>
@@ -8393,7 +8399,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B635" t="s">
         <v>121</v>
@@ -8401,7 +8407,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B636" t="s">
         <v>121</v>
@@ -8409,7 +8415,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B637" t="s">
         <v>121</v>
@@ -8417,7 +8423,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B638" t="s">
         <v>121</v>
@@ -8425,7 +8431,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B639" t="s">
         <v>121</v>
@@ -8433,7 +8439,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B640" t="s">
         <v>121</v>
@@ -8441,7 +8447,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>459</v>
+        <v>171</v>
       </c>
       <c r="B641" t="s">
         <v>121</v>
@@ -8449,7 +8455,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>460</v>
+        <v>172</v>
       </c>
       <c r="B642" t="s">
         <v>121</v>
@@ -8457,7 +8463,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B643" t="s">
         <v>121</v>
@@ -8465,7 +8471,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B644" t="s">
         <v>121</v>
@@ -8473,7 +8479,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B645" t="s">
         <v>121</v>
@@ -8481,7 +8487,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B646" t="s">
         <v>121</v>
@@ -8489,7 +8495,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B647" t="s">
         <v>121</v>
@@ -8497,7 +8503,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B648" t="s">
         <v>121</v>
@@ -8505,23 +8511,23 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>16</v>
+        <v>465</v>
       </c>
       <c r="B649" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>12</v>
+        <v>466</v>
       </c>
       <c r="B650" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B651" t="s">
         <v>13</v>
@@ -8529,7 +8535,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B652" t="s">
         <v>13</v>
@@ -8537,7 +8543,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B653" t="s">
         <v>13</v>
@@ -8545,7 +8551,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B654" t="s">
         <v>13</v>
@@ -8553,7 +8559,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B655" t="s">
         <v>13</v>
@@ -8561,7 +8567,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>756</v>
+        <v>20</v>
       </c>
       <c r="B656" t="s">
         <v>13</v>
@@ -8569,7 +8575,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B657" t="s">
         <v>13</v>
@@ -8577,7 +8583,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>35</v>
+        <v>756</v>
       </c>
       <c r="B658" t="s">
         <v>13</v>
@@ -8585,7 +8591,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B659" t="s">
         <v>13</v>
@@ -8593,7 +8599,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B660" t="s">
         <v>13</v>
@@ -8601,7 +8607,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>436</v>
+        <v>28</v>
       </c>
       <c r="B661" t="s">
         <v>13</v>
@@ -8609,15 +8615,15 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>437</v>
+        <v>36</v>
       </c>
       <c r="B662" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="663" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A663" s="5" t="s">
-        <v>867</v>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>436</v>
       </c>
       <c r="B663" t="s">
         <v>13</v>
@@ -8625,15 +8631,15 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B664" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A665" t="s">
-        <v>757</v>
+    <row r="665" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A665" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="B665" t="s">
         <v>13</v>
@@ -8641,7 +8647,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B666" t="s">
         <v>13</v>
@@ -8649,7 +8655,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>440</v>
+        <v>757</v>
       </c>
       <c r="B667" t="s">
         <v>13</v>
@@ -8657,7 +8663,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B668" t="s">
         <v>13</v>
@@ -8665,7 +8671,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B669" t="s">
         <v>13</v>
@@ -8673,7 +8679,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B670" t="s">
         <v>13</v>
@@ -8681,23 +8687,23 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="B671" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>2</v>
+        <v>443</v>
       </c>
       <c r="B672" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="B673" t="s">
         <v>3</v>
@@ -8705,7 +8711,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B674" t="s">
         <v>3</v>
@@ -8713,7 +8719,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B675" t="s">
         <v>3</v>
@@ -8721,7 +8727,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B676" t="s">
         <v>3</v>
@@ -8729,7 +8735,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B677" t="s">
         <v>3</v>
@@ -8737,7 +8743,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B678" t="s">
         <v>3</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B679" t="s">
         <v>3</v>
@@ -8753,7 +8759,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B680" t="s">
         <v>3</v>
@@ -8761,7 +8767,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B681" t="s">
         <v>3</v>
@@ -8769,7 +8775,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B682" t="s">
         <v>3</v>
@@ -8777,7 +8783,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B683" t="s">
         <v>3</v>
@@ -8785,7 +8791,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B684" t="s">
         <v>3</v>
@@ -8793,7 +8799,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B685" t="s">
         <v>3</v>
@@ -8801,7 +8807,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B686" t="s">
         <v>3</v>
@@ -8809,7 +8815,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B687" t="s">
         <v>3</v>
@@ -8817,7 +8823,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B688" t="s">
         <v>3</v>
@@ -8825,7 +8831,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B689" t="s">
         <v>3</v>
@@ -8833,7 +8839,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B690" t="s">
         <v>3</v>
@@ -8841,7 +8847,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B691" t="s">
         <v>3</v>
@@ -8849,7 +8855,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B692" t="s">
         <v>3</v>
@@ -8857,7 +8863,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B693" t="s">
         <v>3</v>
@@ -8865,7 +8871,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="B694" t="s">
         <v>3</v>
@@ -8873,7 +8879,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="B695" t="s">
         <v>3</v>
@@ -8881,7 +8887,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B696" t="s">
         <v>3</v>
@@ -8889,7 +8895,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B697" t="s">
         <v>3</v>
@@ -8897,7 +8903,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B698" t="s">
         <v>3</v>
@@ -8905,7 +8911,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B699" t="s">
         <v>3</v>
@@ -8913,7 +8919,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B700" t="s">
         <v>3</v>
@@ -8921,7 +8927,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B701" t="s">
         <v>3</v>
@@ -8929,7 +8935,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>752</v>
+        <v>426</v>
       </c>
       <c r="B702" t="s">
         <v>3</v>
@@ -8937,7 +8943,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>753</v>
+        <v>427</v>
       </c>
       <c r="B703" t="s">
         <v>3</v>
@@ -8945,7 +8951,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B704" t="s">
         <v>3</v>
@@ -8953,7 +8959,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B705" t="s">
         <v>3</v>
@@ -8961,7 +8967,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>840</v>
+        <v>754</v>
       </c>
       <c r="B706" t="s">
         <v>3</v>
@@ -8969,7 +8975,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>841</v>
+        <v>755</v>
       </c>
       <c r="B707" t="s">
         <v>3</v>
@@ -8977,23 +8983,23 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>310</v>
+        <v>840</v>
       </c>
       <c r="B708" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>311</v>
+        <v>841</v>
       </c>
       <c r="B709" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B710" t="s">
         <v>50</v>
@@ -9001,7 +9007,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="B711" t="s">
         <v>50</v>
@@ -9009,7 +9015,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="B712" t="s">
         <v>50</v>
@@ -9017,7 +9023,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>52</v>
+        <v>409</v>
       </c>
       <c r="B713" t="s">
         <v>50</v>
@@ -9025,7 +9031,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B714" t="s">
         <v>50</v>
@@ -9033,7 +9039,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B715" t="s">
         <v>50</v>
@@ -9041,7 +9047,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B716" t="s">
         <v>50</v>
@@ -9049,7 +9055,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B717" t="s">
         <v>50</v>
@@ -9057,7 +9063,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B718" t="s">
         <v>50</v>
@@ -9065,7 +9071,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B719" t="s">
         <v>50</v>
@@ -9073,7 +9079,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B720" t="s">
         <v>50</v>
@@ -9081,7 +9087,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B721" t="s">
         <v>50</v>
@@ -9089,7 +9095,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B722" t="s">
         <v>50</v>
@@ -9097,7 +9103,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B723" t="s">
         <v>50</v>
@@ -9105,7 +9111,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B724" t="s">
         <v>50</v>
@@ -9113,7 +9119,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B725" t="s">
         <v>50</v>
@@ -9121,7 +9127,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B726" t="s">
         <v>50</v>
@@ -9129,7 +9135,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B727" t="s">
         <v>50</v>
@@ -9137,7 +9143,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B728" t="s">
         <v>50</v>
@@ -9145,7 +9151,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B729" t="s">
         <v>50</v>
@@ -9153,7 +9159,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B730" t="s">
         <v>50</v>
@@ -9161,7 +9167,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B731" t="s">
         <v>50</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B732" t="s">
         <v>50</v>
@@ -9177,7 +9183,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B733" t="s">
         <v>50</v>
@@ -9185,7 +9191,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B734" t="s">
         <v>50</v>
@@ -9193,7 +9199,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B735" t="s">
         <v>50</v>
@@ -9201,7 +9207,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B736" t="s">
         <v>50</v>
@@ -9209,7 +9215,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B737" t="s">
         <v>50</v>
@@ -9217,7 +9223,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B738" t="s">
         <v>50</v>
@@ -9225,7 +9231,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B739" t="s">
         <v>50</v>
@@ -9233,7 +9239,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B740" t="s">
         <v>50</v>
@@ -9241,7 +9247,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B741" t="s">
         <v>50</v>
@@ -9249,7 +9255,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B742" t="s">
         <v>50</v>
@@ -9257,7 +9263,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B743" t="s">
         <v>50</v>
@@ -9265,7 +9271,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B744" t="s">
         <v>50</v>
@@ -9273,7 +9279,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B745" t="s">
         <v>50</v>
@@ -9281,7 +9287,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B746" t="s">
         <v>50</v>
@@ -9289,7 +9295,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B747" t="s">
         <v>50</v>
@@ -9297,7 +9303,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B748" t="s">
         <v>50</v>
@@ -9305,7 +9311,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B749" t="s">
         <v>50</v>
@@ -9313,7 +9319,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>313</v>
+        <v>87</v>
       </c>
       <c r="B750" t="s">
         <v>50</v>
@@ -9321,7 +9327,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="B751" t="s">
         <v>50</v>
@@ -9329,7 +9335,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B752" t="s">
         <v>50</v>
@@ -9337,7 +9343,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B753" t="s">
         <v>50</v>
@@ -9345,7 +9351,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B754" t="s">
         <v>50</v>
@@ -9353,7 +9359,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B755" t="s">
         <v>50</v>
@@ -9361,7 +9367,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B756" t="s">
         <v>50</v>
@@ -9369,7 +9375,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B757" t="s">
         <v>50</v>
@@ -9377,7 +9383,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B758" t="s">
         <v>50</v>
@@ -9385,7 +9391,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B759" t="s">
         <v>50</v>
@@ -9393,7 +9399,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B760" t="s">
         <v>50</v>
@@ -9401,7 +9407,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B761" t="s">
         <v>50</v>
@@ -9409,7 +9415,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B762" t="s">
         <v>50</v>
@@ -9417,7 +9423,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B763" t="s">
         <v>50</v>
@@ -9425,7 +9431,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B764" t="s">
         <v>50</v>
@@ -9433,7 +9439,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B765" t="s">
         <v>50</v>
@@ -9441,7 +9447,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B766" t="s">
         <v>50</v>
@@ -9449,7 +9455,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B767" t="s">
         <v>50</v>
@@ -9457,7 +9463,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B768" t="s">
         <v>50</v>
@@ -9465,7 +9471,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B769" t="s">
         <v>50</v>
@@ -9473,7 +9479,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B770" t="s">
         <v>50</v>
@@ -9481,7 +9487,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B771" t="s">
         <v>50</v>
@@ -9489,7 +9495,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B772" t="s">
         <v>50</v>
@@ -9497,7 +9503,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B773" t="s">
         <v>50</v>
@@ -9505,7 +9511,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B774" t="s">
         <v>50</v>
@@ -9513,7 +9519,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B775" t="s">
         <v>50</v>
@@ -9521,7 +9527,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B776" t="s">
         <v>50</v>
@@ -9529,7 +9535,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>444</v>
+        <v>338</v>
       </c>
       <c r="B777" t="s">
         <v>50</v>
@@ -9537,7 +9543,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>445</v>
+        <v>339</v>
       </c>
       <c r="B778" t="s">
         <v>50</v>
@@ -9545,7 +9551,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B779" t="s">
         <v>50</v>
@@ -9553,7 +9559,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B780" t="s">
         <v>50</v>
@@ -9561,7 +9567,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B781" t="s">
         <v>50</v>
@@ -9569,7 +9575,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B782" t="s">
         <v>50</v>
@@ -9577,7 +9583,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B783" t="s">
         <v>50</v>
@@ -9585,7 +9591,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B784" t="s">
         <v>50</v>
@@ -9593,7 +9599,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>843</v>
+        <v>450</v>
       </c>
       <c r="B785" t="s">
         <v>50</v>
@@ -9601,23 +9607,23 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="B786" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>175</v>
+        <v>843</v>
       </c>
       <c r="B787" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B788" t="s">
         <v>174</v>
@@ -9625,7 +9631,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B789" t="s">
         <v>174</v>
@@ -9633,7 +9639,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B790" t="s">
         <v>174</v>
@@ -9641,7 +9647,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B791" t="s">
         <v>174</v>
@@ -9649,7 +9655,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B792" t="s">
         <v>174</v>
@@ -9657,7 +9663,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B793" t="s">
         <v>174</v>
@@ -9665,7 +9671,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B794" t="s">
         <v>174</v>
@@ -9673,7 +9679,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B795" t="s">
         <v>174</v>
@@ -9681,7 +9687,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B796" t="s">
         <v>174</v>
@@ -9689,7 +9695,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B797" t="s">
         <v>174</v>
@@ -9697,7 +9703,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B798" t="s">
         <v>174</v>
@@ -9705,7 +9711,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B799" t="s">
         <v>174</v>
@@ -9713,7 +9719,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B800" t="s">
         <v>174</v>
@@ -9721,7 +9727,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B801" t="s">
         <v>174</v>
@@ -9729,7 +9735,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B802" t="s">
         <v>174</v>
@@ -9737,7 +9743,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B803" t="s">
         <v>174</v>
@@ -9745,7 +9751,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B804" t="s">
         <v>174</v>
@@ -9753,7 +9759,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B805" t="s">
         <v>174</v>
@@ -9761,7 +9767,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B806" t="s">
         <v>174</v>
@@ -9769,7 +9775,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B807" t="s">
         <v>174</v>
@@ -9777,7 +9783,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B808" t="s">
         <v>174</v>
@@ -9785,7 +9791,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B809" t="s">
         <v>174</v>
@@ -9793,7 +9799,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B810" t="s">
         <v>174</v>
@@ -9801,7 +9807,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B811" t="s">
         <v>174</v>
@@ -9809,7 +9815,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B812" t="s">
         <v>174</v>
@@ -9817,7 +9823,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>760</v>
+        <v>199</v>
       </c>
       <c r="B813" t="s">
         <v>174</v>
@@ -9825,7 +9831,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>759</v>
+        <v>200</v>
       </c>
       <c r="B814" t="s">
         <v>174</v>
@@ -9833,7 +9839,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>201</v>
+        <v>760</v>
       </c>
       <c r="B815" t="s">
         <v>174</v>
@@ -9841,7 +9847,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>379</v>
+        <v>759</v>
       </c>
       <c r="B816" t="s">
         <v>174</v>
@@ -9849,7 +9855,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B817" t="s">
         <v>174</v>
@@ -9857,7 +9863,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="B818" t="s">
         <v>174</v>
@@ -9865,7 +9871,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B819" t="s">
         <v>174</v>
@@ -9873,7 +9879,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B820" t="s">
         <v>174</v>
@@ -9881,7 +9887,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B821" t="s">
         <v>174</v>
@@ -9889,7 +9895,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B822" t="s">
         <v>174</v>
@@ -9897,7 +9903,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B823" t="s">
         <v>174</v>
@@ -9905,7 +9911,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="B824" t="s">
         <v>174</v>
@@ -9913,7 +9919,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
       <c r="B825" t="s">
         <v>174</v>
@@ -9921,7 +9927,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B826" t="s">
         <v>174</v>
@@ -9929,7 +9935,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B827" t="s">
         <v>174</v>
@@ -9937,7 +9943,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B828" t="s">
         <v>174</v>
@@ -9945,7 +9951,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B829" t="s">
         <v>174</v>
@@ -9953,7 +9959,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B830" t="s">
         <v>174</v>
@@ -9961,7 +9967,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B831" t="s">
         <v>174</v>
@@ -9969,7 +9975,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B832" t="s">
         <v>174</v>
@@ -9977,7 +9983,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B833" t="s">
         <v>174</v>
@@ -9985,7 +9991,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B834" t="s">
         <v>174</v>
@@ -9993,7 +9999,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B835" t="s">
         <v>174</v>
@@ -10001,7 +10007,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B836" t="s">
         <v>174</v>
@@ -10009,7 +10015,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B837" t="s">
         <v>174</v>
@@ -10017,7 +10023,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="B838" t="s">
         <v>174</v>
@@ -10025,7 +10031,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="B839" t="s">
         <v>174</v>
@@ -10033,7 +10039,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B840" t="s">
         <v>174</v>
@@ -10041,7 +10047,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B841" t="s">
         <v>174</v>
@@ -10049,7 +10055,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B842" t="s">
         <v>174</v>
@@ -10057,7 +10063,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B843" t="s">
         <v>174</v>
@@ -10065,7 +10071,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B844" t="s">
         <v>174</v>
@@ -10073,23 +10079,23 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>209</v>
+        <v>472</v>
       </c>
       <c r="B845" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>211</v>
+        <v>473</v>
       </c>
       <c r="B846" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B847" t="s">
         <v>210</v>
@@ -10097,7 +10103,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B848" t="s">
         <v>210</v>
@@ -10105,7 +10111,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B849" t="s">
         <v>210</v>
@@ -10113,7 +10119,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B850" t="s">
         <v>210</v>
@@ -10121,7 +10127,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B851" t="s">
         <v>210</v>
@@ -10129,7 +10135,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B852" t="s">
         <v>210</v>
@@ -10137,7 +10143,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B853" t="s">
         <v>210</v>
@@ -10145,7 +10151,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B854" t="s">
         <v>210</v>
@@ -10153,7 +10159,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B855" t="s">
         <v>210</v>
@@ -10161,7 +10167,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B856" t="s">
         <v>210</v>
@@ -10169,7 +10175,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B857" t="s">
         <v>210</v>
@@ -10177,7 +10183,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B858" t="s">
         <v>210</v>
@@ -10185,7 +10191,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B859" t="s">
         <v>210</v>
@@ -10193,7 +10199,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B860" t="s">
         <v>210</v>
@@ -10201,7 +10207,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B861" t="s">
         <v>210</v>
@@ -10209,7 +10215,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B862" t="s">
         <v>210</v>
@@ -10217,7 +10223,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B863" t="s">
         <v>210</v>
@@ -10225,7 +10231,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B864" t="s">
         <v>210</v>
@@ -10233,7 +10239,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B865" t="s">
         <v>210</v>
@@ -10241,7 +10247,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B866" t="s">
         <v>210</v>
@@ -10249,7 +10255,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B867" t="s">
         <v>210</v>
@@ -10257,7 +10263,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B868" t="s">
         <v>210</v>
@@ -10265,7 +10271,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B869" t="s">
         <v>210</v>
@@ -10273,7 +10279,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B870" t="s">
         <v>210</v>
@@ -10281,7 +10287,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B871" t="s">
         <v>210</v>
@@ -10289,7 +10295,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B872" t="s">
         <v>210</v>
@@ -10297,7 +10303,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B873" t="s">
         <v>210</v>
@@ -10305,7 +10311,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B874" t="s">
         <v>210</v>
@@ -10313,7 +10319,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B875" t="s">
         <v>210</v>
@@ -10321,7 +10327,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B876" t="s">
         <v>210</v>
@@ -10329,7 +10335,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B877" t="s">
         <v>210</v>
@@ -10337,7 +10343,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B878" t="s">
         <v>210</v>
@@ -10345,7 +10351,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B879" t="s">
         <v>210</v>
@@ -10353,7 +10359,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B880" t="s">
         <v>210</v>
@@ -10361,7 +10367,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B881" t="s">
         <v>210</v>
@@ -10369,7 +10375,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B882" t="s">
         <v>210</v>
@@ -10377,7 +10383,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B883" t="s">
         <v>210</v>
@@ -10385,7 +10391,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B884" t="s">
         <v>210</v>
@@ -10393,7 +10399,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B885" t="s">
         <v>210</v>
@@ -10401,7 +10407,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B886" t="s">
         <v>210</v>
@@ -10409,15 +10415,15 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B887" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="888" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A888" s="4" t="s">
-        <v>761</v>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>251</v>
       </c>
       <c r="B888" t="s">
         <v>210</v>
@@ -10425,15 +10431,15 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B889" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A890" t="s">
-        <v>254</v>
+    <row r="890" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A890" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="B890" t="s">
         <v>210</v>
@@ -10441,7 +10447,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B891" t="s">
         <v>210</v>
@@ -10449,7 +10455,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B892" t="s">
         <v>210</v>
@@ -10457,7 +10463,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B893" t="s">
         <v>210</v>
@@ -10465,7 +10471,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B894" t="s">
         <v>210</v>
@@ -10473,7 +10479,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B895" t="s">
         <v>210</v>
@@ -10481,7 +10487,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B896" t="s">
         <v>210</v>
@@ -10489,7 +10495,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B897" t="s">
         <v>210</v>
@@ -10497,7 +10503,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B898" t="s">
         <v>210</v>
@@ -10505,7 +10511,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B899" t="s">
         <v>210</v>
@@ -10513,7 +10519,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B900" t="s">
         <v>210</v>
@@ -10521,7 +10527,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B901" t="s">
         <v>210</v>
@@ -10529,7 +10535,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B902" t="s">
         <v>210</v>
@@ -10537,7 +10543,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B903" t="s">
         <v>210</v>
@@ -10545,7 +10551,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B904" t="s">
         <v>210</v>
@@ -10553,7 +10559,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B905" t="s">
         <v>210</v>
@@ -10561,7 +10567,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B906" t="s">
         <v>210</v>
@@ -10569,7 +10575,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>474</v>
+        <v>269</v>
       </c>
       <c r="B907" t="s">
         <v>210</v>
@@ -10577,7 +10583,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>475</v>
+        <v>270</v>
       </c>
       <c r="B908" t="s">
         <v>210</v>
@@ -10585,7 +10591,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B909" t="s">
         <v>210</v>
@@ -10593,7 +10599,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B910" t="s">
         <v>210</v>
@@ -10601,7 +10607,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B911" t="s">
         <v>210</v>
@@ -10609,7 +10615,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B912" t="s">
         <v>210</v>
@@ -10617,7 +10623,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B913" t="s">
         <v>210</v>
@@ -10625,7 +10631,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B914" t="s">
         <v>210</v>
@@ -10633,31 +10639,31 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="B915" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>39</v>
+        <v>481</v>
       </c>
       <c r="B916" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B917" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A918" s="1" t="s">
-        <v>41</v>
+      <c r="A918" t="s">
+        <v>39</v>
       </c>
       <c r="B918" t="s">
         <v>38</v>
@@ -10665,31 +10671,31 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B919" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A920" t="s">
-        <v>43</v>
+      <c r="A920" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B920" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A921" s="1" t="s">
-        <v>44</v>
+      <c r="A921" t="s">
+        <v>42</v>
       </c>
       <c r="B921" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A922" s="1" t="s">
-        <v>869</v>
+      <c r="A922" t="s">
+        <v>43</v>
       </c>
       <c r="B922" t="s">
         <v>38</v>
@@ -10697,7 +10703,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
-        <v>868</v>
+        <v>44</v>
       </c>
       <c r="B923" t="s">
         <v>38</v>
@@ -10705,7 +10711,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
-        <v>45</v>
+        <v>869</v>
       </c>
       <c r="B924" t="s">
         <v>38</v>
@@ -10713,7 +10719,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
-        <v>46</v>
+        <v>868</v>
       </c>
       <c r="B925" t="s">
         <v>38</v>
@@ -10721,23 +10727,23 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B926" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A927" t="s">
-        <v>48</v>
+      <c r="A927" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B927" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A928" t="s">
-        <v>49</v>
+      <c r="A928" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B928" t="s">
         <v>38</v>
@@ -10745,7 +10751,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>428</v>
+        <v>48</v>
       </c>
       <c r="B929" t="s">
         <v>38</v>
@@ -10753,7 +10759,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>429</v>
+        <v>49</v>
       </c>
       <c r="B930" t="s">
         <v>38</v>
@@ -10761,7 +10767,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B931" t="s">
         <v>38</v>
@@ -10769,7 +10775,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B932" t="s">
         <v>38</v>
@@ -10777,7 +10783,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B933" t="s">
         <v>38</v>
@@ -10785,7 +10791,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B934" t="s">
         <v>38</v>
@@ -10793,7 +10799,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B935" t="s">
         <v>38</v>
@@ -10801,7 +10807,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B936" t="s">
         <v>38</v>
@@ -10809,23 +10815,39 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>758</v>
+        <v>434</v>
       </c>
       <c r="B937" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A938" s="1" t="s">
-        <v>842</v>
+      <c r="A938" t="s">
+        <v>435</v>
       </c>
       <c r="B938" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>758</v>
+      </c>
+      <c r="B939" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B940" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1717">
-    <sortCondition ref="B2:B1717"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B1719">
+    <sortCondition ref="B2:B1719"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
